--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>KUBTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16819400</v>
+        <v>17837200</v>
       </c>
       <c r="E8" s="3">
-        <v>15916900</v>
+        <v>17189400</v>
       </c>
       <c r="F8" s="3">
-        <v>14508500</v>
+        <v>16267100</v>
       </c>
       <c r="G8" s="3">
-        <v>11315000</v>
+        <v>14827700</v>
       </c>
       <c r="H8" s="3">
-        <v>14425300</v>
+        <v>11564000</v>
       </c>
       <c r="I8" s="3">
-        <v>13713100</v>
+        <v>14742600</v>
       </c>
       <c r="J8" s="3">
+        <v>14014800</v>
+      </c>
+      <c r="K8" s="3">
         <v>10613700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8941100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12025400</v>
+        <v>12635500</v>
       </c>
       <c r="E9" s="3">
-        <v>22536500</v>
+        <v>12290000</v>
       </c>
       <c r="F9" s="3">
-        <v>10203900</v>
+        <v>23032300</v>
       </c>
       <c r="G9" s="3">
-        <v>7711900</v>
+        <v>10428500</v>
       </c>
       <c r="H9" s="3">
-        <v>10042300</v>
+        <v>7881600</v>
       </c>
       <c r="I9" s="3">
-        <v>9608200</v>
+        <v>10263200</v>
       </c>
       <c r="J9" s="3">
+        <v>9819600</v>
+      </c>
+      <c r="K9" s="3">
         <v>7709700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6526900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4793900</v>
+        <v>5201700</v>
       </c>
       <c r="E10" s="3">
-        <v>-6619500</v>
+        <v>4899400</v>
       </c>
       <c r="F10" s="3">
-        <v>4304500</v>
+        <v>-6765200</v>
       </c>
       <c r="G10" s="3">
-        <v>3603100</v>
+        <v>4399200</v>
       </c>
       <c r="H10" s="3">
-        <v>4383000</v>
+        <v>3682400</v>
       </c>
       <c r="I10" s="3">
-        <v>4104900</v>
+        <v>4479400</v>
       </c>
       <c r="J10" s="3">
+        <v>4195200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2904100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2414300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,39 +888,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-18200</v>
+        <v>-12200</v>
       </c>
       <c r="E14" s="3">
-        <v>8100</v>
+        <v>-18600</v>
       </c>
       <c r="F14" s="3">
-        <v>1800</v>
+        <v>8200</v>
       </c>
       <c r="G14" s="3">
-        <v>40900</v>
+        <v>1900</v>
       </c>
       <c r="H14" s="3">
-        <v>-6700</v>
+        <v>41800</v>
       </c>
       <c r="I14" s="3">
-        <v>14700</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>-6800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22800</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,12 +951,15 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15098500</v>
+        <v>15963800</v>
       </c>
       <c r="E17" s="3">
-        <v>14099400</v>
+        <v>15430700</v>
       </c>
       <c r="F17" s="3">
-        <v>12792500</v>
+        <v>14409600</v>
       </c>
       <c r="G17" s="3">
-        <v>9798100</v>
+        <v>13073900</v>
       </c>
       <c r="H17" s="3">
-        <v>12569600</v>
+        <v>10013700</v>
       </c>
       <c r="I17" s="3">
-        <v>11873000</v>
+        <v>12846100</v>
       </c>
       <c r="J17" s="3">
+        <v>12134200</v>
+      </c>
+      <c r="K17" s="3">
         <v>9585100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8026500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1720900</v>
+        <v>1873400</v>
       </c>
       <c r="E18" s="3">
-        <v>1817600</v>
+        <v>1758700</v>
       </c>
       <c r="F18" s="3">
-        <v>1716000</v>
+        <v>1857600</v>
       </c>
       <c r="G18" s="3">
-        <v>1516900</v>
+        <v>1753700</v>
       </c>
       <c r="H18" s="3">
-        <v>1855700</v>
+        <v>1550300</v>
       </c>
       <c r="I18" s="3">
-        <v>1840100</v>
+        <v>1896500</v>
       </c>
       <c r="J18" s="3">
+        <v>1880600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1028600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>914600</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>81400</v>
+        <v>78200</v>
       </c>
       <c r="E20" s="3">
-        <v>136100</v>
+        <v>83200</v>
       </c>
       <c r="F20" s="3">
-        <v>79100</v>
+        <v>139100</v>
       </c>
       <c r="G20" s="3">
-        <v>30300</v>
+        <v>80800</v>
       </c>
       <c r="H20" s="3">
-        <v>75400</v>
+        <v>30900</v>
       </c>
       <c r="I20" s="3">
-        <v>94200</v>
+        <v>77100</v>
       </c>
       <c r="J20" s="3">
+        <v>96300</v>
+      </c>
+      <c r="K20" s="3">
         <v>78000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2254300</v>
+        <v>2529200</v>
       </c>
       <c r="E21" s="3">
-        <v>2364800</v>
+        <v>2302400</v>
       </c>
       <c r="F21" s="3">
-        <v>2190100</v>
+        <v>2415500</v>
       </c>
       <c r="G21" s="3">
-        <v>1831300</v>
+        <v>2237000</v>
       </c>
       <c r="H21" s="3">
-        <v>2279500</v>
+        <v>1870600</v>
       </c>
       <c r="I21" s="3">
-        <v>2256300</v>
+        <v>2328400</v>
       </c>
       <c r="J21" s="3">
+        <v>2304800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1373100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1124200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="E22" s="3">
-        <v>8300</v>
+        <v>9700</v>
       </c>
       <c r="F22" s="3">
-        <v>4600</v>
+        <v>8500</v>
       </c>
       <c r="G22" s="3">
-        <v>6300</v>
+        <v>4700</v>
       </c>
       <c r="H22" s="3">
-        <v>10800</v>
+        <v>6500</v>
       </c>
       <c r="I22" s="3">
-        <v>13600</v>
+        <v>11000</v>
       </c>
       <c r="J22" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K22" s="3">
         <v>11600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16800</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1792800</v>
+        <v>1941800</v>
       </c>
       <c r="E23" s="3">
-        <v>1945300</v>
+        <v>1832300</v>
       </c>
       <c r="F23" s="3">
-        <v>1790500</v>
+        <v>1988100</v>
       </c>
       <c r="G23" s="3">
-        <v>1540800</v>
+        <v>1829900</v>
       </c>
       <c r="H23" s="3">
-        <v>1920300</v>
+        <v>1574700</v>
       </c>
       <c r="I23" s="3">
-        <v>1920700</v>
+        <v>1962600</v>
       </c>
       <c r="J23" s="3">
+        <v>1962900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1095000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>895300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>446500</v>
+        <v>492400</v>
       </c>
       <c r="E24" s="3">
-        <v>570500</v>
+        <v>456300</v>
       </c>
       <c r="F24" s="3">
-        <v>514000</v>
+        <v>583000</v>
       </c>
       <c r="G24" s="3">
-        <v>493200</v>
+        <v>525300</v>
       </c>
       <c r="H24" s="3">
-        <v>556400</v>
+        <v>504100</v>
       </c>
       <c r="I24" s="3">
-        <v>653700</v>
+        <v>568600</v>
       </c>
       <c r="J24" s="3">
+        <v>668100</v>
+      </c>
+      <c r="K24" s="3">
         <v>370300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>324200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1346300</v>
+        <v>1449400</v>
       </c>
       <c r="E26" s="3">
-        <v>1374800</v>
+        <v>1376000</v>
       </c>
       <c r="F26" s="3">
-        <v>1276500</v>
+        <v>1405100</v>
       </c>
       <c r="G26" s="3">
-        <v>1047600</v>
+        <v>1304500</v>
       </c>
       <c r="H26" s="3">
-        <v>1364000</v>
+        <v>1070600</v>
       </c>
       <c r="I26" s="3">
-        <v>1266900</v>
+        <v>1394000</v>
       </c>
       <c r="J26" s="3">
+        <v>1294800</v>
+      </c>
+      <c r="K26" s="3">
         <v>724700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>571100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1259800</v>
+        <v>1384700</v>
       </c>
       <c r="E27" s="3">
-        <v>1254800</v>
+        <v>1287500</v>
       </c>
       <c r="F27" s="3">
-        <v>1204300</v>
+        <v>1282400</v>
       </c>
       <c r="G27" s="3">
-        <v>1000900</v>
+        <v>1230800</v>
       </c>
       <c r="H27" s="3">
-        <v>1272700</v>
+        <v>1022900</v>
       </c>
       <c r="I27" s="3">
-        <v>1196800</v>
+        <v>1300700</v>
       </c>
       <c r="J27" s="3">
+        <v>1223100</v>
+      </c>
+      <c r="K27" s="3">
         <v>669800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>546000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,20 +1344,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>-94700</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-96800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-81400</v>
+        <v>-78200</v>
       </c>
       <c r="E32" s="3">
-        <v>-136100</v>
+        <v>-83200</v>
       </c>
       <c r="F32" s="3">
-        <v>-79100</v>
+        <v>-139100</v>
       </c>
       <c r="G32" s="3">
-        <v>-30300</v>
+        <v>-80800</v>
       </c>
       <c r="H32" s="3">
-        <v>-75400</v>
+        <v>-30900</v>
       </c>
       <c r="I32" s="3">
-        <v>-94200</v>
+        <v>-77100</v>
       </c>
       <c r="J32" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-78000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1259800</v>
+        <v>1384700</v>
       </c>
       <c r="E33" s="3">
-        <v>1160100</v>
+        <v>1287500</v>
       </c>
       <c r="F33" s="3">
-        <v>1204300</v>
+        <v>1185600</v>
       </c>
       <c r="G33" s="3">
-        <v>1000900</v>
+        <v>1230800</v>
       </c>
       <c r="H33" s="3">
-        <v>1272700</v>
+        <v>1022900</v>
       </c>
       <c r="I33" s="3">
-        <v>1196800</v>
+        <v>1300700</v>
       </c>
       <c r="J33" s="3">
+        <v>1223100</v>
+      </c>
+      <c r="K33" s="3">
         <v>669800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>546000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1259800</v>
+        <v>1384700</v>
       </c>
       <c r="E35" s="3">
-        <v>1160100</v>
+        <v>1287500</v>
       </c>
       <c r="F35" s="3">
-        <v>1204300</v>
+        <v>1185600</v>
       </c>
       <c r="G35" s="3">
-        <v>1000900</v>
+        <v>1230800</v>
       </c>
       <c r="H35" s="3">
-        <v>1272700</v>
+        <v>1022900</v>
       </c>
       <c r="I35" s="3">
-        <v>1196800</v>
+        <v>1300700</v>
       </c>
       <c r="J35" s="3">
+        <v>1223100</v>
+      </c>
+      <c r="K35" s="3">
         <v>669800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>546000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,278 +1646,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2082700</v>
+        <v>1852900</v>
       </c>
       <c r="E41" s="3">
-        <v>4194500</v>
+        <v>2126300</v>
       </c>
       <c r="F41" s="3">
-        <v>1540000</v>
+        <v>4282200</v>
       </c>
       <c r="G41" s="3">
-        <v>1329700</v>
+        <v>1572200</v>
       </c>
       <c r="H41" s="3">
-        <v>1027300</v>
+        <v>1357500</v>
       </c>
       <c r="I41" s="3">
-        <v>791000</v>
+        <v>1048800</v>
       </c>
       <c r="J41" s="3">
+        <v>807600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1004800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>892000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>494300</v>
+        <v>667900</v>
       </c>
       <c r="E42" s="3">
-        <v>484300</v>
+        <v>504600</v>
       </c>
       <c r="F42" s="3">
-        <v>55400</v>
+        <v>494400</v>
       </c>
       <c r="G42" s="3">
-        <v>69000</v>
+        <v>56500</v>
       </c>
       <c r="H42" s="3">
-        <v>82600</v>
+        <v>70500</v>
       </c>
       <c r="I42" s="3">
-        <v>42100</v>
+        <v>84300</v>
       </c>
       <c r="J42" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K42" s="3">
         <v>38800</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8472600</v>
+        <v>9120500</v>
       </c>
       <c r="E43" s="3">
-        <v>22384600</v>
+        <v>8649700</v>
       </c>
       <c r="F43" s="3">
-        <v>7971900</v>
+        <v>22852400</v>
       </c>
       <c r="G43" s="3">
-        <v>7741700</v>
+        <v>8138500</v>
       </c>
       <c r="H43" s="3">
-        <v>8064700</v>
+        <v>7903500</v>
       </c>
       <c r="I43" s="3">
-        <v>6951100</v>
+        <v>8233300</v>
       </c>
       <c r="J43" s="3">
+        <v>7096300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5510400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4425400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3369600</v>
+        <v>3548700</v>
       </c>
       <c r="E44" s="3">
-        <v>6557300</v>
+        <v>3440100</v>
       </c>
       <c r="F44" s="3">
-        <v>3237700</v>
+        <v>6694300</v>
       </c>
       <c r="G44" s="3">
-        <v>6480100</v>
+        <v>3305400</v>
       </c>
       <c r="H44" s="3">
-        <v>3072700</v>
+        <v>6615500</v>
       </c>
       <c r="I44" s="3">
-        <v>2724900</v>
+        <v>3136900</v>
       </c>
       <c r="J44" s="3">
+        <v>2781800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2104200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1792400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>484000</v>
+        <v>761300</v>
       </c>
       <c r="E45" s="3">
-        <v>1494300</v>
+        <v>494200</v>
       </c>
       <c r="F45" s="3">
-        <v>1403400</v>
+        <v>1525600</v>
       </c>
       <c r="G45" s="3">
-        <v>2411500</v>
+        <v>1432700</v>
       </c>
       <c r="H45" s="3">
-        <v>869600</v>
+        <v>2461900</v>
       </c>
       <c r="I45" s="3">
-        <v>707700</v>
+        <v>887800</v>
       </c>
       <c r="J45" s="3">
+        <v>722500</v>
+      </c>
+      <c r="K45" s="3">
         <v>565200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>571800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14903300</v>
+        <v>15951200</v>
       </c>
       <c r="E46" s="3">
-        <v>14620600</v>
+        <v>15214800</v>
       </c>
       <c r="F46" s="3">
-        <v>14208300</v>
+        <v>14926200</v>
       </c>
       <c r="G46" s="3">
-        <v>13551800</v>
+        <v>14505300</v>
       </c>
       <c r="H46" s="3">
-        <v>13117000</v>
+        <v>13835100</v>
       </c>
       <c r="I46" s="3">
-        <v>11216700</v>
+        <v>13391200</v>
       </c>
       <c r="J46" s="3">
+        <v>11451200</v>
+      </c>
+      <c r="K46" s="3">
         <v>9223400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7681500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1652600</v>
+        <v>1695100</v>
       </c>
       <c r="E47" s="3">
-        <v>2608500</v>
+        <v>1687200</v>
       </c>
       <c r="F47" s="3">
-        <v>614500</v>
+        <v>2663000</v>
       </c>
       <c r="G47" s="3">
-        <v>807100</v>
+        <v>627400</v>
       </c>
       <c r="H47" s="3">
-        <v>560300</v>
+        <v>824000</v>
       </c>
       <c r="I47" s="3">
-        <v>525300</v>
+        <v>572000</v>
       </c>
       <c r="J47" s="3">
+        <v>536300</v>
+      </c>
+      <c r="K47" s="3">
         <v>460200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2873400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3000000</v>
+        <v>3761600</v>
       </c>
       <c r="E48" s="3">
-        <v>8887500</v>
+        <v>3062700</v>
       </c>
       <c r="F48" s="3">
-        <v>2856400</v>
+        <v>9073200</v>
       </c>
       <c r="G48" s="3">
-        <v>2598600</v>
+        <v>2916100</v>
       </c>
       <c r="H48" s="3">
-        <v>2700500</v>
+        <v>2652900</v>
       </c>
       <c r="I48" s="3">
-        <v>2569800</v>
+        <v>2757000</v>
       </c>
       <c r="J48" s="3">
+        <v>2623500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2322700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1996300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>454000</v>
+        <v>566000</v>
       </c>
       <c r="E49" s="3">
-        <v>1288700</v>
+        <v>463500</v>
       </c>
       <c r="F49" s="3">
-        <v>418700</v>
+        <v>1315600</v>
       </c>
       <c r="G49" s="3">
-        <v>535000</v>
+        <v>427400</v>
       </c>
       <c r="H49" s="3">
-        <v>315400</v>
+        <v>546200</v>
       </c>
       <c r="I49" s="3">
-        <v>314800</v>
+        <v>322000</v>
       </c>
       <c r="J49" s="3">
+        <v>321300</v>
+      </c>
+      <c r="K49" s="3">
         <v>262700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>238600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6311600</v>
+        <v>7158900</v>
       </c>
       <c r="E52" s="3">
-        <v>12949800</v>
+        <v>6443500</v>
       </c>
       <c r="F52" s="3">
-        <v>6177700</v>
+        <v>13220500</v>
       </c>
       <c r="G52" s="3">
-        <v>6039400</v>
+        <v>6306800</v>
       </c>
       <c r="H52" s="3">
-        <v>5821100</v>
+        <v>6165700</v>
       </c>
       <c r="I52" s="3">
-        <v>4504800</v>
+        <v>5942700</v>
       </c>
       <c r="J52" s="3">
+        <v>4599000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3580900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>405700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26321500</v>
+        <v>29132900</v>
       </c>
       <c r="E54" s="3">
-        <v>25746200</v>
+        <v>26871700</v>
       </c>
       <c r="F54" s="3">
-        <v>24275600</v>
+        <v>26284300</v>
       </c>
       <c r="G54" s="3">
-        <v>23024300</v>
+        <v>24783000</v>
       </c>
       <c r="H54" s="3">
-        <v>22514300</v>
+        <v>23505600</v>
       </c>
       <c r="I54" s="3">
-        <v>19131300</v>
+        <v>22984900</v>
       </c>
       <c r="J54" s="3">
+        <v>19531200</v>
+      </c>
+      <c r="K54" s="3">
         <v>15850000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13195600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2788400</v>
+        <v>2726200</v>
       </c>
       <c r="E57" s="3">
-        <v>5201700</v>
+        <v>2846700</v>
       </c>
       <c r="F57" s="3">
-        <v>2325800</v>
+        <v>5310400</v>
       </c>
       <c r="G57" s="3">
-        <v>2366400</v>
+        <v>2374400</v>
       </c>
       <c r="H57" s="3">
-        <v>2075500</v>
+        <v>2415900</v>
       </c>
       <c r="I57" s="3">
-        <v>2188000</v>
+        <v>2118900</v>
       </c>
       <c r="J57" s="3">
+        <v>2233800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2209100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1765800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3178400</v>
+        <v>3587100</v>
       </c>
       <c r="E58" s="3">
-        <v>9918400</v>
+        <v>3244800</v>
       </c>
       <c r="F58" s="3">
-        <v>3082400</v>
+        <v>10125700</v>
       </c>
       <c r="G58" s="3">
-        <v>3130000</v>
+        <v>3146800</v>
       </c>
       <c r="H58" s="3">
-        <v>2614600</v>
+        <v>3195400</v>
       </c>
       <c r="I58" s="3">
-        <v>2466500</v>
+        <v>2669300</v>
       </c>
       <c r="J58" s="3">
+        <v>2518000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1701300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1718500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2421600</v>
+        <v>2982900</v>
       </c>
       <c r="E59" s="3">
-        <v>4878000</v>
+        <v>2472200</v>
       </c>
       <c r="F59" s="3">
-        <v>2196700</v>
+        <v>4980000</v>
       </c>
       <c r="G59" s="3">
-        <v>1897800</v>
+        <v>2242600</v>
       </c>
       <c r="H59" s="3">
-        <v>1947300</v>
+        <v>1937500</v>
       </c>
       <c r="I59" s="3">
-        <v>1880500</v>
+        <v>1988000</v>
       </c>
       <c r="J59" s="3">
+        <v>1919800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1496900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1269900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8388500</v>
+        <v>9296200</v>
       </c>
       <c r="E60" s="3">
-        <v>8339600</v>
+        <v>8563800</v>
       </c>
       <c r="F60" s="3">
-        <v>7604800</v>
+        <v>8514000</v>
       </c>
       <c r="G60" s="3">
-        <v>7343800</v>
+        <v>7763800</v>
       </c>
       <c r="H60" s="3">
-        <v>6637500</v>
+        <v>7497300</v>
       </c>
       <c r="I60" s="3">
-        <v>6535000</v>
+        <v>6776200</v>
       </c>
       <c r="J60" s="3">
+        <v>6671600</v>
+      </c>
+      <c r="K60" s="3">
         <v>5407200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4754200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4468300</v>
+        <v>4792600</v>
       </c>
       <c r="E61" s="3">
-        <v>4277900</v>
+        <v>4561700</v>
       </c>
       <c r="F61" s="3">
-        <v>4353100</v>
+        <v>4367300</v>
       </c>
       <c r="G61" s="3">
-        <v>3857500</v>
+        <v>4444100</v>
       </c>
       <c r="H61" s="3">
-        <v>4362800</v>
+        <v>3938200</v>
       </c>
       <c r="I61" s="3">
-        <v>2868800</v>
+        <v>4454000</v>
       </c>
       <c r="J61" s="3">
+        <v>2928700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2484800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1635600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>498500</v>
+        <v>778800</v>
       </c>
       <c r="E62" s="3">
-        <v>1324700</v>
+        <v>508900</v>
       </c>
       <c r="F62" s="3">
-        <v>755800</v>
+        <v>1352400</v>
       </c>
       <c r="G62" s="3">
-        <v>746300</v>
+        <v>771600</v>
       </c>
       <c r="H62" s="3">
-        <v>793300</v>
+        <v>761900</v>
       </c>
       <c r="I62" s="3">
-        <v>632000</v>
+        <v>809900</v>
       </c>
       <c r="J62" s="3">
+        <v>645200</v>
+      </c>
+      <c r="K62" s="3">
         <v>589500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>532800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14142300</v>
+        <v>15743300</v>
       </c>
       <c r="E66" s="3">
-        <v>14010100</v>
+        <v>14437900</v>
       </c>
       <c r="F66" s="3">
-        <v>13378900</v>
+        <v>14303000</v>
       </c>
       <c r="G66" s="3">
-        <v>12658900</v>
+        <v>13658500</v>
       </c>
       <c r="H66" s="3">
-        <v>12506200</v>
+        <v>12923500</v>
       </c>
       <c r="I66" s="3">
-        <v>10633900</v>
+        <v>12767600</v>
       </c>
       <c r="J66" s="3">
+        <v>10856200</v>
+      </c>
+      <c r="K66" s="3">
         <v>8955100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7401000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10320700</v>
+        <v>11496300</v>
       </c>
       <c r="E72" s="3">
-        <v>19143400</v>
+        <v>10536500</v>
       </c>
       <c r="F72" s="3">
-        <v>8916800</v>
+        <v>19543500</v>
       </c>
       <c r="G72" s="3">
-        <v>8083800</v>
+        <v>9103100</v>
       </c>
       <c r="H72" s="3">
-        <v>7436400</v>
+        <v>8252800</v>
       </c>
       <c r="I72" s="3">
-        <v>6574600</v>
+        <v>7591800</v>
       </c>
       <c r="J72" s="3">
+        <v>6712000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5587500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5146800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12179200</v>
+        <v>13389500</v>
       </c>
       <c r="E76" s="3">
-        <v>11736000</v>
+        <v>12433800</v>
       </c>
       <c r="F76" s="3">
-        <v>10896700</v>
+        <v>11981400</v>
       </c>
       <c r="G76" s="3">
-        <v>10365400</v>
+        <v>11124500</v>
       </c>
       <c r="H76" s="3">
-        <v>10008100</v>
+        <v>10582100</v>
       </c>
       <c r="I76" s="3">
-        <v>8497400</v>
+        <v>10217300</v>
       </c>
       <c r="J76" s="3">
+        <v>8675000</v>
+      </c>
+      <c r="K76" s="3">
         <v>6894900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5794600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1259800</v>
+        <v>1384700</v>
       </c>
       <c r="E81" s="3">
-        <v>1160100</v>
+        <v>1287500</v>
       </c>
       <c r="F81" s="3">
-        <v>1204300</v>
+        <v>1185600</v>
       </c>
       <c r="G81" s="3">
-        <v>1000900</v>
+        <v>1230800</v>
       </c>
       <c r="H81" s="3">
-        <v>1272700</v>
+        <v>1022900</v>
       </c>
       <c r="I81" s="3">
-        <v>1196800</v>
+        <v>1300700</v>
       </c>
       <c r="J81" s="3">
+        <v>1223100</v>
+      </c>
+      <c r="K81" s="3">
         <v>669800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>546000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>451100</v>
+        <v>578200</v>
       </c>
       <c r="E83" s="3">
-        <v>410300</v>
+        <v>461000</v>
       </c>
       <c r="F83" s="3">
-        <v>394200</v>
+        <v>419300</v>
       </c>
       <c r="G83" s="3">
-        <v>283500</v>
+        <v>402900</v>
       </c>
       <c r="H83" s="3">
-        <v>347600</v>
+        <v>289800</v>
       </c>
       <c r="I83" s="3">
-        <v>321300</v>
+        <v>355200</v>
       </c>
       <c r="J83" s="3">
+        <v>328300</v>
+      </c>
+      <c r="K83" s="3">
         <v>265900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>212100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>810400</v>
+        <v>765600</v>
       </c>
       <c r="E89" s="3">
-        <v>1247000</v>
+        <v>828200</v>
       </c>
       <c r="F89" s="3">
-        <v>1681500</v>
+        <v>1274400</v>
       </c>
       <c r="G89" s="3">
-        <v>1791100</v>
+        <v>1718400</v>
       </c>
       <c r="H89" s="3">
-        <v>763600</v>
+        <v>1830500</v>
       </c>
       <c r="I89" s="3">
-        <v>757400</v>
+        <v>780400</v>
       </c>
       <c r="J89" s="3">
+        <v>774100</v>
+      </c>
+      <c r="K89" s="3">
         <v>463400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>708700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-576300</v>
+        <v>-708300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1116900</v>
+        <v>-588900</v>
       </c>
       <c r="F91" s="3">
-        <v>-510300</v>
+        <v>-1141500</v>
       </c>
       <c r="G91" s="3">
-        <v>-356900</v>
+        <v>-521500</v>
       </c>
       <c r="H91" s="3">
-        <v>-424400</v>
+        <v>-364800</v>
       </c>
       <c r="I91" s="3">
-        <v>-483200</v>
+        <v>-433800</v>
       </c>
       <c r="J91" s="3">
+        <v>-493800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-424000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-239200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-534100</v>
+        <v>-849800</v>
       </c>
       <c r="E94" s="3">
-        <v>-418000</v>
+        <v>-545800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1522800</v>
+        <v>-427200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1184500</v>
+        <v>-1556300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1068100</v>
+        <v>-1210600</v>
       </c>
       <c r="I94" s="3">
-        <v>-947300</v>
+        <v>-1091600</v>
       </c>
       <c r="J94" s="3">
+        <v>-968100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-629400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-620300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-369900</v>
+        <v>-400100</v>
       </c>
       <c r="E96" s="3">
-        <v>-349200</v>
+        <v>-378100</v>
       </c>
       <c r="F96" s="3">
-        <v>-316700</v>
+        <v>-356900</v>
       </c>
       <c r="G96" s="3">
-        <v>-339700</v>
+        <v>-323700</v>
       </c>
       <c r="H96" s="3">
-        <v>-340900</v>
+        <v>-347100</v>
       </c>
       <c r="I96" s="3">
-        <v>-217000</v>
+        <v>-348400</v>
       </c>
       <c r="J96" s="3">
+        <v>-221800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-182700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-157000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-252800</v>
+        <v>-199900</v>
       </c>
       <c r="E100" s="3">
-        <v>-296100</v>
+        <v>-258400</v>
       </c>
       <c r="F100" s="3">
-        <v>103300</v>
+        <v>-302600</v>
       </c>
       <c r="G100" s="3">
-        <v>-251500</v>
+        <v>105600</v>
       </c>
       <c r="H100" s="3">
-        <v>478200</v>
+        <v>-257100</v>
       </c>
       <c r="I100" s="3">
-        <v>29200</v>
+        <v>488700</v>
       </c>
       <c r="J100" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K100" s="3">
         <v>196800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-117700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37900</v>
+        <v>10400</v>
       </c>
       <c r="E101" s="3">
-        <v>24300</v>
+        <v>-38800</v>
       </c>
       <c r="F101" s="3">
-        <v>-51700</v>
+        <v>24900</v>
       </c>
       <c r="G101" s="3">
-        <v>-47300</v>
+        <v>-52800</v>
       </c>
       <c r="H101" s="3">
-        <v>62700</v>
+        <v>-48300</v>
       </c>
       <c r="I101" s="3">
-        <v>44600</v>
+        <v>64100</v>
       </c>
       <c r="J101" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K101" s="3">
         <v>59800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14500</v>
+        <v>-273700</v>
       </c>
       <c r="E102" s="3">
-        <v>557300</v>
+        <v>-14800</v>
       </c>
       <c r="F102" s="3">
-        <v>210300</v>
+        <v>569500</v>
       </c>
       <c r="G102" s="3">
-        <v>307800</v>
+        <v>214900</v>
       </c>
       <c r="H102" s="3">
-        <v>236300</v>
+        <v>314500</v>
       </c>
       <c r="I102" s="3">
-        <v>-116100</v>
+        <v>241500</v>
       </c>
       <c r="J102" s="3">
+        <v>-118600</v>
+      </c>
+      <c r="K102" s="3">
         <v>90700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-42000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17837200</v>
+        <v>18125200</v>
       </c>
       <c r="E8" s="3">
-        <v>17189400</v>
+        <v>17467000</v>
       </c>
       <c r="F8" s="3">
-        <v>16267100</v>
+        <v>16529800</v>
       </c>
       <c r="G8" s="3">
-        <v>14827700</v>
+        <v>15067100</v>
       </c>
       <c r="H8" s="3">
-        <v>11564000</v>
+        <v>11750700</v>
       </c>
       <c r="I8" s="3">
-        <v>14742600</v>
+        <v>14980700</v>
       </c>
       <c r="J8" s="3">
-        <v>14014800</v>
+        <v>14241100</v>
       </c>
       <c r="K8" s="3">
         <v>10613700</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12635500</v>
+        <v>12839500</v>
       </c>
       <c r="E9" s="3">
-        <v>12290000</v>
+        <v>12488500</v>
       </c>
       <c r="F9" s="3">
-        <v>23032300</v>
+        <v>23404200</v>
       </c>
       <c r="G9" s="3">
-        <v>10428500</v>
+        <v>10596800</v>
       </c>
       <c r="H9" s="3">
-        <v>7881600</v>
+        <v>8008900</v>
       </c>
       <c r="I9" s="3">
-        <v>10263200</v>
+        <v>10428900</v>
       </c>
       <c r="J9" s="3">
-        <v>9819600</v>
+        <v>9978100</v>
       </c>
       <c r="K9" s="3">
         <v>7709700</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5201700</v>
+        <v>5285700</v>
       </c>
       <c r="E10" s="3">
-        <v>4899400</v>
+        <v>4978500</v>
       </c>
       <c r="F10" s="3">
-        <v>-6765200</v>
+        <v>-6874400</v>
       </c>
       <c r="G10" s="3">
-        <v>4399200</v>
+        <v>4470300</v>
       </c>
       <c r="H10" s="3">
-        <v>3682400</v>
+        <v>3741800</v>
       </c>
       <c r="I10" s="3">
-        <v>4479400</v>
+        <v>4551700</v>
       </c>
       <c r="J10" s="3">
-        <v>4195200</v>
+        <v>4263000</v>
       </c>
       <c r="K10" s="3">
         <v>2904100</v>
@@ -898,25 +898,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-12200</v>
+        <v>-12400</v>
       </c>
       <c r="E14" s="3">
-        <v>-18600</v>
+        <v>-18900</v>
       </c>
       <c r="F14" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="G14" s="3">
         <v>1900</v>
       </c>
       <c r="H14" s="3">
-        <v>41800</v>
+        <v>42500</v>
       </c>
       <c r="I14" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="J14" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15963800</v>
+        <v>16221600</v>
       </c>
       <c r="E17" s="3">
-        <v>15430700</v>
+        <v>15679900</v>
       </c>
       <c r="F17" s="3">
-        <v>14409600</v>
+        <v>14642300</v>
       </c>
       <c r="G17" s="3">
-        <v>13073900</v>
+        <v>13285000</v>
       </c>
       <c r="H17" s="3">
-        <v>10013700</v>
+        <v>10175400</v>
       </c>
       <c r="I17" s="3">
-        <v>12846100</v>
+        <v>13053600</v>
       </c>
       <c r="J17" s="3">
-        <v>12134200</v>
+        <v>12330100</v>
       </c>
       <c r="K17" s="3">
         <v>9585100</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1873400</v>
+        <v>1903600</v>
       </c>
       <c r="E18" s="3">
-        <v>1758700</v>
+        <v>1787100</v>
       </c>
       <c r="F18" s="3">
-        <v>1857600</v>
+        <v>1887500</v>
       </c>
       <c r="G18" s="3">
-        <v>1753700</v>
+        <v>1782100</v>
       </c>
       <c r="H18" s="3">
-        <v>1550300</v>
+        <v>1575300</v>
       </c>
       <c r="I18" s="3">
-        <v>1896500</v>
+        <v>1927100</v>
       </c>
       <c r="J18" s="3">
-        <v>1880600</v>
+        <v>1910900</v>
       </c>
       <c r="K18" s="3">
         <v>1028600</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>78200</v>
+        <v>79500</v>
       </c>
       <c r="E20" s="3">
-        <v>83200</v>
+        <v>84500</v>
       </c>
       <c r="F20" s="3">
-        <v>139100</v>
+        <v>141300</v>
       </c>
       <c r="G20" s="3">
-        <v>80800</v>
+        <v>82100</v>
       </c>
       <c r="H20" s="3">
-        <v>30900</v>
+        <v>31400</v>
       </c>
       <c r="I20" s="3">
-        <v>77100</v>
+        <v>78300</v>
       </c>
       <c r="J20" s="3">
-        <v>96300</v>
+        <v>97800</v>
       </c>
       <c r="K20" s="3">
         <v>78000</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2529200</v>
+        <v>2568200</v>
       </c>
       <c r="E21" s="3">
-        <v>2302400</v>
+        <v>2338100</v>
       </c>
       <c r="F21" s="3">
-        <v>2415500</v>
+        <v>2453200</v>
       </c>
       <c r="G21" s="3">
-        <v>2237000</v>
+        <v>2271800</v>
       </c>
       <c r="H21" s="3">
-        <v>1870600</v>
+        <v>1899900</v>
       </c>
       <c r="I21" s="3">
-        <v>2328400</v>
+        <v>2364900</v>
       </c>
       <c r="J21" s="3">
-        <v>2304800</v>
+        <v>2341000</v>
       </c>
       <c r="K21" s="3">
         <v>1373100</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="3">
         <v>9800</v>
       </c>
-      <c r="E22" s="3">
-        <v>9700</v>
-      </c>
       <c r="F22" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="G22" s="3">
         <v>4700</v>
       </c>
       <c r="H22" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="I22" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="J22" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="K22" s="3">
         <v>11600</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1941800</v>
+        <v>1973200</v>
       </c>
       <c r="E23" s="3">
-        <v>1832300</v>
+        <v>1861900</v>
       </c>
       <c r="F23" s="3">
-        <v>1988100</v>
+        <v>2020200</v>
       </c>
       <c r="G23" s="3">
-        <v>1829900</v>
+        <v>1859400</v>
       </c>
       <c r="H23" s="3">
-        <v>1574700</v>
+        <v>1600100</v>
       </c>
       <c r="I23" s="3">
-        <v>1962600</v>
+        <v>1994300</v>
       </c>
       <c r="J23" s="3">
-        <v>1962900</v>
+        <v>1994600</v>
       </c>
       <c r="K23" s="3">
         <v>1095000</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>492400</v>
+        <v>500300</v>
       </c>
       <c r="E24" s="3">
-        <v>456300</v>
+        <v>463700</v>
       </c>
       <c r="F24" s="3">
-        <v>583000</v>
+        <v>592500</v>
       </c>
       <c r="G24" s="3">
-        <v>525300</v>
+        <v>533800</v>
       </c>
       <c r="H24" s="3">
-        <v>504100</v>
+        <v>512200</v>
       </c>
       <c r="I24" s="3">
-        <v>568600</v>
+        <v>577800</v>
       </c>
       <c r="J24" s="3">
-        <v>668100</v>
+        <v>678900</v>
       </c>
       <c r="K24" s="3">
         <v>370300</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1449400</v>
+        <v>1472800</v>
       </c>
       <c r="E26" s="3">
-        <v>1376000</v>
+        <v>1398200</v>
       </c>
       <c r="F26" s="3">
-        <v>1405100</v>
+        <v>1427800</v>
       </c>
       <c r="G26" s="3">
-        <v>1304500</v>
+        <v>1325600</v>
       </c>
       <c r="H26" s="3">
-        <v>1070600</v>
+        <v>1087900</v>
       </c>
       <c r="I26" s="3">
-        <v>1394000</v>
+        <v>1416500</v>
       </c>
       <c r="J26" s="3">
-        <v>1294800</v>
+        <v>1315700</v>
       </c>
       <c r="K26" s="3">
         <v>724700</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1384700</v>
+        <v>1407100</v>
       </c>
       <c r="E27" s="3">
-        <v>1287500</v>
+        <v>1308300</v>
       </c>
       <c r="F27" s="3">
-        <v>1282400</v>
+        <v>1303100</v>
       </c>
       <c r="G27" s="3">
-        <v>1230800</v>
+        <v>1250700</v>
       </c>
       <c r="H27" s="3">
-        <v>1022900</v>
+        <v>1039400</v>
       </c>
       <c r="I27" s="3">
-        <v>1300700</v>
+        <v>1321700</v>
       </c>
       <c r="J27" s="3">
-        <v>1223100</v>
+        <v>1242900</v>
       </c>
       <c r="K27" s="3">
         <v>669800</v>
@@ -1360,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-96800</v>
+        <v>-98300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-78200</v>
+        <v>-79500</v>
       </c>
       <c r="E32" s="3">
-        <v>-83200</v>
+        <v>-84500</v>
       </c>
       <c r="F32" s="3">
-        <v>-139100</v>
+        <v>-141300</v>
       </c>
       <c r="G32" s="3">
-        <v>-80800</v>
+        <v>-82100</v>
       </c>
       <c r="H32" s="3">
-        <v>-30900</v>
+        <v>-31400</v>
       </c>
       <c r="I32" s="3">
-        <v>-77100</v>
+        <v>-78300</v>
       </c>
       <c r="J32" s="3">
-        <v>-96300</v>
+        <v>-97800</v>
       </c>
       <c r="K32" s="3">
         <v>-78000</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1384700</v>
+        <v>1407100</v>
       </c>
       <c r="E33" s="3">
-        <v>1287500</v>
+        <v>1308300</v>
       </c>
       <c r="F33" s="3">
-        <v>1185600</v>
+        <v>1204800</v>
       </c>
       <c r="G33" s="3">
-        <v>1230800</v>
+        <v>1250700</v>
       </c>
       <c r="H33" s="3">
-        <v>1022900</v>
+        <v>1039400</v>
       </c>
       <c r="I33" s="3">
-        <v>1300700</v>
+        <v>1321700</v>
       </c>
       <c r="J33" s="3">
-        <v>1223100</v>
+        <v>1242900</v>
       </c>
       <c r="K33" s="3">
         <v>669800</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1384700</v>
+        <v>1407100</v>
       </c>
       <c r="E35" s="3">
-        <v>1287500</v>
+        <v>1308300</v>
       </c>
       <c r="F35" s="3">
-        <v>1185600</v>
+        <v>1204800</v>
       </c>
       <c r="G35" s="3">
-        <v>1230800</v>
+        <v>1250700</v>
       </c>
       <c r="H35" s="3">
-        <v>1022900</v>
+        <v>1039400</v>
       </c>
       <c r="I35" s="3">
-        <v>1300700</v>
+        <v>1321700</v>
       </c>
       <c r="J35" s="3">
-        <v>1223100</v>
+        <v>1242900</v>
       </c>
       <c r="K35" s="3">
         <v>669800</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1852900</v>
+        <v>1884800</v>
       </c>
       <c r="E41" s="3">
-        <v>2126300</v>
+        <v>2162900</v>
       </c>
       <c r="F41" s="3">
-        <v>4282200</v>
+        <v>4356000</v>
       </c>
       <c r="G41" s="3">
-        <v>1572200</v>
+        <v>1599300</v>
       </c>
       <c r="H41" s="3">
-        <v>1357500</v>
+        <v>1380900</v>
       </c>
       <c r="I41" s="3">
-        <v>1048800</v>
+        <v>1066900</v>
       </c>
       <c r="J41" s="3">
-        <v>807600</v>
+        <v>821500</v>
       </c>
       <c r="K41" s="3">
         <v>1004800</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>667900</v>
+        <v>679400</v>
       </c>
       <c r="E42" s="3">
-        <v>504600</v>
+        <v>513300</v>
       </c>
       <c r="F42" s="3">
-        <v>494400</v>
+        <v>503000</v>
       </c>
       <c r="G42" s="3">
-        <v>56500</v>
+        <v>57500</v>
       </c>
       <c r="H42" s="3">
-        <v>70500</v>
+        <v>71700</v>
       </c>
       <c r="I42" s="3">
-        <v>84300</v>
+        <v>85800</v>
       </c>
       <c r="J42" s="3">
-        <v>43000</v>
+        <v>43700</v>
       </c>
       <c r="K42" s="3">
         <v>38800</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9120500</v>
+        <v>9277800</v>
       </c>
       <c r="E43" s="3">
-        <v>8649700</v>
+        <v>8798800</v>
       </c>
       <c r="F43" s="3">
-        <v>22852400</v>
+        <v>23246500</v>
       </c>
       <c r="G43" s="3">
-        <v>8138500</v>
+        <v>8278900</v>
       </c>
       <c r="H43" s="3">
-        <v>7903500</v>
+        <v>8039800</v>
       </c>
       <c r="I43" s="3">
-        <v>8233300</v>
+        <v>8375300</v>
       </c>
       <c r="J43" s="3">
-        <v>7096300</v>
+        <v>7218700</v>
       </c>
       <c r="K43" s="3">
         <v>5510400</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3548700</v>
+        <v>3609900</v>
       </c>
       <c r="E44" s="3">
-        <v>3440100</v>
+        <v>3499400</v>
       </c>
       <c r="F44" s="3">
-        <v>6694300</v>
+        <v>6809800</v>
       </c>
       <c r="G44" s="3">
-        <v>3305400</v>
+        <v>3362300</v>
       </c>
       <c r="H44" s="3">
-        <v>6615500</v>
+        <v>6729600</v>
       </c>
       <c r="I44" s="3">
-        <v>3136900</v>
+        <v>3191000</v>
       </c>
       <c r="J44" s="3">
-        <v>2781800</v>
+        <v>2829800</v>
       </c>
       <c r="K44" s="3">
         <v>2104200</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>761300</v>
+        <v>774400</v>
       </c>
       <c r="E45" s="3">
-        <v>494200</v>
+        <v>502700</v>
       </c>
       <c r="F45" s="3">
-        <v>1525600</v>
+        <v>1551900</v>
       </c>
       <c r="G45" s="3">
-        <v>1432700</v>
+        <v>1457400</v>
       </c>
       <c r="H45" s="3">
-        <v>2461900</v>
+        <v>2504400</v>
       </c>
       <c r="I45" s="3">
-        <v>887800</v>
+        <v>903100</v>
       </c>
       <c r="J45" s="3">
-        <v>722500</v>
+        <v>734900</v>
       </c>
       <c r="K45" s="3">
         <v>565200</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15951200</v>
+        <v>16226300</v>
       </c>
       <c r="E46" s="3">
-        <v>15214800</v>
+        <v>15477100</v>
       </c>
       <c r="F46" s="3">
-        <v>14926200</v>
+        <v>15183500</v>
       </c>
       <c r="G46" s="3">
-        <v>14505300</v>
+        <v>14755400</v>
       </c>
       <c r="H46" s="3">
-        <v>13835100</v>
+        <v>14073600</v>
       </c>
       <c r="I46" s="3">
-        <v>13391200</v>
+        <v>13622100</v>
       </c>
       <c r="J46" s="3">
-        <v>11451200</v>
+        <v>11648600</v>
       </c>
       <c r="K46" s="3">
         <v>9223400</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1695100</v>
+        <v>1724400</v>
       </c>
       <c r="E47" s="3">
-        <v>1687200</v>
+        <v>1716300</v>
       </c>
       <c r="F47" s="3">
-        <v>2663000</v>
+        <v>2708900</v>
       </c>
       <c r="G47" s="3">
-        <v>627400</v>
+        <v>638200</v>
       </c>
       <c r="H47" s="3">
-        <v>824000</v>
+        <v>838200</v>
       </c>
       <c r="I47" s="3">
-        <v>572000</v>
+        <v>581900</v>
       </c>
       <c r="J47" s="3">
-        <v>536300</v>
+        <v>545500</v>
       </c>
       <c r="K47" s="3">
         <v>460200</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3761600</v>
+        <v>3826500</v>
       </c>
       <c r="E48" s="3">
-        <v>3062700</v>
+        <v>3115500</v>
       </c>
       <c r="F48" s="3">
-        <v>9073200</v>
+        <v>9229700</v>
       </c>
       <c r="G48" s="3">
-        <v>2916100</v>
+        <v>2966300</v>
       </c>
       <c r="H48" s="3">
-        <v>2652900</v>
+        <v>2698600</v>
       </c>
       <c r="I48" s="3">
-        <v>2757000</v>
+        <v>2804500</v>
       </c>
       <c r="J48" s="3">
-        <v>2623500</v>
+        <v>2668700</v>
       </c>
       <c r="K48" s="3">
         <v>2322700</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>566000</v>
+        <v>575700</v>
       </c>
       <c r="E49" s="3">
-        <v>463500</v>
+        <v>471500</v>
       </c>
       <c r="F49" s="3">
-        <v>1315600</v>
+        <v>1338300</v>
       </c>
       <c r="G49" s="3">
-        <v>427400</v>
+        <v>434800</v>
       </c>
       <c r="H49" s="3">
-        <v>546200</v>
+        <v>555600</v>
       </c>
       <c r="I49" s="3">
-        <v>322000</v>
+        <v>327500</v>
       </c>
       <c r="J49" s="3">
-        <v>321300</v>
+        <v>326900</v>
       </c>
       <c r="K49" s="3">
         <v>262700</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7158900</v>
+        <v>7282300</v>
       </c>
       <c r="E52" s="3">
-        <v>6443500</v>
+        <v>6554600</v>
       </c>
       <c r="F52" s="3">
-        <v>13220500</v>
+        <v>13448400</v>
       </c>
       <c r="G52" s="3">
-        <v>6306800</v>
+        <v>6415600</v>
       </c>
       <c r="H52" s="3">
-        <v>6165700</v>
+        <v>6272000</v>
       </c>
       <c r="I52" s="3">
-        <v>5942700</v>
+        <v>6045200</v>
       </c>
       <c r="J52" s="3">
-        <v>4599000</v>
+        <v>4678200</v>
       </c>
       <c r="K52" s="3">
         <v>3580900</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29132900</v>
+        <v>29635200</v>
       </c>
       <c r="E54" s="3">
-        <v>26871700</v>
+        <v>27335000</v>
       </c>
       <c r="F54" s="3">
-        <v>26284300</v>
+        <v>26737500</v>
       </c>
       <c r="G54" s="3">
-        <v>24783000</v>
+        <v>25210300</v>
       </c>
       <c r="H54" s="3">
-        <v>23505600</v>
+        <v>23910800</v>
       </c>
       <c r="I54" s="3">
-        <v>22984900</v>
+        <v>23381200</v>
       </c>
       <c r="J54" s="3">
-        <v>19531200</v>
+        <v>19868000</v>
       </c>
       <c r="K54" s="3">
         <v>15850000</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2726200</v>
+        <v>2773200</v>
       </c>
       <c r="E57" s="3">
-        <v>2846700</v>
+        <v>2895800</v>
       </c>
       <c r="F57" s="3">
-        <v>5310400</v>
+        <v>5402000</v>
       </c>
       <c r="G57" s="3">
-        <v>2374400</v>
+        <v>2415300</v>
       </c>
       <c r="H57" s="3">
-        <v>2415900</v>
+        <v>2457600</v>
       </c>
       <c r="I57" s="3">
-        <v>2118900</v>
+        <v>2155500</v>
       </c>
       <c r="J57" s="3">
-        <v>2233800</v>
+        <v>2272300</v>
       </c>
       <c r="K57" s="3">
         <v>2209100</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3587100</v>
+        <v>3648900</v>
       </c>
       <c r="E58" s="3">
-        <v>3244800</v>
+        <v>3300800</v>
       </c>
       <c r="F58" s="3">
-        <v>10125700</v>
+        <v>10300300</v>
       </c>
       <c r="G58" s="3">
-        <v>3146800</v>
+        <v>3201100</v>
       </c>
       <c r="H58" s="3">
-        <v>3195400</v>
+        <v>3250500</v>
       </c>
       <c r="I58" s="3">
-        <v>2669300</v>
+        <v>2715300</v>
       </c>
       <c r="J58" s="3">
-        <v>2518000</v>
+        <v>2561400</v>
       </c>
       <c r="K58" s="3">
         <v>1701300</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2982900</v>
+        <v>3034300</v>
       </c>
       <c r="E59" s="3">
-        <v>2472200</v>
+        <v>2514900</v>
       </c>
       <c r="F59" s="3">
-        <v>4980000</v>
+        <v>5065800</v>
       </c>
       <c r="G59" s="3">
-        <v>2242600</v>
+        <v>2281300</v>
       </c>
       <c r="H59" s="3">
-        <v>1937500</v>
+        <v>1970900</v>
       </c>
       <c r="I59" s="3">
-        <v>1988000</v>
+        <v>2022300</v>
       </c>
       <c r="J59" s="3">
-        <v>1919800</v>
+        <v>1952900</v>
       </c>
       <c r="K59" s="3">
         <v>1496900</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9296200</v>
+        <v>9456500</v>
       </c>
       <c r="E60" s="3">
-        <v>8563800</v>
+        <v>8711400</v>
       </c>
       <c r="F60" s="3">
-        <v>8514000</v>
+        <v>8660800</v>
       </c>
       <c r="G60" s="3">
-        <v>7763800</v>
+        <v>7897600</v>
       </c>
       <c r="H60" s="3">
-        <v>7497300</v>
+        <v>7626600</v>
       </c>
       <c r="I60" s="3">
-        <v>6776200</v>
+        <v>6893100</v>
       </c>
       <c r="J60" s="3">
-        <v>6671600</v>
+        <v>6786600</v>
       </c>
       <c r="K60" s="3">
         <v>5407200</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4792600</v>
+        <v>4875200</v>
       </c>
       <c r="E61" s="3">
-        <v>4561700</v>
+        <v>4640400</v>
       </c>
       <c r="F61" s="3">
-        <v>4367300</v>
+        <v>4442600</v>
       </c>
       <c r="G61" s="3">
-        <v>4444100</v>
+        <v>4520800</v>
       </c>
       <c r="H61" s="3">
-        <v>3938200</v>
+        <v>4006100</v>
       </c>
       <c r="I61" s="3">
-        <v>4454000</v>
+        <v>4530700</v>
       </c>
       <c r="J61" s="3">
-        <v>2928700</v>
+        <v>2979200</v>
       </c>
       <c r="K61" s="3">
         <v>2484800</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>778800</v>
+        <v>792200</v>
       </c>
       <c r="E62" s="3">
-        <v>508900</v>
+        <v>517700</v>
       </c>
       <c r="F62" s="3">
-        <v>1352400</v>
+        <v>1375700</v>
       </c>
       <c r="G62" s="3">
-        <v>771600</v>
+        <v>784900</v>
       </c>
       <c r="H62" s="3">
-        <v>761900</v>
+        <v>775000</v>
       </c>
       <c r="I62" s="3">
-        <v>809900</v>
+        <v>823900</v>
       </c>
       <c r="J62" s="3">
-        <v>645200</v>
+        <v>656300</v>
       </c>
       <c r="K62" s="3">
         <v>589500</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15743300</v>
+        <v>16014800</v>
       </c>
       <c r="E66" s="3">
-        <v>14437900</v>
+        <v>14686800</v>
       </c>
       <c r="F66" s="3">
-        <v>14303000</v>
+        <v>14549600</v>
       </c>
       <c r="G66" s="3">
-        <v>13658500</v>
+        <v>13894000</v>
       </c>
       <c r="H66" s="3">
-        <v>12923500</v>
+        <v>13146300</v>
       </c>
       <c r="I66" s="3">
-        <v>12767600</v>
+        <v>12987800</v>
       </c>
       <c r="J66" s="3">
-        <v>10856200</v>
+        <v>11043300</v>
       </c>
       <c r="K66" s="3">
         <v>8955100</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11496300</v>
+        <v>11694500</v>
       </c>
       <c r="E72" s="3">
-        <v>10536500</v>
+        <v>10718100</v>
       </c>
       <c r="F72" s="3">
-        <v>19543500</v>
+        <v>19880500</v>
       </c>
       <c r="G72" s="3">
-        <v>9103100</v>
+        <v>9260100</v>
       </c>
       <c r="H72" s="3">
-        <v>8252800</v>
+        <v>8395100</v>
       </c>
       <c r="I72" s="3">
-        <v>7591800</v>
+        <v>7722700</v>
       </c>
       <c r="J72" s="3">
-        <v>6712000</v>
+        <v>6827800</v>
       </c>
       <c r="K72" s="3">
         <v>5587500</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13389500</v>
+        <v>13620400</v>
       </c>
       <c r="E76" s="3">
-        <v>12433800</v>
+        <v>12648200</v>
       </c>
       <c r="F76" s="3">
-        <v>11981400</v>
+        <v>12187900</v>
       </c>
       <c r="G76" s="3">
-        <v>11124500</v>
+        <v>11316300</v>
       </c>
       <c r="H76" s="3">
-        <v>10582100</v>
+        <v>10764500</v>
       </c>
       <c r="I76" s="3">
-        <v>10217300</v>
+        <v>10393400</v>
       </c>
       <c r="J76" s="3">
-        <v>8675000</v>
+        <v>8824600</v>
       </c>
       <c r="K76" s="3">
         <v>6894900</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1384700</v>
+        <v>1407100</v>
       </c>
       <c r="E81" s="3">
-        <v>1287500</v>
+        <v>1308300</v>
       </c>
       <c r="F81" s="3">
-        <v>1185600</v>
+        <v>1204800</v>
       </c>
       <c r="G81" s="3">
-        <v>1230800</v>
+        <v>1250700</v>
       </c>
       <c r="H81" s="3">
-        <v>1022900</v>
+        <v>1039400</v>
       </c>
       <c r="I81" s="3">
-        <v>1300700</v>
+        <v>1321700</v>
       </c>
       <c r="J81" s="3">
-        <v>1223100</v>
+        <v>1242900</v>
       </c>
       <c r="K81" s="3">
         <v>669800</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>578200</v>
+        <v>587600</v>
       </c>
       <c r="E83" s="3">
-        <v>461000</v>
+        <v>468500</v>
       </c>
       <c r="F83" s="3">
-        <v>419300</v>
+        <v>426100</v>
       </c>
       <c r="G83" s="3">
-        <v>402900</v>
+        <v>409400</v>
       </c>
       <c r="H83" s="3">
-        <v>289800</v>
+        <v>294500</v>
       </c>
       <c r="I83" s="3">
-        <v>355200</v>
+        <v>361000</v>
       </c>
       <c r="J83" s="3">
-        <v>328300</v>
+        <v>333600</v>
       </c>
       <c r="K83" s="3">
         <v>265900</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>765600</v>
+        <v>778000</v>
       </c>
       <c r="E89" s="3">
-        <v>828200</v>
+        <v>841600</v>
       </c>
       <c r="F89" s="3">
-        <v>1274400</v>
+        <v>1295000</v>
       </c>
       <c r="G89" s="3">
-        <v>1718400</v>
+        <v>1746200</v>
       </c>
       <c r="H89" s="3">
-        <v>1830500</v>
+        <v>1860100</v>
       </c>
       <c r="I89" s="3">
-        <v>780400</v>
+        <v>793000</v>
       </c>
       <c r="J89" s="3">
-        <v>774100</v>
+        <v>786600</v>
       </c>
       <c r="K89" s="3">
         <v>463400</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-708300</v>
+        <v>-719700</v>
       </c>
       <c r="E91" s="3">
-        <v>-588900</v>
+        <v>-598500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1141500</v>
+        <v>-1159900</v>
       </c>
       <c r="G91" s="3">
-        <v>-521500</v>
+        <v>-530000</v>
       </c>
       <c r="H91" s="3">
-        <v>-364800</v>
+        <v>-370700</v>
       </c>
       <c r="I91" s="3">
-        <v>-433800</v>
+        <v>-440800</v>
       </c>
       <c r="J91" s="3">
-        <v>-493800</v>
+        <v>-501800</v>
       </c>
       <c r="K91" s="3">
         <v>-424000</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-849800</v>
+        <v>-863500</v>
       </c>
       <c r="E94" s="3">
-        <v>-545800</v>
+        <v>-554700</v>
       </c>
       <c r="F94" s="3">
-        <v>-427200</v>
+        <v>-434100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1556300</v>
+        <v>-1581400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1210600</v>
+        <v>-1230100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1091600</v>
+        <v>-1109300</v>
       </c>
       <c r="J94" s="3">
-        <v>-968100</v>
+        <v>-983700</v>
       </c>
       <c r="K94" s="3">
         <v>-629400</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-400100</v>
+        <v>-406500</v>
       </c>
       <c r="E96" s="3">
-        <v>-378100</v>
+        <v>-384200</v>
       </c>
       <c r="F96" s="3">
-        <v>-356900</v>
+        <v>-362700</v>
       </c>
       <c r="G96" s="3">
-        <v>-323700</v>
+        <v>-328900</v>
       </c>
       <c r="H96" s="3">
-        <v>-347100</v>
+        <v>-352700</v>
       </c>
       <c r="I96" s="3">
-        <v>-348400</v>
+        <v>-354000</v>
       </c>
       <c r="J96" s="3">
-        <v>-221800</v>
+        <v>-225300</v>
       </c>
       <c r="K96" s="3">
         <v>-182700</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-199900</v>
+        <v>-203100</v>
       </c>
       <c r="E100" s="3">
-        <v>-258400</v>
+        <v>-262600</v>
       </c>
       <c r="F100" s="3">
-        <v>-302600</v>
+        <v>-307500</v>
       </c>
       <c r="G100" s="3">
-        <v>105600</v>
+        <v>107300</v>
       </c>
       <c r="H100" s="3">
-        <v>-257100</v>
+        <v>-261200</v>
       </c>
       <c r="I100" s="3">
-        <v>488700</v>
+        <v>496600</v>
       </c>
       <c r="J100" s="3">
-        <v>29900</v>
+        <v>30300</v>
       </c>
       <c r="K100" s="3">
         <v>196800</v>
@@ -3464,25 +3464,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="E101" s="3">
-        <v>-38800</v>
+        <v>-39400</v>
       </c>
       <c r="F101" s="3">
-        <v>24900</v>
+        <v>25300</v>
       </c>
       <c r="G101" s="3">
-        <v>-52800</v>
+        <v>-53700</v>
       </c>
       <c r="H101" s="3">
-        <v>-48300</v>
+        <v>-49100</v>
       </c>
       <c r="I101" s="3">
-        <v>64100</v>
+        <v>65100</v>
       </c>
       <c r="J101" s="3">
-        <v>45600</v>
+        <v>46300</v>
       </c>
       <c r="K101" s="3">
         <v>59800</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-273700</v>
+        <v>-278100</v>
       </c>
       <c r="E102" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="F102" s="3">
-        <v>569500</v>
+        <v>578700</v>
       </c>
       <c r="G102" s="3">
-        <v>214900</v>
+        <v>218300</v>
       </c>
       <c r="H102" s="3">
-        <v>314500</v>
+        <v>319600</v>
       </c>
       <c r="I102" s="3">
-        <v>241500</v>
+        <v>245400</v>
       </c>
       <c r="J102" s="3">
-        <v>-118600</v>
+        <v>-120500</v>
       </c>
       <c r="K102" s="3">
         <v>90700</v>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18125200</v>
+        <v>18451600</v>
       </c>
       <c r="E8" s="3">
-        <v>17467000</v>
+        <v>17781500</v>
       </c>
       <c r="F8" s="3">
-        <v>16529800</v>
+        <v>16827500</v>
       </c>
       <c r="G8" s="3">
-        <v>15067100</v>
+        <v>15338400</v>
       </c>
       <c r="H8" s="3">
-        <v>11750700</v>
+        <v>11962300</v>
       </c>
       <c r="I8" s="3">
-        <v>14980700</v>
+        <v>15250500</v>
       </c>
       <c r="J8" s="3">
-        <v>14241100</v>
+        <v>14497500</v>
       </c>
       <c r="K8" s="3">
         <v>10613700</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12839500</v>
+        <v>13070700</v>
       </c>
       <c r="E9" s="3">
-        <v>12488500</v>
+        <v>12713400</v>
       </c>
       <c r="F9" s="3">
-        <v>23404200</v>
+        <v>23825700</v>
       </c>
       <c r="G9" s="3">
-        <v>10596800</v>
+        <v>10787700</v>
       </c>
       <c r="H9" s="3">
-        <v>8008900</v>
+        <v>8153100</v>
       </c>
       <c r="I9" s="3">
-        <v>10428900</v>
+        <v>10616800</v>
       </c>
       <c r="J9" s="3">
-        <v>9978100</v>
+        <v>10157800</v>
       </c>
       <c r="K9" s="3">
         <v>7709700</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5285700</v>
+        <v>5380900</v>
       </c>
       <c r="E10" s="3">
-        <v>4978500</v>
+        <v>5068200</v>
       </c>
       <c r="F10" s="3">
-        <v>-6874400</v>
+        <v>-6998200</v>
       </c>
       <c r="G10" s="3">
-        <v>4470300</v>
+        <v>4550800</v>
       </c>
       <c r="H10" s="3">
-        <v>3741800</v>
+        <v>3809200</v>
       </c>
       <c r="I10" s="3">
-        <v>4551700</v>
+        <v>4633700</v>
       </c>
       <c r="J10" s="3">
-        <v>4263000</v>
+        <v>4339800</v>
       </c>
       <c r="K10" s="3">
         <v>2904100</v>
@@ -898,25 +898,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="E14" s="3">
-        <v>-18900</v>
+        <v>-19200</v>
       </c>
       <c r="F14" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="G14" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="3">
-        <v>42500</v>
+        <v>43200</v>
       </c>
       <c r="I14" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="J14" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16221600</v>
+        <v>16513700</v>
       </c>
       <c r="E17" s="3">
-        <v>15679900</v>
+        <v>15962200</v>
       </c>
       <c r="F17" s="3">
-        <v>14642300</v>
+        <v>14905900</v>
       </c>
       <c r="G17" s="3">
-        <v>13285000</v>
+        <v>13524300</v>
       </c>
       <c r="H17" s="3">
-        <v>10175400</v>
+        <v>10358600</v>
       </c>
       <c r="I17" s="3">
-        <v>13053600</v>
+        <v>13288600</v>
       </c>
       <c r="J17" s="3">
-        <v>12330100</v>
+        <v>12552200</v>
       </c>
       <c r="K17" s="3">
         <v>9585100</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1903600</v>
+        <v>1937900</v>
       </c>
       <c r="E18" s="3">
-        <v>1787100</v>
+        <v>1819300</v>
       </c>
       <c r="F18" s="3">
-        <v>1887500</v>
+        <v>1921500</v>
       </c>
       <c r="G18" s="3">
-        <v>1782100</v>
+        <v>1814100</v>
       </c>
       <c r="H18" s="3">
-        <v>1575300</v>
+        <v>1603700</v>
       </c>
       <c r="I18" s="3">
-        <v>1927100</v>
+        <v>1961800</v>
       </c>
       <c r="J18" s="3">
-        <v>1910900</v>
+        <v>1945400</v>
       </c>
       <c r="K18" s="3">
         <v>1028600</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>79500</v>
+        <v>80900</v>
       </c>
       <c r="E20" s="3">
-        <v>84500</v>
+        <v>86100</v>
       </c>
       <c r="F20" s="3">
-        <v>141300</v>
+        <v>143900</v>
       </c>
       <c r="G20" s="3">
-        <v>82100</v>
+        <v>83600</v>
       </c>
       <c r="H20" s="3">
-        <v>31400</v>
+        <v>32000</v>
       </c>
       <c r="I20" s="3">
-        <v>78300</v>
+        <v>79700</v>
       </c>
       <c r="J20" s="3">
-        <v>97800</v>
+        <v>99600</v>
       </c>
       <c r="K20" s="3">
         <v>78000</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2568200</v>
+        <v>2615800</v>
       </c>
       <c r="E21" s="3">
-        <v>2338100</v>
+        <v>2381300</v>
       </c>
       <c r="F21" s="3">
-        <v>2453200</v>
+        <v>2498300</v>
       </c>
       <c r="G21" s="3">
-        <v>2271800</v>
+        <v>2313700</v>
       </c>
       <c r="H21" s="3">
-        <v>1899900</v>
+        <v>1934800</v>
       </c>
       <c r="I21" s="3">
-        <v>2364900</v>
+        <v>2408300</v>
       </c>
       <c r="J21" s="3">
-        <v>2341000</v>
+        <v>2383900</v>
       </c>
       <c r="K21" s="3">
         <v>1373100</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E22" s="3">
         <v>10000</v>
       </c>
-      <c r="E22" s="3">
-        <v>9800</v>
-      </c>
       <c r="F22" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="G22" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H22" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="I22" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="J22" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="K22" s="3">
         <v>11600</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1973200</v>
+        <v>2008700</v>
       </c>
       <c r="E23" s="3">
-        <v>1861900</v>
+        <v>1895400</v>
       </c>
       <c r="F23" s="3">
-        <v>2020200</v>
+        <v>2056600</v>
       </c>
       <c r="G23" s="3">
-        <v>1859400</v>
+        <v>1892900</v>
       </c>
       <c r="H23" s="3">
-        <v>1600100</v>
+        <v>1628900</v>
       </c>
       <c r="I23" s="3">
-        <v>1994300</v>
+        <v>2030200</v>
       </c>
       <c r="J23" s="3">
-        <v>1994600</v>
+        <v>2030500</v>
       </c>
       <c r="K23" s="3">
         <v>1095000</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500300</v>
+        <v>509300</v>
       </c>
       <c r="E24" s="3">
-        <v>463700</v>
+        <v>472000</v>
       </c>
       <c r="F24" s="3">
-        <v>592500</v>
+        <v>603100</v>
       </c>
       <c r="G24" s="3">
-        <v>533800</v>
+        <v>543400</v>
       </c>
       <c r="H24" s="3">
-        <v>512200</v>
+        <v>521400</v>
       </c>
       <c r="I24" s="3">
-        <v>577800</v>
+        <v>588200</v>
       </c>
       <c r="J24" s="3">
-        <v>678900</v>
+        <v>691100</v>
       </c>
       <c r="K24" s="3">
         <v>370300</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1472800</v>
+        <v>1499400</v>
       </c>
       <c r="E26" s="3">
-        <v>1398200</v>
+        <v>1423300</v>
       </c>
       <c r="F26" s="3">
-        <v>1427800</v>
+        <v>1453500</v>
       </c>
       <c r="G26" s="3">
-        <v>1325600</v>
+        <v>1349500</v>
       </c>
       <c r="H26" s="3">
-        <v>1087900</v>
+        <v>1107500</v>
       </c>
       <c r="I26" s="3">
-        <v>1416500</v>
+        <v>1442000</v>
       </c>
       <c r="J26" s="3">
-        <v>1315700</v>
+        <v>1339400</v>
       </c>
       <c r="K26" s="3">
         <v>724700</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1407100</v>
+        <v>1432400</v>
       </c>
       <c r="E27" s="3">
-        <v>1308300</v>
+        <v>1331900</v>
       </c>
       <c r="F27" s="3">
-        <v>1303100</v>
+        <v>1326600</v>
       </c>
       <c r="G27" s="3">
-        <v>1250700</v>
+        <v>1273200</v>
       </c>
       <c r="H27" s="3">
-        <v>1039400</v>
+        <v>1058100</v>
       </c>
       <c r="I27" s="3">
-        <v>1321700</v>
+        <v>1345500</v>
       </c>
       <c r="J27" s="3">
-        <v>1242900</v>
+        <v>1265300</v>
       </c>
       <c r="K27" s="3">
         <v>669800</v>
@@ -1360,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-98300</v>
+        <v>-100100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-79500</v>
+        <v>-80900</v>
       </c>
       <c r="E32" s="3">
-        <v>-84500</v>
+        <v>-86100</v>
       </c>
       <c r="F32" s="3">
-        <v>-141300</v>
+        <v>-143900</v>
       </c>
       <c r="G32" s="3">
-        <v>-82100</v>
+        <v>-83600</v>
       </c>
       <c r="H32" s="3">
-        <v>-31400</v>
+        <v>-32000</v>
       </c>
       <c r="I32" s="3">
-        <v>-78300</v>
+        <v>-79700</v>
       </c>
       <c r="J32" s="3">
-        <v>-97800</v>
+        <v>-99600</v>
       </c>
       <c r="K32" s="3">
         <v>-78000</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1407100</v>
+        <v>1432400</v>
       </c>
       <c r="E33" s="3">
-        <v>1308300</v>
+        <v>1331900</v>
       </c>
       <c r="F33" s="3">
-        <v>1204800</v>
+        <v>1226500</v>
       </c>
       <c r="G33" s="3">
-        <v>1250700</v>
+        <v>1273200</v>
       </c>
       <c r="H33" s="3">
-        <v>1039400</v>
+        <v>1058100</v>
       </c>
       <c r="I33" s="3">
-        <v>1321700</v>
+        <v>1345500</v>
       </c>
       <c r="J33" s="3">
-        <v>1242900</v>
+        <v>1265300</v>
       </c>
       <c r="K33" s="3">
         <v>669800</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1407100</v>
+        <v>1432400</v>
       </c>
       <c r="E35" s="3">
-        <v>1308300</v>
+        <v>1331900</v>
       </c>
       <c r="F35" s="3">
-        <v>1204800</v>
+        <v>1226500</v>
       </c>
       <c r="G35" s="3">
-        <v>1250700</v>
+        <v>1273200</v>
       </c>
       <c r="H35" s="3">
-        <v>1039400</v>
+        <v>1058100</v>
       </c>
       <c r="I35" s="3">
-        <v>1321700</v>
+        <v>1345500</v>
       </c>
       <c r="J35" s="3">
-        <v>1242900</v>
+        <v>1265300</v>
       </c>
       <c r="K35" s="3">
         <v>669800</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1884800</v>
+        <v>1918800</v>
       </c>
       <c r="E41" s="3">
-        <v>2162900</v>
+        <v>2201900</v>
       </c>
       <c r="F41" s="3">
-        <v>4356000</v>
+        <v>4434400</v>
       </c>
       <c r="G41" s="3">
-        <v>1599300</v>
+        <v>1628100</v>
       </c>
       <c r="H41" s="3">
-        <v>1380900</v>
+        <v>1405800</v>
       </c>
       <c r="I41" s="3">
-        <v>1066900</v>
+        <v>1086100</v>
       </c>
       <c r="J41" s="3">
-        <v>821500</v>
+        <v>836300</v>
       </c>
       <c r="K41" s="3">
         <v>1004800</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>679400</v>
+        <v>691600</v>
       </c>
       <c r="E42" s="3">
-        <v>513300</v>
+        <v>522500</v>
       </c>
       <c r="F42" s="3">
-        <v>503000</v>
+        <v>512000</v>
       </c>
       <c r="G42" s="3">
-        <v>57500</v>
+        <v>58600</v>
       </c>
       <c r="H42" s="3">
-        <v>71700</v>
+        <v>73000</v>
       </c>
       <c r="I42" s="3">
-        <v>85800</v>
+        <v>87300</v>
       </c>
       <c r="J42" s="3">
-        <v>43700</v>
+        <v>44500</v>
       </c>
       <c r="K42" s="3">
         <v>38800</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9277800</v>
+        <v>9444900</v>
       </c>
       <c r="E43" s="3">
-        <v>8798800</v>
+        <v>8957300</v>
       </c>
       <c r="F43" s="3">
-        <v>23246500</v>
+        <v>23665100</v>
       </c>
       <c r="G43" s="3">
-        <v>8278900</v>
+        <v>8428000</v>
       </c>
       <c r="H43" s="3">
-        <v>8039800</v>
+        <v>8184600</v>
       </c>
       <c r="I43" s="3">
-        <v>8375300</v>
+        <v>8526100</v>
       </c>
       <c r="J43" s="3">
-        <v>7218700</v>
+        <v>7348700</v>
       </c>
       <c r="K43" s="3">
         <v>5510400</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3609900</v>
+        <v>3674900</v>
       </c>
       <c r="E44" s="3">
-        <v>3499400</v>
+        <v>3562400</v>
       </c>
       <c r="F44" s="3">
-        <v>6809800</v>
+        <v>6932400</v>
       </c>
       <c r="G44" s="3">
-        <v>3362300</v>
+        <v>3422900</v>
       </c>
       <c r="H44" s="3">
-        <v>6729600</v>
+        <v>6850800</v>
       </c>
       <c r="I44" s="3">
-        <v>3191000</v>
+        <v>3248500</v>
       </c>
       <c r="J44" s="3">
-        <v>2829800</v>
+        <v>2880700</v>
       </c>
       <c r="K44" s="3">
         <v>2104200</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>774400</v>
+        <v>788300</v>
       </c>
       <c r="E45" s="3">
-        <v>502700</v>
+        <v>511700</v>
       </c>
       <c r="F45" s="3">
-        <v>1551900</v>
+        <v>1579800</v>
       </c>
       <c r="G45" s="3">
-        <v>1457400</v>
+        <v>1483700</v>
       </c>
       <c r="H45" s="3">
-        <v>2504400</v>
+        <v>2549500</v>
       </c>
       <c r="I45" s="3">
-        <v>903100</v>
+        <v>919400</v>
       </c>
       <c r="J45" s="3">
-        <v>734900</v>
+        <v>748200</v>
       </c>
       <c r="K45" s="3">
         <v>565200</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16226300</v>
+        <v>16518500</v>
       </c>
       <c r="E46" s="3">
-        <v>15477100</v>
+        <v>15755800</v>
       </c>
       <c r="F46" s="3">
-        <v>15183500</v>
+        <v>15457000</v>
       </c>
       <c r="G46" s="3">
-        <v>14755400</v>
+        <v>15021100</v>
       </c>
       <c r="H46" s="3">
-        <v>14073600</v>
+        <v>14327000</v>
       </c>
       <c r="I46" s="3">
-        <v>13622100</v>
+        <v>13867400</v>
       </c>
       <c r="J46" s="3">
-        <v>11648600</v>
+        <v>11858400</v>
       </c>
       <c r="K46" s="3">
         <v>9223400</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1724400</v>
+        <v>1755400</v>
       </c>
       <c r="E47" s="3">
-        <v>1716300</v>
+        <v>1747200</v>
       </c>
       <c r="F47" s="3">
-        <v>2708900</v>
+        <v>2757700</v>
       </c>
       <c r="G47" s="3">
-        <v>638200</v>
+        <v>649700</v>
       </c>
       <c r="H47" s="3">
-        <v>838200</v>
+        <v>853300</v>
       </c>
       <c r="I47" s="3">
-        <v>581900</v>
+        <v>592400</v>
       </c>
       <c r="J47" s="3">
-        <v>545500</v>
+        <v>555400</v>
       </c>
       <c r="K47" s="3">
         <v>460200</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3826500</v>
+        <v>3895400</v>
       </c>
       <c r="E48" s="3">
-        <v>3115500</v>
+        <v>3171600</v>
       </c>
       <c r="F48" s="3">
-        <v>9229700</v>
+        <v>9395900</v>
       </c>
       <c r="G48" s="3">
-        <v>2966300</v>
+        <v>3019800</v>
       </c>
       <c r="H48" s="3">
-        <v>2698600</v>
+        <v>2747200</v>
       </c>
       <c r="I48" s="3">
-        <v>2804500</v>
+        <v>2855000</v>
       </c>
       <c r="J48" s="3">
-        <v>2668700</v>
+        <v>2716800</v>
       </c>
       <c r="K48" s="3">
         <v>2322700</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>575700</v>
+        <v>586100</v>
       </c>
       <c r="E49" s="3">
-        <v>471500</v>
+        <v>480000</v>
       </c>
       <c r="F49" s="3">
-        <v>1338300</v>
+        <v>1362400</v>
       </c>
       <c r="G49" s="3">
-        <v>434800</v>
+        <v>442600</v>
       </c>
       <c r="H49" s="3">
-        <v>555600</v>
+        <v>565600</v>
       </c>
       <c r="I49" s="3">
-        <v>327500</v>
+        <v>333400</v>
       </c>
       <c r="J49" s="3">
-        <v>326900</v>
+        <v>332800</v>
       </c>
       <c r="K49" s="3">
         <v>262700</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7282300</v>
+        <v>7413500</v>
       </c>
       <c r="E52" s="3">
-        <v>6554600</v>
+        <v>6672600</v>
       </c>
       <c r="F52" s="3">
-        <v>13448400</v>
+        <v>13690600</v>
       </c>
       <c r="G52" s="3">
-        <v>6415600</v>
+        <v>6531100</v>
       </c>
       <c r="H52" s="3">
-        <v>6272000</v>
+        <v>6384900</v>
       </c>
       <c r="I52" s="3">
-        <v>6045200</v>
+        <v>6154100</v>
       </c>
       <c r="J52" s="3">
-        <v>4678200</v>
+        <v>4762500</v>
       </c>
       <c r="K52" s="3">
         <v>3580900</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29635200</v>
+        <v>30168800</v>
       </c>
       <c r="E54" s="3">
-        <v>27335000</v>
+        <v>27827200</v>
       </c>
       <c r="F54" s="3">
-        <v>26737500</v>
+        <v>27219000</v>
       </c>
       <c r="G54" s="3">
-        <v>25210300</v>
+        <v>25664300</v>
       </c>
       <c r="H54" s="3">
-        <v>23910800</v>
+        <v>24341400</v>
       </c>
       <c r="I54" s="3">
-        <v>23381200</v>
+        <v>23802200</v>
       </c>
       <c r="J54" s="3">
-        <v>19868000</v>
+        <v>20225800</v>
       </c>
       <c r="K54" s="3">
         <v>15850000</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2773200</v>
+        <v>2823200</v>
       </c>
       <c r="E57" s="3">
-        <v>2895800</v>
+        <v>2948000</v>
       </c>
       <c r="F57" s="3">
-        <v>5402000</v>
+        <v>5499200</v>
       </c>
       <c r="G57" s="3">
-        <v>2415300</v>
+        <v>2458800</v>
       </c>
       <c r="H57" s="3">
-        <v>2457600</v>
+        <v>2501800</v>
       </c>
       <c r="I57" s="3">
-        <v>2155500</v>
+        <v>2194300</v>
       </c>
       <c r="J57" s="3">
-        <v>2272300</v>
+        <v>2313200</v>
       </c>
       <c r="K57" s="3">
         <v>2209100</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3648900</v>
+        <v>3714600</v>
       </c>
       <c r="E58" s="3">
-        <v>3300800</v>
+        <v>3360200</v>
       </c>
       <c r="F58" s="3">
-        <v>10300300</v>
+        <v>10492300</v>
       </c>
       <c r="G58" s="3">
-        <v>3201100</v>
+        <v>3258700</v>
       </c>
       <c r="H58" s="3">
-        <v>3250500</v>
+        <v>3309000</v>
       </c>
       <c r="I58" s="3">
-        <v>2715300</v>
+        <v>2764200</v>
       </c>
       <c r="J58" s="3">
-        <v>2561400</v>
+        <v>2607600</v>
       </c>
       <c r="K58" s="3">
         <v>1701300</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3034300</v>
+        <v>3089000</v>
       </c>
       <c r="E59" s="3">
-        <v>2514900</v>
+        <v>2560200</v>
       </c>
       <c r="F59" s="3">
-        <v>5065800</v>
+        <v>5530800</v>
       </c>
       <c r="G59" s="3">
-        <v>2281300</v>
+        <v>2322300</v>
       </c>
       <c r="H59" s="3">
-        <v>1970900</v>
+        <v>2006400</v>
       </c>
       <c r="I59" s="3">
-        <v>2022300</v>
+        <v>2058700</v>
       </c>
       <c r="J59" s="3">
-        <v>1952900</v>
+        <v>1988100</v>
       </c>
       <c r="K59" s="3">
         <v>1496900</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9456500</v>
+        <v>9626800</v>
       </c>
       <c r="E60" s="3">
-        <v>8711400</v>
+        <v>8868300</v>
       </c>
       <c r="F60" s="3">
-        <v>8660800</v>
+        <v>8816700</v>
       </c>
       <c r="G60" s="3">
-        <v>7897600</v>
+        <v>8039900</v>
       </c>
       <c r="H60" s="3">
-        <v>7626600</v>
+        <v>7763900</v>
       </c>
       <c r="I60" s="3">
-        <v>6893100</v>
+        <v>7017200</v>
       </c>
       <c r="J60" s="3">
-        <v>6786600</v>
+        <v>6908900</v>
       </c>
       <c r="K60" s="3">
         <v>5407200</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4875200</v>
+        <v>4963000</v>
       </c>
       <c r="E61" s="3">
-        <v>4640400</v>
+        <v>4723900</v>
       </c>
       <c r="F61" s="3">
-        <v>4442600</v>
+        <v>4540000</v>
       </c>
       <c r="G61" s="3">
-        <v>4520800</v>
+        <v>4602200</v>
       </c>
       <c r="H61" s="3">
-        <v>4006100</v>
+        <v>4078200</v>
       </c>
       <c r="I61" s="3">
-        <v>4530700</v>
+        <v>4612300</v>
       </c>
       <c r="J61" s="3">
-        <v>2979200</v>
+        <v>3032900</v>
       </c>
       <c r="K61" s="3">
         <v>2484800</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>792200</v>
+        <v>806500</v>
       </c>
       <c r="E62" s="3">
-        <v>517700</v>
+        <v>527000</v>
       </c>
       <c r="F62" s="3">
-        <v>1375700</v>
+        <v>1417900</v>
       </c>
       <c r="G62" s="3">
-        <v>784900</v>
+        <v>799100</v>
       </c>
       <c r="H62" s="3">
-        <v>775000</v>
+        <v>789000</v>
       </c>
       <c r="I62" s="3">
-        <v>823900</v>
+        <v>838700</v>
       </c>
       <c r="J62" s="3">
-        <v>656300</v>
+        <v>668100</v>
       </c>
       <c r="K62" s="3">
         <v>589500</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16014800</v>
+        <v>16303200</v>
       </c>
       <c r="E66" s="3">
-        <v>14686800</v>
+        <v>14951300</v>
       </c>
       <c r="F66" s="3">
-        <v>14549600</v>
+        <v>14811600</v>
       </c>
       <c r="G66" s="3">
-        <v>13894000</v>
+        <v>14144200</v>
       </c>
       <c r="H66" s="3">
-        <v>13146300</v>
+        <v>13383000</v>
       </c>
       <c r="I66" s="3">
-        <v>12987800</v>
+        <v>13221600</v>
       </c>
       <c r="J66" s="3">
-        <v>11043300</v>
+        <v>11242200</v>
       </c>
       <c r="K66" s="3">
         <v>8955100</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11694500</v>
+        <v>11905100</v>
       </c>
       <c r="E72" s="3">
-        <v>10718100</v>
+        <v>10911100</v>
       </c>
       <c r="F72" s="3">
-        <v>19880500</v>
+        <v>20238500</v>
       </c>
       <c r="G72" s="3">
-        <v>9260100</v>
+        <v>9426900</v>
       </c>
       <c r="H72" s="3">
-        <v>8395100</v>
+        <v>8546200</v>
       </c>
       <c r="I72" s="3">
-        <v>7722700</v>
+        <v>7861800</v>
       </c>
       <c r="J72" s="3">
-        <v>6827800</v>
+        <v>6950700</v>
       </c>
       <c r="K72" s="3">
         <v>5587500</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13620400</v>
+        <v>13865700</v>
       </c>
       <c r="E76" s="3">
-        <v>12648200</v>
+        <v>12876000</v>
       </c>
       <c r="F76" s="3">
-        <v>12187900</v>
+        <v>12407400</v>
       </c>
       <c r="G76" s="3">
-        <v>11316300</v>
+        <v>11520100</v>
       </c>
       <c r="H76" s="3">
-        <v>10764500</v>
+        <v>10958400</v>
       </c>
       <c r="I76" s="3">
-        <v>10393400</v>
+        <v>10580600</v>
       </c>
       <c r="J76" s="3">
-        <v>8824600</v>
+        <v>8983500</v>
       </c>
       <c r="K76" s="3">
         <v>6894900</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1407100</v>
+        <v>1432400</v>
       </c>
       <c r="E81" s="3">
-        <v>1308300</v>
+        <v>1331900</v>
       </c>
       <c r="F81" s="3">
-        <v>1204800</v>
+        <v>1226500</v>
       </c>
       <c r="G81" s="3">
-        <v>1250700</v>
+        <v>1273200</v>
       </c>
       <c r="H81" s="3">
-        <v>1039400</v>
+        <v>1058100</v>
       </c>
       <c r="I81" s="3">
-        <v>1321700</v>
+        <v>1345500</v>
       </c>
       <c r="J81" s="3">
-        <v>1242900</v>
+        <v>1265300</v>
       </c>
       <c r="K81" s="3">
         <v>669800</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>587600</v>
+        <v>598200</v>
       </c>
       <c r="E83" s="3">
-        <v>468500</v>
+        <v>476900</v>
       </c>
       <c r="F83" s="3">
-        <v>426100</v>
+        <v>433800</v>
       </c>
       <c r="G83" s="3">
-        <v>409400</v>
+        <v>416800</v>
       </c>
       <c r="H83" s="3">
-        <v>294500</v>
+        <v>299800</v>
       </c>
       <c r="I83" s="3">
-        <v>361000</v>
+        <v>367500</v>
       </c>
       <c r="J83" s="3">
-        <v>333600</v>
+        <v>339700</v>
       </c>
       <c r="K83" s="3">
         <v>265900</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>778000</v>
+        <v>792000</v>
       </c>
       <c r="E89" s="3">
-        <v>841600</v>
+        <v>856700</v>
       </c>
       <c r="F89" s="3">
-        <v>1295000</v>
+        <v>1318300</v>
       </c>
       <c r="G89" s="3">
-        <v>1746200</v>
+        <v>1777600</v>
       </c>
       <c r="H89" s="3">
-        <v>1860100</v>
+        <v>1893600</v>
       </c>
       <c r="I89" s="3">
-        <v>793000</v>
+        <v>807200</v>
       </c>
       <c r="J89" s="3">
-        <v>786600</v>
+        <v>800700</v>
       </c>
       <c r="K89" s="3">
         <v>463400</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-719700</v>
+        <v>-732700</v>
       </c>
       <c r="E91" s="3">
-        <v>-598500</v>
+        <v>-609200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1159900</v>
+        <v>-1180800</v>
       </c>
       <c r="G91" s="3">
-        <v>-530000</v>
+        <v>-539500</v>
       </c>
       <c r="H91" s="3">
-        <v>-370700</v>
+        <v>-377400</v>
       </c>
       <c r="I91" s="3">
-        <v>-440800</v>
+        <v>-448700</v>
       </c>
       <c r="J91" s="3">
-        <v>-501800</v>
+        <v>-510800</v>
       </c>
       <c r="K91" s="3">
         <v>-424000</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-863500</v>
+        <v>-879000</v>
       </c>
       <c r="E94" s="3">
-        <v>-554700</v>
+        <v>-564600</v>
       </c>
       <c r="F94" s="3">
-        <v>-434100</v>
+        <v>-441900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1581400</v>
+        <v>-1609900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1230100</v>
+        <v>-1252300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1109300</v>
+        <v>-1129200</v>
       </c>
       <c r="J94" s="3">
-        <v>-983700</v>
+        <v>-1001400</v>
       </c>
       <c r="K94" s="3">
         <v>-629400</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-406500</v>
+        <v>-413900</v>
       </c>
       <c r="E96" s="3">
-        <v>-384200</v>
+        <v>-391100</v>
       </c>
       <c r="F96" s="3">
-        <v>-362700</v>
+        <v>-369200</v>
       </c>
       <c r="G96" s="3">
-        <v>-328900</v>
+        <v>-334800</v>
       </c>
       <c r="H96" s="3">
-        <v>-352700</v>
+        <v>-359100</v>
       </c>
       <c r="I96" s="3">
-        <v>-354000</v>
+        <v>-360400</v>
       </c>
       <c r="J96" s="3">
-        <v>-225300</v>
+        <v>-229400</v>
       </c>
       <c r="K96" s="3">
         <v>-182700</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-203100</v>
+        <v>-206800</v>
       </c>
       <c r="E100" s="3">
-        <v>-262600</v>
+        <v>-267300</v>
       </c>
       <c r="F100" s="3">
-        <v>-307500</v>
+        <v>-313000</v>
       </c>
       <c r="G100" s="3">
-        <v>107300</v>
+        <v>109200</v>
       </c>
       <c r="H100" s="3">
-        <v>-261200</v>
+        <v>-265900</v>
       </c>
       <c r="I100" s="3">
-        <v>496600</v>
+        <v>505500</v>
       </c>
       <c r="J100" s="3">
-        <v>30300</v>
+        <v>30900</v>
       </c>
       <c r="K100" s="3">
         <v>196800</v>
@@ -3464,25 +3464,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="E101" s="3">
-        <v>-39400</v>
+        <v>-40100</v>
       </c>
       <c r="F101" s="3">
-        <v>25300</v>
+        <v>25700</v>
       </c>
       <c r="G101" s="3">
-        <v>-53700</v>
+        <v>-54700</v>
       </c>
       <c r="H101" s="3">
-        <v>-49100</v>
+        <v>-50000</v>
       </c>
       <c r="I101" s="3">
-        <v>65100</v>
+        <v>66300</v>
       </c>
       <c r="J101" s="3">
-        <v>46300</v>
+        <v>47100</v>
       </c>
       <c r="K101" s="3">
         <v>59800</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-278100</v>
+        <v>-283100</v>
       </c>
       <c r="E102" s="3">
-        <v>-15100</v>
+        <v>-15300</v>
       </c>
       <c r="F102" s="3">
-        <v>578700</v>
+        <v>589100</v>
       </c>
       <c r="G102" s="3">
-        <v>218300</v>
+        <v>222300</v>
       </c>
       <c r="H102" s="3">
-        <v>319600</v>
+        <v>325400</v>
       </c>
       <c r="I102" s="3">
-        <v>245400</v>
+        <v>249800</v>
       </c>
       <c r="J102" s="3">
-        <v>-120500</v>
+        <v>-122700</v>
       </c>
       <c r="K102" s="3">
         <v>90700</v>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>KUBTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18451600</v>
+        <v>16975600</v>
       </c>
       <c r="E8" s="3">
-        <v>17781500</v>
+        <v>17587600</v>
       </c>
       <c r="F8" s="3">
-        <v>16827500</v>
+        <v>16948900</v>
       </c>
       <c r="G8" s="3">
-        <v>15338400</v>
+        <v>16039500</v>
       </c>
       <c r="H8" s="3">
-        <v>11962300</v>
+        <v>14620200</v>
       </c>
       <c r="I8" s="3">
-        <v>15250500</v>
+        <v>11402100</v>
       </c>
       <c r="J8" s="3">
+        <v>14536300</v>
+      </c>
+      <c r="K8" s="3">
         <v>14497500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10613700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8941100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13070700</v>
+        <v>12076400</v>
       </c>
       <c r="E9" s="3">
-        <v>12713400</v>
+        <v>12458700</v>
       </c>
       <c r="F9" s="3">
-        <v>23825700</v>
+        <v>12118000</v>
       </c>
       <c r="G9" s="3">
-        <v>10787700</v>
+        <v>22710000</v>
       </c>
       <c r="H9" s="3">
-        <v>8153100</v>
+        <v>10282500</v>
       </c>
       <c r="I9" s="3">
-        <v>10616800</v>
+        <v>7771300</v>
       </c>
       <c r="J9" s="3">
+        <v>10119600</v>
+      </c>
+      <c r="K9" s="3">
         <v>10157800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7709700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6526900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5380900</v>
+        <v>4899200</v>
       </c>
       <c r="E10" s="3">
-        <v>5068200</v>
+        <v>5128900</v>
       </c>
       <c r="F10" s="3">
-        <v>-6998200</v>
+        <v>4830900</v>
       </c>
       <c r="G10" s="3">
-        <v>4550800</v>
+        <v>-6670500</v>
       </c>
       <c r="H10" s="3">
-        <v>3809200</v>
+        <v>4337700</v>
       </c>
       <c r="I10" s="3">
-        <v>4633700</v>
+        <v>3630800</v>
       </c>
       <c r="J10" s="3">
+        <v>4416700</v>
+      </c>
+      <c r="K10" s="3">
         <v>4339800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2904100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2414300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,42 +907,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-12700</v>
+        <v>-12900</v>
       </c>
       <c r="E14" s="3">
-        <v>-19200</v>
+        <v>-12100</v>
       </c>
       <c r="F14" s="3">
-        <v>8500</v>
+        <v>-18300</v>
       </c>
       <c r="G14" s="3">
-        <v>2000</v>
+        <v>8100</v>
       </c>
       <c r="H14" s="3">
-        <v>43200</v>
+        <v>1900</v>
       </c>
       <c r="I14" s="3">
-        <v>-7100</v>
+        <v>41200</v>
       </c>
       <c r="J14" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K14" s="3">
         <v>15600</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,12 +976,15 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16513700</v>
+        <v>15370000</v>
       </c>
       <c r="E17" s="3">
-        <v>15962200</v>
+        <v>15740400</v>
       </c>
       <c r="F17" s="3">
-        <v>14905900</v>
+        <v>15214800</v>
       </c>
       <c r="G17" s="3">
-        <v>13524300</v>
+        <v>14207900</v>
       </c>
       <c r="H17" s="3">
-        <v>10358600</v>
+        <v>12891000</v>
       </c>
       <c r="I17" s="3">
-        <v>13288600</v>
+        <v>9873600</v>
       </c>
       <c r="J17" s="3">
+        <v>12666400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12552200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9585100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8026500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1937900</v>
+        <v>1605600</v>
       </c>
       <c r="E18" s="3">
-        <v>1819300</v>
+        <v>1847200</v>
       </c>
       <c r="F18" s="3">
-        <v>1921500</v>
+        <v>1734100</v>
       </c>
       <c r="G18" s="3">
-        <v>1814100</v>
+        <v>1831600</v>
       </c>
       <c r="H18" s="3">
-        <v>1603700</v>
+        <v>1729200</v>
       </c>
       <c r="I18" s="3">
-        <v>1961800</v>
+        <v>1528600</v>
       </c>
       <c r="J18" s="3">
+        <v>1870000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1945400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1028600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>914600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,173 +1083,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>80900</v>
+        <v>106800</v>
       </c>
       <c r="E20" s="3">
-        <v>86100</v>
+        <v>77200</v>
       </c>
       <c r="F20" s="3">
-        <v>143900</v>
+        <v>82000</v>
       </c>
       <c r="G20" s="3">
-        <v>83600</v>
+        <v>137100</v>
       </c>
       <c r="H20" s="3">
-        <v>32000</v>
+        <v>79700</v>
       </c>
       <c r="I20" s="3">
-        <v>79700</v>
+        <v>30500</v>
       </c>
       <c r="J20" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K20" s="3">
         <v>99600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>78000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2615800</v>
+        <v>2331800</v>
       </c>
       <c r="E21" s="3">
-        <v>2381300</v>
+        <v>2497000</v>
       </c>
       <c r="F21" s="3">
-        <v>2498300</v>
+        <v>2272700</v>
       </c>
       <c r="G21" s="3">
-        <v>2313700</v>
+        <v>2383900</v>
       </c>
       <c r="H21" s="3">
-        <v>1934800</v>
+        <v>2207900</v>
       </c>
       <c r="I21" s="3">
-        <v>2408300</v>
+        <v>1846000</v>
       </c>
       <c r="J21" s="3">
+        <v>2297800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2383900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1373100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1124200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="E22" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="F22" s="3">
-        <v>8800</v>
+        <v>9500</v>
       </c>
       <c r="G22" s="3">
-        <v>4800</v>
+        <v>8400</v>
       </c>
       <c r="H22" s="3">
-        <v>6700</v>
+        <v>4600</v>
       </c>
       <c r="I22" s="3">
-        <v>11400</v>
+        <v>6400</v>
       </c>
       <c r="J22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K22" s="3">
         <v>14400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16800</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2008700</v>
+        <v>1702800</v>
       </c>
       <c r="E23" s="3">
-        <v>1895400</v>
+        <v>1914600</v>
       </c>
       <c r="F23" s="3">
-        <v>2056600</v>
+        <v>1806600</v>
       </c>
       <c r="G23" s="3">
-        <v>1892900</v>
+        <v>1960300</v>
       </c>
       <c r="H23" s="3">
-        <v>1628900</v>
+        <v>1804300</v>
       </c>
       <c r="I23" s="3">
-        <v>2030200</v>
+        <v>1552700</v>
       </c>
       <c r="J23" s="3">
+        <v>1935100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2030500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1095000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>895300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>509300</v>
+        <v>430800</v>
       </c>
       <c r="E24" s="3">
-        <v>472000</v>
+        <v>485500</v>
       </c>
       <c r="F24" s="3">
-        <v>603100</v>
+        <v>449900</v>
       </c>
       <c r="G24" s="3">
-        <v>543400</v>
+        <v>574900</v>
       </c>
       <c r="H24" s="3">
-        <v>521400</v>
+        <v>518000</v>
       </c>
       <c r="I24" s="3">
-        <v>588200</v>
+        <v>497000</v>
       </c>
       <c r="J24" s="3">
+        <v>560600</v>
+      </c>
+      <c r="K24" s="3">
         <v>691100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>370300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>324200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1499400</v>
+        <v>1272100</v>
       </c>
       <c r="E26" s="3">
-        <v>1423300</v>
+        <v>1429100</v>
       </c>
       <c r="F26" s="3">
-        <v>1453500</v>
+        <v>1356700</v>
       </c>
       <c r="G26" s="3">
-        <v>1349500</v>
+        <v>1385400</v>
       </c>
       <c r="H26" s="3">
-        <v>1107500</v>
+        <v>1286300</v>
       </c>
       <c r="I26" s="3">
-        <v>1442000</v>
+        <v>1055600</v>
       </c>
       <c r="J26" s="3">
+        <v>1374500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1339400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>724700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>571100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1432400</v>
+        <v>1177200</v>
       </c>
       <c r="E27" s="3">
-        <v>1331900</v>
+        <v>1365400</v>
       </c>
       <c r="F27" s="3">
-        <v>1326600</v>
+        <v>1269500</v>
       </c>
       <c r="G27" s="3">
-        <v>1273200</v>
+        <v>1264500</v>
       </c>
       <c r="H27" s="3">
-        <v>1058100</v>
+        <v>1213600</v>
       </c>
       <c r="I27" s="3">
-        <v>1345500</v>
+        <v>1008600</v>
       </c>
       <c r="J27" s="3">
+        <v>1282500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1265300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>669800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>546000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,11 +1419,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>-100100</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-95400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-80900</v>
+        <v>-106800</v>
       </c>
       <c r="E32" s="3">
-        <v>-86100</v>
+        <v>-77200</v>
       </c>
       <c r="F32" s="3">
-        <v>-143900</v>
+        <v>-82000</v>
       </c>
       <c r="G32" s="3">
-        <v>-83600</v>
+        <v>-137100</v>
       </c>
       <c r="H32" s="3">
-        <v>-32000</v>
+        <v>-79700</v>
       </c>
       <c r="I32" s="3">
-        <v>-79700</v>
+        <v>-30500</v>
       </c>
       <c r="J32" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-99600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-78000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1432400</v>
+        <v>1177200</v>
       </c>
       <c r="E33" s="3">
-        <v>1331900</v>
+        <v>1365400</v>
       </c>
       <c r="F33" s="3">
-        <v>1226500</v>
+        <v>1269500</v>
       </c>
       <c r="G33" s="3">
-        <v>1273200</v>
+        <v>1169100</v>
       </c>
       <c r="H33" s="3">
-        <v>1058100</v>
+        <v>1213600</v>
       </c>
       <c r="I33" s="3">
-        <v>1345500</v>
+        <v>1008600</v>
       </c>
       <c r="J33" s="3">
+        <v>1282500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1265300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>669800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>546000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1432400</v>
+        <v>1177200</v>
       </c>
       <c r="E35" s="3">
-        <v>1331900</v>
+        <v>1365400</v>
       </c>
       <c r="F35" s="3">
-        <v>1226500</v>
+        <v>1269500</v>
       </c>
       <c r="G35" s="3">
-        <v>1273200</v>
+        <v>1169100</v>
       </c>
       <c r="H35" s="3">
-        <v>1058100</v>
+        <v>1213600</v>
       </c>
       <c r="I35" s="3">
-        <v>1345500</v>
+        <v>1008600</v>
       </c>
       <c r="J35" s="3">
+        <v>1282500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1265300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>669800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>546000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,305 +1732,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1918800</v>
+        <v>2041900</v>
       </c>
       <c r="E41" s="3">
-        <v>2201900</v>
+        <v>1828900</v>
       </c>
       <c r="F41" s="3">
-        <v>4434400</v>
+        <v>2098800</v>
       </c>
       <c r="G41" s="3">
-        <v>1628100</v>
+        <v>4226800</v>
       </c>
       <c r="H41" s="3">
-        <v>1405800</v>
+        <v>1551900</v>
       </c>
       <c r="I41" s="3">
-        <v>1086100</v>
+        <v>1340000</v>
       </c>
       <c r="J41" s="3">
+        <v>1035200</v>
+      </c>
+      <c r="K41" s="3">
         <v>836300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1004800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>892000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>691600</v>
+        <v>457700</v>
       </c>
       <c r="E42" s="3">
-        <v>522500</v>
+        <v>659200</v>
       </c>
       <c r="F42" s="3">
-        <v>512000</v>
+        <v>498100</v>
       </c>
       <c r="G42" s="3">
-        <v>58600</v>
+        <v>488000</v>
       </c>
       <c r="H42" s="3">
-        <v>73000</v>
+        <v>55800</v>
       </c>
       <c r="I42" s="3">
-        <v>87300</v>
+        <v>69600</v>
       </c>
       <c r="J42" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K42" s="3">
         <v>44500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38800</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9444900</v>
+        <v>8421300</v>
       </c>
       <c r="E43" s="3">
-        <v>8957300</v>
+        <v>9002600</v>
       </c>
       <c r="F43" s="3">
-        <v>23665100</v>
+        <v>8537800</v>
       </c>
       <c r="G43" s="3">
-        <v>8428000</v>
+        <v>22556900</v>
       </c>
       <c r="H43" s="3">
-        <v>8184600</v>
+        <v>8033300</v>
       </c>
       <c r="I43" s="3">
-        <v>8526100</v>
+        <v>7801300</v>
       </c>
       <c r="J43" s="3">
+        <v>8126800</v>
+      </c>
+      <c r="K43" s="3">
         <v>7348700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5510400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4425400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3674900</v>
+        <v>3425800</v>
       </c>
       <c r="E44" s="3">
-        <v>3562400</v>
+        <v>3502800</v>
       </c>
       <c r="F44" s="3">
-        <v>6932400</v>
+        <v>3395600</v>
       </c>
       <c r="G44" s="3">
-        <v>3422900</v>
+        <v>6607800</v>
       </c>
       <c r="H44" s="3">
-        <v>6850800</v>
+        <v>3262600</v>
       </c>
       <c r="I44" s="3">
-        <v>3248500</v>
+        <v>6530000</v>
       </c>
       <c r="J44" s="3">
+        <v>3096400</v>
+      </c>
+      <c r="K44" s="3">
         <v>2880700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2104200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1792400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>788300</v>
+        <v>662300</v>
       </c>
       <c r="E45" s="3">
-        <v>511700</v>
+        <v>751400</v>
       </c>
       <c r="F45" s="3">
-        <v>1579800</v>
+        <v>487800</v>
       </c>
       <c r="G45" s="3">
-        <v>1483700</v>
+        <v>1505800</v>
       </c>
       <c r="H45" s="3">
-        <v>2549500</v>
+        <v>1414200</v>
       </c>
       <c r="I45" s="3">
-        <v>919400</v>
+        <v>2430100</v>
       </c>
       <c r="J45" s="3">
+        <v>876300</v>
+      </c>
+      <c r="K45" s="3">
         <v>748200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>565200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>571800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16518500</v>
+        <v>15009000</v>
       </c>
       <c r="E46" s="3">
-        <v>15755800</v>
+        <v>15745000</v>
       </c>
       <c r="F46" s="3">
-        <v>15457000</v>
+        <v>15018000</v>
       </c>
       <c r="G46" s="3">
-        <v>15021100</v>
+        <v>14733200</v>
       </c>
       <c r="H46" s="3">
-        <v>14327000</v>
+        <v>14317800</v>
       </c>
       <c r="I46" s="3">
-        <v>13867400</v>
+        <v>13656100</v>
       </c>
       <c r="J46" s="3">
+        <v>13218000</v>
+      </c>
+      <c r="K46" s="3">
         <v>11858400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9223400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7681500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1755400</v>
+        <v>1600300</v>
       </c>
       <c r="E47" s="3">
-        <v>1747200</v>
+        <v>1673200</v>
       </c>
       <c r="F47" s="3">
-        <v>2757700</v>
+        <v>1665400</v>
       </c>
       <c r="G47" s="3">
-        <v>649700</v>
+        <v>2628500</v>
       </c>
       <c r="H47" s="3">
-        <v>853300</v>
+        <v>619300</v>
       </c>
       <c r="I47" s="3">
-        <v>592400</v>
+        <v>813300</v>
       </c>
       <c r="J47" s="3">
+        <v>564600</v>
+      </c>
+      <c r="K47" s="3">
         <v>555400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>460200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2873400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3895400</v>
+        <v>3890000</v>
       </c>
       <c r="E48" s="3">
-        <v>3171600</v>
+        <v>3713000</v>
       </c>
       <c r="F48" s="3">
-        <v>9395900</v>
+        <v>3023100</v>
       </c>
       <c r="G48" s="3">
-        <v>3019800</v>
+        <v>8955900</v>
       </c>
       <c r="H48" s="3">
-        <v>2747200</v>
+        <v>2878400</v>
       </c>
       <c r="I48" s="3">
-        <v>2855000</v>
+        <v>2618600</v>
       </c>
       <c r="J48" s="3">
+        <v>2721300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2716800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2322700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1996300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>586100</v>
+        <v>664500</v>
       </c>
       <c r="E49" s="3">
-        <v>480000</v>
+        <v>558600</v>
       </c>
       <c r="F49" s="3">
-        <v>1362400</v>
+        <v>457500</v>
       </c>
       <c r="G49" s="3">
-        <v>442600</v>
+        <v>1298600</v>
       </c>
       <c r="H49" s="3">
-        <v>565600</v>
+        <v>421900</v>
       </c>
       <c r="I49" s="3">
-        <v>333400</v>
+        <v>539200</v>
       </c>
       <c r="J49" s="3">
+        <v>317800</v>
+      </c>
+      <c r="K49" s="3">
         <v>332800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>262700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>238600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7413500</v>
+        <v>8050300</v>
       </c>
       <c r="E52" s="3">
-        <v>6672600</v>
+        <v>7066300</v>
       </c>
       <c r="F52" s="3">
-        <v>13690600</v>
+        <v>6360200</v>
       </c>
       <c r="G52" s="3">
-        <v>6531100</v>
+        <v>13049500</v>
       </c>
       <c r="H52" s="3">
-        <v>6384900</v>
+        <v>6225300</v>
       </c>
       <c r="I52" s="3">
-        <v>6154100</v>
+        <v>6085900</v>
       </c>
       <c r="J52" s="3">
+        <v>5865900</v>
+      </c>
+      <c r="K52" s="3">
         <v>4762500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3580900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>405700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30168800</v>
+        <v>29214100</v>
       </c>
       <c r="E54" s="3">
-        <v>27827200</v>
+        <v>28756200</v>
       </c>
       <c r="F54" s="3">
-        <v>27219000</v>
+        <v>26524200</v>
       </c>
       <c r="G54" s="3">
-        <v>25664300</v>
+        <v>25944500</v>
       </c>
       <c r="H54" s="3">
-        <v>24341400</v>
+        <v>24462500</v>
       </c>
       <c r="I54" s="3">
-        <v>23802200</v>
+        <v>23201600</v>
       </c>
       <c r="J54" s="3">
+        <v>22687700</v>
+      </c>
+      <c r="K54" s="3">
         <v>20225800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15850000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13195600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2823200</v>
+        <v>2964200</v>
       </c>
       <c r="E57" s="3">
-        <v>2948000</v>
+        <v>2691000</v>
       </c>
       <c r="F57" s="3">
-        <v>5499200</v>
+        <v>2809900</v>
       </c>
       <c r="G57" s="3">
-        <v>2458800</v>
+        <v>5241700</v>
       </c>
       <c r="H57" s="3">
-        <v>2501800</v>
+        <v>2343700</v>
       </c>
       <c r="I57" s="3">
-        <v>2194300</v>
+        <v>2384700</v>
       </c>
       <c r="J57" s="3">
+        <v>2091500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2313200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2209100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1765800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3714600</v>
+        <v>3352900</v>
       </c>
       <c r="E58" s="3">
-        <v>3360200</v>
+        <v>3540700</v>
       </c>
       <c r="F58" s="3">
-        <v>10492300</v>
+        <v>3202900</v>
       </c>
       <c r="G58" s="3">
-        <v>3258700</v>
+        <v>10000900</v>
       </c>
       <c r="H58" s="3">
-        <v>3309000</v>
+        <v>3106100</v>
       </c>
       <c r="I58" s="3">
-        <v>2764200</v>
+        <v>3154100</v>
       </c>
       <c r="J58" s="3">
+        <v>2634800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2607600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1701300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1718500</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3089000</v>
+        <v>3084900</v>
       </c>
       <c r="E59" s="3">
-        <v>2560200</v>
+        <v>2944300</v>
       </c>
       <c r="F59" s="3">
-        <v>5530800</v>
+        <v>2440300</v>
       </c>
       <c r="G59" s="3">
-        <v>2322300</v>
+        <v>5271800</v>
       </c>
       <c r="H59" s="3">
-        <v>2006400</v>
+        <v>2213600</v>
       </c>
       <c r="I59" s="3">
-        <v>2058700</v>
+        <v>1912400</v>
       </c>
       <c r="J59" s="3">
+        <v>1962300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1988100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1496900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1269900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9626800</v>
+        <v>9402100</v>
       </c>
       <c r="E60" s="3">
-        <v>8868300</v>
+        <v>9176000</v>
       </c>
       <c r="F60" s="3">
-        <v>8816700</v>
+        <v>8453100</v>
       </c>
       <c r="G60" s="3">
-        <v>8039900</v>
+        <v>8403900</v>
       </c>
       <c r="H60" s="3">
-        <v>7763900</v>
+        <v>7663400</v>
       </c>
       <c r="I60" s="3">
-        <v>7017200</v>
+        <v>7400400</v>
       </c>
       <c r="J60" s="3">
+        <v>6688600</v>
+      </c>
+      <c r="K60" s="3">
         <v>6908900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5407200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4754200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4963000</v>
+        <v>4656900</v>
       </c>
       <c r="E61" s="3">
-        <v>4723900</v>
+        <v>4730600</v>
       </c>
       <c r="F61" s="3">
-        <v>4540000</v>
+        <v>4502700</v>
       </c>
       <c r="G61" s="3">
-        <v>4602200</v>
+        <v>4327400</v>
       </c>
       <c r="H61" s="3">
-        <v>4078200</v>
+        <v>4386700</v>
       </c>
       <c r="I61" s="3">
-        <v>4612300</v>
+        <v>3887200</v>
       </c>
       <c r="J61" s="3">
+        <v>4396400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3032900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2484800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1635600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>806500</v>
+        <v>735600</v>
       </c>
       <c r="E62" s="3">
-        <v>527000</v>
+        <v>768700</v>
       </c>
       <c r="F62" s="3">
-        <v>1417900</v>
+        <v>502300</v>
       </c>
       <c r="G62" s="3">
-        <v>799100</v>
+        <v>1351500</v>
       </c>
       <c r="H62" s="3">
-        <v>789000</v>
+        <v>761700</v>
       </c>
       <c r="I62" s="3">
-        <v>838700</v>
+        <v>752000</v>
       </c>
       <c r="J62" s="3">
+        <v>799400</v>
+      </c>
+      <c r="K62" s="3">
         <v>668100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>589500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>532800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16303200</v>
+        <v>15693600</v>
       </c>
       <c r="E66" s="3">
-        <v>14951300</v>
+        <v>15539800</v>
       </c>
       <c r="F66" s="3">
-        <v>14811600</v>
+        <v>14251200</v>
       </c>
       <c r="G66" s="3">
-        <v>14144200</v>
+        <v>14118000</v>
       </c>
       <c r="H66" s="3">
-        <v>13383000</v>
+        <v>13481900</v>
       </c>
       <c r="I66" s="3">
-        <v>13221600</v>
+        <v>12756400</v>
       </c>
       <c r="J66" s="3">
+        <v>12602500</v>
+      </c>
+      <c r="K66" s="3">
         <v>11242200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8955100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7401000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11905100</v>
+        <v>12144000</v>
       </c>
       <c r="E72" s="3">
-        <v>10911100</v>
+        <v>11347600</v>
       </c>
       <c r="F72" s="3">
-        <v>20238500</v>
+        <v>10400200</v>
       </c>
       <c r="G72" s="3">
-        <v>9426900</v>
+        <v>19290800</v>
       </c>
       <c r="H72" s="3">
-        <v>8546200</v>
+        <v>8985400</v>
       </c>
       <c r="I72" s="3">
-        <v>7861800</v>
+        <v>8146100</v>
       </c>
       <c r="J72" s="3">
+        <v>7493700</v>
+      </c>
+      <c r="K72" s="3">
         <v>6950700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5587500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5146800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13865700</v>
+        <v>13520500</v>
       </c>
       <c r="E76" s="3">
-        <v>12876000</v>
+        <v>13216400</v>
       </c>
       <c r="F76" s="3">
-        <v>12407400</v>
+        <v>12273000</v>
       </c>
       <c r="G76" s="3">
-        <v>11520100</v>
+        <v>11826400</v>
       </c>
       <c r="H76" s="3">
-        <v>10958400</v>
+        <v>10980700</v>
       </c>
       <c r="I76" s="3">
-        <v>10580600</v>
+        <v>10445200</v>
       </c>
       <c r="J76" s="3">
+        <v>10085100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8983500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6894900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5794600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1432400</v>
+        <v>1177200</v>
       </c>
       <c r="E81" s="3">
-        <v>1331900</v>
+        <v>1365400</v>
       </c>
       <c r="F81" s="3">
-        <v>1226500</v>
+        <v>1269500</v>
       </c>
       <c r="G81" s="3">
-        <v>1273200</v>
+        <v>1169100</v>
       </c>
       <c r="H81" s="3">
-        <v>1058100</v>
+        <v>1213600</v>
       </c>
       <c r="I81" s="3">
-        <v>1345500</v>
+        <v>1008600</v>
       </c>
       <c r="J81" s="3">
+        <v>1282500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1265300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>669800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>546000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>598200</v>
+        <v>616800</v>
       </c>
       <c r="E83" s="3">
-        <v>476900</v>
+        <v>570200</v>
       </c>
       <c r="F83" s="3">
-        <v>433800</v>
+        <v>454600</v>
       </c>
       <c r="G83" s="3">
-        <v>416800</v>
+        <v>413400</v>
       </c>
       <c r="H83" s="3">
-        <v>299800</v>
+        <v>397300</v>
       </c>
       <c r="I83" s="3">
-        <v>367500</v>
+        <v>285700</v>
       </c>
       <c r="J83" s="3">
+        <v>350300</v>
+      </c>
+      <c r="K83" s="3">
         <v>339700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>265900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>212100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>792000</v>
+        <v>1309100</v>
       </c>
       <c r="E89" s="3">
-        <v>856700</v>
+        <v>754900</v>
       </c>
       <c r="F89" s="3">
-        <v>1318300</v>
+        <v>816600</v>
       </c>
       <c r="G89" s="3">
-        <v>1777600</v>
+        <v>1256600</v>
       </c>
       <c r="H89" s="3">
-        <v>1893600</v>
+        <v>1694400</v>
       </c>
       <c r="I89" s="3">
-        <v>807200</v>
+        <v>1804900</v>
       </c>
       <c r="J89" s="3">
+        <v>769400</v>
+      </c>
+      <c r="K89" s="3">
         <v>800700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>463400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>708700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-732700</v>
+        <v>-558000</v>
       </c>
       <c r="E91" s="3">
-        <v>-609200</v>
+        <v>-698400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1180800</v>
+        <v>-580700</v>
       </c>
       <c r="G91" s="3">
-        <v>-539500</v>
+        <v>-1125500</v>
       </c>
       <c r="H91" s="3">
-        <v>-377400</v>
+        <v>-514200</v>
       </c>
       <c r="I91" s="3">
-        <v>-448700</v>
+        <v>-359700</v>
       </c>
       <c r="J91" s="3">
+        <v>-427700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-510800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-424000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-239200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-879000</v>
+        <v>-431700</v>
       </c>
       <c r="E94" s="3">
-        <v>-564600</v>
+        <v>-837900</v>
       </c>
       <c r="F94" s="3">
-        <v>-441900</v>
+        <v>-538200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1609900</v>
+        <v>-421200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1252300</v>
+        <v>-1534500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1129200</v>
+        <v>-1193600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1076400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1001400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-629400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-620300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-413900</v>
+        <v>-401700</v>
       </c>
       <c r="E96" s="3">
-        <v>-391100</v>
+        <v>-394500</v>
       </c>
       <c r="F96" s="3">
-        <v>-369200</v>
+        <v>-372800</v>
       </c>
       <c r="G96" s="3">
-        <v>-334800</v>
+        <v>-351900</v>
       </c>
       <c r="H96" s="3">
-        <v>-359100</v>
+        <v>-319100</v>
       </c>
       <c r="I96" s="3">
-        <v>-360400</v>
+        <v>-342300</v>
       </c>
       <c r="J96" s="3">
+        <v>-343500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-229400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-182700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-157000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-206800</v>
+        <v>-626100</v>
       </c>
       <c r="E100" s="3">
-        <v>-267300</v>
+        <v>-197100</v>
       </c>
       <c r="F100" s="3">
-        <v>-313000</v>
+        <v>-254800</v>
       </c>
       <c r="G100" s="3">
-        <v>109200</v>
+        <v>-298400</v>
       </c>
       <c r="H100" s="3">
-        <v>-265900</v>
+        <v>104100</v>
       </c>
       <c r="I100" s="3">
-        <v>505500</v>
+        <v>-253500</v>
       </c>
       <c r="J100" s="3">
+        <v>481800</v>
+      </c>
+      <c r="K100" s="3">
         <v>30900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>196800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-117700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10700</v>
+        <v>-38300</v>
       </c>
       <c r="E101" s="3">
-        <v>-40100</v>
+        <v>10200</v>
       </c>
       <c r="F101" s="3">
-        <v>25700</v>
+        <v>-38200</v>
       </c>
       <c r="G101" s="3">
-        <v>-54700</v>
+        <v>24500</v>
       </c>
       <c r="H101" s="3">
-        <v>-50000</v>
+        <v>-52100</v>
       </c>
       <c r="I101" s="3">
-        <v>66300</v>
+        <v>-47700</v>
       </c>
       <c r="J101" s="3">
+        <v>63200</v>
+      </c>
+      <c r="K101" s="3">
         <v>47100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>59800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-283100</v>
+        <v>213000</v>
       </c>
       <c r="E102" s="3">
-        <v>-15300</v>
+        <v>-269800</v>
       </c>
       <c r="F102" s="3">
-        <v>589100</v>
+        <v>-14600</v>
       </c>
       <c r="G102" s="3">
-        <v>222300</v>
+        <v>561500</v>
       </c>
       <c r="H102" s="3">
-        <v>325400</v>
+        <v>211900</v>
       </c>
       <c r="I102" s="3">
-        <v>249800</v>
+        <v>310100</v>
       </c>
       <c r="J102" s="3">
+        <v>238100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-122700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>90700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-42000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16975600</v>
+        <v>17031200</v>
       </c>
       <c r="E8" s="3">
-        <v>17587600</v>
+        <v>17645200</v>
       </c>
       <c r="F8" s="3">
-        <v>16948900</v>
+        <v>17004400</v>
       </c>
       <c r="G8" s="3">
-        <v>16039500</v>
+        <v>16092000</v>
       </c>
       <c r="H8" s="3">
-        <v>14620200</v>
+        <v>14668100</v>
       </c>
       <c r="I8" s="3">
-        <v>11402100</v>
+        <v>11439500</v>
       </c>
       <c r="J8" s="3">
-        <v>14536300</v>
+        <v>14584000</v>
       </c>
       <c r="K8" s="3">
         <v>14497500</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12076400</v>
+        <v>12115900</v>
       </c>
       <c r="E9" s="3">
-        <v>12458700</v>
+        <v>12499500</v>
       </c>
       <c r="F9" s="3">
-        <v>12118000</v>
+        <v>12157700</v>
       </c>
       <c r="G9" s="3">
-        <v>22710000</v>
+        <v>22784400</v>
       </c>
       <c r="H9" s="3">
-        <v>10282500</v>
+        <v>10316200</v>
       </c>
       <c r="I9" s="3">
-        <v>7771300</v>
+        <v>7796800</v>
       </c>
       <c r="J9" s="3">
-        <v>10119600</v>
+        <v>10152800</v>
       </c>
       <c r="K9" s="3">
         <v>10157800</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4899200</v>
+        <v>4915300</v>
       </c>
       <c r="E10" s="3">
-        <v>5128900</v>
+        <v>5145700</v>
       </c>
       <c r="F10" s="3">
-        <v>4830900</v>
+        <v>4846700</v>
       </c>
       <c r="G10" s="3">
-        <v>-6670500</v>
+        <v>-6692400</v>
       </c>
       <c r="H10" s="3">
-        <v>4337700</v>
+        <v>4351900</v>
       </c>
       <c r="I10" s="3">
-        <v>3630800</v>
+        <v>3642700</v>
       </c>
       <c r="J10" s="3">
-        <v>4416700</v>
+        <v>4431200</v>
       </c>
       <c r="K10" s="3">
         <v>4339800</v>
@@ -917,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-12900</v>
+        <v>-13000</v>
       </c>
       <c r="E14" s="3">
         <v>-12100</v>
       </c>
       <c r="F14" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="G14" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="H14" s="3">
         <v>1900</v>
       </c>
       <c r="I14" s="3">
-        <v>41200</v>
+        <v>41300</v>
       </c>
       <c r="J14" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="K14" s="3">
         <v>15600</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15370000</v>
+        <v>15420400</v>
       </c>
       <c r="E17" s="3">
-        <v>15740400</v>
+        <v>15792000</v>
       </c>
       <c r="F17" s="3">
-        <v>15214800</v>
+        <v>15264600</v>
       </c>
       <c r="G17" s="3">
-        <v>14207900</v>
+        <v>14254500</v>
       </c>
       <c r="H17" s="3">
-        <v>12891000</v>
+        <v>12933200</v>
       </c>
       <c r="I17" s="3">
-        <v>9873600</v>
+        <v>9905900</v>
       </c>
       <c r="J17" s="3">
-        <v>12666400</v>
+        <v>12707900</v>
       </c>
       <c r="K17" s="3">
         <v>12552200</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1605600</v>
+        <v>1610900</v>
       </c>
       <c r="E18" s="3">
-        <v>1847200</v>
+        <v>1853200</v>
       </c>
       <c r="F18" s="3">
-        <v>1734100</v>
+        <v>1739800</v>
       </c>
       <c r="G18" s="3">
-        <v>1831600</v>
+        <v>1837600</v>
       </c>
       <c r="H18" s="3">
-        <v>1729200</v>
+        <v>1734900</v>
       </c>
       <c r="I18" s="3">
-        <v>1528600</v>
+        <v>1533600</v>
       </c>
       <c r="J18" s="3">
-        <v>1870000</v>
+        <v>1876100</v>
       </c>
       <c r="K18" s="3">
         <v>1945400</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>106800</v>
+        <v>107100</v>
       </c>
       <c r="E20" s="3">
-        <v>77200</v>
+        <v>77400</v>
       </c>
       <c r="F20" s="3">
-        <v>82000</v>
+        <v>82300</v>
       </c>
       <c r="G20" s="3">
-        <v>137100</v>
+        <v>137600</v>
       </c>
       <c r="H20" s="3">
-        <v>79700</v>
+        <v>79900</v>
       </c>
       <c r="I20" s="3">
-        <v>30500</v>
+        <v>30600</v>
       </c>
       <c r="J20" s="3">
-        <v>76000</v>
+        <v>76200</v>
       </c>
       <c r="K20" s="3">
         <v>99600</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2331800</v>
+        <v>2337500</v>
       </c>
       <c r="E21" s="3">
-        <v>2497000</v>
+        <v>2503300</v>
       </c>
       <c r="F21" s="3">
-        <v>2272700</v>
+        <v>2278600</v>
       </c>
       <c r="G21" s="3">
-        <v>2383900</v>
+        <v>2390400</v>
       </c>
       <c r="H21" s="3">
-        <v>2207900</v>
+        <v>2213800</v>
       </c>
       <c r="I21" s="3">
-        <v>1846000</v>
+        <v>1851100</v>
       </c>
       <c r="J21" s="3">
-        <v>2297800</v>
+        <v>2304100</v>
       </c>
       <c r="K21" s="3">
         <v>2383900</v>
@@ -1180,7 +1180,7 @@
         <v>6400</v>
       </c>
       <c r="J22" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="K22" s="3">
         <v>14400</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1702800</v>
+        <v>1708400</v>
       </c>
       <c r="E23" s="3">
-        <v>1914600</v>
+        <v>1920900</v>
       </c>
       <c r="F23" s="3">
-        <v>1806600</v>
+        <v>1812500</v>
       </c>
       <c r="G23" s="3">
-        <v>1960300</v>
+        <v>1966700</v>
       </c>
       <c r="H23" s="3">
-        <v>1804300</v>
+        <v>1810200</v>
       </c>
       <c r="I23" s="3">
-        <v>1552700</v>
+        <v>1557700</v>
       </c>
       <c r="J23" s="3">
-        <v>1935100</v>
+        <v>1941500</v>
       </c>
       <c r="K23" s="3">
         <v>2030500</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>430800</v>
+        <v>432200</v>
       </c>
       <c r="E24" s="3">
-        <v>485500</v>
+        <v>487100</v>
       </c>
       <c r="F24" s="3">
-        <v>449900</v>
+        <v>451400</v>
       </c>
       <c r="G24" s="3">
-        <v>574900</v>
+        <v>576800</v>
       </c>
       <c r="H24" s="3">
-        <v>518000</v>
+        <v>519700</v>
       </c>
       <c r="I24" s="3">
-        <v>497000</v>
+        <v>498700</v>
       </c>
       <c r="J24" s="3">
-        <v>560600</v>
+        <v>562500</v>
       </c>
       <c r="K24" s="3">
         <v>691100</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1272100</v>
+        <v>1276200</v>
       </c>
       <c r="E26" s="3">
-        <v>1429100</v>
+        <v>1433800</v>
       </c>
       <c r="F26" s="3">
-        <v>1356700</v>
+        <v>1361100</v>
       </c>
       <c r="G26" s="3">
-        <v>1385400</v>
+        <v>1390000</v>
       </c>
       <c r="H26" s="3">
-        <v>1286300</v>
+        <v>1290500</v>
       </c>
       <c r="I26" s="3">
-        <v>1055600</v>
+        <v>1059100</v>
       </c>
       <c r="J26" s="3">
-        <v>1374500</v>
+        <v>1379000</v>
       </c>
       <c r="K26" s="3">
         <v>1339400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1177200</v>
+        <v>1181100</v>
       </c>
       <c r="E27" s="3">
-        <v>1365400</v>
+        <v>1369800</v>
       </c>
       <c r="F27" s="3">
-        <v>1269500</v>
+        <v>1273700</v>
       </c>
       <c r="G27" s="3">
-        <v>1264500</v>
+        <v>1268600</v>
       </c>
       <c r="H27" s="3">
-        <v>1213600</v>
+        <v>1217500</v>
       </c>
       <c r="I27" s="3">
-        <v>1008600</v>
+        <v>1011900</v>
       </c>
       <c r="J27" s="3">
-        <v>1282500</v>
+        <v>1286700</v>
       </c>
       <c r="K27" s="3">
         <v>1265300</v>
@@ -1423,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-95400</v>
+        <v>-95700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-106800</v>
+        <v>-107100</v>
       </c>
       <c r="E32" s="3">
-        <v>-77200</v>
+        <v>-77400</v>
       </c>
       <c r="F32" s="3">
-        <v>-82000</v>
+        <v>-82300</v>
       </c>
       <c r="G32" s="3">
-        <v>-137100</v>
+        <v>-137600</v>
       </c>
       <c r="H32" s="3">
-        <v>-79700</v>
+        <v>-79900</v>
       </c>
       <c r="I32" s="3">
-        <v>-30500</v>
+        <v>-30600</v>
       </c>
       <c r="J32" s="3">
-        <v>-76000</v>
+        <v>-76200</v>
       </c>
       <c r="K32" s="3">
         <v>-99600</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1177200</v>
+        <v>1181100</v>
       </c>
       <c r="E33" s="3">
-        <v>1365400</v>
+        <v>1369800</v>
       </c>
       <c r="F33" s="3">
-        <v>1269500</v>
+        <v>1273700</v>
       </c>
       <c r="G33" s="3">
-        <v>1169100</v>
+        <v>1172900</v>
       </c>
       <c r="H33" s="3">
-        <v>1213600</v>
+        <v>1217500</v>
       </c>
       <c r="I33" s="3">
-        <v>1008600</v>
+        <v>1011900</v>
       </c>
       <c r="J33" s="3">
-        <v>1282500</v>
+        <v>1286700</v>
       </c>
       <c r="K33" s="3">
         <v>1265300</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1177200</v>
+        <v>1181100</v>
       </c>
       <c r="E35" s="3">
-        <v>1365400</v>
+        <v>1369800</v>
       </c>
       <c r="F35" s="3">
-        <v>1269500</v>
+        <v>1273700</v>
       </c>
       <c r="G35" s="3">
-        <v>1169100</v>
+        <v>1172900</v>
       </c>
       <c r="H35" s="3">
-        <v>1213600</v>
+        <v>1217500</v>
       </c>
       <c r="I35" s="3">
-        <v>1008600</v>
+        <v>1011900</v>
       </c>
       <c r="J35" s="3">
-        <v>1282500</v>
+        <v>1286700</v>
       </c>
       <c r="K35" s="3">
         <v>1265300</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2041900</v>
+        <v>2048600</v>
       </c>
       <c r="E41" s="3">
-        <v>1828900</v>
+        <v>1834900</v>
       </c>
       <c r="F41" s="3">
-        <v>2098800</v>
+        <v>2105600</v>
       </c>
       <c r="G41" s="3">
-        <v>4226800</v>
+        <v>4240600</v>
       </c>
       <c r="H41" s="3">
-        <v>1551900</v>
+        <v>1556900</v>
       </c>
       <c r="I41" s="3">
-        <v>1340000</v>
+        <v>1344400</v>
       </c>
       <c r="J41" s="3">
-        <v>1035200</v>
+        <v>1038600</v>
       </c>
       <c r="K41" s="3">
         <v>836300</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>457700</v>
+        <v>459200</v>
       </c>
       <c r="E42" s="3">
-        <v>659200</v>
+        <v>661400</v>
       </c>
       <c r="F42" s="3">
-        <v>498100</v>
+        <v>499700</v>
       </c>
       <c r="G42" s="3">
-        <v>488000</v>
+        <v>489600</v>
       </c>
       <c r="H42" s="3">
-        <v>55800</v>
+        <v>56000</v>
       </c>
       <c r="I42" s="3">
-        <v>69600</v>
+        <v>69800</v>
       </c>
       <c r="J42" s="3">
-        <v>83200</v>
+        <v>83500</v>
       </c>
       <c r="K42" s="3">
         <v>44500</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8421300</v>
+        <v>8448900</v>
       </c>
       <c r="E43" s="3">
-        <v>9002600</v>
+        <v>9032100</v>
       </c>
       <c r="F43" s="3">
-        <v>8537800</v>
+        <v>8565800</v>
       </c>
       <c r="G43" s="3">
-        <v>22556900</v>
+        <v>22630800</v>
       </c>
       <c r="H43" s="3">
-        <v>8033300</v>
+        <v>8059600</v>
       </c>
       <c r="I43" s="3">
-        <v>7801300</v>
+        <v>7826900</v>
       </c>
       <c r="J43" s="3">
-        <v>8126800</v>
+        <v>8153500</v>
       </c>
       <c r="K43" s="3">
         <v>7348700</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3425800</v>
+        <v>3437000</v>
       </c>
       <c r="E44" s="3">
-        <v>3502800</v>
+        <v>3514300</v>
       </c>
       <c r="F44" s="3">
-        <v>3395600</v>
+        <v>3406700</v>
       </c>
       <c r="G44" s="3">
-        <v>6607800</v>
+        <v>6629400</v>
       </c>
       <c r="H44" s="3">
-        <v>3262600</v>
+        <v>3273300</v>
       </c>
       <c r="I44" s="3">
-        <v>6530000</v>
+        <v>6551400</v>
       </c>
       <c r="J44" s="3">
-        <v>3096400</v>
+        <v>3106500</v>
       </c>
       <c r="K44" s="3">
         <v>2880700</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>662300</v>
+        <v>664500</v>
       </c>
       <c r="E45" s="3">
-        <v>751400</v>
+        <v>753900</v>
       </c>
       <c r="F45" s="3">
-        <v>487800</v>
+        <v>489400</v>
       </c>
       <c r="G45" s="3">
-        <v>1505800</v>
+        <v>1510800</v>
       </c>
       <c r="H45" s="3">
-        <v>1414200</v>
+        <v>1418800</v>
       </c>
       <c r="I45" s="3">
-        <v>2430100</v>
+        <v>2438000</v>
       </c>
       <c r="J45" s="3">
-        <v>876300</v>
+        <v>879200</v>
       </c>
       <c r="K45" s="3">
         <v>748200</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15009000</v>
+        <v>15058200</v>
       </c>
       <c r="E46" s="3">
-        <v>15745000</v>
+        <v>15796500</v>
       </c>
       <c r="F46" s="3">
-        <v>15018000</v>
+        <v>15067200</v>
       </c>
       <c r="G46" s="3">
-        <v>14733200</v>
+        <v>14781400</v>
       </c>
       <c r="H46" s="3">
-        <v>14317800</v>
+        <v>14364700</v>
       </c>
       <c r="I46" s="3">
-        <v>13656100</v>
+        <v>13700900</v>
       </c>
       <c r="J46" s="3">
-        <v>13218000</v>
+        <v>13261300</v>
       </c>
       <c r="K46" s="3">
         <v>11858400</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1600300</v>
+        <v>1605600</v>
       </c>
       <c r="E47" s="3">
-        <v>1673200</v>
+        <v>1678700</v>
       </c>
       <c r="F47" s="3">
-        <v>1665400</v>
+        <v>1670800</v>
       </c>
       <c r="G47" s="3">
-        <v>2628500</v>
+        <v>2637200</v>
       </c>
       <c r="H47" s="3">
-        <v>619300</v>
+        <v>621300</v>
       </c>
       <c r="I47" s="3">
-        <v>813300</v>
+        <v>816000</v>
       </c>
       <c r="J47" s="3">
-        <v>564600</v>
+        <v>566500</v>
       </c>
       <c r="K47" s="3">
         <v>555400</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3890000</v>
+        <v>3902700</v>
       </c>
       <c r="E48" s="3">
-        <v>3713000</v>
+        <v>3725200</v>
       </c>
       <c r="F48" s="3">
-        <v>3023100</v>
+        <v>3033000</v>
       </c>
       <c r="G48" s="3">
-        <v>8955900</v>
+        <v>8985200</v>
       </c>
       <c r="H48" s="3">
-        <v>2878400</v>
+        <v>2887800</v>
       </c>
       <c r="I48" s="3">
-        <v>2618600</v>
+        <v>2627100</v>
       </c>
       <c r="J48" s="3">
-        <v>2721300</v>
+        <v>2730300</v>
       </c>
       <c r="K48" s="3">
         <v>2716800</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>664500</v>
+        <v>666600</v>
       </c>
       <c r="E49" s="3">
-        <v>558600</v>
+        <v>560500</v>
       </c>
       <c r="F49" s="3">
-        <v>457500</v>
+        <v>459000</v>
       </c>
       <c r="G49" s="3">
-        <v>1298600</v>
+        <v>1302900</v>
       </c>
       <c r="H49" s="3">
-        <v>421900</v>
+        <v>423300</v>
       </c>
       <c r="I49" s="3">
-        <v>539200</v>
+        <v>540900</v>
       </c>
       <c r="J49" s="3">
-        <v>317800</v>
+        <v>318900</v>
       </c>
       <c r="K49" s="3">
         <v>332800</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8050300</v>
+        <v>8076700</v>
       </c>
       <c r="E52" s="3">
-        <v>7066300</v>
+        <v>7089500</v>
       </c>
       <c r="F52" s="3">
-        <v>6360200</v>
+        <v>6381000</v>
       </c>
       <c r="G52" s="3">
-        <v>13049500</v>
+        <v>13092300</v>
       </c>
       <c r="H52" s="3">
-        <v>6225300</v>
+        <v>6245700</v>
       </c>
       <c r="I52" s="3">
-        <v>6085900</v>
+        <v>6105900</v>
       </c>
       <c r="J52" s="3">
-        <v>5865900</v>
+        <v>5885100</v>
       </c>
       <c r="K52" s="3">
         <v>4762500</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29214100</v>
+        <v>29309800</v>
       </c>
       <c r="E54" s="3">
-        <v>28756200</v>
+        <v>28850300</v>
       </c>
       <c r="F54" s="3">
-        <v>26524200</v>
+        <v>26611100</v>
       </c>
       <c r="G54" s="3">
-        <v>25944500</v>
+        <v>26029400</v>
       </c>
       <c r="H54" s="3">
-        <v>24462500</v>
+        <v>24542600</v>
       </c>
       <c r="I54" s="3">
-        <v>23201600</v>
+        <v>23277600</v>
       </c>
       <c r="J54" s="3">
-        <v>22687700</v>
+        <v>22762000</v>
       </c>
       <c r="K54" s="3">
         <v>20225800</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2964200</v>
+        <v>2973900</v>
       </c>
       <c r="E57" s="3">
-        <v>2691000</v>
+        <v>2699800</v>
       </c>
       <c r="F57" s="3">
-        <v>2809900</v>
+        <v>2819100</v>
       </c>
       <c r="G57" s="3">
-        <v>5241700</v>
+        <v>5258900</v>
       </c>
       <c r="H57" s="3">
-        <v>2343700</v>
+        <v>2351300</v>
       </c>
       <c r="I57" s="3">
-        <v>2384700</v>
+        <v>2392500</v>
       </c>
       <c r="J57" s="3">
-        <v>2091500</v>
+        <v>2098400</v>
       </c>
       <c r="K57" s="3">
         <v>2313200</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3352900</v>
+        <v>3363900</v>
       </c>
       <c r="E58" s="3">
-        <v>3540700</v>
+        <v>3552300</v>
       </c>
       <c r="F58" s="3">
-        <v>3202900</v>
+        <v>3213400</v>
       </c>
       <c r="G58" s="3">
-        <v>10000900</v>
+        <v>10033700</v>
       </c>
       <c r="H58" s="3">
-        <v>3106100</v>
+        <v>3116300</v>
       </c>
       <c r="I58" s="3">
-        <v>3154100</v>
+        <v>3164400</v>
       </c>
       <c r="J58" s="3">
-        <v>2634800</v>
+        <v>2643400</v>
       </c>
       <c r="K58" s="3">
         <v>2607600</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3084900</v>
+        <v>3095000</v>
       </c>
       <c r="E59" s="3">
-        <v>2944300</v>
+        <v>2954000</v>
       </c>
       <c r="F59" s="3">
-        <v>2440300</v>
+        <v>2448300</v>
       </c>
       <c r="G59" s="3">
-        <v>5271800</v>
+        <v>5289100</v>
       </c>
       <c r="H59" s="3">
-        <v>2213600</v>
+        <v>2220800</v>
       </c>
       <c r="I59" s="3">
-        <v>1912400</v>
+        <v>1918700</v>
       </c>
       <c r="J59" s="3">
-        <v>1962300</v>
+        <v>1968800</v>
       </c>
       <c r="K59" s="3">
         <v>1988100</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9402100</v>
+        <v>9432900</v>
       </c>
       <c r="E60" s="3">
-        <v>9176000</v>
+        <v>9206000</v>
       </c>
       <c r="F60" s="3">
-        <v>8453100</v>
+        <v>8480700</v>
       </c>
       <c r="G60" s="3">
-        <v>8403900</v>
+        <v>8431400</v>
       </c>
       <c r="H60" s="3">
-        <v>7663400</v>
+        <v>7688500</v>
       </c>
       <c r="I60" s="3">
-        <v>7400400</v>
+        <v>7424600</v>
       </c>
       <c r="J60" s="3">
-        <v>6688600</v>
+        <v>6710500</v>
       </c>
       <c r="K60" s="3">
         <v>6908900</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4656900</v>
+        <v>4672200</v>
       </c>
       <c r="E61" s="3">
-        <v>4730600</v>
+        <v>4746100</v>
       </c>
       <c r="F61" s="3">
-        <v>4502700</v>
+        <v>4517500</v>
       </c>
       <c r="G61" s="3">
-        <v>4327400</v>
+        <v>4341600</v>
       </c>
       <c r="H61" s="3">
-        <v>4386700</v>
+        <v>4401000</v>
       </c>
       <c r="I61" s="3">
-        <v>3887200</v>
+        <v>3900000</v>
       </c>
       <c r="J61" s="3">
-        <v>4396400</v>
+        <v>4410800</v>
       </c>
       <c r="K61" s="3">
         <v>3032900</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>735600</v>
+        <v>738000</v>
       </c>
       <c r="E62" s="3">
-        <v>768700</v>
+        <v>771200</v>
       </c>
       <c r="F62" s="3">
-        <v>502300</v>
+        <v>503900</v>
       </c>
       <c r="G62" s="3">
-        <v>1351500</v>
+        <v>1355900</v>
       </c>
       <c r="H62" s="3">
-        <v>761700</v>
+        <v>764100</v>
       </c>
       <c r="I62" s="3">
-        <v>752000</v>
+        <v>754500</v>
       </c>
       <c r="J62" s="3">
-        <v>799400</v>
+        <v>802100</v>
       </c>
       <c r="K62" s="3">
         <v>668100</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15693600</v>
+        <v>15745000</v>
       </c>
       <c r="E66" s="3">
-        <v>15539800</v>
+        <v>15590700</v>
       </c>
       <c r="F66" s="3">
-        <v>14251200</v>
+        <v>14297800</v>
       </c>
       <c r="G66" s="3">
-        <v>14118000</v>
+        <v>14164300</v>
       </c>
       <c r="H66" s="3">
-        <v>13481900</v>
+        <v>13526000</v>
       </c>
       <c r="I66" s="3">
-        <v>12756400</v>
+        <v>12798100</v>
       </c>
       <c r="J66" s="3">
-        <v>12602500</v>
+        <v>12643800</v>
       </c>
       <c r="K66" s="3">
         <v>11242200</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12144000</v>
+        <v>12183800</v>
       </c>
       <c r="E72" s="3">
-        <v>11347600</v>
+        <v>11384800</v>
       </c>
       <c r="F72" s="3">
-        <v>10400200</v>
+        <v>10434300</v>
       </c>
       <c r="G72" s="3">
-        <v>19290800</v>
+        <v>19354000</v>
       </c>
       <c r="H72" s="3">
-        <v>8985400</v>
+        <v>9014900</v>
       </c>
       <c r="I72" s="3">
-        <v>8146100</v>
+        <v>8172700</v>
       </c>
       <c r="J72" s="3">
-        <v>7493700</v>
+        <v>7518200</v>
       </c>
       <c r="K72" s="3">
         <v>6950700</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13520500</v>
+        <v>13564800</v>
       </c>
       <c r="E76" s="3">
-        <v>13216400</v>
+        <v>13259700</v>
       </c>
       <c r="F76" s="3">
-        <v>12273000</v>
+        <v>12313200</v>
       </c>
       <c r="G76" s="3">
-        <v>11826400</v>
+        <v>11865200</v>
       </c>
       <c r="H76" s="3">
-        <v>10980700</v>
+        <v>11016600</v>
       </c>
       <c r="I76" s="3">
-        <v>10445200</v>
+        <v>10479400</v>
       </c>
       <c r="J76" s="3">
-        <v>10085100</v>
+        <v>10118200</v>
       </c>
       <c r="K76" s="3">
         <v>8983500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1177200</v>
+        <v>1181100</v>
       </c>
       <c r="E81" s="3">
-        <v>1365400</v>
+        <v>1369800</v>
       </c>
       <c r="F81" s="3">
-        <v>1269500</v>
+        <v>1273700</v>
       </c>
       <c r="G81" s="3">
-        <v>1169100</v>
+        <v>1172900</v>
       </c>
       <c r="H81" s="3">
-        <v>1213600</v>
+        <v>1217500</v>
       </c>
       <c r="I81" s="3">
-        <v>1008600</v>
+        <v>1011900</v>
       </c>
       <c r="J81" s="3">
-        <v>1282500</v>
+        <v>1286700</v>
       </c>
       <c r="K81" s="3">
         <v>1265300</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>616800</v>
+        <v>618800</v>
       </c>
       <c r="E83" s="3">
-        <v>570200</v>
+        <v>572000</v>
       </c>
       <c r="F83" s="3">
-        <v>454600</v>
+        <v>456000</v>
       </c>
       <c r="G83" s="3">
-        <v>413400</v>
+        <v>414800</v>
       </c>
       <c r="H83" s="3">
-        <v>397300</v>
+        <v>398600</v>
       </c>
       <c r="I83" s="3">
-        <v>285700</v>
+        <v>286700</v>
       </c>
       <c r="J83" s="3">
-        <v>350300</v>
+        <v>351400</v>
       </c>
       <c r="K83" s="3">
         <v>339700</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1309100</v>
+        <v>1313400</v>
       </c>
       <c r="E89" s="3">
-        <v>754900</v>
+        <v>757300</v>
       </c>
       <c r="F89" s="3">
-        <v>816600</v>
+        <v>819300</v>
       </c>
       <c r="G89" s="3">
-        <v>1256600</v>
+        <v>1260700</v>
       </c>
       <c r="H89" s="3">
-        <v>1694400</v>
+        <v>1699900</v>
       </c>
       <c r="I89" s="3">
-        <v>1804900</v>
+        <v>1810800</v>
       </c>
       <c r="J89" s="3">
-        <v>769400</v>
+        <v>772000</v>
       </c>
       <c r="K89" s="3">
         <v>800700</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-558000</v>
+        <v>-559800</v>
       </c>
       <c r="E91" s="3">
-        <v>-698400</v>
+        <v>-700700</v>
       </c>
       <c r="F91" s="3">
-        <v>-580700</v>
+        <v>-582600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1125500</v>
+        <v>-1129200</v>
       </c>
       <c r="H91" s="3">
-        <v>-514200</v>
+        <v>-515900</v>
       </c>
       <c r="I91" s="3">
-        <v>-359700</v>
+        <v>-360900</v>
       </c>
       <c r="J91" s="3">
-        <v>-427700</v>
+        <v>-429100</v>
       </c>
       <c r="K91" s="3">
         <v>-510800</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-431700</v>
+        <v>-433200</v>
       </c>
       <c r="E94" s="3">
-        <v>-837900</v>
+        <v>-840600</v>
       </c>
       <c r="F94" s="3">
-        <v>-538200</v>
+        <v>-540000</v>
       </c>
       <c r="G94" s="3">
-        <v>-421200</v>
+        <v>-422600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1534500</v>
+        <v>-1539600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1193600</v>
+        <v>-1197500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1076400</v>
+        <v>-1079900</v>
       </c>
       <c r="K94" s="3">
         <v>-1001400</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-401700</v>
+        <v>-403000</v>
       </c>
       <c r="E96" s="3">
-        <v>-394500</v>
+        <v>-395800</v>
       </c>
       <c r="F96" s="3">
-        <v>-372800</v>
+        <v>-374000</v>
       </c>
       <c r="G96" s="3">
-        <v>-351900</v>
+        <v>-353100</v>
       </c>
       <c r="H96" s="3">
-        <v>-319100</v>
+        <v>-320200</v>
       </c>
       <c r="I96" s="3">
-        <v>-342300</v>
+        <v>-343400</v>
       </c>
       <c r="J96" s="3">
-        <v>-343500</v>
+        <v>-344700</v>
       </c>
       <c r="K96" s="3">
         <v>-229400</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-626100</v>
+        <v>-628200</v>
       </c>
       <c r="E100" s="3">
-        <v>-197100</v>
+        <v>-197700</v>
       </c>
       <c r="F100" s="3">
-        <v>-254800</v>
+        <v>-255600</v>
       </c>
       <c r="G100" s="3">
-        <v>-298400</v>
+        <v>-299400</v>
       </c>
       <c r="H100" s="3">
-        <v>104100</v>
+        <v>104400</v>
       </c>
       <c r="I100" s="3">
-        <v>-253500</v>
+        <v>-254300</v>
       </c>
       <c r="J100" s="3">
-        <v>481800</v>
+        <v>483400</v>
       </c>
       <c r="K100" s="3">
         <v>30900</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-38300</v>
       </c>
-      <c r="E101" s="3">
-        <v>10200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-38200</v>
-      </c>
       <c r="G101" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="H101" s="3">
-        <v>-52100</v>
+        <v>-52300</v>
       </c>
       <c r="I101" s="3">
-        <v>-47700</v>
+        <v>-47800</v>
       </c>
       <c r="J101" s="3">
-        <v>63200</v>
+        <v>63400</v>
       </c>
       <c r="K101" s="3">
         <v>47100</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>213000</v>
+        <v>213700</v>
       </c>
       <c r="E102" s="3">
-        <v>-269800</v>
+        <v>-270700</v>
       </c>
       <c r="F102" s="3">
-        <v>-14600</v>
+        <v>-14700</v>
       </c>
       <c r="G102" s="3">
-        <v>561500</v>
+        <v>563400</v>
       </c>
       <c r="H102" s="3">
-        <v>211900</v>
+        <v>212600</v>
       </c>
       <c r="I102" s="3">
-        <v>310100</v>
+        <v>311200</v>
       </c>
       <c r="J102" s="3">
-        <v>238100</v>
+        <v>238900</v>
       </c>
       <c r="K102" s="3">
         <v>-122700</v>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17031200</v>
+        <v>16883000</v>
       </c>
       <c r="E8" s="3">
-        <v>17645200</v>
+        <v>17491600</v>
       </c>
       <c r="F8" s="3">
-        <v>17004400</v>
+        <v>16856400</v>
       </c>
       <c r="G8" s="3">
-        <v>16092000</v>
+        <v>15952000</v>
       </c>
       <c r="H8" s="3">
-        <v>14668100</v>
+        <v>14540400</v>
       </c>
       <c r="I8" s="3">
-        <v>11439500</v>
+        <v>11339900</v>
       </c>
       <c r="J8" s="3">
-        <v>14584000</v>
+        <v>14457000</v>
       </c>
       <c r="K8" s="3">
         <v>14497500</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12115900</v>
+        <v>12010500</v>
       </c>
       <c r="E9" s="3">
-        <v>12499500</v>
+        <v>12390600</v>
       </c>
       <c r="F9" s="3">
-        <v>12157700</v>
+        <v>12051900</v>
       </c>
       <c r="G9" s="3">
-        <v>22784400</v>
+        <v>22586100</v>
       </c>
       <c r="H9" s="3">
-        <v>10316200</v>
+        <v>10226400</v>
       </c>
       <c r="I9" s="3">
-        <v>7796800</v>
+        <v>7728900</v>
       </c>
       <c r="J9" s="3">
-        <v>10152800</v>
+        <v>10064400</v>
       </c>
       <c r="K9" s="3">
         <v>10157800</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4915300</v>
+        <v>4872500</v>
       </c>
       <c r="E10" s="3">
-        <v>5145700</v>
+        <v>5100900</v>
       </c>
       <c r="F10" s="3">
-        <v>4846700</v>
+        <v>4804500</v>
       </c>
       <c r="G10" s="3">
-        <v>-6692400</v>
+        <v>-6634100</v>
       </c>
       <c r="H10" s="3">
-        <v>4351900</v>
+        <v>4314000</v>
       </c>
       <c r="I10" s="3">
-        <v>3642700</v>
+        <v>3611000</v>
       </c>
       <c r="J10" s="3">
-        <v>4431200</v>
+        <v>4392600</v>
       </c>
       <c r="K10" s="3">
         <v>4339800</v>
@@ -917,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="E14" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="F14" s="3">
-        <v>-18400</v>
+        <v>-18200</v>
       </c>
       <c r="G14" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I14" s="3">
-        <v>41300</v>
+        <v>41000</v>
       </c>
       <c r="J14" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="K14" s="3">
         <v>15600</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15420400</v>
+        <v>15286100</v>
       </c>
       <c r="E17" s="3">
-        <v>15792000</v>
+        <v>15654500</v>
       </c>
       <c r="F17" s="3">
-        <v>15264600</v>
+        <v>15131700</v>
       </c>
       <c r="G17" s="3">
-        <v>14254500</v>
+        <v>14130400</v>
       </c>
       <c r="H17" s="3">
-        <v>12933200</v>
+        <v>12820600</v>
       </c>
       <c r="I17" s="3">
-        <v>9905900</v>
+        <v>9819700</v>
       </c>
       <c r="J17" s="3">
-        <v>12707900</v>
+        <v>12597200</v>
       </c>
       <c r="K17" s="3">
         <v>12552200</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1610900</v>
+        <v>1596800</v>
       </c>
       <c r="E18" s="3">
-        <v>1853200</v>
+        <v>1837100</v>
       </c>
       <c r="F18" s="3">
-        <v>1739800</v>
+        <v>1724700</v>
       </c>
       <c r="G18" s="3">
-        <v>1837600</v>
+        <v>1821600</v>
       </c>
       <c r="H18" s="3">
-        <v>1734900</v>
+        <v>1719800</v>
       </c>
       <c r="I18" s="3">
-        <v>1533600</v>
+        <v>1520200</v>
       </c>
       <c r="J18" s="3">
-        <v>1876100</v>
+        <v>1859800</v>
       </c>
       <c r="K18" s="3">
         <v>1945400</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>107100</v>
+        <v>106200</v>
       </c>
       <c r="E20" s="3">
-        <v>77400</v>
+        <v>76700</v>
       </c>
       <c r="F20" s="3">
-        <v>82300</v>
+        <v>81600</v>
       </c>
       <c r="G20" s="3">
-        <v>137600</v>
+        <v>136400</v>
       </c>
       <c r="H20" s="3">
-        <v>79900</v>
+        <v>79200</v>
       </c>
       <c r="I20" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="J20" s="3">
-        <v>76200</v>
+        <v>75600</v>
       </c>
       <c r="K20" s="3">
         <v>99600</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2337500</v>
+        <v>2316400</v>
       </c>
       <c r="E21" s="3">
-        <v>2503300</v>
+        <v>2480800</v>
       </c>
       <c r="F21" s="3">
-        <v>2278600</v>
+        <v>2258300</v>
       </c>
       <c r="G21" s="3">
-        <v>2390400</v>
+        <v>2369100</v>
       </c>
       <c r="H21" s="3">
-        <v>2213800</v>
+        <v>2194100</v>
       </c>
       <c r="I21" s="3">
-        <v>1851100</v>
+        <v>1834700</v>
       </c>
       <c r="J21" s="3">
-        <v>2304100</v>
+        <v>2283700</v>
       </c>
       <c r="K21" s="3">
         <v>2383900</v>
@@ -1165,13 +1165,13 @@
         <v>9500</v>
       </c>
       <c r="E22" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="F22" s="3">
         <v>9500</v>
       </c>
       <c r="G22" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="H22" s="3">
         <v>4600</v>
@@ -1180,7 +1180,7 @@
         <v>6400</v>
       </c>
       <c r="J22" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="K22" s="3">
         <v>14400</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1708400</v>
+        <v>1693500</v>
       </c>
       <c r="E23" s="3">
-        <v>1920900</v>
+        <v>1904200</v>
       </c>
       <c r="F23" s="3">
-        <v>1812500</v>
+        <v>1796800</v>
       </c>
       <c r="G23" s="3">
-        <v>1966700</v>
+        <v>1949600</v>
       </c>
       <c r="H23" s="3">
-        <v>1810200</v>
+        <v>1794400</v>
       </c>
       <c r="I23" s="3">
-        <v>1557700</v>
+        <v>1544200</v>
       </c>
       <c r="J23" s="3">
-        <v>1941500</v>
+        <v>1924600</v>
       </c>
       <c r="K23" s="3">
         <v>2030500</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>432200</v>
+        <v>428400</v>
       </c>
       <c r="E24" s="3">
-        <v>487100</v>
+        <v>482800</v>
       </c>
       <c r="F24" s="3">
-        <v>451400</v>
+        <v>447500</v>
       </c>
       <c r="G24" s="3">
-        <v>576800</v>
+        <v>571800</v>
       </c>
       <c r="H24" s="3">
-        <v>519700</v>
+        <v>515100</v>
       </c>
       <c r="I24" s="3">
-        <v>498700</v>
+        <v>494300</v>
       </c>
       <c r="J24" s="3">
-        <v>562500</v>
+        <v>557600</v>
       </c>
       <c r="K24" s="3">
         <v>691100</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1276200</v>
+        <v>1265100</v>
       </c>
       <c r="E26" s="3">
-        <v>1433800</v>
+        <v>1421300</v>
       </c>
       <c r="F26" s="3">
-        <v>1361100</v>
+        <v>1349300</v>
       </c>
       <c r="G26" s="3">
-        <v>1390000</v>
+        <v>1377900</v>
       </c>
       <c r="H26" s="3">
-        <v>1290500</v>
+        <v>1279300</v>
       </c>
       <c r="I26" s="3">
-        <v>1059100</v>
+        <v>1049900</v>
       </c>
       <c r="J26" s="3">
-        <v>1379000</v>
+        <v>1367000</v>
       </c>
       <c r="K26" s="3">
         <v>1339400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1181100</v>
+        <v>1170800</v>
       </c>
       <c r="E27" s="3">
-        <v>1369800</v>
+        <v>1357900</v>
       </c>
       <c r="F27" s="3">
-        <v>1273700</v>
+        <v>1262600</v>
       </c>
       <c r="G27" s="3">
-        <v>1268600</v>
+        <v>1257600</v>
       </c>
       <c r="H27" s="3">
-        <v>1217500</v>
+        <v>1206900</v>
       </c>
       <c r="I27" s="3">
-        <v>1011900</v>
+        <v>1003100</v>
       </c>
       <c r="J27" s="3">
-        <v>1286700</v>
+        <v>1275500</v>
       </c>
       <c r="K27" s="3">
         <v>1265300</v>
@@ -1423,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-95700</v>
+        <v>-94900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-107100</v>
+        <v>-106200</v>
       </c>
       <c r="E32" s="3">
-        <v>-77400</v>
+        <v>-76700</v>
       </c>
       <c r="F32" s="3">
-        <v>-82300</v>
+        <v>-81600</v>
       </c>
       <c r="G32" s="3">
-        <v>-137600</v>
+        <v>-136400</v>
       </c>
       <c r="H32" s="3">
-        <v>-79900</v>
+        <v>-79200</v>
       </c>
       <c r="I32" s="3">
-        <v>-30600</v>
+        <v>-30300</v>
       </c>
       <c r="J32" s="3">
-        <v>-76200</v>
+        <v>-75600</v>
       </c>
       <c r="K32" s="3">
         <v>-99600</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1181100</v>
+        <v>1170800</v>
       </c>
       <c r="E33" s="3">
-        <v>1369800</v>
+        <v>1357900</v>
       </c>
       <c r="F33" s="3">
-        <v>1273700</v>
+        <v>1262600</v>
       </c>
       <c r="G33" s="3">
-        <v>1172900</v>
+        <v>1162700</v>
       </c>
       <c r="H33" s="3">
-        <v>1217500</v>
+        <v>1206900</v>
       </c>
       <c r="I33" s="3">
-        <v>1011900</v>
+        <v>1003100</v>
       </c>
       <c r="J33" s="3">
-        <v>1286700</v>
+        <v>1275500</v>
       </c>
       <c r="K33" s="3">
         <v>1265300</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1181100</v>
+        <v>1170800</v>
       </c>
       <c r="E35" s="3">
-        <v>1369800</v>
+        <v>1357900</v>
       </c>
       <c r="F35" s="3">
-        <v>1273700</v>
+        <v>1262600</v>
       </c>
       <c r="G35" s="3">
-        <v>1172900</v>
+        <v>1162700</v>
       </c>
       <c r="H35" s="3">
-        <v>1217500</v>
+        <v>1206900</v>
       </c>
       <c r="I35" s="3">
-        <v>1011900</v>
+        <v>1003100</v>
       </c>
       <c r="J35" s="3">
-        <v>1286700</v>
+        <v>1275500</v>
       </c>
       <c r="K35" s="3">
         <v>1265300</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2048600</v>
+        <v>2030800</v>
       </c>
       <c r="E41" s="3">
-        <v>1834900</v>
+        <v>1818900</v>
       </c>
       <c r="F41" s="3">
-        <v>2105600</v>
+        <v>2087300</v>
       </c>
       <c r="G41" s="3">
-        <v>4240600</v>
+        <v>4203700</v>
       </c>
       <c r="H41" s="3">
-        <v>1556900</v>
+        <v>1543400</v>
       </c>
       <c r="I41" s="3">
-        <v>1344400</v>
+        <v>1332700</v>
       </c>
       <c r="J41" s="3">
-        <v>1038600</v>
+        <v>1029600</v>
       </c>
       <c r="K41" s="3">
         <v>836300</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>459200</v>
+        <v>455200</v>
       </c>
       <c r="E42" s="3">
-        <v>661400</v>
+        <v>655600</v>
       </c>
       <c r="F42" s="3">
-        <v>499700</v>
+        <v>495300</v>
       </c>
       <c r="G42" s="3">
-        <v>489600</v>
+        <v>485400</v>
       </c>
       <c r="H42" s="3">
-        <v>56000</v>
+        <v>55500</v>
       </c>
       <c r="I42" s="3">
-        <v>69800</v>
+        <v>69200</v>
       </c>
       <c r="J42" s="3">
-        <v>83500</v>
+        <v>82800</v>
       </c>
       <c r="K42" s="3">
         <v>44500</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8448900</v>
+        <v>8375300</v>
       </c>
       <c r="E43" s="3">
-        <v>9032100</v>
+        <v>8953500</v>
       </c>
       <c r="F43" s="3">
-        <v>8565800</v>
+        <v>8491200</v>
       </c>
       <c r="G43" s="3">
-        <v>22630800</v>
+        <v>22433800</v>
       </c>
       <c r="H43" s="3">
-        <v>8059600</v>
+        <v>7989500</v>
       </c>
       <c r="I43" s="3">
-        <v>7826900</v>
+        <v>7758800</v>
       </c>
       <c r="J43" s="3">
-        <v>8153500</v>
+        <v>8082500</v>
       </c>
       <c r="K43" s="3">
         <v>7348700</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3437000</v>
+        <v>3407100</v>
       </c>
       <c r="E44" s="3">
-        <v>3514300</v>
+        <v>3483700</v>
       </c>
       <c r="F44" s="3">
-        <v>3406700</v>
+        <v>3377100</v>
       </c>
       <c r="G44" s="3">
-        <v>6629400</v>
+        <v>6571700</v>
       </c>
       <c r="H44" s="3">
-        <v>3273300</v>
+        <v>3244800</v>
       </c>
       <c r="I44" s="3">
-        <v>6551400</v>
+        <v>6494400</v>
       </c>
       <c r="J44" s="3">
-        <v>3106500</v>
+        <v>3079500</v>
       </c>
       <c r="K44" s="3">
         <v>2880700</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>664500</v>
+        <v>658700</v>
       </c>
       <c r="E45" s="3">
-        <v>753900</v>
+        <v>747300</v>
       </c>
       <c r="F45" s="3">
-        <v>489400</v>
+        <v>485100</v>
       </c>
       <c r="G45" s="3">
-        <v>1510800</v>
+        <v>1497600</v>
       </c>
       <c r="H45" s="3">
-        <v>1418800</v>
+        <v>1406500</v>
       </c>
       <c r="I45" s="3">
-        <v>2438000</v>
+        <v>2416800</v>
       </c>
       <c r="J45" s="3">
-        <v>879200</v>
+        <v>871500</v>
       </c>
       <c r="K45" s="3">
         <v>748200</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15058200</v>
+        <v>14927100</v>
       </c>
       <c r="E46" s="3">
-        <v>15796500</v>
+        <v>15659000</v>
       </c>
       <c r="F46" s="3">
-        <v>15067200</v>
+        <v>14936100</v>
       </c>
       <c r="G46" s="3">
-        <v>14781400</v>
+        <v>14652800</v>
       </c>
       <c r="H46" s="3">
-        <v>14364700</v>
+        <v>14239600</v>
       </c>
       <c r="I46" s="3">
-        <v>13700900</v>
+        <v>13581600</v>
       </c>
       <c r="J46" s="3">
-        <v>13261300</v>
+        <v>13145900</v>
       </c>
       <c r="K46" s="3">
         <v>11858400</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1605600</v>
+        <v>1591600</v>
       </c>
       <c r="E47" s="3">
-        <v>1678700</v>
+        <v>1664100</v>
       </c>
       <c r="F47" s="3">
-        <v>1670800</v>
+        <v>1656300</v>
       </c>
       <c r="G47" s="3">
-        <v>2637200</v>
+        <v>2614200</v>
       </c>
       <c r="H47" s="3">
-        <v>621300</v>
+        <v>615900</v>
       </c>
       <c r="I47" s="3">
-        <v>816000</v>
+        <v>808900</v>
       </c>
       <c r="J47" s="3">
-        <v>566500</v>
+        <v>561500</v>
       </c>
       <c r="K47" s="3">
         <v>555400</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3902700</v>
+        <v>3868800</v>
       </c>
       <c r="E48" s="3">
-        <v>3725200</v>
+        <v>3692700</v>
       </c>
       <c r="F48" s="3">
-        <v>3033000</v>
+        <v>3006600</v>
       </c>
       <c r="G48" s="3">
-        <v>8985200</v>
+        <v>8907000</v>
       </c>
       <c r="H48" s="3">
-        <v>2887800</v>
+        <v>2862600</v>
       </c>
       <c r="I48" s="3">
-        <v>2627100</v>
+        <v>2604300</v>
       </c>
       <c r="J48" s="3">
-        <v>2730300</v>
+        <v>2706500</v>
       </c>
       <c r="K48" s="3">
         <v>2716800</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>666600</v>
+        <v>660800</v>
       </c>
       <c r="E49" s="3">
-        <v>560500</v>
+        <v>555600</v>
       </c>
       <c r="F49" s="3">
-        <v>459000</v>
+        <v>455000</v>
       </c>
       <c r="G49" s="3">
-        <v>1302900</v>
+        <v>1291500</v>
       </c>
       <c r="H49" s="3">
-        <v>423300</v>
+        <v>419600</v>
       </c>
       <c r="I49" s="3">
-        <v>540900</v>
+        <v>536200</v>
       </c>
       <c r="J49" s="3">
-        <v>318900</v>
+        <v>316100</v>
       </c>
       <c r="K49" s="3">
         <v>332800</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8076700</v>
+        <v>8006400</v>
       </c>
       <c r="E52" s="3">
-        <v>7089500</v>
+        <v>7027800</v>
       </c>
       <c r="F52" s="3">
-        <v>6381000</v>
+        <v>6325400</v>
       </c>
       <c r="G52" s="3">
-        <v>13092300</v>
+        <v>12978300</v>
       </c>
       <c r="H52" s="3">
-        <v>6245700</v>
+        <v>6191300</v>
       </c>
       <c r="I52" s="3">
-        <v>6105900</v>
+        <v>6052700</v>
       </c>
       <c r="J52" s="3">
-        <v>5885100</v>
+        <v>5833900</v>
       </c>
       <c r="K52" s="3">
         <v>4762500</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29309800</v>
+        <v>29054700</v>
       </c>
       <c r="E54" s="3">
-        <v>28850300</v>
+        <v>28599200</v>
       </c>
       <c r="F54" s="3">
-        <v>26611100</v>
+        <v>26379400</v>
       </c>
       <c r="G54" s="3">
-        <v>26029400</v>
+        <v>25802800</v>
       </c>
       <c r="H54" s="3">
-        <v>24542600</v>
+        <v>24329000</v>
       </c>
       <c r="I54" s="3">
-        <v>23277600</v>
+        <v>23075000</v>
       </c>
       <c r="J54" s="3">
-        <v>22762000</v>
+        <v>22563800</v>
       </c>
       <c r="K54" s="3">
         <v>20225800</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2973900</v>
+        <v>2948100</v>
       </c>
       <c r="E57" s="3">
-        <v>2699800</v>
+        <v>2676300</v>
       </c>
       <c r="F57" s="3">
-        <v>2819100</v>
+        <v>2794600</v>
       </c>
       <c r="G57" s="3">
-        <v>5258900</v>
+        <v>5213100</v>
       </c>
       <c r="H57" s="3">
-        <v>2351300</v>
+        <v>2330900</v>
       </c>
       <c r="I57" s="3">
-        <v>2392500</v>
+        <v>2371600</v>
       </c>
       <c r="J57" s="3">
-        <v>2098400</v>
+        <v>2080100</v>
       </c>
       <c r="K57" s="3">
         <v>2313200</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3363900</v>
+        <v>3334600</v>
       </c>
       <c r="E58" s="3">
-        <v>3552300</v>
+        <v>3521400</v>
       </c>
       <c r="F58" s="3">
-        <v>3213400</v>
+        <v>3185400</v>
       </c>
       <c r="G58" s="3">
-        <v>10033700</v>
+        <v>9946400</v>
       </c>
       <c r="H58" s="3">
-        <v>3116300</v>
+        <v>3089200</v>
       </c>
       <c r="I58" s="3">
-        <v>3164400</v>
+        <v>3136900</v>
       </c>
       <c r="J58" s="3">
-        <v>2643400</v>
+        <v>2620400</v>
       </c>
       <c r="K58" s="3">
         <v>2607600</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3095000</v>
+        <v>3068100</v>
       </c>
       <c r="E59" s="3">
-        <v>2954000</v>
+        <v>2928200</v>
       </c>
       <c r="F59" s="3">
-        <v>2448300</v>
+        <v>2426900</v>
       </c>
       <c r="G59" s="3">
-        <v>5289100</v>
+        <v>5243000</v>
       </c>
       <c r="H59" s="3">
-        <v>2220800</v>
+        <v>2201500</v>
       </c>
       <c r="I59" s="3">
-        <v>1918700</v>
+        <v>1902000</v>
       </c>
       <c r="J59" s="3">
-        <v>1968800</v>
+        <v>1951600</v>
       </c>
       <c r="K59" s="3">
         <v>1988100</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9432900</v>
+        <v>9350700</v>
       </c>
       <c r="E60" s="3">
-        <v>9206000</v>
+        <v>9125900</v>
       </c>
       <c r="F60" s="3">
-        <v>8480700</v>
+        <v>8406900</v>
       </c>
       <c r="G60" s="3">
-        <v>8431400</v>
+        <v>8358000</v>
       </c>
       <c r="H60" s="3">
-        <v>7688500</v>
+        <v>7621500</v>
       </c>
       <c r="I60" s="3">
-        <v>7424600</v>
+        <v>7360000</v>
       </c>
       <c r="J60" s="3">
-        <v>6710500</v>
+        <v>6652100</v>
       </c>
       <c r="K60" s="3">
         <v>6908900</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4672200</v>
+        <v>4631500</v>
       </c>
       <c r="E61" s="3">
-        <v>4746100</v>
+        <v>4704800</v>
       </c>
       <c r="F61" s="3">
-        <v>4517500</v>
+        <v>4478100</v>
       </c>
       <c r="G61" s="3">
-        <v>4341600</v>
+        <v>4303800</v>
       </c>
       <c r="H61" s="3">
-        <v>4401000</v>
+        <v>4362700</v>
       </c>
       <c r="I61" s="3">
-        <v>3900000</v>
+        <v>3866000</v>
       </c>
       <c r="J61" s="3">
-        <v>4410800</v>
+        <v>4372400</v>
       </c>
       <c r="K61" s="3">
         <v>3032900</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>738000</v>
+        <v>731600</v>
       </c>
       <c r="E62" s="3">
-        <v>771200</v>
+        <v>764500</v>
       </c>
       <c r="F62" s="3">
-        <v>503900</v>
+        <v>499600</v>
       </c>
       <c r="G62" s="3">
-        <v>1355900</v>
+        <v>1344100</v>
       </c>
       <c r="H62" s="3">
-        <v>764100</v>
+        <v>757500</v>
       </c>
       <c r="I62" s="3">
-        <v>754500</v>
+        <v>747900</v>
       </c>
       <c r="J62" s="3">
-        <v>802100</v>
+        <v>795100</v>
       </c>
       <c r="K62" s="3">
         <v>668100</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15745000</v>
+        <v>15608000</v>
       </c>
       <c r="E66" s="3">
-        <v>15590700</v>
+        <v>15454900</v>
       </c>
       <c r="F66" s="3">
-        <v>14297800</v>
+        <v>14173400</v>
       </c>
       <c r="G66" s="3">
-        <v>14164300</v>
+        <v>14041000</v>
       </c>
       <c r="H66" s="3">
-        <v>13526000</v>
+        <v>13408300</v>
       </c>
       <c r="I66" s="3">
-        <v>12798100</v>
+        <v>12686700</v>
       </c>
       <c r="J66" s="3">
-        <v>12643800</v>
+        <v>12533700</v>
       </c>
       <c r="K66" s="3">
         <v>11242200</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12183800</v>
+        <v>12077700</v>
       </c>
       <c r="E72" s="3">
-        <v>11384800</v>
+        <v>11285700</v>
       </c>
       <c r="F72" s="3">
-        <v>10434300</v>
+        <v>10343400</v>
       </c>
       <c r="G72" s="3">
-        <v>19354000</v>
+        <v>19185500</v>
       </c>
       <c r="H72" s="3">
-        <v>9014900</v>
+        <v>8936400</v>
       </c>
       <c r="I72" s="3">
-        <v>8172700</v>
+        <v>8101600</v>
       </c>
       <c r="J72" s="3">
-        <v>7518200</v>
+        <v>7452800</v>
       </c>
       <c r="K72" s="3">
         <v>6950700</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13564800</v>
+        <v>13446700</v>
       </c>
       <c r="E76" s="3">
-        <v>13259700</v>
+        <v>13144200</v>
       </c>
       <c r="F76" s="3">
-        <v>12313200</v>
+        <v>12206000</v>
       </c>
       <c r="G76" s="3">
-        <v>11865200</v>
+        <v>11761900</v>
       </c>
       <c r="H76" s="3">
-        <v>11016600</v>
+        <v>10920700</v>
       </c>
       <c r="I76" s="3">
-        <v>10479400</v>
+        <v>10388200</v>
       </c>
       <c r="J76" s="3">
-        <v>10118200</v>
+        <v>10030100</v>
       </c>
       <c r="K76" s="3">
         <v>8983500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1181100</v>
+        <v>1170800</v>
       </c>
       <c r="E81" s="3">
-        <v>1369800</v>
+        <v>1357900</v>
       </c>
       <c r="F81" s="3">
-        <v>1273700</v>
+        <v>1262600</v>
       </c>
       <c r="G81" s="3">
-        <v>1172900</v>
+        <v>1162700</v>
       </c>
       <c r="H81" s="3">
-        <v>1217500</v>
+        <v>1206900</v>
       </c>
       <c r="I81" s="3">
-        <v>1011900</v>
+        <v>1003100</v>
       </c>
       <c r="J81" s="3">
-        <v>1286700</v>
+        <v>1275500</v>
       </c>
       <c r="K81" s="3">
         <v>1265300</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>618800</v>
+        <v>613400</v>
       </c>
       <c r="E83" s="3">
-        <v>572000</v>
+        <v>567000</v>
       </c>
       <c r="F83" s="3">
-        <v>456000</v>
+        <v>452100</v>
       </c>
       <c r="G83" s="3">
-        <v>414800</v>
+        <v>411200</v>
       </c>
       <c r="H83" s="3">
-        <v>398600</v>
+        <v>395100</v>
       </c>
       <c r="I83" s="3">
-        <v>286700</v>
+        <v>284200</v>
       </c>
       <c r="J83" s="3">
-        <v>351400</v>
+        <v>348400</v>
       </c>
       <c r="K83" s="3">
         <v>339700</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1313400</v>
+        <v>1302000</v>
       </c>
       <c r="E89" s="3">
-        <v>757300</v>
+        <v>750800</v>
       </c>
       <c r="F89" s="3">
-        <v>819300</v>
+        <v>812100</v>
       </c>
       <c r="G89" s="3">
-        <v>1260700</v>
+        <v>1249800</v>
       </c>
       <c r="H89" s="3">
-        <v>1699900</v>
+        <v>1685100</v>
       </c>
       <c r="I89" s="3">
-        <v>1810800</v>
+        <v>1795000</v>
       </c>
       <c r="J89" s="3">
-        <v>772000</v>
+        <v>765200</v>
       </c>
       <c r="K89" s="3">
         <v>800700</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-559800</v>
+        <v>-554900</v>
       </c>
       <c r="E91" s="3">
-        <v>-700700</v>
+        <v>-694600</v>
       </c>
       <c r="F91" s="3">
-        <v>-582600</v>
+        <v>-577500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1129200</v>
+        <v>-1119300</v>
       </c>
       <c r="H91" s="3">
-        <v>-515900</v>
+        <v>-511400</v>
       </c>
       <c r="I91" s="3">
-        <v>-360900</v>
+        <v>-357700</v>
       </c>
       <c r="J91" s="3">
-        <v>-429100</v>
+        <v>-425400</v>
       </c>
       <c r="K91" s="3">
         <v>-510800</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-433200</v>
+        <v>-429400</v>
       </c>
       <c r="E94" s="3">
-        <v>-840600</v>
+        <v>-833300</v>
       </c>
       <c r="F94" s="3">
-        <v>-540000</v>
+        <v>-535300</v>
       </c>
       <c r="G94" s="3">
-        <v>-422600</v>
+        <v>-418900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1539600</v>
+        <v>-1526200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1197500</v>
+        <v>-1187100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1079900</v>
+        <v>-1070500</v>
       </c>
       <c r="K94" s="3">
         <v>-1001400</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-403000</v>
+        <v>-399500</v>
       </c>
       <c r="E96" s="3">
-        <v>-395800</v>
+        <v>-392300</v>
       </c>
       <c r="F96" s="3">
-        <v>-374000</v>
+        <v>-370700</v>
       </c>
       <c r="G96" s="3">
-        <v>-353100</v>
+        <v>-350000</v>
       </c>
       <c r="H96" s="3">
-        <v>-320200</v>
+        <v>-317400</v>
       </c>
       <c r="I96" s="3">
-        <v>-343400</v>
+        <v>-340400</v>
       </c>
       <c r="J96" s="3">
-        <v>-344700</v>
+        <v>-341700</v>
       </c>
       <c r="K96" s="3">
         <v>-229400</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-628200</v>
+        <v>-622700</v>
       </c>
       <c r="E100" s="3">
-        <v>-197700</v>
+        <v>-196000</v>
       </c>
       <c r="F100" s="3">
-        <v>-255600</v>
+        <v>-253400</v>
       </c>
       <c r="G100" s="3">
-        <v>-299400</v>
+        <v>-296800</v>
       </c>
       <c r="H100" s="3">
-        <v>104400</v>
+        <v>103500</v>
       </c>
       <c r="I100" s="3">
-        <v>-254300</v>
+        <v>-252100</v>
       </c>
       <c r="J100" s="3">
-        <v>483400</v>
+        <v>479200</v>
       </c>
       <c r="K100" s="3">
         <v>30900</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38400</v>
+        <v>-38100</v>
       </c>
       <c r="E101" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="F101" s="3">
-        <v>-38300</v>
+        <v>-38000</v>
       </c>
       <c r="G101" s="3">
-        <v>24600</v>
+        <v>24400</v>
       </c>
       <c r="H101" s="3">
-        <v>-52300</v>
+        <v>-51800</v>
       </c>
       <c r="I101" s="3">
-        <v>-47800</v>
+        <v>-47400</v>
       </c>
       <c r="J101" s="3">
-        <v>63400</v>
+        <v>62800</v>
       </c>
       <c r="K101" s="3">
         <v>47100</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>213700</v>
+        <v>211800</v>
       </c>
       <c r="E102" s="3">
-        <v>-270700</v>
+        <v>-268400</v>
       </c>
       <c r="F102" s="3">
-        <v>-14700</v>
+        <v>-14500</v>
       </c>
       <c r="G102" s="3">
-        <v>563400</v>
+        <v>558500</v>
       </c>
       <c r="H102" s="3">
-        <v>212600</v>
+        <v>210700</v>
       </c>
       <c r="I102" s="3">
-        <v>311200</v>
+        <v>308400</v>
       </c>
       <c r="J102" s="3">
-        <v>238900</v>
+        <v>236800</v>
       </c>
       <c r="K102" s="3">
         <v>-122700</v>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16883000</v>
+        <v>16327000</v>
       </c>
       <c r="E8" s="3">
-        <v>17491600</v>
+        <v>16915600</v>
       </c>
       <c r="F8" s="3">
-        <v>16856400</v>
+        <v>16301300</v>
       </c>
       <c r="G8" s="3">
-        <v>15952000</v>
+        <v>15426600</v>
       </c>
       <c r="H8" s="3">
-        <v>14540400</v>
+        <v>14061600</v>
       </c>
       <c r="I8" s="3">
-        <v>11339900</v>
+        <v>10966500</v>
       </c>
       <c r="J8" s="3">
-        <v>14457000</v>
+        <v>13980900</v>
       </c>
       <c r="K8" s="3">
         <v>14497500</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12010500</v>
+        <v>11615000</v>
       </c>
       <c r="E9" s="3">
-        <v>12390600</v>
+        <v>11982600</v>
       </c>
       <c r="F9" s="3">
-        <v>12051900</v>
+        <v>11655000</v>
       </c>
       <c r="G9" s="3">
-        <v>22586100</v>
+        <v>21842300</v>
       </c>
       <c r="H9" s="3">
-        <v>10226400</v>
+        <v>9889600</v>
       </c>
       <c r="I9" s="3">
-        <v>7728900</v>
+        <v>7474400</v>
       </c>
       <c r="J9" s="3">
-        <v>10064400</v>
+        <v>9732900</v>
       </c>
       <c r="K9" s="3">
         <v>10157800</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4872500</v>
+        <v>4712000</v>
       </c>
       <c r="E10" s="3">
-        <v>5100900</v>
+        <v>4933000</v>
       </c>
       <c r="F10" s="3">
-        <v>4804500</v>
+        <v>4646300</v>
       </c>
       <c r="G10" s="3">
-        <v>-6634100</v>
+        <v>-6415600</v>
       </c>
       <c r="H10" s="3">
-        <v>4314000</v>
+        <v>4171900</v>
       </c>
       <c r="I10" s="3">
-        <v>3611000</v>
+        <v>3492100</v>
       </c>
       <c r="J10" s="3">
-        <v>4392600</v>
+        <v>4248000</v>
       </c>
       <c r="K10" s="3">
         <v>4339800</v>
@@ -917,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-12900</v>
+        <v>-12400</v>
       </c>
       <c r="E14" s="3">
-        <v>-12000</v>
+        <v>-11600</v>
       </c>
       <c r="F14" s="3">
-        <v>-18200</v>
+        <v>-17600</v>
       </c>
       <c r="G14" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="H14" s="3">
         <v>1800</v>
       </c>
       <c r="I14" s="3">
-        <v>41000</v>
+        <v>39600</v>
       </c>
       <c r="J14" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="K14" s="3">
         <v>15600</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15286100</v>
+        <v>14782700</v>
       </c>
       <c r="E17" s="3">
-        <v>15654500</v>
+        <v>15139000</v>
       </c>
       <c r="F17" s="3">
-        <v>15131700</v>
+        <v>14633400</v>
       </c>
       <c r="G17" s="3">
-        <v>14130400</v>
+        <v>13665100</v>
       </c>
       <c r="H17" s="3">
-        <v>12820600</v>
+        <v>12398400</v>
       </c>
       <c r="I17" s="3">
-        <v>9819700</v>
+        <v>9496300</v>
       </c>
       <c r="J17" s="3">
-        <v>12597200</v>
+        <v>12182400</v>
       </c>
       <c r="K17" s="3">
         <v>12552200</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1596800</v>
+        <v>1544300</v>
       </c>
       <c r="E18" s="3">
-        <v>1837100</v>
+        <v>1776600</v>
       </c>
       <c r="F18" s="3">
-        <v>1724700</v>
+        <v>1667900</v>
       </c>
       <c r="G18" s="3">
-        <v>1821600</v>
+        <v>1761600</v>
       </c>
       <c r="H18" s="3">
-        <v>1719800</v>
+        <v>1663100</v>
       </c>
       <c r="I18" s="3">
-        <v>1520200</v>
+        <v>1470200</v>
       </c>
       <c r="J18" s="3">
-        <v>1859800</v>
+        <v>1798500</v>
       </c>
       <c r="K18" s="3">
         <v>1945400</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>106200</v>
+        <v>102700</v>
       </c>
       <c r="E20" s="3">
-        <v>76700</v>
+        <v>74200</v>
       </c>
       <c r="F20" s="3">
-        <v>81600</v>
+        <v>78900</v>
       </c>
       <c r="G20" s="3">
-        <v>136400</v>
+        <v>131900</v>
       </c>
       <c r="H20" s="3">
-        <v>79200</v>
+        <v>76600</v>
       </c>
       <c r="I20" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="J20" s="3">
-        <v>75600</v>
+        <v>73100</v>
       </c>
       <c r="K20" s="3">
         <v>99600</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2316400</v>
+        <v>2241500</v>
       </c>
       <c r="E21" s="3">
-        <v>2480800</v>
+        <v>2400400</v>
       </c>
       <c r="F21" s="3">
-        <v>2258300</v>
+        <v>2184900</v>
       </c>
       <c r="G21" s="3">
-        <v>2369100</v>
+        <v>2292000</v>
       </c>
       <c r="H21" s="3">
-        <v>2194100</v>
+        <v>2122700</v>
       </c>
       <c r="I21" s="3">
-        <v>1834700</v>
+        <v>1774900</v>
       </c>
       <c r="J21" s="3">
-        <v>2283700</v>
+        <v>2209300</v>
       </c>
       <c r="K21" s="3">
         <v>2383900</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="E22" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F22" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="G22" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="H22" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="I22" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="J22" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="K22" s="3">
         <v>14400</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1693500</v>
+        <v>1637800</v>
       </c>
       <c r="E23" s="3">
-        <v>1904200</v>
+        <v>1841500</v>
       </c>
       <c r="F23" s="3">
-        <v>1796800</v>
+        <v>1737600</v>
       </c>
       <c r="G23" s="3">
-        <v>1949600</v>
+        <v>1885400</v>
       </c>
       <c r="H23" s="3">
-        <v>1794400</v>
+        <v>1735300</v>
       </c>
       <c r="I23" s="3">
-        <v>1544200</v>
+        <v>1493300</v>
       </c>
       <c r="J23" s="3">
-        <v>1924600</v>
+        <v>1861200</v>
       </c>
       <c r="K23" s="3">
         <v>2030500</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>428400</v>
+        <v>414300</v>
       </c>
       <c r="E24" s="3">
-        <v>482800</v>
+        <v>466900</v>
       </c>
       <c r="F24" s="3">
-        <v>447500</v>
+        <v>432700</v>
       </c>
       <c r="G24" s="3">
-        <v>571800</v>
+        <v>552900</v>
       </c>
       <c r="H24" s="3">
-        <v>515100</v>
+        <v>498200</v>
       </c>
       <c r="I24" s="3">
-        <v>494300</v>
+        <v>478000</v>
       </c>
       <c r="J24" s="3">
-        <v>557600</v>
+        <v>539200</v>
       </c>
       <c r="K24" s="3">
         <v>691100</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1265100</v>
+        <v>1223500</v>
       </c>
       <c r="E26" s="3">
-        <v>1421300</v>
+        <v>1374500</v>
       </c>
       <c r="F26" s="3">
-        <v>1349300</v>
+        <v>1304900</v>
       </c>
       <c r="G26" s="3">
-        <v>1377900</v>
+        <v>1332500</v>
       </c>
       <c r="H26" s="3">
-        <v>1279300</v>
+        <v>1237100</v>
       </c>
       <c r="I26" s="3">
-        <v>1049900</v>
+        <v>1015300</v>
       </c>
       <c r="J26" s="3">
-        <v>1367000</v>
+        <v>1322000</v>
       </c>
       <c r="K26" s="3">
         <v>1339400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1170800</v>
+        <v>1132300</v>
       </c>
       <c r="E27" s="3">
-        <v>1357900</v>
+        <v>1313200</v>
       </c>
       <c r="F27" s="3">
-        <v>1262600</v>
+        <v>1221000</v>
       </c>
       <c r="G27" s="3">
-        <v>1257600</v>
+        <v>1216200</v>
       </c>
       <c r="H27" s="3">
-        <v>1206900</v>
+        <v>1167200</v>
       </c>
       <c r="I27" s="3">
-        <v>1003100</v>
+        <v>970000</v>
       </c>
       <c r="J27" s="3">
-        <v>1275500</v>
+        <v>1233500</v>
       </c>
       <c r="K27" s="3">
         <v>1265300</v>
@@ -1423,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-94900</v>
+        <v>-91800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-106200</v>
+        <v>-102700</v>
       </c>
       <c r="E32" s="3">
-        <v>-76700</v>
+        <v>-74200</v>
       </c>
       <c r="F32" s="3">
-        <v>-81600</v>
+        <v>-78900</v>
       </c>
       <c r="G32" s="3">
-        <v>-136400</v>
+        <v>-131900</v>
       </c>
       <c r="H32" s="3">
-        <v>-79200</v>
+        <v>-76600</v>
       </c>
       <c r="I32" s="3">
-        <v>-30300</v>
+        <v>-29300</v>
       </c>
       <c r="J32" s="3">
-        <v>-75600</v>
+        <v>-73100</v>
       </c>
       <c r="K32" s="3">
         <v>-99600</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1170800</v>
+        <v>1132300</v>
       </c>
       <c r="E33" s="3">
-        <v>1357900</v>
+        <v>1313200</v>
       </c>
       <c r="F33" s="3">
-        <v>1262600</v>
+        <v>1221000</v>
       </c>
       <c r="G33" s="3">
-        <v>1162700</v>
+        <v>1124400</v>
       </c>
       <c r="H33" s="3">
-        <v>1206900</v>
+        <v>1167200</v>
       </c>
       <c r="I33" s="3">
-        <v>1003100</v>
+        <v>970000</v>
       </c>
       <c r="J33" s="3">
-        <v>1275500</v>
+        <v>1233500</v>
       </c>
       <c r="K33" s="3">
         <v>1265300</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1170800</v>
+        <v>1132300</v>
       </c>
       <c r="E35" s="3">
-        <v>1357900</v>
+        <v>1313200</v>
       </c>
       <c r="F35" s="3">
-        <v>1262600</v>
+        <v>1221000</v>
       </c>
       <c r="G35" s="3">
-        <v>1162700</v>
+        <v>1124400</v>
       </c>
       <c r="H35" s="3">
-        <v>1206900</v>
+        <v>1167200</v>
       </c>
       <c r="I35" s="3">
-        <v>1003100</v>
+        <v>970000</v>
       </c>
       <c r="J35" s="3">
-        <v>1275500</v>
+        <v>1233500</v>
       </c>
       <c r="K35" s="3">
         <v>1265300</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2030800</v>
+        <v>1963900</v>
       </c>
       <c r="E41" s="3">
-        <v>1818900</v>
+        <v>1759000</v>
       </c>
       <c r="F41" s="3">
-        <v>2087300</v>
+        <v>2018600</v>
       </c>
       <c r="G41" s="3">
-        <v>4203700</v>
+        <v>4065300</v>
       </c>
       <c r="H41" s="3">
-        <v>1543400</v>
+        <v>1492600</v>
       </c>
       <c r="I41" s="3">
-        <v>1332700</v>
+        <v>1288800</v>
       </c>
       <c r="J41" s="3">
-        <v>1029600</v>
+        <v>995700</v>
       </c>
       <c r="K41" s="3">
         <v>836300</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>455200</v>
+        <v>440200</v>
       </c>
       <c r="E42" s="3">
-        <v>655600</v>
+        <v>634000</v>
       </c>
       <c r="F42" s="3">
-        <v>495300</v>
+        <v>479000</v>
       </c>
       <c r="G42" s="3">
-        <v>485400</v>
+        <v>469400</v>
       </c>
       <c r="H42" s="3">
-        <v>55500</v>
+        <v>53700</v>
       </c>
       <c r="I42" s="3">
-        <v>69200</v>
+        <v>66900</v>
       </c>
       <c r="J42" s="3">
-        <v>82800</v>
+        <v>80100</v>
       </c>
       <c r="K42" s="3">
         <v>44500</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8375300</v>
+        <v>8099500</v>
       </c>
       <c r="E43" s="3">
-        <v>8953500</v>
+        <v>8658600</v>
       </c>
       <c r="F43" s="3">
-        <v>8491200</v>
+        <v>8211600</v>
       </c>
       <c r="G43" s="3">
-        <v>22433800</v>
+        <v>21695000</v>
       </c>
       <c r="H43" s="3">
-        <v>7989500</v>
+        <v>7726400</v>
       </c>
       <c r="I43" s="3">
-        <v>7758800</v>
+        <v>7503300</v>
       </c>
       <c r="J43" s="3">
-        <v>8082500</v>
+        <v>7816300</v>
       </c>
       <c r="K43" s="3">
         <v>7348700</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3407100</v>
+        <v>3294900</v>
       </c>
       <c r="E44" s="3">
-        <v>3483700</v>
+        <v>3369000</v>
       </c>
       <c r="F44" s="3">
-        <v>3377100</v>
+        <v>3265800</v>
       </c>
       <c r="G44" s="3">
-        <v>6571700</v>
+        <v>6355300</v>
       </c>
       <c r="H44" s="3">
-        <v>3244800</v>
+        <v>3137900</v>
       </c>
       <c r="I44" s="3">
-        <v>6494400</v>
+        <v>6280500</v>
       </c>
       <c r="J44" s="3">
-        <v>3079500</v>
+        <v>2978100</v>
       </c>
       <c r="K44" s="3">
         <v>2880700</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>658700</v>
+        <v>637000</v>
       </c>
       <c r="E45" s="3">
-        <v>747300</v>
+        <v>722700</v>
       </c>
       <c r="F45" s="3">
-        <v>485100</v>
+        <v>469100</v>
       </c>
       <c r="G45" s="3">
-        <v>1497600</v>
+        <v>1448300</v>
       </c>
       <c r="H45" s="3">
-        <v>1406500</v>
+        <v>1360100</v>
       </c>
       <c r="I45" s="3">
-        <v>2416800</v>
+        <v>2337200</v>
       </c>
       <c r="J45" s="3">
-        <v>871500</v>
+        <v>842800</v>
       </c>
       <c r="K45" s="3">
         <v>748200</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14927100</v>
+        <v>14435600</v>
       </c>
       <c r="E46" s="3">
-        <v>15659000</v>
+        <v>15143400</v>
       </c>
       <c r="F46" s="3">
-        <v>14936100</v>
+        <v>14444200</v>
       </c>
       <c r="G46" s="3">
-        <v>14652800</v>
+        <v>14170200</v>
       </c>
       <c r="H46" s="3">
-        <v>14239600</v>
+        <v>13770700</v>
       </c>
       <c r="I46" s="3">
-        <v>13581600</v>
+        <v>13134400</v>
       </c>
       <c r="J46" s="3">
-        <v>13145900</v>
+        <v>12713000</v>
       </c>
       <c r="K46" s="3">
         <v>11858400</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1591600</v>
+        <v>1539200</v>
       </c>
       <c r="E47" s="3">
-        <v>1664100</v>
+        <v>1609300</v>
       </c>
       <c r="F47" s="3">
-        <v>1656300</v>
+        <v>1601700</v>
       </c>
       <c r="G47" s="3">
-        <v>2614200</v>
+        <v>2528100</v>
       </c>
       <c r="H47" s="3">
-        <v>615900</v>
+        <v>595600</v>
       </c>
       <c r="I47" s="3">
-        <v>808900</v>
+        <v>782200</v>
       </c>
       <c r="J47" s="3">
-        <v>561500</v>
+        <v>543000</v>
       </c>
       <c r="K47" s="3">
         <v>555400</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3868800</v>
+        <v>3741400</v>
       </c>
       <c r="E48" s="3">
-        <v>3692700</v>
+        <v>3571100</v>
       </c>
       <c r="F48" s="3">
-        <v>3006600</v>
+        <v>2907600</v>
       </c>
       <c r="G48" s="3">
-        <v>8907000</v>
+        <v>8613700</v>
       </c>
       <c r="H48" s="3">
-        <v>2862600</v>
+        <v>2768400</v>
       </c>
       <c r="I48" s="3">
-        <v>2604300</v>
+        <v>2518500</v>
       </c>
       <c r="J48" s="3">
-        <v>2706500</v>
+        <v>2617400</v>
       </c>
       <c r="K48" s="3">
         <v>2716800</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>660800</v>
+        <v>639100</v>
       </c>
       <c r="E49" s="3">
-        <v>555600</v>
+        <v>537300</v>
       </c>
       <c r="F49" s="3">
-        <v>455000</v>
+        <v>440000</v>
       </c>
       <c r="G49" s="3">
-        <v>1291500</v>
+        <v>1249000</v>
       </c>
       <c r="H49" s="3">
-        <v>419600</v>
+        <v>405800</v>
       </c>
       <c r="I49" s="3">
-        <v>536200</v>
+        <v>518600</v>
       </c>
       <c r="J49" s="3">
-        <v>316100</v>
+        <v>305700</v>
       </c>
       <c r="K49" s="3">
         <v>332800</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8006400</v>
+        <v>7742700</v>
       </c>
       <c r="E52" s="3">
-        <v>7027800</v>
+        <v>6796300</v>
       </c>
       <c r="F52" s="3">
-        <v>6325400</v>
+        <v>6117100</v>
       </c>
       <c r="G52" s="3">
-        <v>12978300</v>
+        <v>12550900</v>
       </c>
       <c r="H52" s="3">
-        <v>6191300</v>
+        <v>5987400</v>
       </c>
       <c r="I52" s="3">
-        <v>6052700</v>
+        <v>5853400</v>
       </c>
       <c r="J52" s="3">
-        <v>5833900</v>
+        <v>5641700</v>
       </c>
       <c r="K52" s="3">
         <v>4762500</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29054700</v>
+        <v>28097900</v>
       </c>
       <c r="E54" s="3">
-        <v>28599200</v>
+        <v>27657400</v>
       </c>
       <c r="F54" s="3">
-        <v>26379400</v>
+        <v>25510700</v>
       </c>
       <c r="G54" s="3">
-        <v>25802800</v>
+        <v>24953100</v>
       </c>
       <c r="H54" s="3">
-        <v>24329000</v>
+        <v>23527800</v>
       </c>
       <c r="I54" s="3">
-        <v>23075000</v>
+        <v>22315100</v>
       </c>
       <c r="J54" s="3">
-        <v>22563800</v>
+        <v>21820800</v>
       </c>
       <c r="K54" s="3">
         <v>20225800</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2948100</v>
+        <v>2851000</v>
       </c>
       <c r="E57" s="3">
-        <v>2676300</v>
+        <v>2588100</v>
       </c>
       <c r="F57" s="3">
-        <v>2794600</v>
+        <v>2702500</v>
       </c>
       <c r="G57" s="3">
-        <v>5213100</v>
+        <v>5041500</v>
       </c>
       <c r="H57" s="3">
-        <v>2330900</v>
+        <v>2254100</v>
       </c>
       <c r="I57" s="3">
-        <v>2371600</v>
+        <v>2293500</v>
       </c>
       <c r="J57" s="3">
-        <v>2080100</v>
+        <v>2011600</v>
       </c>
       <c r="K57" s="3">
         <v>2313200</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3334600</v>
+        <v>3224800</v>
       </c>
       <c r="E58" s="3">
-        <v>3521400</v>
+        <v>3405400</v>
       </c>
       <c r="F58" s="3">
-        <v>3185400</v>
+        <v>3080500</v>
       </c>
       <c r="G58" s="3">
-        <v>9946400</v>
+        <v>9618800</v>
       </c>
       <c r="H58" s="3">
-        <v>3089200</v>
+        <v>2987400</v>
       </c>
       <c r="I58" s="3">
-        <v>3136900</v>
+        <v>3033600</v>
       </c>
       <c r="J58" s="3">
-        <v>2620400</v>
+        <v>2534100</v>
       </c>
       <c r="K58" s="3">
         <v>2607600</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3068100</v>
+        <v>2967000</v>
       </c>
       <c r="E59" s="3">
-        <v>2928200</v>
+        <v>2831800</v>
       </c>
       <c r="F59" s="3">
-        <v>2426900</v>
+        <v>2347000</v>
       </c>
       <c r="G59" s="3">
-        <v>5243000</v>
+        <v>5070400</v>
       </c>
       <c r="H59" s="3">
-        <v>2201500</v>
+        <v>2129000</v>
       </c>
       <c r="I59" s="3">
-        <v>1902000</v>
+        <v>1839300</v>
       </c>
       <c r="J59" s="3">
-        <v>1951600</v>
+        <v>1887400</v>
       </c>
       <c r="K59" s="3">
         <v>1988100</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9350700</v>
+        <v>9042800</v>
       </c>
       <c r="E60" s="3">
-        <v>9125900</v>
+        <v>8825400</v>
       </c>
       <c r="F60" s="3">
-        <v>8406900</v>
+        <v>8130100</v>
       </c>
       <c r="G60" s="3">
-        <v>8358000</v>
+        <v>8082800</v>
       </c>
       <c r="H60" s="3">
-        <v>7621500</v>
+        <v>7370600</v>
       </c>
       <c r="I60" s="3">
-        <v>7360000</v>
+        <v>7117600</v>
       </c>
       <c r="J60" s="3">
-        <v>6652100</v>
+        <v>6433100</v>
       </c>
       <c r="K60" s="3">
         <v>6908900</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4631500</v>
+        <v>4479000</v>
       </c>
       <c r="E61" s="3">
-        <v>4704800</v>
+        <v>4549900</v>
       </c>
       <c r="F61" s="3">
-        <v>4478100</v>
+        <v>4330700</v>
       </c>
       <c r="G61" s="3">
-        <v>4303800</v>
+        <v>4162000</v>
       </c>
       <c r="H61" s="3">
-        <v>4362700</v>
+        <v>4219100</v>
       </c>
       <c r="I61" s="3">
-        <v>3866000</v>
+        <v>3738700</v>
       </c>
       <c r="J61" s="3">
-        <v>4372400</v>
+        <v>4228400</v>
       </c>
       <c r="K61" s="3">
         <v>3032900</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>731600</v>
+        <v>707500</v>
       </c>
       <c r="E62" s="3">
-        <v>764500</v>
+        <v>739300</v>
       </c>
       <c r="F62" s="3">
-        <v>499600</v>
+        <v>483100</v>
       </c>
       <c r="G62" s="3">
-        <v>1344100</v>
+        <v>1299900</v>
       </c>
       <c r="H62" s="3">
-        <v>757500</v>
+        <v>732600</v>
       </c>
       <c r="I62" s="3">
-        <v>747900</v>
+        <v>723300</v>
       </c>
       <c r="J62" s="3">
-        <v>795100</v>
+        <v>768900</v>
       </c>
       <c r="K62" s="3">
         <v>668100</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15608000</v>
+        <v>15094000</v>
       </c>
       <c r="E66" s="3">
-        <v>15454900</v>
+        <v>14946000</v>
       </c>
       <c r="F66" s="3">
-        <v>14173400</v>
+        <v>13706600</v>
       </c>
       <c r="G66" s="3">
-        <v>14041000</v>
+        <v>13578600</v>
       </c>
       <c r="H66" s="3">
-        <v>13408300</v>
+        <v>12966700</v>
       </c>
       <c r="I66" s="3">
-        <v>12686700</v>
+        <v>12268900</v>
       </c>
       <c r="J66" s="3">
-        <v>12533700</v>
+        <v>12121000</v>
       </c>
       <c r="K66" s="3">
         <v>11242200</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12077700</v>
+        <v>11680000</v>
       </c>
       <c r="E72" s="3">
-        <v>11285700</v>
+        <v>10914000</v>
       </c>
       <c r="F72" s="3">
-        <v>10343400</v>
+        <v>10002800</v>
       </c>
       <c r="G72" s="3">
-        <v>19185500</v>
+        <v>18553700</v>
       </c>
       <c r="H72" s="3">
-        <v>8936400</v>
+        <v>8642100</v>
       </c>
       <c r="I72" s="3">
-        <v>8101600</v>
+        <v>7834800</v>
       </c>
       <c r="J72" s="3">
-        <v>7452800</v>
+        <v>7207300</v>
       </c>
       <c r="K72" s="3">
         <v>6950700</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13446700</v>
+        <v>13003900</v>
       </c>
       <c r="E76" s="3">
-        <v>13144200</v>
+        <v>12711400</v>
       </c>
       <c r="F76" s="3">
-        <v>12206000</v>
+        <v>11804100</v>
       </c>
       <c r="G76" s="3">
-        <v>11761900</v>
+        <v>11374500</v>
       </c>
       <c r="H76" s="3">
-        <v>10920700</v>
+        <v>10561100</v>
       </c>
       <c r="I76" s="3">
-        <v>10388200</v>
+        <v>10046100</v>
       </c>
       <c r="J76" s="3">
-        <v>10030100</v>
+        <v>9699800</v>
       </c>
       <c r="K76" s="3">
         <v>8983500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1170800</v>
+        <v>1132300</v>
       </c>
       <c r="E81" s="3">
-        <v>1357900</v>
+        <v>1313200</v>
       </c>
       <c r="F81" s="3">
-        <v>1262600</v>
+        <v>1221000</v>
       </c>
       <c r="G81" s="3">
-        <v>1162700</v>
+        <v>1124400</v>
       </c>
       <c r="H81" s="3">
-        <v>1206900</v>
+        <v>1167200</v>
       </c>
       <c r="I81" s="3">
-        <v>1003100</v>
+        <v>970000</v>
       </c>
       <c r="J81" s="3">
-        <v>1275500</v>
+        <v>1233500</v>
       </c>
       <c r="K81" s="3">
         <v>1265300</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>613400</v>
+        <v>593200</v>
       </c>
       <c r="E83" s="3">
-        <v>567000</v>
+        <v>548400</v>
       </c>
       <c r="F83" s="3">
-        <v>452100</v>
+        <v>437200</v>
       </c>
       <c r="G83" s="3">
-        <v>411200</v>
+        <v>397600</v>
       </c>
       <c r="H83" s="3">
-        <v>395100</v>
+        <v>382100</v>
       </c>
       <c r="I83" s="3">
-        <v>284200</v>
+        <v>274800</v>
       </c>
       <c r="J83" s="3">
-        <v>348400</v>
+        <v>336900</v>
       </c>
       <c r="K83" s="3">
         <v>339700</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1302000</v>
+        <v>1259100</v>
       </c>
       <c r="E89" s="3">
-        <v>750800</v>
+        <v>726000</v>
       </c>
       <c r="F89" s="3">
-        <v>812100</v>
+        <v>785400</v>
       </c>
       <c r="G89" s="3">
-        <v>1249800</v>
+        <v>1208600</v>
       </c>
       <c r="H89" s="3">
-        <v>1685100</v>
+        <v>1629700</v>
       </c>
       <c r="I89" s="3">
-        <v>1795000</v>
+        <v>1735900</v>
       </c>
       <c r="J89" s="3">
-        <v>765200</v>
+        <v>740000</v>
       </c>
       <c r="K89" s="3">
         <v>800700</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-554900</v>
+        <v>-536600</v>
       </c>
       <c r="E91" s="3">
-        <v>-694600</v>
+        <v>-671700</v>
       </c>
       <c r="F91" s="3">
-        <v>-577500</v>
+        <v>-558500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1119300</v>
+        <v>-1082500</v>
       </c>
       <c r="H91" s="3">
-        <v>-511400</v>
+        <v>-494600</v>
       </c>
       <c r="I91" s="3">
-        <v>-357700</v>
+        <v>-345900</v>
       </c>
       <c r="J91" s="3">
-        <v>-425400</v>
+        <v>-411300</v>
       </c>
       <c r="K91" s="3">
         <v>-510800</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-429400</v>
+        <v>-415200</v>
       </c>
       <c r="E94" s="3">
-        <v>-833300</v>
+        <v>-805900</v>
       </c>
       <c r="F94" s="3">
-        <v>-535300</v>
+        <v>-517600</v>
       </c>
       <c r="G94" s="3">
-        <v>-418900</v>
+        <v>-405100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1526200</v>
+        <v>-1475900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1187100</v>
+        <v>-1148000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1070500</v>
+        <v>-1035200</v>
       </c>
       <c r="K94" s="3">
         <v>-1001400</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-399500</v>
+        <v>-386300</v>
       </c>
       <c r="E96" s="3">
-        <v>-392300</v>
+        <v>-379400</v>
       </c>
       <c r="F96" s="3">
-        <v>-370700</v>
+        <v>-358500</v>
       </c>
       <c r="G96" s="3">
-        <v>-350000</v>
+        <v>-338500</v>
       </c>
       <c r="H96" s="3">
-        <v>-317400</v>
+        <v>-306900</v>
       </c>
       <c r="I96" s="3">
-        <v>-340400</v>
+        <v>-329200</v>
       </c>
       <c r="J96" s="3">
-        <v>-341700</v>
+        <v>-330400</v>
       </c>
       <c r="K96" s="3">
         <v>-229400</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-622700</v>
+        <v>-602200</v>
       </c>
       <c r="E100" s="3">
-        <v>-196000</v>
+        <v>-189500</v>
       </c>
       <c r="F100" s="3">
-        <v>-253400</v>
+        <v>-245100</v>
       </c>
       <c r="G100" s="3">
-        <v>-296800</v>
+        <v>-287000</v>
       </c>
       <c r="H100" s="3">
-        <v>103500</v>
+        <v>100100</v>
       </c>
       <c r="I100" s="3">
-        <v>-252100</v>
+        <v>-243800</v>
       </c>
       <c r="J100" s="3">
-        <v>479200</v>
+        <v>463400</v>
       </c>
       <c r="K100" s="3">
         <v>30900</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38100</v>
+        <v>-36800</v>
       </c>
       <c r="E101" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="F101" s="3">
-        <v>-38000</v>
+        <v>-36800</v>
       </c>
       <c r="G101" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="H101" s="3">
-        <v>-51800</v>
+        <v>-50100</v>
       </c>
       <c r="I101" s="3">
-        <v>-47400</v>
+        <v>-45800</v>
       </c>
       <c r="J101" s="3">
-        <v>62800</v>
+        <v>60800</v>
       </c>
       <c r="K101" s="3">
         <v>47100</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>211800</v>
+        <v>204900</v>
       </c>
       <c r="E102" s="3">
-        <v>-268400</v>
+        <v>-259500</v>
       </c>
       <c r="F102" s="3">
-        <v>-14500</v>
+        <v>-14100</v>
       </c>
       <c r="G102" s="3">
-        <v>558500</v>
+        <v>540100</v>
       </c>
       <c r="H102" s="3">
-        <v>210700</v>
+        <v>203800</v>
       </c>
       <c r="I102" s="3">
-        <v>308400</v>
+        <v>298300</v>
       </c>
       <c r="J102" s="3">
-        <v>236800</v>
+        <v>229000</v>
       </c>
       <c r="K102" s="3">
         <v>-122700</v>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>KUBTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16327000</v>
+        <v>18738400</v>
       </c>
       <c r="E8" s="3">
-        <v>16915600</v>
+        <v>15808100</v>
       </c>
       <c r="F8" s="3">
-        <v>16301300</v>
+        <v>16378000</v>
       </c>
       <c r="G8" s="3">
-        <v>15426600</v>
+        <v>15783200</v>
       </c>
       <c r="H8" s="3">
-        <v>14061600</v>
+        <v>14936400</v>
       </c>
       <c r="I8" s="3">
-        <v>10966500</v>
+        <v>13614700</v>
       </c>
       <c r="J8" s="3">
+        <v>10617900</v>
+      </c>
+      <c r="K8" s="3">
         <v>13980900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14497500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10613700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8941100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11615000</v>
+        <v>13349100</v>
       </c>
       <c r="E9" s="3">
-        <v>11982600</v>
+        <v>11245800</v>
       </c>
       <c r="F9" s="3">
-        <v>11655000</v>
+        <v>11601800</v>
       </c>
       <c r="G9" s="3">
-        <v>21842300</v>
+        <v>11284600</v>
       </c>
       <c r="H9" s="3">
-        <v>9889600</v>
+        <v>21148100</v>
       </c>
       <c r="I9" s="3">
-        <v>7474400</v>
+        <v>9575300</v>
       </c>
       <c r="J9" s="3">
+        <v>7236800</v>
+      </c>
+      <c r="K9" s="3">
         <v>9732900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10157800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7709700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6526900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4712000</v>
+        <v>5389300</v>
       </c>
       <c r="E10" s="3">
-        <v>4933000</v>
+        <v>4562300</v>
       </c>
       <c r="F10" s="3">
-        <v>4646300</v>
+        <v>4776200</v>
       </c>
       <c r="G10" s="3">
-        <v>-6415600</v>
+        <v>4498600</v>
       </c>
       <c r="H10" s="3">
-        <v>4171900</v>
+        <v>-6211700</v>
       </c>
       <c r="I10" s="3">
-        <v>3492100</v>
+        <v>4039300</v>
       </c>
       <c r="J10" s="3">
+        <v>3381100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4248000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4339800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2904100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2414300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,45 +926,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-12400</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-11600</v>
+        <v>-12000</v>
       </c>
       <c r="F14" s="3">
-        <v>-17600</v>
+        <v>-11200</v>
       </c>
       <c r="G14" s="3">
-        <v>7800</v>
+        <v>-17000</v>
       </c>
       <c r="H14" s="3">
-        <v>1800</v>
+        <v>7600</v>
       </c>
       <c r="I14" s="3">
-        <v>39600</v>
+        <v>1700</v>
       </c>
       <c r="J14" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15600</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,12 +1001,15 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14782700</v>
+        <v>16638300</v>
       </c>
       <c r="E17" s="3">
-        <v>15139000</v>
+        <v>14312900</v>
       </c>
       <c r="F17" s="3">
-        <v>14633400</v>
+        <v>14657800</v>
       </c>
       <c r="G17" s="3">
-        <v>13665100</v>
+        <v>14168300</v>
       </c>
       <c r="H17" s="3">
-        <v>12398400</v>
+        <v>13230800</v>
       </c>
       <c r="I17" s="3">
-        <v>9496300</v>
+        <v>12004400</v>
       </c>
       <c r="J17" s="3">
+        <v>9194500</v>
+      </c>
+      <c r="K17" s="3">
         <v>12182400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12552200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9585100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8026500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1544300</v>
+        <v>2100100</v>
       </c>
       <c r="E18" s="3">
-        <v>1776600</v>
+        <v>1495200</v>
       </c>
       <c r="F18" s="3">
-        <v>1667900</v>
+        <v>1720100</v>
       </c>
       <c r="G18" s="3">
-        <v>1761600</v>
+        <v>1614800</v>
       </c>
       <c r="H18" s="3">
-        <v>1663100</v>
+        <v>1705600</v>
       </c>
       <c r="I18" s="3">
-        <v>1470200</v>
+        <v>1610300</v>
       </c>
       <c r="J18" s="3">
+        <v>1423400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1798500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1945400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1028600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>914600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>102700</v>
+        <v>54200</v>
       </c>
       <c r="E20" s="3">
+        <v>99400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>71800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>76400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>127700</v>
+      </c>
+      <c r="I20" s="3">
         <v>74200</v>
       </c>
-      <c r="F20" s="3">
-        <v>78900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>131900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>76600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>29300</v>
-      </c>
       <c r="J20" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K20" s="3">
         <v>73100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>99600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>78000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2241500</v>
+        <v>2773100</v>
       </c>
       <c r="E21" s="3">
-        <v>2400400</v>
+        <v>2175700</v>
       </c>
       <c r="F21" s="3">
-        <v>2184900</v>
+        <v>2329100</v>
       </c>
       <c r="G21" s="3">
-        <v>2292000</v>
+        <v>2119500</v>
       </c>
       <c r="H21" s="3">
-        <v>2122700</v>
+        <v>2222800</v>
       </c>
       <c r="I21" s="3">
-        <v>1774900</v>
+        <v>2058700</v>
       </c>
       <c r="J21" s="3">
+        <v>1721000</v>
+      </c>
+      <c r="K21" s="3">
         <v>2209300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2383900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1373100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1124200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>9200</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="F22" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="G22" s="3">
-        <v>8100</v>
+        <v>8900</v>
       </c>
       <c r="H22" s="3">
-        <v>4400</v>
+        <v>7800</v>
       </c>
       <c r="I22" s="3">
-        <v>6100</v>
+        <v>4300</v>
       </c>
       <c r="J22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K22" s="3">
         <v>10400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16800</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1637800</v>
+        <v>2154300</v>
       </c>
       <c r="E23" s="3">
-        <v>1841500</v>
+        <v>1585700</v>
       </c>
       <c r="F23" s="3">
-        <v>1737600</v>
+        <v>1783000</v>
       </c>
       <c r="G23" s="3">
-        <v>1885400</v>
+        <v>1682400</v>
       </c>
       <c r="H23" s="3">
-        <v>1735300</v>
+        <v>1825500</v>
       </c>
       <c r="I23" s="3">
-        <v>1493300</v>
+        <v>1680200</v>
       </c>
       <c r="J23" s="3">
+        <v>1445900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1861200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2030500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1095000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>895300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>414300</v>
+        <v>553300</v>
       </c>
       <c r="E24" s="3">
-        <v>466900</v>
+        <v>401100</v>
       </c>
       <c r="F24" s="3">
-        <v>432700</v>
+        <v>452100</v>
       </c>
       <c r="G24" s="3">
-        <v>552900</v>
+        <v>419000</v>
       </c>
       <c r="H24" s="3">
-        <v>498200</v>
+        <v>535400</v>
       </c>
       <c r="I24" s="3">
-        <v>478000</v>
+        <v>482300</v>
       </c>
       <c r="J24" s="3">
+        <v>462800</v>
+      </c>
+      <c r="K24" s="3">
         <v>539200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>691100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>370300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>324200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1223500</v>
+        <v>1601000</v>
       </c>
       <c r="E26" s="3">
-        <v>1374500</v>
+        <v>1184600</v>
       </c>
       <c r="F26" s="3">
-        <v>1304900</v>
+        <v>1330900</v>
       </c>
       <c r="G26" s="3">
-        <v>1332500</v>
+        <v>1263400</v>
       </c>
       <c r="H26" s="3">
-        <v>1237100</v>
+        <v>1290100</v>
       </c>
       <c r="I26" s="3">
-        <v>1015300</v>
+        <v>1197800</v>
       </c>
       <c r="J26" s="3">
+        <v>983000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1322000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1339400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>724700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>571100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1132300</v>
+        <v>1498200</v>
       </c>
       <c r="E27" s="3">
-        <v>1313200</v>
+        <v>1096300</v>
       </c>
       <c r="F27" s="3">
-        <v>1221000</v>
+        <v>1271500</v>
       </c>
       <c r="G27" s="3">
-        <v>1216200</v>
+        <v>1182200</v>
       </c>
       <c r="H27" s="3">
-        <v>1167200</v>
+        <v>1177500</v>
       </c>
       <c r="I27" s="3">
-        <v>970000</v>
+        <v>1130100</v>
       </c>
       <c r="J27" s="3">
+        <v>939200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1233500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1265300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>669800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>546000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,11 +1482,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-91800</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-88800</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-102700</v>
+        <v>-54200</v>
       </c>
       <c r="E32" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-74200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-78900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-131900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-76600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-29300</v>
-      </c>
       <c r="J32" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-73100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-99600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-78000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1132300</v>
+        <v>1498200</v>
       </c>
       <c r="E33" s="3">
-        <v>1313200</v>
+        <v>1096300</v>
       </c>
       <c r="F33" s="3">
-        <v>1221000</v>
+        <v>1271500</v>
       </c>
       <c r="G33" s="3">
-        <v>1124400</v>
+        <v>1182200</v>
       </c>
       <c r="H33" s="3">
-        <v>1167200</v>
+        <v>1088600</v>
       </c>
       <c r="I33" s="3">
-        <v>970000</v>
+        <v>1130100</v>
       </c>
       <c r="J33" s="3">
+        <v>939200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1233500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1265300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>669800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>546000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1132300</v>
+        <v>1498200</v>
       </c>
       <c r="E35" s="3">
-        <v>1313200</v>
+        <v>1096300</v>
       </c>
       <c r="F35" s="3">
-        <v>1221000</v>
+        <v>1271500</v>
       </c>
       <c r="G35" s="3">
-        <v>1124400</v>
+        <v>1182200</v>
       </c>
       <c r="H35" s="3">
-        <v>1167200</v>
+        <v>1088600</v>
       </c>
       <c r="I35" s="3">
-        <v>970000</v>
+        <v>1130100</v>
       </c>
       <c r="J35" s="3">
+        <v>939200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1233500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1265300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>669800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>546000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,332 +1818,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1963900</v>
+        <v>2206200</v>
       </c>
       <c r="E41" s="3">
-        <v>1759000</v>
+        <v>1901500</v>
       </c>
       <c r="F41" s="3">
-        <v>2018600</v>
+        <v>1703100</v>
       </c>
       <c r="G41" s="3">
-        <v>4065300</v>
+        <v>1954400</v>
       </c>
       <c r="H41" s="3">
-        <v>1492600</v>
+        <v>3936100</v>
       </c>
       <c r="I41" s="3">
-        <v>1288800</v>
+        <v>1445100</v>
       </c>
       <c r="J41" s="3">
+        <v>1247800</v>
+      </c>
+      <c r="K41" s="3">
         <v>995700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>836300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1004800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>892000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>440200</v>
+        <v>434000</v>
       </c>
       <c r="E42" s="3">
-        <v>634000</v>
+        <v>426200</v>
       </c>
       <c r="F42" s="3">
-        <v>479000</v>
+        <v>613900</v>
       </c>
       <c r="G42" s="3">
-        <v>469400</v>
+        <v>463800</v>
       </c>
       <c r="H42" s="3">
-        <v>53700</v>
+        <v>454500</v>
       </c>
       <c r="I42" s="3">
-        <v>66900</v>
+        <v>52000</v>
       </c>
       <c r="J42" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K42" s="3">
         <v>80100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>44500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38800</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8099500</v>
+        <v>8219900</v>
       </c>
       <c r="E43" s="3">
-        <v>8658600</v>
+        <v>7842100</v>
       </c>
       <c r="F43" s="3">
-        <v>8211600</v>
+        <v>8383400</v>
       </c>
       <c r="G43" s="3">
-        <v>21695000</v>
+        <v>7950600</v>
       </c>
       <c r="H43" s="3">
-        <v>7726400</v>
+        <v>21005500</v>
       </c>
       <c r="I43" s="3">
-        <v>7503300</v>
+        <v>7480800</v>
       </c>
       <c r="J43" s="3">
+        <v>7264800</v>
+      </c>
+      <c r="K43" s="3">
         <v>7816300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7348700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5510400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4425400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3294900</v>
+        <v>4350900</v>
       </c>
       <c r="E44" s="3">
-        <v>3369000</v>
+        <v>3190200</v>
       </c>
       <c r="F44" s="3">
-        <v>3265800</v>
+        <v>3261900</v>
       </c>
       <c r="G44" s="3">
-        <v>6355300</v>
+        <v>3162100</v>
       </c>
       <c r="H44" s="3">
-        <v>3137900</v>
+        <v>6153300</v>
       </c>
       <c r="I44" s="3">
-        <v>6280500</v>
+        <v>3038200</v>
       </c>
       <c r="J44" s="3">
+        <v>6080900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2978100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2880700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2104200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1792400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>637000</v>
+        <v>715000</v>
       </c>
       <c r="E45" s="3">
-        <v>722700</v>
+        <v>616800</v>
       </c>
       <c r="F45" s="3">
-        <v>469100</v>
+        <v>699800</v>
       </c>
       <c r="G45" s="3">
-        <v>1448300</v>
+        <v>454200</v>
       </c>
       <c r="H45" s="3">
-        <v>1360100</v>
+        <v>1402300</v>
       </c>
       <c r="I45" s="3">
-        <v>2337200</v>
+        <v>1316900</v>
       </c>
       <c r="J45" s="3">
+        <v>2262900</v>
+      </c>
+      <c r="K45" s="3">
         <v>842800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>748200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>565200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>571800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14435600</v>
+        <v>15925900</v>
       </c>
       <c r="E46" s="3">
-        <v>15143400</v>
+        <v>13976800</v>
       </c>
       <c r="F46" s="3">
-        <v>14444200</v>
+        <v>14662100</v>
       </c>
       <c r="G46" s="3">
-        <v>14170200</v>
+        <v>13985100</v>
       </c>
       <c r="H46" s="3">
-        <v>13770700</v>
+        <v>13719900</v>
       </c>
       <c r="I46" s="3">
-        <v>13134400</v>
+        <v>13333000</v>
       </c>
       <c r="J46" s="3">
+        <v>12716900</v>
+      </c>
+      <c r="K46" s="3">
         <v>12713000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11858400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9223400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7681500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1539200</v>
+        <v>1693600</v>
       </c>
       <c r="E47" s="3">
-        <v>1609300</v>
+        <v>1490300</v>
       </c>
       <c r="F47" s="3">
-        <v>1601700</v>
+        <v>1558100</v>
       </c>
       <c r="G47" s="3">
-        <v>2528100</v>
+        <v>1550800</v>
       </c>
       <c r="H47" s="3">
-        <v>595600</v>
+        <v>2447800</v>
       </c>
       <c r="I47" s="3">
-        <v>782200</v>
+        <v>576700</v>
       </c>
       <c r="J47" s="3">
+        <v>757400</v>
+      </c>
+      <c r="K47" s="3">
         <v>543000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>555400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>460200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2873400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3741400</v>
+        <v>4233500</v>
       </c>
       <c r="E48" s="3">
-        <v>3571100</v>
+        <v>3622500</v>
       </c>
       <c r="F48" s="3">
-        <v>2907600</v>
+        <v>3457600</v>
       </c>
       <c r="G48" s="3">
-        <v>8613700</v>
+        <v>2815200</v>
       </c>
       <c r="H48" s="3">
-        <v>2768400</v>
+        <v>8339900</v>
       </c>
       <c r="I48" s="3">
-        <v>2518500</v>
+        <v>2680400</v>
       </c>
       <c r="J48" s="3">
+        <v>2438500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2617400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2716800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2322700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1996300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>639100</v>
+        <v>817900</v>
       </c>
       <c r="E49" s="3">
-        <v>537300</v>
+        <v>618800</v>
       </c>
       <c r="F49" s="3">
-        <v>440000</v>
+        <v>520200</v>
       </c>
       <c r="G49" s="3">
-        <v>1249000</v>
+        <v>426100</v>
       </c>
       <c r="H49" s="3">
-        <v>405800</v>
+        <v>1209300</v>
       </c>
       <c r="I49" s="3">
-        <v>518600</v>
+        <v>392900</v>
       </c>
       <c r="J49" s="3">
+        <v>502100</v>
+      </c>
+      <c r="K49" s="3">
         <v>305700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>332800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>262700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>238600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7742700</v>
+        <v>9517100</v>
       </c>
       <c r="E52" s="3">
-        <v>6796300</v>
+        <v>7496700</v>
       </c>
       <c r="F52" s="3">
-        <v>6117100</v>
+        <v>6580300</v>
       </c>
       <c r="G52" s="3">
-        <v>12550900</v>
+        <v>5922700</v>
       </c>
       <c r="H52" s="3">
-        <v>5987400</v>
+        <v>12152000</v>
       </c>
       <c r="I52" s="3">
-        <v>5853400</v>
+        <v>5797100</v>
       </c>
       <c r="J52" s="3">
+        <v>5667400</v>
+      </c>
+      <c r="K52" s="3">
         <v>5641700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4762500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3580900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>405700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28097900</v>
+        <v>32188000</v>
       </c>
       <c r="E54" s="3">
-        <v>27657400</v>
+        <v>27204900</v>
       </c>
       <c r="F54" s="3">
-        <v>25510700</v>
+        <v>26778400</v>
       </c>
       <c r="G54" s="3">
-        <v>24953100</v>
+        <v>24699900</v>
       </c>
       <c r="H54" s="3">
-        <v>23527800</v>
+        <v>24160100</v>
       </c>
       <c r="I54" s="3">
-        <v>22315100</v>
+        <v>22780100</v>
       </c>
       <c r="J54" s="3">
+        <v>21605900</v>
+      </c>
+      <c r="K54" s="3">
         <v>21820800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20225800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15850000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13195600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2851000</v>
+        <v>3346600</v>
       </c>
       <c r="E57" s="3">
-        <v>2588100</v>
+        <v>2760400</v>
       </c>
       <c r="F57" s="3">
-        <v>2702500</v>
+        <v>2505900</v>
       </c>
       <c r="G57" s="3">
-        <v>5041500</v>
+        <v>2616700</v>
       </c>
       <c r="H57" s="3">
-        <v>2254100</v>
+        <v>4881200</v>
       </c>
       <c r="I57" s="3">
-        <v>2293500</v>
+        <v>2182500</v>
       </c>
       <c r="J57" s="3">
+        <v>2220600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2011600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2313200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2209100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1765800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3224800</v>
+        <v>4302000</v>
       </c>
       <c r="E58" s="3">
-        <v>3405400</v>
+        <v>3122300</v>
       </c>
       <c r="F58" s="3">
-        <v>3080500</v>
+        <v>3297200</v>
       </c>
       <c r="G58" s="3">
-        <v>9618800</v>
+        <v>2982600</v>
       </c>
       <c r="H58" s="3">
-        <v>2987400</v>
+        <v>9313100</v>
       </c>
       <c r="I58" s="3">
-        <v>3033600</v>
+        <v>2892500</v>
       </c>
       <c r="J58" s="3">
+        <v>2937200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2534100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2607600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1701300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1718500</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2967000</v>
+        <v>3557600</v>
       </c>
       <c r="E59" s="3">
-        <v>2831800</v>
+        <v>2872700</v>
       </c>
       <c r="F59" s="3">
-        <v>2347000</v>
+        <v>2741800</v>
       </c>
       <c r="G59" s="3">
-        <v>5070400</v>
+        <v>2272400</v>
       </c>
       <c r="H59" s="3">
-        <v>2129000</v>
+        <v>4909200</v>
       </c>
       <c r="I59" s="3">
-        <v>1839300</v>
+        <v>2061400</v>
       </c>
       <c r="J59" s="3">
+        <v>1780900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1887400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1988100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1496900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1269900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9042800</v>
+        <v>11206200</v>
       </c>
       <c r="E60" s="3">
-        <v>8825400</v>
+        <v>8755400</v>
       </c>
       <c r="F60" s="3">
-        <v>8130100</v>
+        <v>8544900</v>
       </c>
       <c r="G60" s="3">
-        <v>8082800</v>
+        <v>7871700</v>
       </c>
       <c r="H60" s="3">
-        <v>7370600</v>
+        <v>7825900</v>
       </c>
       <c r="I60" s="3">
-        <v>7117600</v>
+        <v>7136300</v>
       </c>
       <c r="J60" s="3">
+        <v>6891400</v>
+      </c>
+      <c r="K60" s="3">
         <v>6433100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6908900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5407200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4754200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4479000</v>
+        <v>5034200</v>
       </c>
       <c r="E61" s="3">
-        <v>4549900</v>
+        <v>4336600</v>
       </c>
       <c r="F61" s="3">
-        <v>4330700</v>
+        <v>4405300</v>
       </c>
       <c r="G61" s="3">
-        <v>4162000</v>
+        <v>4193000</v>
       </c>
       <c r="H61" s="3">
-        <v>4219100</v>
+        <v>4029800</v>
       </c>
       <c r="I61" s="3">
-        <v>3738700</v>
+        <v>4085000</v>
       </c>
       <c r="J61" s="3">
+        <v>3619900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4228400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3032900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2484800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1635600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>707500</v>
+        <v>721800</v>
       </c>
       <c r="E62" s="3">
-        <v>739300</v>
+        <v>685000</v>
       </c>
       <c r="F62" s="3">
-        <v>483100</v>
+        <v>715800</v>
       </c>
       <c r="G62" s="3">
-        <v>1299900</v>
+        <v>467800</v>
       </c>
       <c r="H62" s="3">
-        <v>732600</v>
+        <v>1258500</v>
       </c>
       <c r="I62" s="3">
-        <v>723300</v>
+        <v>709300</v>
       </c>
       <c r="J62" s="3">
+        <v>700300</v>
+      </c>
+      <c r="K62" s="3">
         <v>768900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>668100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>589500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>532800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15094000</v>
+        <v>17875100</v>
       </c>
       <c r="E66" s="3">
-        <v>14946000</v>
+        <v>14614300</v>
       </c>
       <c r="F66" s="3">
-        <v>13706600</v>
+        <v>14471000</v>
       </c>
       <c r="G66" s="3">
-        <v>13578600</v>
+        <v>13271000</v>
       </c>
       <c r="H66" s="3">
-        <v>12966700</v>
+        <v>13147000</v>
       </c>
       <c r="I66" s="3">
-        <v>12268900</v>
+        <v>12554600</v>
       </c>
       <c r="J66" s="3">
+        <v>11879000</v>
+      </c>
+      <c r="K66" s="3">
         <v>12121000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11242200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8955100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7401000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11680000</v>
+        <v>12279400</v>
       </c>
       <c r="E72" s="3">
-        <v>10914000</v>
+        <v>11308800</v>
       </c>
       <c r="F72" s="3">
-        <v>10002800</v>
+        <v>10567200</v>
       </c>
       <c r="G72" s="3">
-        <v>18553700</v>
+        <v>9684900</v>
       </c>
       <c r="H72" s="3">
-        <v>8642100</v>
+        <v>17964000</v>
       </c>
       <c r="I72" s="3">
-        <v>7834800</v>
+        <v>8367400</v>
       </c>
       <c r="J72" s="3">
+        <v>7585800</v>
+      </c>
+      <c r="K72" s="3">
         <v>7207300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6950700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5587500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5146800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13003900</v>
+        <v>14313000</v>
       </c>
       <c r="E76" s="3">
-        <v>12711400</v>
+        <v>12590600</v>
       </c>
       <c r="F76" s="3">
-        <v>11804100</v>
+        <v>12307400</v>
       </c>
       <c r="G76" s="3">
-        <v>11374500</v>
+        <v>11428900</v>
       </c>
       <c r="H76" s="3">
-        <v>10561100</v>
+        <v>11013000</v>
       </c>
       <c r="I76" s="3">
-        <v>10046100</v>
+        <v>10225400</v>
       </c>
       <c r="J76" s="3">
+        <v>9726800</v>
+      </c>
+      <c r="K76" s="3">
         <v>9699800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8983500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6894900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5794600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1132300</v>
+        <v>1498200</v>
       </c>
       <c r="E81" s="3">
-        <v>1313200</v>
+        <v>1096300</v>
       </c>
       <c r="F81" s="3">
-        <v>1221000</v>
+        <v>1271500</v>
       </c>
       <c r="G81" s="3">
-        <v>1124400</v>
+        <v>1182200</v>
       </c>
       <c r="H81" s="3">
-        <v>1167200</v>
+        <v>1088600</v>
       </c>
       <c r="I81" s="3">
-        <v>970000</v>
+        <v>1130100</v>
       </c>
       <c r="J81" s="3">
+        <v>939200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1233500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1265300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>669800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>546000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>593200</v>
+        <v>611600</v>
       </c>
       <c r="E83" s="3">
-        <v>548400</v>
+        <v>574400</v>
       </c>
       <c r="F83" s="3">
-        <v>437200</v>
+        <v>530900</v>
       </c>
       <c r="G83" s="3">
-        <v>397600</v>
+        <v>423300</v>
       </c>
       <c r="H83" s="3">
-        <v>382100</v>
+        <v>385000</v>
       </c>
       <c r="I83" s="3">
-        <v>274800</v>
+        <v>370000</v>
       </c>
       <c r="J83" s="3">
+        <v>266100</v>
+      </c>
+      <c r="K83" s="3">
         <v>336900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>339700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>265900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>212100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1259100</v>
+        <v>789100</v>
       </c>
       <c r="E89" s="3">
-        <v>726000</v>
+        <v>1219100</v>
       </c>
       <c r="F89" s="3">
-        <v>785400</v>
+        <v>703000</v>
       </c>
       <c r="G89" s="3">
-        <v>1208600</v>
+        <v>760400</v>
       </c>
       <c r="H89" s="3">
-        <v>1629700</v>
+        <v>1170200</v>
       </c>
       <c r="I89" s="3">
-        <v>1735900</v>
+        <v>1577900</v>
       </c>
       <c r="J89" s="3">
+        <v>1680800</v>
+      </c>
+      <c r="K89" s="3">
         <v>740000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>463400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>708700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-536600</v>
+        <v>-1072400</v>
       </c>
       <c r="E91" s="3">
-        <v>-671700</v>
+        <v>-519600</v>
       </c>
       <c r="F91" s="3">
-        <v>-558500</v>
+        <v>-650400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1082500</v>
+        <v>-540800</v>
       </c>
       <c r="H91" s="3">
-        <v>-494600</v>
+        <v>-1048100</v>
       </c>
       <c r="I91" s="3">
-        <v>-345900</v>
+        <v>-478900</v>
       </c>
       <c r="J91" s="3">
+        <v>-334900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-411300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-510800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-424000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-239200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-415200</v>
+        <v>-1086500</v>
       </c>
       <c r="E94" s="3">
-        <v>-805900</v>
+        <v>-402000</v>
       </c>
       <c r="F94" s="3">
-        <v>-517600</v>
+        <v>-780200</v>
       </c>
       <c r="G94" s="3">
-        <v>-405100</v>
+        <v>-501200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1475900</v>
+        <v>-392200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1148000</v>
+        <v>-1429000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1111500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1035200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1001400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-629400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-620300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-386300</v>
+        <v>-412300</v>
       </c>
       <c r="E96" s="3">
-        <v>-379400</v>
+        <v>-374100</v>
       </c>
       <c r="F96" s="3">
-        <v>-358500</v>
+        <v>-367300</v>
       </c>
       <c r="G96" s="3">
-        <v>-338500</v>
+        <v>-347100</v>
       </c>
       <c r="H96" s="3">
-        <v>-306900</v>
+        <v>-327700</v>
       </c>
       <c r="I96" s="3">
-        <v>-329200</v>
+        <v>-297200</v>
       </c>
       <c r="J96" s="3">
+        <v>-318700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-330400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-229400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-182700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-157000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-602200</v>
+        <v>516800</v>
       </c>
       <c r="E100" s="3">
-        <v>-189500</v>
+        <v>-583100</v>
       </c>
       <c r="F100" s="3">
-        <v>-245100</v>
+        <v>-183500</v>
       </c>
       <c r="G100" s="3">
-        <v>-287000</v>
+        <v>-237300</v>
       </c>
       <c r="H100" s="3">
-        <v>100100</v>
+        <v>-277900</v>
       </c>
       <c r="I100" s="3">
-        <v>-243800</v>
+        <v>96900</v>
       </c>
       <c r="J100" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="K100" s="3">
         <v>463400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>30900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>196800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-117700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-36800</v>
+        <v>85200</v>
       </c>
       <c r="E101" s="3">
-        <v>9800</v>
+        <v>-35600</v>
       </c>
       <c r="F101" s="3">
-        <v>-36800</v>
+        <v>9500</v>
       </c>
       <c r="G101" s="3">
-        <v>23600</v>
+        <v>-35600</v>
       </c>
       <c r="H101" s="3">
-        <v>-50100</v>
+        <v>22800</v>
       </c>
       <c r="I101" s="3">
-        <v>-45800</v>
+        <v>-48500</v>
       </c>
       <c r="J101" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="K101" s="3">
         <v>60800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>47100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>59800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>204900</v>
+        <v>304700</v>
       </c>
       <c r="E102" s="3">
-        <v>-259500</v>
+        <v>198400</v>
       </c>
       <c r="F102" s="3">
-        <v>-14100</v>
+        <v>-251300</v>
       </c>
       <c r="G102" s="3">
-        <v>540100</v>
+        <v>-13600</v>
       </c>
       <c r="H102" s="3">
-        <v>203800</v>
+        <v>522900</v>
       </c>
       <c r="I102" s="3">
-        <v>298300</v>
+        <v>197300</v>
       </c>
       <c r="J102" s="3">
+        <v>288800</v>
+      </c>
+      <c r="K102" s="3">
         <v>229000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-122700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>90700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-42000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>KUBTY</t>
   </si>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18738400</v>
+        <v>17112800</v>
       </c>
       <c r="E8" s="3">
-        <v>15808100</v>
+        <v>14436700</v>
       </c>
       <c r="F8" s="3">
-        <v>16378000</v>
+        <v>14957100</v>
       </c>
       <c r="G8" s="3">
-        <v>15783200</v>
+        <v>14414000</v>
       </c>
       <c r="H8" s="3">
-        <v>14936400</v>
+        <v>13640600</v>
       </c>
       <c r="I8" s="3">
-        <v>13614700</v>
+        <v>12433500</v>
       </c>
       <c r="J8" s="3">
-        <v>10617900</v>
+        <v>9696800</v>
       </c>
       <c r="K8" s="3">
         <v>13980900</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13349100</v>
+        <v>12191000</v>
       </c>
       <c r="E9" s="3">
-        <v>11245800</v>
+        <v>10270200</v>
       </c>
       <c r="F9" s="3">
-        <v>11601800</v>
+        <v>10595300</v>
       </c>
       <c r="G9" s="3">
-        <v>11284600</v>
+        <v>10305600</v>
       </c>
       <c r="H9" s="3">
-        <v>21148100</v>
+        <v>19313400</v>
       </c>
       <c r="I9" s="3">
-        <v>9575300</v>
+        <v>8744600</v>
       </c>
       <c r="J9" s="3">
-        <v>7236800</v>
+        <v>6609000</v>
       </c>
       <c r="K9" s="3">
         <v>9732900</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5389300</v>
+        <v>4921800</v>
       </c>
       <c r="E10" s="3">
-        <v>4562300</v>
+        <v>4166500</v>
       </c>
       <c r="F10" s="3">
-        <v>4776200</v>
+        <v>4361800</v>
       </c>
       <c r="G10" s="3">
-        <v>4498600</v>
+        <v>4108300</v>
       </c>
       <c r="H10" s="3">
-        <v>-6211700</v>
+        <v>-5672800</v>
       </c>
       <c r="I10" s="3">
-        <v>4039300</v>
+        <v>3688900</v>
       </c>
       <c r="J10" s="3">
-        <v>3381100</v>
+        <v>3087800</v>
       </c>
       <c r="K10" s="3">
         <v>4248000</v>
@@ -935,26 +935,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-7100</v>
       </c>
       <c r="E14" s="3">
-        <v>-12000</v>
+        <v>-11000</v>
       </c>
       <c r="F14" s="3">
-        <v>-11200</v>
+        <v>-10300</v>
       </c>
       <c r="G14" s="3">
-        <v>-17000</v>
+        <v>-15600</v>
       </c>
       <c r="H14" s="3">
-        <v>7600</v>
+        <v>6900</v>
       </c>
       <c r="I14" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J14" s="3">
-        <v>38400</v>
+        <v>35000</v>
       </c>
       <c r="K14" s="3">
         <v>-6500</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16638300</v>
+        <v>15194900</v>
       </c>
       <c r="E17" s="3">
-        <v>14312900</v>
+        <v>13071200</v>
       </c>
       <c r="F17" s="3">
-        <v>14657800</v>
+        <v>13386200</v>
       </c>
       <c r="G17" s="3">
-        <v>14168300</v>
+        <v>12939200</v>
       </c>
       <c r="H17" s="3">
-        <v>13230800</v>
+        <v>12083000</v>
       </c>
       <c r="I17" s="3">
-        <v>12004400</v>
+        <v>10963000</v>
       </c>
       <c r="J17" s="3">
-        <v>9194500</v>
+        <v>8396800</v>
       </c>
       <c r="K17" s="3">
         <v>12182400</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2100100</v>
+        <v>1918000</v>
       </c>
       <c r="E18" s="3">
-        <v>1495200</v>
+        <v>1365500</v>
       </c>
       <c r="F18" s="3">
-        <v>1720100</v>
+        <v>1570900</v>
       </c>
       <c r="G18" s="3">
-        <v>1614800</v>
+        <v>1474800</v>
       </c>
       <c r="H18" s="3">
-        <v>1705600</v>
+        <v>1557600</v>
       </c>
       <c r="I18" s="3">
-        <v>1610300</v>
+        <v>1470600</v>
       </c>
       <c r="J18" s="3">
-        <v>1423400</v>
+        <v>1299900</v>
       </c>
       <c r="K18" s="3">
         <v>1798500</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>54200</v>
+        <v>57200</v>
       </c>
       <c r="E20" s="3">
-        <v>99400</v>
+        <v>90800</v>
       </c>
       <c r="F20" s="3">
-        <v>71800</v>
+        <v>65600</v>
       </c>
       <c r="G20" s="3">
-        <v>76400</v>
+        <v>69800</v>
       </c>
       <c r="H20" s="3">
-        <v>127700</v>
+        <v>116600</v>
       </c>
       <c r="I20" s="3">
-        <v>74200</v>
+        <v>67700</v>
       </c>
       <c r="J20" s="3">
-        <v>28400</v>
+        <v>25900</v>
       </c>
       <c r="K20" s="3">
         <v>73100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2773100</v>
+        <v>2526500</v>
       </c>
       <c r="E21" s="3">
-        <v>2175700</v>
+        <v>1974100</v>
       </c>
       <c r="F21" s="3">
-        <v>2329100</v>
+        <v>2115200</v>
       </c>
       <c r="G21" s="3">
-        <v>2119500</v>
+        <v>1926100</v>
       </c>
       <c r="H21" s="3">
-        <v>2222800</v>
+        <v>2021300</v>
       </c>
       <c r="I21" s="3">
-        <v>2058700</v>
+        <v>1871800</v>
       </c>
       <c r="J21" s="3">
-        <v>1721000</v>
+        <v>1565700</v>
       </c>
       <c r="K21" s="3">
         <v>2209300</v>
@@ -1200,26 +1200,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>7700</v>
       </c>
       <c r="E22" s="3">
-        <v>8900</v>
+        <v>8100</v>
       </c>
       <c r="F22" s="3">
-        <v>9000</v>
+        <v>8200</v>
       </c>
       <c r="G22" s="3">
-        <v>8900</v>
+        <v>8100</v>
       </c>
       <c r="H22" s="3">
-        <v>7800</v>
+        <v>7100</v>
       </c>
       <c r="I22" s="3">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="J22" s="3">
-        <v>6000</v>
+        <v>5400</v>
       </c>
       <c r="K22" s="3">
         <v>10400</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2154300</v>
+        <v>1967400</v>
       </c>
       <c r="E23" s="3">
-        <v>1585700</v>
+        <v>1448200</v>
       </c>
       <c r="F23" s="3">
-        <v>1783000</v>
+        <v>1628300</v>
       </c>
       <c r="G23" s="3">
-        <v>1682400</v>
+        <v>1536400</v>
       </c>
       <c r="H23" s="3">
-        <v>1825500</v>
+        <v>1667100</v>
       </c>
       <c r="I23" s="3">
-        <v>1680200</v>
+        <v>1534400</v>
       </c>
       <c r="J23" s="3">
-        <v>1445900</v>
+        <v>1320400</v>
       </c>
       <c r="K23" s="3">
         <v>1861200</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>553300</v>
+        <v>505300</v>
       </c>
       <c r="E24" s="3">
-        <v>401100</v>
+        <v>366300</v>
       </c>
       <c r="F24" s="3">
-        <v>452100</v>
+        <v>412900</v>
       </c>
       <c r="G24" s="3">
-        <v>419000</v>
+        <v>382600</v>
       </c>
       <c r="H24" s="3">
-        <v>535400</v>
+        <v>488900</v>
       </c>
       <c r="I24" s="3">
-        <v>482300</v>
+        <v>440500</v>
       </c>
       <c r="J24" s="3">
-        <v>462800</v>
+        <v>422700</v>
       </c>
       <c r="K24" s="3">
         <v>539200</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1601000</v>
+        <v>1462100</v>
       </c>
       <c r="E26" s="3">
-        <v>1184600</v>
+        <v>1081800</v>
       </c>
       <c r="F26" s="3">
-        <v>1330900</v>
+        <v>1215400</v>
       </c>
       <c r="G26" s="3">
-        <v>1263400</v>
+        <v>1153800</v>
       </c>
       <c r="H26" s="3">
-        <v>1290100</v>
+        <v>1178200</v>
       </c>
       <c r="I26" s="3">
-        <v>1197800</v>
+        <v>1093900</v>
       </c>
       <c r="J26" s="3">
-        <v>983000</v>
+        <v>897700</v>
       </c>
       <c r="K26" s="3">
         <v>1322000</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1498200</v>
+        <v>1368200</v>
       </c>
       <c r="E27" s="3">
-        <v>1096300</v>
+        <v>1001200</v>
       </c>
       <c r="F27" s="3">
-        <v>1271500</v>
+        <v>1161200</v>
       </c>
       <c r="G27" s="3">
-        <v>1182200</v>
+        <v>1079600</v>
       </c>
       <c r="H27" s="3">
-        <v>1177500</v>
+        <v>1075300</v>
       </c>
       <c r="I27" s="3">
-        <v>1130100</v>
+        <v>1032100</v>
       </c>
       <c r="J27" s="3">
-        <v>939200</v>
+        <v>857700</v>
       </c>
       <c r="K27" s="3">
         <v>1233500</v>
@@ -1486,7 +1486,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-88800</v>
+        <v>-81100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-54200</v>
+        <v>-57200</v>
       </c>
       <c r="E32" s="3">
-        <v>-99400</v>
+        <v>-90800</v>
       </c>
       <c r="F32" s="3">
-        <v>-71800</v>
+        <v>-65600</v>
       </c>
       <c r="G32" s="3">
-        <v>-76400</v>
+        <v>-69800</v>
       </c>
       <c r="H32" s="3">
-        <v>-127700</v>
+        <v>-116600</v>
       </c>
       <c r="I32" s="3">
-        <v>-74200</v>
+        <v>-67700</v>
       </c>
       <c r="J32" s="3">
-        <v>-28400</v>
+        <v>-25900</v>
       </c>
       <c r="K32" s="3">
         <v>-73100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1498200</v>
+        <v>1368200</v>
       </c>
       <c r="E33" s="3">
-        <v>1096300</v>
+        <v>1001200</v>
       </c>
       <c r="F33" s="3">
-        <v>1271500</v>
+        <v>1161200</v>
       </c>
       <c r="G33" s="3">
-        <v>1182200</v>
+        <v>1079600</v>
       </c>
       <c r="H33" s="3">
-        <v>1088600</v>
+        <v>994200</v>
       </c>
       <c r="I33" s="3">
-        <v>1130100</v>
+        <v>1032100</v>
       </c>
       <c r="J33" s="3">
-        <v>939200</v>
+        <v>857700</v>
       </c>
       <c r="K33" s="3">
         <v>1233500</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1498200</v>
+        <v>1368200</v>
       </c>
       <c r="E35" s="3">
-        <v>1096300</v>
+        <v>1001200</v>
       </c>
       <c r="F35" s="3">
-        <v>1271500</v>
+        <v>1161200</v>
       </c>
       <c r="G35" s="3">
-        <v>1182200</v>
+        <v>1079600</v>
       </c>
       <c r="H35" s="3">
-        <v>1088600</v>
+        <v>994200</v>
       </c>
       <c r="I35" s="3">
-        <v>1130100</v>
+        <v>1032100</v>
       </c>
       <c r="J35" s="3">
-        <v>939200</v>
+        <v>857700</v>
       </c>
       <c r="K35" s="3">
         <v>1233500</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2206200</v>
+        <v>2014800</v>
       </c>
       <c r="E41" s="3">
-        <v>1901500</v>
+        <v>1736500</v>
       </c>
       <c r="F41" s="3">
-        <v>1703100</v>
+        <v>1555400</v>
       </c>
       <c r="G41" s="3">
-        <v>1954400</v>
+        <v>1784900</v>
       </c>
       <c r="H41" s="3">
-        <v>3936100</v>
+        <v>3594600</v>
       </c>
       <c r="I41" s="3">
-        <v>1445100</v>
+        <v>1319800</v>
       </c>
       <c r="J41" s="3">
-        <v>1247800</v>
+        <v>1139600</v>
       </c>
       <c r="K41" s="3">
         <v>995700</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>434000</v>
+        <v>396300</v>
       </c>
       <c r="E42" s="3">
-        <v>426200</v>
+        <v>389200</v>
       </c>
       <c r="F42" s="3">
-        <v>613900</v>
+        <v>560600</v>
       </c>
       <c r="G42" s="3">
-        <v>463800</v>
+        <v>423600</v>
       </c>
       <c r="H42" s="3">
-        <v>454500</v>
+        <v>415100</v>
       </c>
       <c r="I42" s="3">
-        <v>52000</v>
+        <v>47500</v>
       </c>
       <c r="J42" s="3">
-        <v>64800</v>
+        <v>59200</v>
       </c>
       <c r="K42" s="3">
         <v>80100</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8219900</v>
+        <v>7506800</v>
       </c>
       <c r="E43" s="3">
-        <v>7842100</v>
+        <v>7161800</v>
       </c>
       <c r="F43" s="3">
-        <v>8383400</v>
+        <v>7656100</v>
       </c>
       <c r="G43" s="3">
-        <v>7950600</v>
+        <v>7260900</v>
       </c>
       <c r="H43" s="3">
-        <v>21005500</v>
+        <v>19183200</v>
       </c>
       <c r="I43" s="3">
-        <v>7480800</v>
+        <v>6831800</v>
       </c>
       <c r="J43" s="3">
-        <v>7264800</v>
+        <v>6634500</v>
       </c>
       <c r="K43" s="3">
         <v>7816300</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4350900</v>
+        <v>3973400</v>
       </c>
       <c r="E44" s="3">
-        <v>3190200</v>
+        <v>2913400</v>
       </c>
       <c r="F44" s="3">
-        <v>3261900</v>
+        <v>2978900</v>
       </c>
       <c r="G44" s="3">
-        <v>3162100</v>
+        <v>2887700</v>
       </c>
       <c r="H44" s="3">
-        <v>6153300</v>
+        <v>5619500</v>
       </c>
       <c r="I44" s="3">
-        <v>3038200</v>
+        <v>2774600</v>
       </c>
       <c r="J44" s="3">
-        <v>6080900</v>
+        <v>5553400</v>
       </c>
       <c r="K44" s="3">
         <v>2978100</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>715000</v>
+        <v>653000</v>
       </c>
       <c r="E45" s="3">
-        <v>616800</v>
+        <v>563300</v>
       </c>
       <c r="F45" s="3">
-        <v>699800</v>
+        <v>639000</v>
       </c>
       <c r="G45" s="3">
-        <v>454200</v>
+        <v>414800</v>
       </c>
       <c r="H45" s="3">
-        <v>1402300</v>
+        <v>1280600</v>
       </c>
       <c r="I45" s="3">
-        <v>1316900</v>
+        <v>1202700</v>
       </c>
       <c r="J45" s="3">
-        <v>2262900</v>
+        <v>2066600</v>
       </c>
       <c r="K45" s="3">
         <v>842800</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15925900</v>
+        <v>14544300</v>
       </c>
       <c r="E46" s="3">
-        <v>13976800</v>
+        <v>12764200</v>
       </c>
       <c r="F46" s="3">
-        <v>14662100</v>
+        <v>13390100</v>
       </c>
       <c r="G46" s="3">
-        <v>13985100</v>
+        <v>12771900</v>
       </c>
       <c r="H46" s="3">
-        <v>13719900</v>
+        <v>12529600</v>
       </c>
       <c r="I46" s="3">
-        <v>13333000</v>
+        <v>12176300</v>
       </c>
       <c r="J46" s="3">
-        <v>12716900</v>
+        <v>11613700</v>
       </c>
       <c r="K46" s="3">
         <v>12713000</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1693600</v>
+        <v>1546700</v>
       </c>
       <c r="E47" s="3">
-        <v>1490300</v>
+        <v>1361000</v>
       </c>
       <c r="F47" s="3">
-        <v>1558100</v>
+        <v>1423000</v>
       </c>
       <c r="G47" s="3">
-        <v>1550800</v>
+        <v>1416300</v>
       </c>
       <c r="H47" s="3">
-        <v>2447800</v>
+        <v>2235400</v>
       </c>
       <c r="I47" s="3">
-        <v>576700</v>
+        <v>526700</v>
       </c>
       <c r="J47" s="3">
-        <v>757400</v>
+        <v>691700</v>
       </c>
       <c r="K47" s="3">
         <v>543000</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4233500</v>
+        <v>3866300</v>
       </c>
       <c r="E48" s="3">
-        <v>3622500</v>
+        <v>3308200</v>
       </c>
       <c r="F48" s="3">
-        <v>3457600</v>
+        <v>3157700</v>
       </c>
       <c r="G48" s="3">
-        <v>2815200</v>
+        <v>2571000</v>
       </c>
       <c r="H48" s="3">
-        <v>8339900</v>
+        <v>7616400</v>
       </c>
       <c r="I48" s="3">
-        <v>2680400</v>
+        <v>2447900</v>
       </c>
       <c r="J48" s="3">
-        <v>2438500</v>
+        <v>2226900</v>
       </c>
       <c r="K48" s="3">
         <v>2617400</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>817900</v>
+        <v>746900</v>
       </c>
       <c r="E49" s="3">
-        <v>618800</v>
+        <v>565100</v>
       </c>
       <c r="F49" s="3">
-        <v>520200</v>
+        <v>475100</v>
       </c>
       <c r="G49" s="3">
-        <v>426100</v>
+        <v>389100</v>
       </c>
       <c r="H49" s="3">
-        <v>1209300</v>
+        <v>1104400</v>
       </c>
       <c r="I49" s="3">
-        <v>392900</v>
+        <v>358800</v>
       </c>
       <c r="J49" s="3">
-        <v>502100</v>
+        <v>458500</v>
       </c>
       <c r="K49" s="3">
         <v>305700</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9517100</v>
+        <v>8691500</v>
       </c>
       <c r="E52" s="3">
-        <v>7496700</v>
+        <v>6846300</v>
       </c>
       <c r="F52" s="3">
-        <v>6580300</v>
+        <v>6009500</v>
       </c>
       <c r="G52" s="3">
-        <v>5922700</v>
+        <v>5408900</v>
       </c>
       <c r="H52" s="3">
-        <v>12152000</v>
+        <v>11097800</v>
       </c>
       <c r="I52" s="3">
-        <v>5797100</v>
+        <v>5294200</v>
       </c>
       <c r="J52" s="3">
-        <v>5667400</v>
+        <v>5175700</v>
       </c>
       <c r="K52" s="3">
         <v>5641700</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32188000</v>
+        <v>29395600</v>
       </c>
       <c r="E54" s="3">
-        <v>27204900</v>
+        <v>24844800</v>
       </c>
       <c r="F54" s="3">
-        <v>26778400</v>
+        <v>24455300</v>
       </c>
       <c r="G54" s="3">
-        <v>24699900</v>
+        <v>22557200</v>
       </c>
       <c r="H54" s="3">
-        <v>24160100</v>
+        <v>22064100</v>
       </c>
       <c r="I54" s="3">
-        <v>22780100</v>
+        <v>20803800</v>
       </c>
       <c r="J54" s="3">
-        <v>21605900</v>
+        <v>19731500</v>
       </c>
       <c r="K54" s="3">
         <v>21820800</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3346600</v>
+        <v>3056300</v>
       </c>
       <c r="E57" s="3">
-        <v>2760400</v>
+        <v>2520900</v>
       </c>
       <c r="F57" s="3">
-        <v>2505900</v>
+        <v>2288500</v>
       </c>
       <c r="G57" s="3">
-        <v>2616700</v>
+        <v>2389700</v>
       </c>
       <c r="H57" s="3">
-        <v>4881200</v>
+        <v>4457800</v>
       </c>
       <c r="I57" s="3">
-        <v>2182500</v>
+        <v>1993100</v>
       </c>
       <c r="J57" s="3">
-        <v>2220600</v>
+        <v>2028000</v>
       </c>
       <c r="K57" s="3">
         <v>2011600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4302000</v>
+        <v>3928800</v>
       </c>
       <c r="E58" s="3">
-        <v>3122300</v>
+        <v>2851400</v>
       </c>
       <c r="F58" s="3">
-        <v>3297200</v>
+        <v>3011100</v>
       </c>
       <c r="G58" s="3">
-        <v>2982600</v>
+        <v>2723800</v>
       </c>
       <c r="H58" s="3">
-        <v>9313100</v>
+        <v>8505200</v>
       </c>
       <c r="I58" s="3">
-        <v>2892500</v>
+        <v>2641600</v>
       </c>
       <c r="J58" s="3">
-        <v>2937200</v>
+        <v>2682400</v>
       </c>
       <c r="K58" s="3">
         <v>2534100</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3557600</v>
+        <v>3249000</v>
       </c>
       <c r="E59" s="3">
-        <v>2872700</v>
+        <v>2623500</v>
       </c>
       <c r="F59" s="3">
-        <v>2741800</v>
+        <v>2503900</v>
       </c>
       <c r="G59" s="3">
-        <v>2272400</v>
+        <v>2075300</v>
       </c>
       <c r="H59" s="3">
-        <v>4909200</v>
+        <v>4483300</v>
       </c>
       <c r="I59" s="3">
-        <v>2061400</v>
+        <v>1882500</v>
       </c>
       <c r="J59" s="3">
-        <v>1780900</v>
+        <v>1626400</v>
       </c>
       <c r="K59" s="3">
         <v>1887400</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11206200</v>
+        <v>10234000</v>
       </c>
       <c r="E60" s="3">
-        <v>8755400</v>
+        <v>7995900</v>
       </c>
       <c r="F60" s="3">
-        <v>8544900</v>
+        <v>7803600</v>
       </c>
       <c r="G60" s="3">
-        <v>7871700</v>
+        <v>7188800</v>
       </c>
       <c r="H60" s="3">
-        <v>7825900</v>
+        <v>7147000</v>
       </c>
       <c r="I60" s="3">
-        <v>7136300</v>
+        <v>6517200</v>
       </c>
       <c r="J60" s="3">
-        <v>6891400</v>
+        <v>6293500</v>
       </c>
       <c r="K60" s="3">
         <v>6433100</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5034200</v>
+        <v>4597500</v>
       </c>
       <c r="E61" s="3">
-        <v>4336600</v>
+        <v>3960400</v>
       </c>
       <c r="F61" s="3">
-        <v>4405300</v>
+        <v>4023100</v>
       </c>
       <c r="G61" s="3">
-        <v>4193000</v>
+        <v>3829300</v>
       </c>
       <c r="H61" s="3">
-        <v>4029800</v>
+        <v>3680200</v>
       </c>
       <c r="I61" s="3">
-        <v>4085000</v>
+        <v>3730600</v>
       </c>
       <c r="J61" s="3">
-        <v>3619900</v>
+        <v>3305800</v>
       </c>
       <c r="K61" s="3">
         <v>4228400</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>721800</v>
+        <v>659200</v>
       </c>
       <c r="E62" s="3">
-        <v>685000</v>
+        <v>625600</v>
       </c>
       <c r="F62" s="3">
-        <v>715800</v>
+        <v>653700</v>
       </c>
       <c r="G62" s="3">
-        <v>467800</v>
+        <v>427200</v>
       </c>
       <c r="H62" s="3">
-        <v>1258500</v>
+        <v>1149400</v>
       </c>
       <c r="I62" s="3">
-        <v>709300</v>
+        <v>647700</v>
       </c>
       <c r="J62" s="3">
-        <v>700300</v>
+        <v>639500</v>
       </c>
       <c r="K62" s="3">
         <v>768900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17875100</v>
+        <v>16324400</v>
       </c>
       <c r="E66" s="3">
-        <v>14614300</v>
+        <v>13346400</v>
       </c>
       <c r="F66" s="3">
-        <v>14471000</v>
+        <v>13215600</v>
       </c>
       <c r="G66" s="3">
-        <v>13271000</v>
+        <v>12119700</v>
       </c>
       <c r="H66" s="3">
-        <v>13147000</v>
+        <v>12006500</v>
       </c>
       <c r="I66" s="3">
-        <v>12554600</v>
+        <v>11465500</v>
       </c>
       <c r="J66" s="3">
-        <v>11879000</v>
+        <v>10848500</v>
       </c>
       <c r="K66" s="3">
         <v>12121000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12279400</v>
+        <v>11214200</v>
       </c>
       <c r="E72" s="3">
-        <v>11308800</v>
+        <v>10327700</v>
       </c>
       <c r="F72" s="3">
-        <v>10567200</v>
+        <v>9650400</v>
       </c>
       <c r="G72" s="3">
-        <v>9684900</v>
+        <v>8844700</v>
       </c>
       <c r="H72" s="3">
-        <v>17964000</v>
+        <v>16405600</v>
       </c>
       <c r="I72" s="3">
-        <v>8367400</v>
+        <v>7641500</v>
       </c>
       <c r="J72" s="3">
-        <v>7585800</v>
+        <v>6927700</v>
       </c>
       <c r="K72" s="3">
         <v>7207300</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14313000</v>
+        <v>13071300</v>
       </c>
       <c r="E76" s="3">
-        <v>12590600</v>
+        <v>11498300</v>
       </c>
       <c r="F76" s="3">
-        <v>12307400</v>
+        <v>11239700</v>
       </c>
       <c r="G76" s="3">
-        <v>11428900</v>
+        <v>10437400</v>
       </c>
       <c r="H76" s="3">
-        <v>11013000</v>
+        <v>10057600</v>
       </c>
       <c r="I76" s="3">
-        <v>10225400</v>
+        <v>9338300</v>
       </c>
       <c r="J76" s="3">
-        <v>9726800</v>
+        <v>8883000</v>
       </c>
       <c r="K76" s="3">
         <v>9699800</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1498200</v>
+        <v>1368200</v>
       </c>
       <c r="E81" s="3">
-        <v>1096300</v>
+        <v>1001200</v>
       </c>
       <c r="F81" s="3">
-        <v>1271500</v>
+        <v>1161200</v>
       </c>
       <c r="G81" s="3">
-        <v>1182200</v>
+        <v>1079600</v>
       </c>
       <c r="H81" s="3">
-        <v>1088600</v>
+        <v>994200</v>
       </c>
       <c r="I81" s="3">
-        <v>1130100</v>
+        <v>1032100</v>
       </c>
       <c r="J81" s="3">
-        <v>939200</v>
+        <v>857700</v>
       </c>
       <c r="K81" s="3">
         <v>1233500</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>611600</v>
+        <v>558600</v>
       </c>
       <c r="E83" s="3">
-        <v>574400</v>
+        <v>524500</v>
       </c>
       <c r="F83" s="3">
-        <v>530900</v>
+        <v>484900</v>
       </c>
       <c r="G83" s="3">
-        <v>423300</v>
+        <v>386600</v>
       </c>
       <c r="H83" s="3">
-        <v>385000</v>
+        <v>351600</v>
       </c>
       <c r="I83" s="3">
-        <v>370000</v>
+        <v>337900</v>
       </c>
       <c r="J83" s="3">
-        <v>266100</v>
+        <v>243000</v>
       </c>
       <c r="K83" s="3">
         <v>336900</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>789100</v>
+        <v>720700</v>
       </c>
       <c r="E89" s="3">
-        <v>1219100</v>
+        <v>1113300</v>
       </c>
       <c r="F89" s="3">
-        <v>703000</v>
+        <v>642000</v>
       </c>
       <c r="G89" s="3">
-        <v>760400</v>
+        <v>694500</v>
       </c>
       <c r="H89" s="3">
-        <v>1170200</v>
+        <v>1068700</v>
       </c>
       <c r="I89" s="3">
-        <v>1577900</v>
+        <v>1441000</v>
       </c>
       <c r="J89" s="3">
-        <v>1680800</v>
+        <v>1534900</v>
       </c>
       <c r="K89" s="3">
         <v>740000</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1072400</v>
+        <v>-759000</v>
       </c>
       <c r="E91" s="3">
-        <v>-519600</v>
+        <v>-474500</v>
       </c>
       <c r="F91" s="3">
-        <v>-650400</v>
+        <v>-593900</v>
       </c>
       <c r="G91" s="3">
-        <v>-540800</v>
+        <v>-493900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1048100</v>
+        <v>-957100</v>
       </c>
       <c r="I91" s="3">
-        <v>-478900</v>
+        <v>-437300</v>
       </c>
       <c r="J91" s="3">
-        <v>-334900</v>
+        <v>-305900</v>
       </c>
       <c r="K91" s="3">
         <v>-411300</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1086500</v>
+        <v>-992200</v>
       </c>
       <c r="E94" s="3">
-        <v>-402000</v>
+        <v>-367200</v>
       </c>
       <c r="F94" s="3">
-        <v>-780200</v>
+        <v>-712600</v>
       </c>
       <c r="G94" s="3">
-        <v>-501200</v>
+        <v>-457700</v>
       </c>
       <c r="H94" s="3">
-        <v>-392200</v>
+        <v>-358200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1429000</v>
+        <v>-1305000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1111500</v>
+        <v>-1015100</v>
       </c>
       <c r="K94" s="3">
         <v>-1035200</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-412300</v>
+        <v>-376500</v>
       </c>
       <c r="E96" s="3">
-        <v>-374100</v>
+        <v>-341600</v>
       </c>
       <c r="F96" s="3">
-        <v>-367300</v>
+        <v>-335500</v>
       </c>
       <c r="G96" s="3">
-        <v>-347100</v>
+        <v>-317000</v>
       </c>
       <c r="H96" s="3">
-        <v>-327700</v>
+        <v>-299300</v>
       </c>
       <c r="I96" s="3">
-        <v>-297200</v>
+        <v>-271400</v>
       </c>
       <c r="J96" s="3">
-        <v>-318700</v>
+        <v>-291100</v>
       </c>
       <c r="K96" s="3">
         <v>-330400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>516800</v>
+        <v>472000</v>
       </c>
       <c r="E100" s="3">
-        <v>-583100</v>
+        <v>-532500</v>
       </c>
       <c r="F100" s="3">
-        <v>-183500</v>
+        <v>-167600</v>
       </c>
       <c r="G100" s="3">
-        <v>-237300</v>
+        <v>-216700</v>
       </c>
       <c r="H100" s="3">
-        <v>-277900</v>
+        <v>-253800</v>
       </c>
       <c r="I100" s="3">
-        <v>96900</v>
+        <v>88500</v>
       </c>
       <c r="J100" s="3">
-        <v>-236000</v>
+        <v>-215600</v>
       </c>
       <c r="K100" s="3">
         <v>463400</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>85200</v>
+        <v>77800</v>
       </c>
       <c r="E101" s="3">
-        <v>-35600</v>
+        <v>-32500</v>
       </c>
       <c r="F101" s="3">
-        <v>9500</v>
+        <v>8700</v>
       </c>
       <c r="G101" s="3">
-        <v>-35600</v>
+        <v>-32500</v>
       </c>
       <c r="H101" s="3">
-        <v>22800</v>
+        <v>20900</v>
       </c>
       <c r="I101" s="3">
-        <v>-48500</v>
+        <v>-44300</v>
       </c>
       <c r="J101" s="3">
-        <v>-44400</v>
+        <v>-40500</v>
       </c>
       <c r="K101" s="3">
         <v>60800</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>304700</v>
+        <v>278300</v>
       </c>
       <c r="E102" s="3">
-        <v>198400</v>
+        <v>181100</v>
       </c>
       <c r="F102" s="3">
-        <v>-251300</v>
+        <v>-229500</v>
       </c>
       <c r="G102" s="3">
-        <v>-13600</v>
+        <v>-12400</v>
       </c>
       <c r="H102" s="3">
-        <v>522900</v>
+        <v>477600</v>
       </c>
       <c r="I102" s="3">
-        <v>197300</v>
+        <v>180200</v>
       </c>
       <c r="J102" s="3">
-        <v>288800</v>
+        <v>263800</v>
       </c>
       <c r="K102" s="3">
         <v>229000</v>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17112800</v>
+        <v>16102300</v>
       </c>
       <c r="E8" s="3">
-        <v>14436700</v>
+        <v>13584200</v>
       </c>
       <c r="F8" s="3">
-        <v>14957100</v>
+        <v>14073900</v>
       </c>
       <c r="G8" s="3">
-        <v>14414000</v>
+        <v>13562800</v>
       </c>
       <c r="H8" s="3">
-        <v>13640600</v>
+        <v>12835100</v>
       </c>
       <c r="I8" s="3">
-        <v>12433500</v>
+        <v>11699300</v>
       </c>
       <c r="J8" s="3">
-        <v>9696800</v>
+        <v>9124200</v>
       </c>
       <c r="K8" s="3">
         <v>13980900</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12191000</v>
+        <v>11471200</v>
       </c>
       <c r="E9" s="3">
-        <v>10270200</v>
+        <v>9663800</v>
       </c>
       <c r="F9" s="3">
-        <v>10595300</v>
+        <v>9969600</v>
       </c>
       <c r="G9" s="3">
-        <v>10305600</v>
+        <v>9697100</v>
       </c>
       <c r="H9" s="3">
-        <v>19313400</v>
+        <v>18173000</v>
       </c>
       <c r="I9" s="3">
-        <v>8744600</v>
+        <v>8228300</v>
       </c>
       <c r="J9" s="3">
-        <v>6609000</v>
+        <v>6218800</v>
       </c>
       <c r="K9" s="3">
         <v>9732900</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4921800</v>
+        <v>4631100</v>
       </c>
       <c r="E10" s="3">
-        <v>4166500</v>
+        <v>3920500</v>
       </c>
       <c r="F10" s="3">
-        <v>4361800</v>
+        <v>4104300</v>
       </c>
       <c r="G10" s="3">
-        <v>4108300</v>
+        <v>3865700</v>
       </c>
       <c r="H10" s="3">
-        <v>-5672800</v>
+        <v>-5337900</v>
       </c>
       <c r="I10" s="3">
-        <v>3688900</v>
+        <v>3471100</v>
       </c>
       <c r="J10" s="3">
-        <v>3087800</v>
+        <v>2905500</v>
       </c>
       <c r="K10" s="3">
         <v>4248000</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="E14" s="3">
-        <v>-11000</v>
+        <v>-10300</v>
       </c>
       <c r="F14" s="3">
-        <v>-10300</v>
+        <v>-9700</v>
       </c>
       <c r="G14" s="3">
-        <v>-15600</v>
+        <v>-14600</v>
       </c>
       <c r="H14" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="I14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J14" s="3">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="K14" s="3">
         <v>-6500</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15194900</v>
+        <v>14297600</v>
       </c>
       <c r="E17" s="3">
-        <v>13071200</v>
+        <v>12299400</v>
       </c>
       <c r="F17" s="3">
-        <v>13386200</v>
+        <v>12595800</v>
       </c>
       <c r="G17" s="3">
-        <v>12939200</v>
+        <v>12175100</v>
       </c>
       <c r="H17" s="3">
-        <v>12083000</v>
+        <v>11369500</v>
       </c>
       <c r="I17" s="3">
-        <v>10963000</v>
+        <v>10315600</v>
       </c>
       <c r="J17" s="3">
-        <v>8396800</v>
+        <v>7901000</v>
       </c>
       <c r="K17" s="3">
         <v>12182400</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1918000</v>
+        <v>1804700</v>
       </c>
       <c r="E18" s="3">
-        <v>1365500</v>
+        <v>1284800</v>
       </c>
       <c r="F18" s="3">
-        <v>1570900</v>
+        <v>1478100</v>
       </c>
       <c r="G18" s="3">
-        <v>1474800</v>
+        <v>1387700</v>
       </c>
       <c r="H18" s="3">
-        <v>1557600</v>
+        <v>1465600</v>
       </c>
       <c r="I18" s="3">
-        <v>1470600</v>
+        <v>1383700</v>
       </c>
       <c r="J18" s="3">
-        <v>1299900</v>
+        <v>1223200</v>
       </c>
       <c r="K18" s="3">
         <v>1798500</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>57200</v>
+        <v>53800</v>
       </c>
       <c r="E20" s="3">
-        <v>90800</v>
+        <v>85400</v>
       </c>
       <c r="F20" s="3">
+        <v>61700</v>
+      </c>
+      <c r="G20" s="3">
         <v>65600</v>
       </c>
-      <c r="G20" s="3">
-        <v>69800</v>
-      </c>
       <c r="H20" s="3">
-        <v>116600</v>
+        <v>109700</v>
       </c>
       <c r="I20" s="3">
-        <v>67700</v>
+        <v>63700</v>
       </c>
       <c r="J20" s="3">
-        <v>25900</v>
+        <v>24400</v>
       </c>
       <c r="K20" s="3">
         <v>73100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2526500</v>
+        <v>2381200</v>
       </c>
       <c r="E21" s="3">
-        <v>1974100</v>
+        <v>1861100</v>
       </c>
       <c r="F21" s="3">
-        <v>2115200</v>
+        <v>1993600</v>
       </c>
       <c r="G21" s="3">
-        <v>1926100</v>
+        <v>1815100</v>
       </c>
       <c r="H21" s="3">
-        <v>2021300</v>
+        <v>1904400</v>
       </c>
       <c r="I21" s="3">
-        <v>1871800</v>
+        <v>1763700</v>
       </c>
       <c r="J21" s="3">
-        <v>1565700</v>
+        <v>1475000</v>
       </c>
       <c r="K21" s="3">
         <v>2209300</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F22" s="3">
         <v>7700</v>
       </c>
-      <c r="E22" s="3">
-        <v>8100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8200</v>
-      </c>
       <c r="G22" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="H22" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="I22" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="J22" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="K22" s="3">
         <v>10400</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1967400</v>
+        <v>1851300</v>
       </c>
       <c r="E23" s="3">
-        <v>1448200</v>
+        <v>1362600</v>
       </c>
       <c r="F23" s="3">
-        <v>1628300</v>
+        <v>1532100</v>
       </c>
       <c r="G23" s="3">
-        <v>1536400</v>
+        <v>1445700</v>
       </c>
       <c r="H23" s="3">
-        <v>1667100</v>
+        <v>1568700</v>
       </c>
       <c r="I23" s="3">
-        <v>1534400</v>
+        <v>1443800</v>
       </c>
       <c r="J23" s="3">
-        <v>1320400</v>
+        <v>1242500</v>
       </c>
       <c r="K23" s="3">
         <v>1861200</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>505300</v>
+        <v>475500</v>
       </c>
       <c r="E24" s="3">
-        <v>366300</v>
+        <v>344700</v>
       </c>
       <c r="F24" s="3">
-        <v>412900</v>
+        <v>388500</v>
       </c>
       <c r="G24" s="3">
-        <v>382600</v>
+        <v>360000</v>
       </c>
       <c r="H24" s="3">
-        <v>488900</v>
+        <v>460000</v>
       </c>
       <c r="I24" s="3">
-        <v>440500</v>
+        <v>414500</v>
       </c>
       <c r="J24" s="3">
-        <v>422700</v>
+        <v>397700</v>
       </c>
       <c r="K24" s="3">
         <v>539200</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1462100</v>
+        <v>1375800</v>
       </c>
       <c r="E26" s="3">
-        <v>1081800</v>
+        <v>1017900</v>
       </c>
       <c r="F26" s="3">
-        <v>1215400</v>
+        <v>1143600</v>
       </c>
       <c r="G26" s="3">
-        <v>1153800</v>
+        <v>1085700</v>
       </c>
       <c r="H26" s="3">
-        <v>1178200</v>
+        <v>1108600</v>
       </c>
       <c r="I26" s="3">
-        <v>1093900</v>
+        <v>1029300</v>
       </c>
       <c r="J26" s="3">
-        <v>897700</v>
+        <v>844700</v>
       </c>
       <c r="K26" s="3">
         <v>1322000</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1368200</v>
+        <v>1287400</v>
       </c>
       <c r="E27" s="3">
-        <v>1001200</v>
+        <v>942100</v>
       </c>
       <c r="F27" s="3">
-        <v>1161200</v>
+        <v>1092600</v>
       </c>
       <c r="G27" s="3">
-        <v>1079600</v>
+        <v>1015900</v>
       </c>
       <c r="H27" s="3">
-        <v>1075300</v>
+        <v>1011800</v>
       </c>
       <c r="I27" s="3">
-        <v>1032100</v>
+        <v>971100</v>
       </c>
       <c r="J27" s="3">
-        <v>857700</v>
+        <v>807100</v>
       </c>
       <c r="K27" s="3">
         <v>1233500</v>
@@ -1486,7 +1486,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-81100</v>
+        <v>-76300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-57200</v>
+        <v>-53800</v>
       </c>
       <c r="E32" s="3">
-        <v>-90800</v>
+        <v>-85400</v>
       </c>
       <c r="F32" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-65600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-69800</v>
-      </c>
       <c r="H32" s="3">
-        <v>-116600</v>
+        <v>-109700</v>
       </c>
       <c r="I32" s="3">
-        <v>-67700</v>
+        <v>-63700</v>
       </c>
       <c r="J32" s="3">
-        <v>-25900</v>
+        <v>-24400</v>
       </c>
       <c r="K32" s="3">
         <v>-73100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1368200</v>
+        <v>1287400</v>
       </c>
       <c r="E33" s="3">
-        <v>1001200</v>
+        <v>942100</v>
       </c>
       <c r="F33" s="3">
-        <v>1161200</v>
+        <v>1092600</v>
       </c>
       <c r="G33" s="3">
-        <v>1079600</v>
+        <v>1015900</v>
       </c>
       <c r="H33" s="3">
-        <v>994200</v>
+        <v>935500</v>
       </c>
       <c r="I33" s="3">
-        <v>1032100</v>
+        <v>971100</v>
       </c>
       <c r="J33" s="3">
-        <v>857700</v>
+        <v>807100</v>
       </c>
       <c r="K33" s="3">
         <v>1233500</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1368200</v>
+        <v>1287400</v>
       </c>
       <c r="E35" s="3">
-        <v>1001200</v>
+        <v>942100</v>
       </c>
       <c r="F35" s="3">
-        <v>1161200</v>
+        <v>1092600</v>
       </c>
       <c r="G35" s="3">
-        <v>1079600</v>
+        <v>1015900</v>
       </c>
       <c r="H35" s="3">
-        <v>994200</v>
+        <v>935500</v>
       </c>
       <c r="I35" s="3">
-        <v>1032100</v>
+        <v>971100</v>
       </c>
       <c r="J35" s="3">
-        <v>857700</v>
+        <v>807100</v>
       </c>
       <c r="K35" s="3">
         <v>1233500</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2014800</v>
+        <v>1895800</v>
       </c>
       <c r="E41" s="3">
-        <v>1736500</v>
+        <v>1634000</v>
       </c>
       <c r="F41" s="3">
-        <v>1555400</v>
+        <v>1463500</v>
       </c>
       <c r="G41" s="3">
-        <v>1784900</v>
+        <v>1679500</v>
       </c>
       <c r="H41" s="3">
-        <v>3594600</v>
+        <v>3382400</v>
       </c>
       <c r="I41" s="3">
-        <v>1319800</v>
+        <v>1241800</v>
       </c>
       <c r="J41" s="3">
-        <v>1139600</v>
+        <v>1072300</v>
       </c>
       <c r="K41" s="3">
         <v>995700</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>396300</v>
+        <v>372900</v>
       </c>
       <c r="E42" s="3">
-        <v>389200</v>
+        <v>366300</v>
       </c>
       <c r="F42" s="3">
-        <v>560600</v>
+        <v>527500</v>
       </c>
       <c r="G42" s="3">
-        <v>423600</v>
+        <v>398600</v>
       </c>
       <c r="H42" s="3">
-        <v>415100</v>
+        <v>390500</v>
       </c>
       <c r="I42" s="3">
-        <v>47500</v>
+        <v>44700</v>
       </c>
       <c r="J42" s="3">
-        <v>59200</v>
+        <v>55700</v>
       </c>
       <c r="K42" s="3">
         <v>80100</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7506800</v>
+        <v>7063500</v>
       </c>
       <c r="E43" s="3">
-        <v>7161800</v>
+        <v>6738900</v>
       </c>
       <c r="F43" s="3">
-        <v>7656100</v>
+        <v>7204000</v>
       </c>
       <c r="G43" s="3">
-        <v>7260900</v>
+        <v>6832100</v>
       </c>
       <c r="H43" s="3">
-        <v>19183200</v>
+        <v>18050500</v>
       </c>
       <c r="I43" s="3">
-        <v>6831800</v>
+        <v>6428400</v>
       </c>
       <c r="J43" s="3">
-        <v>6634500</v>
+        <v>6242800</v>
       </c>
       <c r="K43" s="3">
         <v>7816300</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3973400</v>
+        <v>3738800</v>
       </c>
       <c r="E44" s="3">
-        <v>2913400</v>
+        <v>2741400</v>
       </c>
       <c r="F44" s="3">
-        <v>2978900</v>
+        <v>2803000</v>
       </c>
       <c r="G44" s="3">
-        <v>2887700</v>
+        <v>2717200</v>
       </c>
       <c r="H44" s="3">
-        <v>5619500</v>
+        <v>5287700</v>
       </c>
       <c r="I44" s="3">
-        <v>2774600</v>
+        <v>2610800</v>
       </c>
       <c r="J44" s="3">
-        <v>5553400</v>
+        <v>5225400</v>
       </c>
       <c r="K44" s="3">
         <v>2978100</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>653000</v>
+        <v>614400</v>
       </c>
       <c r="E45" s="3">
-        <v>563300</v>
+        <v>530000</v>
       </c>
       <c r="F45" s="3">
-        <v>639000</v>
+        <v>601300</v>
       </c>
       <c r="G45" s="3">
-        <v>414800</v>
+        <v>390300</v>
       </c>
       <c r="H45" s="3">
-        <v>1280600</v>
+        <v>1205000</v>
       </c>
       <c r="I45" s="3">
-        <v>1202700</v>
+        <v>1131700</v>
       </c>
       <c r="J45" s="3">
-        <v>2066600</v>
+        <v>1944600</v>
       </c>
       <c r="K45" s="3">
         <v>842800</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14544300</v>
+        <v>13685400</v>
       </c>
       <c r="E46" s="3">
-        <v>12764200</v>
+        <v>12010500</v>
       </c>
       <c r="F46" s="3">
-        <v>13390100</v>
+        <v>12599400</v>
       </c>
       <c r="G46" s="3">
-        <v>12771900</v>
+        <v>12017700</v>
       </c>
       <c r="H46" s="3">
-        <v>12529600</v>
+        <v>11789800</v>
       </c>
       <c r="I46" s="3">
-        <v>12176300</v>
+        <v>11457300</v>
       </c>
       <c r="J46" s="3">
-        <v>11613700</v>
+        <v>10927900</v>
       </c>
       <c r="K46" s="3">
         <v>12713000</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1546700</v>
+        <v>1455400</v>
       </c>
       <c r="E47" s="3">
-        <v>1361000</v>
+        <v>1280600</v>
       </c>
       <c r="F47" s="3">
-        <v>1423000</v>
+        <v>1338900</v>
       </c>
       <c r="G47" s="3">
-        <v>1416300</v>
+        <v>1332700</v>
       </c>
       <c r="H47" s="3">
-        <v>2235400</v>
+        <v>2103400</v>
       </c>
       <c r="I47" s="3">
-        <v>526700</v>
+        <v>495600</v>
       </c>
       <c r="J47" s="3">
-        <v>691700</v>
+        <v>650800</v>
       </c>
       <c r="K47" s="3">
         <v>543000</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3866300</v>
+        <v>3638000</v>
       </c>
       <c r="E48" s="3">
-        <v>3308200</v>
+        <v>3112800</v>
       </c>
       <c r="F48" s="3">
-        <v>3157700</v>
+        <v>2971200</v>
       </c>
       <c r="G48" s="3">
-        <v>2571000</v>
+        <v>2419100</v>
       </c>
       <c r="H48" s="3">
-        <v>7616400</v>
+        <v>7166700</v>
       </c>
       <c r="I48" s="3">
-        <v>2447900</v>
+        <v>2303300</v>
       </c>
       <c r="J48" s="3">
-        <v>2226900</v>
+        <v>2095400</v>
       </c>
       <c r="K48" s="3">
         <v>2617400</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>746900</v>
+        <v>702800</v>
       </c>
       <c r="E49" s="3">
-        <v>565100</v>
+        <v>531700</v>
       </c>
       <c r="F49" s="3">
-        <v>475100</v>
+        <v>447000</v>
       </c>
       <c r="G49" s="3">
-        <v>389100</v>
+        <v>366100</v>
       </c>
       <c r="H49" s="3">
-        <v>1104400</v>
+        <v>1039200</v>
       </c>
       <c r="I49" s="3">
-        <v>358800</v>
+        <v>337600</v>
       </c>
       <c r="J49" s="3">
-        <v>458500</v>
+        <v>431400</v>
       </c>
       <c r="K49" s="3">
         <v>305700</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8691500</v>
+        <v>8178200</v>
       </c>
       <c r="E52" s="3">
-        <v>6846300</v>
+        <v>6442000</v>
       </c>
       <c r="F52" s="3">
-        <v>6009500</v>
+        <v>5654600</v>
       </c>
       <c r="G52" s="3">
-        <v>5408900</v>
+        <v>5089500</v>
       </c>
       <c r="H52" s="3">
-        <v>11097800</v>
+        <v>10442500</v>
       </c>
       <c r="I52" s="3">
-        <v>5294200</v>
+        <v>4981600</v>
       </c>
       <c r="J52" s="3">
-        <v>5175700</v>
+        <v>4870100</v>
       </c>
       <c r="K52" s="3">
         <v>5641700</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29395600</v>
+        <v>27659800</v>
       </c>
       <c r="E54" s="3">
-        <v>24844800</v>
+        <v>23377700</v>
       </c>
       <c r="F54" s="3">
-        <v>24455300</v>
+        <v>23011200</v>
       </c>
       <c r="G54" s="3">
-        <v>22557200</v>
+        <v>21225200</v>
       </c>
       <c r="H54" s="3">
-        <v>22064100</v>
+        <v>20761200</v>
       </c>
       <c r="I54" s="3">
-        <v>20803800</v>
+        <v>19575400</v>
       </c>
       <c r="J54" s="3">
-        <v>19731500</v>
+        <v>18566300</v>
       </c>
       <c r="K54" s="3">
         <v>21820800</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3056300</v>
+        <v>2875800</v>
       </c>
       <c r="E57" s="3">
-        <v>2520900</v>
+        <v>2372000</v>
       </c>
       <c r="F57" s="3">
-        <v>2288500</v>
+        <v>2153400</v>
       </c>
       <c r="G57" s="3">
-        <v>2389700</v>
+        <v>2248500</v>
       </c>
       <c r="H57" s="3">
-        <v>4457800</v>
+        <v>4194500</v>
       </c>
       <c r="I57" s="3">
-        <v>1993100</v>
+        <v>1875400</v>
       </c>
       <c r="J57" s="3">
-        <v>2028000</v>
+        <v>1908200</v>
       </c>
       <c r="K57" s="3">
         <v>2011600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3928800</v>
+        <v>3696800</v>
       </c>
       <c r="E58" s="3">
-        <v>2851400</v>
+        <v>2683100</v>
       </c>
       <c r="F58" s="3">
-        <v>3011100</v>
+        <v>2833300</v>
       </c>
       <c r="G58" s="3">
-        <v>2723800</v>
+        <v>2563000</v>
       </c>
       <c r="H58" s="3">
-        <v>8505200</v>
+        <v>8002900</v>
       </c>
       <c r="I58" s="3">
-        <v>2641600</v>
+        <v>2485600</v>
       </c>
       <c r="J58" s="3">
-        <v>2682400</v>
+        <v>2524000</v>
       </c>
       <c r="K58" s="3">
         <v>2534100</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3249000</v>
+        <v>3057100</v>
       </c>
       <c r="E59" s="3">
-        <v>2623500</v>
+        <v>2468600</v>
       </c>
       <c r="F59" s="3">
-        <v>2503900</v>
+        <v>2356100</v>
       </c>
       <c r="G59" s="3">
-        <v>2075300</v>
+        <v>1952700</v>
       </c>
       <c r="H59" s="3">
-        <v>4483300</v>
+        <v>4218600</v>
       </c>
       <c r="I59" s="3">
-        <v>1882500</v>
+        <v>1771400</v>
       </c>
       <c r="J59" s="3">
-        <v>1626400</v>
+        <v>1530300</v>
       </c>
       <c r="K59" s="3">
         <v>1887400</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10234000</v>
+        <v>9629700</v>
       </c>
       <c r="E60" s="3">
-        <v>7995900</v>
+        <v>7523700</v>
       </c>
       <c r="F60" s="3">
-        <v>7803600</v>
+        <v>7342800</v>
       </c>
       <c r="G60" s="3">
-        <v>7188800</v>
+        <v>6764300</v>
       </c>
       <c r="H60" s="3">
-        <v>7147000</v>
+        <v>6724900</v>
       </c>
       <c r="I60" s="3">
-        <v>6517200</v>
+        <v>6132400</v>
       </c>
       <c r="J60" s="3">
-        <v>6293500</v>
+        <v>5921900</v>
       </c>
       <c r="K60" s="3">
         <v>6433100</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4597500</v>
+        <v>4326000</v>
       </c>
       <c r="E61" s="3">
-        <v>3960400</v>
+        <v>3726600</v>
       </c>
       <c r="F61" s="3">
-        <v>4023100</v>
+        <v>3785500</v>
       </c>
       <c r="G61" s="3">
-        <v>3829300</v>
+        <v>3603200</v>
       </c>
       <c r="H61" s="3">
-        <v>3680200</v>
+        <v>3462900</v>
       </c>
       <c r="I61" s="3">
-        <v>3730600</v>
+        <v>3510300</v>
       </c>
       <c r="J61" s="3">
-        <v>3305800</v>
+        <v>3110600</v>
       </c>
       <c r="K61" s="3">
         <v>4228400</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>659200</v>
+        <v>620300</v>
       </c>
       <c r="E62" s="3">
-        <v>625600</v>
+        <v>588700</v>
       </c>
       <c r="F62" s="3">
-        <v>653700</v>
+        <v>615100</v>
       </c>
       <c r="G62" s="3">
-        <v>427200</v>
+        <v>401900</v>
       </c>
       <c r="H62" s="3">
-        <v>1149400</v>
+        <v>1081500</v>
       </c>
       <c r="I62" s="3">
-        <v>647700</v>
+        <v>609500</v>
       </c>
       <c r="J62" s="3">
-        <v>639500</v>
+        <v>601800</v>
       </c>
       <c r="K62" s="3">
         <v>768900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16324400</v>
+        <v>15360400</v>
       </c>
       <c r="E66" s="3">
-        <v>13346400</v>
+        <v>12558300</v>
       </c>
       <c r="F66" s="3">
-        <v>13215600</v>
+        <v>12435200</v>
       </c>
       <c r="G66" s="3">
-        <v>12119700</v>
+        <v>11404100</v>
       </c>
       <c r="H66" s="3">
-        <v>12006500</v>
+        <v>11297500</v>
       </c>
       <c r="I66" s="3">
-        <v>11465500</v>
+        <v>10788400</v>
       </c>
       <c r="J66" s="3">
-        <v>10848500</v>
+        <v>10207900</v>
       </c>
       <c r="K66" s="3">
         <v>12121000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11214200</v>
+        <v>10552000</v>
       </c>
       <c r="E72" s="3">
-        <v>10327700</v>
+        <v>9717900</v>
       </c>
       <c r="F72" s="3">
-        <v>9650400</v>
+        <v>9080600</v>
       </c>
       <c r="G72" s="3">
-        <v>8844700</v>
+        <v>8322400</v>
       </c>
       <c r="H72" s="3">
-        <v>16405600</v>
+        <v>15436900</v>
       </c>
       <c r="I72" s="3">
-        <v>7641500</v>
+        <v>7190300</v>
       </c>
       <c r="J72" s="3">
-        <v>6927700</v>
+        <v>6518600</v>
       </c>
       <c r="K72" s="3">
         <v>7207300</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13071300</v>
+        <v>12299400</v>
       </c>
       <c r="E76" s="3">
-        <v>11498300</v>
+        <v>10819400</v>
       </c>
       <c r="F76" s="3">
-        <v>11239700</v>
+        <v>10576000</v>
       </c>
       <c r="G76" s="3">
-        <v>10437400</v>
+        <v>9821100</v>
       </c>
       <c r="H76" s="3">
-        <v>10057600</v>
+        <v>9463700</v>
       </c>
       <c r="I76" s="3">
-        <v>9338300</v>
+        <v>8786900</v>
       </c>
       <c r="J76" s="3">
-        <v>8883000</v>
+        <v>8358500</v>
       </c>
       <c r="K76" s="3">
         <v>9699800</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1368200</v>
+        <v>1287400</v>
       </c>
       <c r="E81" s="3">
-        <v>1001200</v>
+        <v>942100</v>
       </c>
       <c r="F81" s="3">
-        <v>1161200</v>
+        <v>1092600</v>
       </c>
       <c r="G81" s="3">
-        <v>1079600</v>
+        <v>1015900</v>
       </c>
       <c r="H81" s="3">
-        <v>994200</v>
+        <v>935500</v>
       </c>
       <c r="I81" s="3">
-        <v>1032100</v>
+        <v>971100</v>
       </c>
       <c r="J81" s="3">
-        <v>857700</v>
+        <v>807100</v>
       </c>
       <c r="K81" s="3">
         <v>1233500</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>558600</v>
+        <v>525600</v>
       </c>
       <c r="E83" s="3">
-        <v>524500</v>
+        <v>493600</v>
       </c>
       <c r="F83" s="3">
-        <v>484900</v>
+        <v>456200</v>
       </c>
       <c r="G83" s="3">
-        <v>386600</v>
+        <v>363700</v>
       </c>
       <c r="H83" s="3">
-        <v>351600</v>
+        <v>330800</v>
       </c>
       <c r="I83" s="3">
-        <v>337900</v>
+        <v>317900</v>
       </c>
       <c r="J83" s="3">
-        <v>243000</v>
+        <v>228600</v>
       </c>
       <c r="K83" s="3">
         <v>336900</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>720700</v>
+        <v>678100</v>
       </c>
       <c r="E89" s="3">
-        <v>1113300</v>
+        <v>1047600</v>
       </c>
       <c r="F89" s="3">
-        <v>642000</v>
+        <v>604100</v>
       </c>
       <c r="G89" s="3">
-        <v>694500</v>
+        <v>653500</v>
       </c>
       <c r="H89" s="3">
-        <v>1068700</v>
+        <v>1005600</v>
       </c>
       <c r="I89" s="3">
-        <v>1441000</v>
+        <v>1355900</v>
       </c>
       <c r="J89" s="3">
-        <v>1534900</v>
+        <v>1444300</v>
       </c>
       <c r="K89" s="3">
         <v>740000</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-759000</v>
+        <v>-714200</v>
       </c>
       <c r="E91" s="3">
-        <v>-474500</v>
+        <v>-446500</v>
       </c>
       <c r="F91" s="3">
-        <v>-593900</v>
+        <v>-558900</v>
       </c>
       <c r="G91" s="3">
-        <v>-493900</v>
+        <v>-464700</v>
       </c>
       <c r="H91" s="3">
-        <v>-957100</v>
+        <v>-900600</v>
       </c>
       <c r="I91" s="3">
-        <v>-437300</v>
+        <v>-411500</v>
       </c>
       <c r="J91" s="3">
-        <v>-305900</v>
+        <v>-287800</v>
       </c>
       <c r="K91" s="3">
         <v>-411300</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-992200</v>
+        <v>-933600</v>
       </c>
       <c r="E94" s="3">
-        <v>-367200</v>
+        <v>-345500</v>
       </c>
       <c r="F94" s="3">
-        <v>-712600</v>
+        <v>-670500</v>
       </c>
       <c r="G94" s="3">
-        <v>-457700</v>
+        <v>-430700</v>
       </c>
       <c r="H94" s="3">
-        <v>-358200</v>
+        <v>-337100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1305000</v>
+        <v>-1228000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1015100</v>
+        <v>-955200</v>
       </c>
       <c r="K94" s="3">
         <v>-1035200</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-376500</v>
+        <v>-354300</v>
       </c>
       <c r="E96" s="3">
-        <v>-341600</v>
+        <v>-321400</v>
       </c>
       <c r="F96" s="3">
-        <v>-335500</v>
+        <v>-315700</v>
       </c>
       <c r="G96" s="3">
-        <v>-317000</v>
+        <v>-298300</v>
       </c>
       <c r="H96" s="3">
-        <v>-299300</v>
+        <v>-281600</v>
       </c>
       <c r="I96" s="3">
-        <v>-271400</v>
+        <v>-255400</v>
       </c>
       <c r="J96" s="3">
-        <v>-291100</v>
+        <v>-273900</v>
       </c>
       <c r="K96" s="3">
         <v>-330400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>472000</v>
+        <v>444100</v>
       </c>
       <c r="E100" s="3">
-        <v>-532500</v>
+        <v>-501000</v>
       </c>
       <c r="F100" s="3">
-        <v>-167600</v>
+        <v>-157700</v>
       </c>
       <c r="G100" s="3">
-        <v>-216700</v>
+        <v>-203900</v>
       </c>
       <c r="H100" s="3">
-        <v>-253800</v>
+        <v>-238800</v>
       </c>
       <c r="I100" s="3">
-        <v>88500</v>
+        <v>83300</v>
       </c>
       <c r="J100" s="3">
-        <v>-215600</v>
+        <v>-202800</v>
       </c>
       <c r="K100" s="3">
         <v>463400</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>77800</v>
+        <v>73200</v>
       </c>
       <c r="E101" s="3">
-        <v>-32500</v>
+        <v>-30600</v>
       </c>
       <c r="F101" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="G101" s="3">
-        <v>-32500</v>
+        <v>-30600</v>
       </c>
       <c r="H101" s="3">
-        <v>20900</v>
+        <v>19600</v>
       </c>
       <c r="I101" s="3">
-        <v>-44300</v>
+        <v>-41700</v>
       </c>
       <c r="J101" s="3">
-        <v>-40500</v>
+        <v>-38100</v>
       </c>
       <c r="K101" s="3">
         <v>60800</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>278300</v>
+        <v>261800</v>
       </c>
       <c r="E102" s="3">
-        <v>181100</v>
+        <v>170500</v>
       </c>
       <c r="F102" s="3">
-        <v>-229500</v>
+        <v>-215900</v>
       </c>
       <c r="G102" s="3">
-        <v>-12400</v>
+        <v>-11700</v>
       </c>
       <c r="H102" s="3">
-        <v>477600</v>
+        <v>449400</v>
       </c>
       <c r="I102" s="3">
-        <v>180200</v>
+        <v>169500</v>
       </c>
       <c r="J102" s="3">
-        <v>263800</v>
+        <v>248200</v>
       </c>
       <c r="K102" s="3">
         <v>229000</v>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16102300</v>
+        <v>15575100</v>
       </c>
       <c r="E8" s="3">
-        <v>13584200</v>
+        <v>13139400</v>
       </c>
       <c r="F8" s="3">
-        <v>14073900</v>
+        <v>13613100</v>
       </c>
       <c r="G8" s="3">
-        <v>13562800</v>
+        <v>13118700</v>
       </c>
       <c r="H8" s="3">
-        <v>12835100</v>
+        <v>12414900</v>
       </c>
       <c r="I8" s="3">
-        <v>11699300</v>
+        <v>11316300</v>
       </c>
       <c r="J8" s="3">
-        <v>9124200</v>
+        <v>8825500</v>
       </c>
       <c r="K8" s="3">
         <v>13980900</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11471200</v>
+        <v>11095600</v>
       </c>
       <c r="E9" s="3">
-        <v>9663800</v>
+        <v>9347300</v>
       </c>
       <c r="F9" s="3">
-        <v>9969600</v>
+        <v>9643200</v>
       </c>
       <c r="G9" s="3">
-        <v>9697100</v>
+        <v>9379600</v>
       </c>
       <c r="H9" s="3">
-        <v>18173000</v>
+        <v>17578000</v>
       </c>
       <c r="I9" s="3">
-        <v>8228300</v>
+        <v>7958900</v>
       </c>
       <c r="J9" s="3">
-        <v>6218800</v>
+        <v>6015100</v>
       </c>
       <c r="K9" s="3">
         <v>9732900</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4631100</v>
+        <v>4479500</v>
       </c>
       <c r="E10" s="3">
-        <v>3920500</v>
+        <v>3792100</v>
       </c>
       <c r="F10" s="3">
-        <v>4104300</v>
+        <v>3969900</v>
       </c>
       <c r="G10" s="3">
-        <v>3865700</v>
+        <v>3739200</v>
       </c>
       <c r="H10" s="3">
-        <v>-5337900</v>
+        <v>-5163100</v>
       </c>
       <c r="I10" s="3">
-        <v>3471100</v>
+        <v>3357400</v>
       </c>
       <c r="J10" s="3">
-        <v>2905500</v>
+        <v>2810300</v>
       </c>
       <c r="K10" s="3">
         <v>4248000</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="E14" s="3">
-        <v>-10300</v>
+        <v>-10000</v>
       </c>
       <c r="F14" s="3">
-        <v>-9700</v>
+        <v>-9300</v>
       </c>
       <c r="G14" s="3">
-        <v>-14600</v>
+        <v>-14200</v>
       </c>
       <c r="H14" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="I14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J14" s="3">
-        <v>33000</v>
+        <v>31900</v>
       </c>
       <c r="K14" s="3">
         <v>-6500</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14297600</v>
+        <v>13829500</v>
       </c>
       <c r="E17" s="3">
-        <v>12299400</v>
+        <v>11896700</v>
       </c>
       <c r="F17" s="3">
-        <v>12595800</v>
+        <v>12183400</v>
       </c>
       <c r="G17" s="3">
-        <v>12175100</v>
+        <v>11776500</v>
       </c>
       <c r="H17" s="3">
-        <v>11369500</v>
+        <v>10997200</v>
       </c>
       <c r="I17" s="3">
-        <v>10315600</v>
+        <v>9977900</v>
       </c>
       <c r="J17" s="3">
-        <v>7901000</v>
+        <v>7642300</v>
       </c>
       <c r="K17" s="3">
         <v>12182400</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1804700</v>
+        <v>1745600</v>
       </c>
       <c r="E18" s="3">
-        <v>1284800</v>
+        <v>1242800</v>
       </c>
       <c r="F18" s="3">
-        <v>1478100</v>
+        <v>1429700</v>
       </c>
       <c r="G18" s="3">
-        <v>1387700</v>
+        <v>1342200</v>
       </c>
       <c r="H18" s="3">
-        <v>1465600</v>
+        <v>1417700</v>
       </c>
       <c r="I18" s="3">
-        <v>1383700</v>
+        <v>1338400</v>
       </c>
       <c r="J18" s="3">
-        <v>1223200</v>
+        <v>1183100</v>
       </c>
       <c r="K18" s="3">
         <v>1798500</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>53800</v>
+        <v>52100</v>
       </c>
       <c r="E20" s="3">
-        <v>85400</v>
+        <v>82600</v>
       </c>
       <c r="F20" s="3">
+        <v>59700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>63500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>106100</v>
+      </c>
+      <c r="I20" s="3">
         <v>61700</v>
       </c>
-      <c r="G20" s="3">
-        <v>65600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>109700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>63700</v>
-      </c>
       <c r="J20" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="K20" s="3">
         <v>73100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2381200</v>
+        <v>2287400</v>
       </c>
       <c r="E21" s="3">
-        <v>1861100</v>
+        <v>1785300</v>
       </c>
       <c r="F21" s="3">
-        <v>1993600</v>
+        <v>1914600</v>
       </c>
       <c r="G21" s="3">
-        <v>1815100</v>
+        <v>1744700</v>
       </c>
       <c r="H21" s="3">
-        <v>1904400</v>
+        <v>1832100</v>
       </c>
       <c r="I21" s="3">
-        <v>1763700</v>
+        <v>1696300</v>
       </c>
       <c r="J21" s="3">
-        <v>1475000</v>
+        <v>1419800</v>
       </c>
       <c r="K21" s="3">
         <v>2209300</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E22" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="F22" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="G22" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="H22" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I22" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J22" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="K22" s="3">
         <v>10400</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1851300</v>
+        <v>1790600</v>
       </c>
       <c r="E23" s="3">
-        <v>1362600</v>
+        <v>1318000</v>
       </c>
       <c r="F23" s="3">
-        <v>1532100</v>
+        <v>1482000</v>
       </c>
       <c r="G23" s="3">
-        <v>1445700</v>
+        <v>1398400</v>
       </c>
       <c r="H23" s="3">
-        <v>1568700</v>
+        <v>1517300</v>
       </c>
       <c r="I23" s="3">
-        <v>1443800</v>
+        <v>1396500</v>
       </c>
       <c r="J23" s="3">
-        <v>1242500</v>
+        <v>1201800</v>
       </c>
       <c r="K23" s="3">
         <v>1861200</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>475500</v>
+        <v>459900</v>
       </c>
       <c r="E24" s="3">
-        <v>344700</v>
+        <v>333400</v>
       </c>
       <c r="F24" s="3">
-        <v>388500</v>
+        <v>375800</v>
       </c>
       <c r="G24" s="3">
-        <v>360000</v>
+        <v>348300</v>
       </c>
       <c r="H24" s="3">
-        <v>460000</v>
+        <v>445000</v>
       </c>
       <c r="I24" s="3">
-        <v>414500</v>
+        <v>400900</v>
       </c>
       <c r="J24" s="3">
-        <v>397700</v>
+        <v>384700</v>
       </c>
       <c r="K24" s="3">
         <v>539200</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1375800</v>
+        <v>1330700</v>
       </c>
       <c r="E26" s="3">
-        <v>1017900</v>
+        <v>984600</v>
       </c>
       <c r="F26" s="3">
-        <v>1143600</v>
+        <v>1106200</v>
       </c>
       <c r="G26" s="3">
-        <v>1085700</v>
+        <v>1050100</v>
       </c>
       <c r="H26" s="3">
-        <v>1108600</v>
+        <v>1072300</v>
       </c>
       <c r="I26" s="3">
-        <v>1029300</v>
+        <v>995600</v>
       </c>
       <c r="J26" s="3">
-        <v>844700</v>
+        <v>817100</v>
       </c>
       <c r="K26" s="3">
         <v>1322000</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1287400</v>
+        <v>1245200</v>
       </c>
       <c r="E27" s="3">
-        <v>942100</v>
+        <v>911200</v>
       </c>
       <c r="F27" s="3">
-        <v>1092600</v>
+        <v>1056800</v>
       </c>
       <c r="G27" s="3">
-        <v>1015900</v>
+        <v>982600</v>
       </c>
       <c r="H27" s="3">
-        <v>1011800</v>
+        <v>978700</v>
       </c>
       <c r="I27" s="3">
-        <v>971100</v>
+        <v>939300</v>
       </c>
       <c r="J27" s="3">
-        <v>807100</v>
+        <v>780700</v>
       </c>
       <c r="K27" s="3">
         <v>1233500</v>
@@ -1486,7 +1486,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-76300</v>
+        <v>-73800</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-53800</v>
+        <v>-52100</v>
       </c>
       <c r="E32" s="3">
-        <v>-85400</v>
+        <v>-82600</v>
       </c>
       <c r="F32" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-106100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-61700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-65600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-109700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-63700</v>
-      </c>
       <c r="J32" s="3">
-        <v>-24400</v>
+        <v>-23600</v>
       </c>
       <c r="K32" s="3">
         <v>-73100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1287400</v>
+        <v>1245200</v>
       </c>
       <c r="E33" s="3">
-        <v>942100</v>
+        <v>911200</v>
       </c>
       <c r="F33" s="3">
-        <v>1092600</v>
+        <v>1056800</v>
       </c>
       <c r="G33" s="3">
-        <v>1015900</v>
+        <v>982600</v>
       </c>
       <c r="H33" s="3">
-        <v>935500</v>
+        <v>904900</v>
       </c>
       <c r="I33" s="3">
-        <v>971100</v>
+        <v>939300</v>
       </c>
       <c r="J33" s="3">
-        <v>807100</v>
+        <v>780700</v>
       </c>
       <c r="K33" s="3">
         <v>1233500</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1287400</v>
+        <v>1245200</v>
       </c>
       <c r="E35" s="3">
-        <v>942100</v>
+        <v>911200</v>
       </c>
       <c r="F35" s="3">
-        <v>1092600</v>
+        <v>1056800</v>
       </c>
       <c r="G35" s="3">
-        <v>1015900</v>
+        <v>982600</v>
       </c>
       <c r="H35" s="3">
-        <v>935500</v>
+        <v>904900</v>
       </c>
       <c r="I35" s="3">
-        <v>971100</v>
+        <v>939300</v>
       </c>
       <c r="J35" s="3">
-        <v>807100</v>
+        <v>780700</v>
       </c>
       <c r="K35" s="3">
         <v>1233500</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1895800</v>
+        <v>1833800</v>
       </c>
       <c r="E41" s="3">
-        <v>1634000</v>
+        <v>1580500</v>
       </c>
       <c r="F41" s="3">
-        <v>1463500</v>
+        <v>1415600</v>
       </c>
       <c r="G41" s="3">
-        <v>1679500</v>
+        <v>1624500</v>
       </c>
       <c r="H41" s="3">
-        <v>3382400</v>
+        <v>3271600</v>
       </c>
       <c r="I41" s="3">
-        <v>1241800</v>
+        <v>1201200</v>
       </c>
       <c r="J41" s="3">
-        <v>1072300</v>
+        <v>1037200</v>
       </c>
       <c r="K41" s="3">
         <v>995700</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>372900</v>
+        <v>360700</v>
       </c>
       <c r="E42" s="3">
-        <v>366300</v>
+        <v>354300</v>
       </c>
       <c r="F42" s="3">
-        <v>527500</v>
+        <v>510300</v>
       </c>
       <c r="G42" s="3">
-        <v>398600</v>
+        <v>385500</v>
       </c>
       <c r="H42" s="3">
-        <v>390500</v>
+        <v>377800</v>
       </c>
       <c r="I42" s="3">
-        <v>44700</v>
+        <v>43200</v>
       </c>
       <c r="J42" s="3">
-        <v>55700</v>
+        <v>53800</v>
       </c>
       <c r="K42" s="3">
         <v>80100</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7063500</v>
+        <v>6832200</v>
       </c>
       <c r="E43" s="3">
-        <v>6738900</v>
+        <v>6518200</v>
       </c>
       <c r="F43" s="3">
-        <v>7204000</v>
+        <v>6968200</v>
       </c>
       <c r="G43" s="3">
-        <v>6832100</v>
+        <v>6608400</v>
       </c>
       <c r="H43" s="3">
-        <v>18050500</v>
+        <v>17459500</v>
       </c>
       <c r="I43" s="3">
-        <v>6428400</v>
+        <v>6217900</v>
       </c>
       <c r="J43" s="3">
-        <v>6242800</v>
+        <v>6038400</v>
       </c>
       <c r="K43" s="3">
         <v>7816300</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3738800</v>
+        <v>3616400</v>
       </c>
       <c r="E44" s="3">
-        <v>2741400</v>
+        <v>2651600</v>
       </c>
       <c r="F44" s="3">
-        <v>2803000</v>
+        <v>2711200</v>
       </c>
       <c r="G44" s="3">
-        <v>2717200</v>
+        <v>2628200</v>
       </c>
       <c r="H44" s="3">
-        <v>5287700</v>
+        <v>5114500</v>
       </c>
       <c r="I44" s="3">
-        <v>2610800</v>
+        <v>2525300</v>
       </c>
       <c r="J44" s="3">
-        <v>5225400</v>
+        <v>5054300</v>
       </c>
       <c r="K44" s="3">
         <v>2978100</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>614400</v>
+        <v>594300</v>
       </c>
       <c r="E45" s="3">
-        <v>530000</v>
+        <v>512600</v>
       </c>
       <c r="F45" s="3">
-        <v>601300</v>
+        <v>581600</v>
       </c>
       <c r="G45" s="3">
-        <v>390300</v>
+        <v>377500</v>
       </c>
       <c r="H45" s="3">
-        <v>1205000</v>
+        <v>1165500</v>
       </c>
       <c r="I45" s="3">
-        <v>1131700</v>
+        <v>1094600</v>
       </c>
       <c r="J45" s="3">
-        <v>1944600</v>
+        <v>1880900</v>
       </c>
       <c r="K45" s="3">
         <v>842800</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13685400</v>
+        <v>13237300</v>
       </c>
       <c r="E46" s="3">
-        <v>12010500</v>
+        <v>11617300</v>
       </c>
       <c r="F46" s="3">
-        <v>12599400</v>
+        <v>12186900</v>
       </c>
       <c r="G46" s="3">
-        <v>12017700</v>
+        <v>11624200</v>
       </c>
       <c r="H46" s="3">
-        <v>11789800</v>
+        <v>11403700</v>
       </c>
       <c r="I46" s="3">
-        <v>11457300</v>
+        <v>11082200</v>
       </c>
       <c r="J46" s="3">
-        <v>10927900</v>
+        <v>10570100</v>
       </c>
       <c r="K46" s="3">
         <v>12713000</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1455400</v>
+        <v>1407700</v>
       </c>
       <c r="E47" s="3">
-        <v>1280600</v>
+        <v>1238700</v>
       </c>
       <c r="F47" s="3">
-        <v>1338900</v>
+        <v>1295100</v>
       </c>
       <c r="G47" s="3">
-        <v>1332700</v>
+        <v>1289000</v>
       </c>
       <c r="H47" s="3">
-        <v>2103400</v>
+        <v>2034500</v>
       </c>
       <c r="I47" s="3">
-        <v>495600</v>
+        <v>479300</v>
       </c>
       <c r="J47" s="3">
-        <v>650800</v>
+        <v>629500</v>
       </c>
       <c r="K47" s="3">
         <v>543000</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3638000</v>
+        <v>3518900</v>
       </c>
       <c r="E48" s="3">
-        <v>3112800</v>
+        <v>3010900</v>
       </c>
       <c r="F48" s="3">
-        <v>2971200</v>
+        <v>2873900</v>
       </c>
       <c r="G48" s="3">
-        <v>2419100</v>
+        <v>2339900</v>
       </c>
       <c r="H48" s="3">
-        <v>7166700</v>
+        <v>6932000</v>
       </c>
       <c r="I48" s="3">
-        <v>2303300</v>
+        <v>2227900</v>
       </c>
       <c r="J48" s="3">
-        <v>2095400</v>
+        <v>2026800</v>
       </c>
       <c r="K48" s="3">
         <v>2617400</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>702800</v>
+        <v>679800</v>
       </c>
       <c r="E49" s="3">
-        <v>531700</v>
+        <v>514300</v>
       </c>
       <c r="F49" s="3">
-        <v>447000</v>
+        <v>432400</v>
       </c>
       <c r="G49" s="3">
-        <v>366100</v>
+        <v>354100</v>
       </c>
       <c r="H49" s="3">
-        <v>1039200</v>
+        <v>1005100</v>
       </c>
       <c r="I49" s="3">
-        <v>337600</v>
+        <v>326500</v>
       </c>
       <c r="J49" s="3">
-        <v>431400</v>
+        <v>417300</v>
       </c>
       <c r="K49" s="3">
         <v>305700</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8178200</v>
+        <v>7910500</v>
       </c>
       <c r="E52" s="3">
-        <v>6442000</v>
+        <v>6231100</v>
       </c>
       <c r="F52" s="3">
-        <v>5654600</v>
+        <v>5469500</v>
       </c>
       <c r="G52" s="3">
-        <v>5089500</v>
+        <v>4922900</v>
       </c>
       <c r="H52" s="3">
-        <v>10442500</v>
+        <v>10100600</v>
       </c>
       <c r="I52" s="3">
-        <v>4981600</v>
+        <v>4818500</v>
       </c>
       <c r="J52" s="3">
-        <v>4870100</v>
+        <v>4710600</v>
       </c>
       <c r="K52" s="3">
         <v>5641700</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27659800</v>
+        <v>26754200</v>
       </c>
       <c r="E54" s="3">
-        <v>23377700</v>
+        <v>22612300</v>
       </c>
       <c r="F54" s="3">
-        <v>23011200</v>
+        <v>22257800</v>
       </c>
       <c r="G54" s="3">
-        <v>21225200</v>
+        <v>20530200</v>
       </c>
       <c r="H54" s="3">
-        <v>20761200</v>
+        <v>20081500</v>
       </c>
       <c r="I54" s="3">
-        <v>19575400</v>
+        <v>18934400</v>
       </c>
       <c r="J54" s="3">
-        <v>18566300</v>
+        <v>17958400</v>
       </c>
       <c r="K54" s="3">
         <v>21820800</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2875800</v>
+        <v>2781600</v>
       </c>
       <c r="E57" s="3">
-        <v>2372000</v>
+        <v>2294400</v>
       </c>
       <c r="F57" s="3">
-        <v>2153400</v>
+        <v>2082900</v>
       </c>
       <c r="G57" s="3">
-        <v>2248500</v>
+        <v>2174900</v>
       </c>
       <c r="H57" s="3">
-        <v>4194500</v>
+        <v>4057200</v>
       </c>
       <c r="I57" s="3">
-        <v>1875400</v>
+        <v>1814000</v>
       </c>
       <c r="J57" s="3">
-        <v>1908200</v>
+        <v>1845800</v>
       </c>
       <c r="K57" s="3">
         <v>2011600</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3696800</v>
+        <v>3575700</v>
       </c>
       <c r="E58" s="3">
-        <v>2683100</v>
+        <v>2595200</v>
       </c>
       <c r="F58" s="3">
-        <v>2833300</v>
+        <v>2740600</v>
       </c>
       <c r="G58" s="3">
-        <v>2563000</v>
+        <v>2479100</v>
       </c>
       <c r="H58" s="3">
-        <v>8002900</v>
+        <v>7740900</v>
       </c>
       <c r="I58" s="3">
-        <v>2485600</v>
+        <v>2404200</v>
       </c>
       <c r="J58" s="3">
-        <v>2524000</v>
+        <v>2441300</v>
       </c>
       <c r="K58" s="3">
         <v>2534100</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3057100</v>
+        <v>2957000</v>
       </c>
       <c r="E59" s="3">
-        <v>2468600</v>
+        <v>2387800</v>
       </c>
       <c r="F59" s="3">
-        <v>2356100</v>
+        <v>2278900</v>
       </c>
       <c r="G59" s="3">
-        <v>1952700</v>
+        <v>1888800</v>
       </c>
       <c r="H59" s="3">
-        <v>4218600</v>
+        <v>4080500</v>
       </c>
       <c r="I59" s="3">
-        <v>1771400</v>
+        <v>1713400</v>
       </c>
       <c r="J59" s="3">
-        <v>1530300</v>
+        <v>1480200</v>
       </c>
       <c r="K59" s="3">
         <v>1887400</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9629700</v>
+        <v>9314400</v>
       </c>
       <c r="E60" s="3">
-        <v>7523700</v>
+        <v>7277400</v>
       </c>
       <c r="F60" s="3">
-        <v>7342800</v>
+        <v>7102400</v>
       </c>
       <c r="G60" s="3">
-        <v>6764300</v>
+        <v>6542800</v>
       </c>
       <c r="H60" s="3">
-        <v>6724900</v>
+        <v>6504700</v>
       </c>
       <c r="I60" s="3">
-        <v>6132400</v>
+        <v>5931600</v>
       </c>
       <c r="J60" s="3">
-        <v>5921900</v>
+        <v>5728000</v>
       </c>
       <c r="K60" s="3">
         <v>6433100</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4326000</v>
+        <v>4184300</v>
       </c>
       <c r="E61" s="3">
-        <v>3726600</v>
+        <v>3604500</v>
       </c>
       <c r="F61" s="3">
-        <v>3785500</v>
+        <v>3661600</v>
       </c>
       <c r="G61" s="3">
-        <v>3603200</v>
+        <v>3485200</v>
       </c>
       <c r="H61" s="3">
-        <v>3462900</v>
+        <v>3349500</v>
       </c>
       <c r="I61" s="3">
-        <v>3510300</v>
+        <v>3395400</v>
       </c>
       <c r="J61" s="3">
-        <v>3110600</v>
+        <v>3008800</v>
       </c>
       <c r="K61" s="3">
         <v>4228400</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>620300</v>
+        <v>600000</v>
       </c>
       <c r="E62" s="3">
-        <v>588700</v>
+        <v>569400</v>
       </c>
       <c r="F62" s="3">
-        <v>615100</v>
+        <v>595000</v>
       </c>
       <c r="G62" s="3">
-        <v>401900</v>
+        <v>388800</v>
       </c>
       <c r="H62" s="3">
-        <v>1081500</v>
+        <v>1046100</v>
       </c>
       <c r="I62" s="3">
-        <v>609500</v>
+        <v>589500</v>
       </c>
       <c r="J62" s="3">
-        <v>601800</v>
+        <v>582100</v>
       </c>
       <c r="K62" s="3">
         <v>768900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15360400</v>
+        <v>14857500</v>
       </c>
       <c r="E66" s="3">
-        <v>12558300</v>
+        <v>12147100</v>
       </c>
       <c r="F66" s="3">
-        <v>12435200</v>
+        <v>12028100</v>
       </c>
       <c r="G66" s="3">
-        <v>11404100</v>
+        <v>11030700</v>
       </c>
       <c r="H66" s="3">
-        <v>11297500</v>
+        <v>10927600</v>
       </c>
       <c r="I66" s="3">
-        <v>10788400</v>
+        <v>10435200</v>
       </c>
       <c r="J66" s="3">
-        <v>10207900</v>
+        <v>9873600</v>
       </c>
       <c r="K66" s="3">
         <v>12121000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10552000</v>
+        <v>10206500</v>
       </c>
       <c r="E72" s="3">
-        <v>9717900</v>
+        <v>9399700</v>
       </c>
       <c r="F72" s="3">
-        <v>9080600</v>
+        <v>8783300</v>
       </c>
       <c r="G72" s="3">
-        <v>8322400</v>
+        <v>8050000</v>
       </c>
       <c r="H72" s="3">
-        <v>15436900</v>
+        <v>14931400</v>
       </c>
       <c r="I72" s="3">
-        <v>7190300</v>
+        <v>6954900</v>
       </c>
       <c r="J72" s="3">
-        <v>6518600</v>
+        <v>6305200</v>
       </c>
       <c r="K72" s="3">
         <v>7207300</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12299400</v>
+        <v>11896700</v>
       </c>
       <c r="E76" s="3">
-        <v>10819400</v>
+        <v>10465100</v>
       </c>
       <c r="F76" s="3">
-        <v>10576000</v>
+        <v>10229700</v>
       </c>
       <c r="G76" s="3">
-        <v>9821100</v>
+        <v>9499500</v>
       </c>
       <c r="H76" s="3">
-        <v>9463700</v>
+        <v>9153900</v>
       </c>
       <c r="I76" s="3">
-        <v>8786900</v>
+        <v>8499200</v>
       </c>
       <c r="J76" s="3">
-        <v>8358500</v>
+        <v>8084800</v>
       </c>
       <c r="K76" s="3">
         <v>9699800</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1287400</v>
+        <v>1245200</v>
       </c>
       <c r="E81" s="3">
-        <v>942100</v>
+        <v>911200</v>
       </c>
       <c r="F81" s="3">
-        <v>1092600</v>
+        <v>1056800</v>
       </c>
       <c r="G81" s="3">
-        <v>1015900</v>
+        <v>982600</v>
       </c>
       <c r="H81" s="3">
-        <v>935500</v>
+        <v>904900</v>
       </c>
       <c r="I81" s="3">
-        <v>971100</v>
+        <v>939300</v>
       </c>
       <c r="J81" s="3">
-        <v>807100</v>
+        <v>780700</v>
       </c>
       <c r="K81" s="3">
         <v>1233500</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>525600</v>
+        <v>508400</v>
       </c>
       <c r="E83" s="3">
-        <v>493600</v>
+        <v>477400</v>
       </c>
       <c r="F83" s="3">
-        <v>456200</v>
+        <v>441300</v>
       </c>
       <c r="G83" s="3">
-        <v>363700</v>
+        <v>351800</v>
       </c>
       <c r="H83" s="3">
-        <v>330800</v>
+        <v>320000</v>
       </c>
       <c r="I83" s="3">
-        <v>317900</v>
+        <v>307500</v>
       </c>
       <c r="J83" s="3">
-        <v>228600</v>
+        <v>221200</v>
       </c>
       <c r="K83" s="3">
         <v>336900</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>678100</v>
+        <v>655900</v>
       </c>
       <c r="E89" s="3">
-        <v>1047600</v>
+        <v>1013300</v>
       </c>
       <c r="F89" s="3">
-        <v>604100</v>
+        <v>584300</v>
       </c>
       <c r="G89" s="3">
-        <v>653500</v>
+        <v>632100</v>
       </c>
       <c r="H89" s="3">
-        <v>1005600</v>
+        <v>972600</v>
       </c>
       <c r="I89" s="3">
-        <v>1355900</v>
+        <v>1311500</v>
       </c>
       <c r="J89" s="3">
-        <v>1444300</v>
+        <v>1397000</v>
       </c>
       <c r="K89" s="3">
         <v>740000</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-714200</v>
+        <v>-690800</v>
       </c>
       <c r="E91" s="3">
-        <v>-446500</v>
+        <v>-431900</v>
       </c>
       <c r="F91" s="3">
-        <v>-558900</v>
+        <v>-540600</v>
       </c>
       <c r="G91" s="3">
-        <v>-464700</v>
+        <v>-449500</v>
       </c>
       <c r="H91" s="3">
-        <v>-900600</v>
+        <v>-871100</v>
       </c>
       <c r="I91" s="3">
-        <v>-411500</v>
+        <v>-398000</v>
       </c>
       <c r="J91" s="3">
-        <v>-287800</v>
+        <v>-278400</v>
       </c>
       <c r="K91" s="3">
         <v>-411300</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-933600</v>
+        <v>-903100</v>
       </c>
       <c r="E94" s="3">
-        <v>-345500</v>
+        <v>-334200</v>
       </c>
       <c r="F94" s="3">
-        <v>-670500</v>
+        <v>-648500</v>
       </c>
       <c r="G94" s="3">
-        <v>-430700</v>
+        <v>-416600</v>
       </c>
       <c r="H94" s="3">
-        <v>-337100</v>
+        <v>-326000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1228000</v>
+        <v>-1187800</v>
       </c>
       <c r="J94" s="3">
-        <v>-955200</v>
+        <v>-923900</v>
       </c>
       <c r="K94" s="3">
         <v>-1035200</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-354300</v>
+        <v>-342700</v>
       </c>
       <c r="E96" s="3">
-        <v>-321400</v>
+        <v>-310900</v>
       </c>
       <c r="F96" s="3">
-        <v>-315700</v>
+        <v>-305300</v>
       </c>
       <c r="G96" s="3">
-        <v>-298300</v>
+        <v>-288500</v>
       </c>
       <c r="H96" s="3">
-        <v>-281600</v>
+        <v>-272400</v>
       </c>
       <c r="I96" s="3">
-        <v>-255400</v>
+        <v>-247000</v>
       </c>
       <c r="J96" s="3">
-        <v>-273900</v>
+        <v>-264900</v>
       </c>
       <c r="K96" s="3">
         <v>-330400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>444100</v>
+        <v>429600</v>
       </c>
       <c r="E100" s="3">
-        <v>-501000</v>
+        <v>-484600</v>
       </c>
       <c r="F100" s="3">
-        <v>-157700</v>
+        <v>-152500</v>
       </c>
       <c r="G100" s="3">
-        <v>-203900</v>
+        <v>-197200</v>
       </c>
       <c r="H100" s="3">
-        <v>-238800</v>
+        <v>-231000</v>
       </c>
       <c r="I100" s="3">
-        <v>83300</v>
+        <v>80600</v>
       </c>
       <c r="J100" s="3">
-        <v>-202800</v>
+        <v>-196200</v>
       </c>
       <c r="K100" s="3">
         <v>463400</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>73200</v>
+        <v>70900</v>
       </c>
       <c r="E101" s="3">
-        <v>-30600</v>
+        <v>-29600</v>
       </c>
       <c r="F101" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="G101" s="3">
-        <v>-30600</v>
+        <v>-29600</v>
       </c>
       <c r="H101" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="I101" s="3">
-        <v>-41700</v>
+        <v>-40300</v>
       </c>
       <c r="J101" s="3">
-        <v>-38100</v>
+        <v>-36900</v>
       </c>
       <c r="K101" s="3">
         <v>60800</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>261800</v>
+        <v>253300</v>
       </c>
       <c r="E102" s="3">
-        <v>170500</v>
+        <v>164900</v>
       </c>
       <c r="F102" s="3">
-        <v>-215900</v>
+        <v>-208900</v>
       </c>
       <c r="G102" s="3">
-        <v>-11700</v>
+        <v>-11300</v>
       </c>
       <c r="H102" s="3">
-        <v>449400</v>
+        <v>434600</v>
       </c>
       <c r="I102" s="3">
-        <v>169500</v>
+        <v>164000</v>
       </c>
       <c r="J102" s="3">
-        <v>248200</v>
+        <v>240100</v>
       </c>
       <c r="K102" s="3">
         <v>229000</v>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>KUBTY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15575100</v>
+        <v>19689000</v>
       </c>
       <c r="E8" s="3">
-        <v>13139400</v>
+        <v>16146200</v>
       </c>
       <c r="F8" s="3">
-        <v>13613100</v>
+        <v>13621300</v>
       </c>
       <c r="G8" s="3">
-        <v>13118700</v>
+        <v>14112300</v>
       </c>
       <c r="H8" s="3">
-        <v>12414900</v>
+        <v>13599800</v>
       </c>
       <c r="I8" s="3">
-        <v>11316300</v>
+        <v>12870100</v>
       </c>
       <c r="J8" s="3">
+        <v>11731300</v>
+      </c>
+      <c r="K8" s="3">
         <v>8825500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13980900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14497500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10613700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8941100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11095600</v>
+        <v>14569500</v>
       </c>
       <c r="E9" s="3">
-        <v>9347300</v>
+        <v>11502500</v>
       </c>
       <c r="F9" s="3">
-        <v>9643200</v>
+        <v>9690100</v>
       </c>
       <c r="G9" s="3">
-        <v>9379600</v>
+        <v>9996800</v>
       </c>
       <c r="H9" s="3">
-        <v>17578000</v>
+        <v>9723500</v>
       </c>
       <c r="I9" s="3">
-        <v>7958900</v>
+        <v>18222600</v>
       </c>
       <c r="J9" s="3">
+        <v>8250700</v>
+      </c>
+      <c r="K9" s="3">
         <v>6015100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9732900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10157800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7709700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6526900</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4479500</v>
+        <v>5119500</v>
       </c>
       <c r="E10" s="3">
-        <v>3792100</v>
+        <v>4643800</v>
       </c>
       <c r="F10" s="3">
-        <v>3969900</v>
+        <v>3931100</v>
       </c>
       <c r="G10" s="3">
-        <v>3739200</v>
+        <v>4115500</v>
       </c>
       <c r="H10" s="3">
-        <v>-5163100</v>
+        <v>3876300</v>
       </c>
       <c r="I10" s="3">
-        <v>3357400</v>
+        <v>-5352400</v>
       </c>
       <c r="J10" s="3">
+        <v>3480600</v>
+      </c>
+      <c r="K10" s="3">
         <v>2810300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4248000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4339800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2904100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2414300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,48 +945,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>31900</v>
+      </c>
+      <c r="L14" s="3">
         <v>-6500</v>
       </c>
-      <c r="E14" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J14" s="3">
-        <v>31900</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15600</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,12 +1026,15 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13829500</v>
+        <v>18079800</v>
       </c>
       <c r="E17" s="3">
-        <v>11896700</v>
+        <v>14336600</v>
       </c>
       <c r="F17" s="3">
-        <v>12183400</v>
+        <v>12332900</v>
       </c>
       <c r="G17" s="3">
-        <v>11776500</v>
+        <v>12630200</v>
       </c>
       <c r="H17" s="3">
-        <v>10997200</v>
+        <v>12208400</v>
       </c>
       <c r="I17" s="3">
-        <v>9977900</v>
+        <v>11400500</v>
       </c>
       <c r="J17" s="3">
+        <v>10343800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7642300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12182400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12552200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9585100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8026500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1745600</v>
+        <v>1609200</v>
       </c>
       <c r="E18" s="3">
-        <v>1242800</v>
+        <v>1809600</v>
       </c>
       <c r="F18" s="3">
-        <v>1429700</v>
+        <v>1288300</v>
       </c>
       <c r="G18" s="3">
-        <v>1342200</v>
+        <v>1482200</v>
       </c>
       <c r="H18" s="3">
-        <v>1417700</v>
+        <v>1391500</v>
       </c>
       <c r="I18" s="3">
-        <v>1338400</v>
+        <v>1469600</v>
       </c>
       <c r="J18" s="3">
+        <v>1387500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1183100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1798500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1945400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1028600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>914600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,203 +1149,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>52100</v>
+        <v>110100</v>
       </c>
       <c r="E20" s="3">
-        <v>82600</v>
+        <v>54000</v>
       </c>
       <c r="F20" s="3">
-        <v>59700</v>
+        <v>85700</v>
       </c>
       <c r="G20" s="3">
-        <v>63500</v>
+        <v>61900</v>
       </c>
       <c r="H20" s="3">
-        <v>106100</v>
+        <v>65800</v>
       </c>
       <c r="I20" s="3">
-        <v>61700</v>
+        <v>110000</v>
       </c>
       <c r="J20" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K20" s="3">
         <v>23600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>73100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>99600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>78000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2287400</v>
+        <v>2339700</v>
       </c>
       <c r="E21" s="3">
-        <v>1785300</v>
+        <v>2385600</v>
       </c>
       <c r="F21" s="3">
-        <v>1914600</v>
+        <v>1864200</v>
       </c>
       <c r="G21" s="3">
-        <v>1744700</v>
+        <v>1997200</v>
       </c>
       <c r="H21" s="3">
-        <v>1832100</v>
+        <v>1818500</v>
       </c>
       <c r="I21" s="3">
-        <v>1696300</v>
+        <v>1908300</v>
       </c>
       <c r="J21" s="3">
+        <v>1767200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1419800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2209300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2383900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1373100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1124200</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>7000</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F22" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="G22" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="H22" s="3">
-        <v>6500</v>
+        <v>7600</v>
       </c>
       <c r="I22" s="3">
-        <v>3600</v>
+        <v>6700</v>
       </c>
       <c r="J22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16800</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1790600</v>
+        <v>1719400</v>
       </c>
       <c r="E23" s="3">
-        <v>1318000</v>
+        <v>1856300</v>
       </c>
       <c r="F23" s="3">
-        <v>1482000</v>
+        <v>1366400</v>
       </c>
       <c r="G23" s="3">
-        <v>1398400</v>
+        <v>1536300</v>
       </c>
       <c r="H23" s="3">
-        <v>1517300</v>
+        <v>1449600</v>
       </c>
       <c r="I23" s="3">
-        <v>1396500</v>
+        <v>1573000</v>
       </c>
       <c r="J23" s="3">
+        <v>1447700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1201800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1861200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2030500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1095000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>895300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>459900</v>
+        <v>434700</v>
       </c>
       <c r="E24" s="3">
-        <v>333400</v>
+        <v>476800</v>
       </c>
       <c r="F24" s="3">
-        <v>375800</v>
+        <v>345600</v>
       </c>
       <c r="G24" s="3">
-        <v>348300</v>
+        <v>389600</v>
       </c>
       <c r="H24" s="3">
-        <v>445000</v>
+        <v>361000</v>
       </c>
       <c r="I24" s="3">
-        <v>400900</v>
+        <v>461300</v>
       </c>
       <c r="J24" s="3">
+        <v>415600</v>
+      </c>
+      <c r="K24" s="3">
         <v>384700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>539200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>691100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>370300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>324200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1330700</v>
+        <v>1284600</v>
       </c>
       <c r="E26" s="3">
-        <v>984600</v>
+        <v>1379500</v>
       </c>
       <c r="F26" s="3">
-        <v>1106200</v>
+        <v>1020700</v>
       </c>
       <c r="G26" s="3">
-        <v>1050100</v>
+        <v>1146700</v>
       </c>
       <c r="H26" s="3">
-        <v>1072300</v>
+        <v>1088600</v>
       </c>
       <c r="I26" s="3">
-        <v>995600</v>
+        <v>1111700</v>
       </c>
       <c r="J26" s="3">
+        <v>1032100</v>
+      </c>
+      <c r="K26" s="3">
         <v>817100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1322000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1339400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>724700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>571100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1245200</v>
+        <v>1147900</v>
       </c>
       <c r="E27" s="3">
-        <v>911200</v>
+        <v>1290900</v>
       </c>
       <c r="F27" s="3">
-        <v>1056800</v>
+        <v>944600</v>
       </c>
       <c r="G27" s="3">
-        <v>982600</v>
+        <v>1095600</v>
       </c>
       <c r="H27" s="3">
-        <v>978700</v>
+        <v>1018700</v>
       </c>
       <c r="I27" s="3">
-        <v>939300</v>
+        <v>1014600</v>
       </c>
       <c r="J27" s="3">
+        <v>973800</v>
+      </c>
+      <c r="K27" s="3">
         <v>780700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1233500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1265300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>669800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>546000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1485,11 +1545,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-73800</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-76600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-52100</v>
+        <v>-110100</v>
       </c>
       <c r="E32" s="3">
-        <v>-82600</v>
+        <v>-54000</v>
       </c>
       <c r="F32" s="3">
-        <v>-59700</v>
+        <v>-85700</v>
       </c>
       <c r="G32" s="3">
-        <v>-63500</v>
+        <v>-61900</v>
       </c>
       <c r="H32" s="3">
-        <v>-106100</v>
+        <v>-65800</v>
       </c>
       <c r="I32" s="3">
-        <v>-61700</v>
+        <v>-110000</v>
       </c>
       <c r="J32" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-23600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-73100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-99600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-78000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1245200</v>
+        <v>1147900</v>
       </c>
       <c r="E33" s="3">
-        <v>911200</v>
+        <v>1290900</v>
       </c>
       <c r="F33" s="3">
-        <v>1056800</v>
+        <v>944600</v>
       </c>
       <c r="G33" s="3">
-        <v>982600</v>
+        <v>1095600</v>
       </c>
       <c r="H33" s="3">
-        <v>904900</v>
+        <v>1018700</v>
       </c>
       <c r="I33" s="3">
-        <v>939300</v>
+        <v>938100</v>
       </c>
       <c r="J33" s="3">
+        <v>973800</v>
+      </c>
+      <c r="K33" s="3">
         <v>780700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1233500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1265300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>669800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>546000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1245200</v>
+        <v>1147900</v>
       </c>
       <c r="E35" s="3">
-        <v>911200</v>
+        <v>1290900</v>
       </c>
       <c r="F35" s="3">
-        <v>1056800</v>
+        <v>944600</v>
       </c>
       <c r="G35" s="3">
-        <v>982600</v>
+        <v>1095600</v>
       </c>
       <c r="H35" s="3">
-        <v>904900</v>
+        <v>1018700</v>
       </c>
       <c r="I35" s="3">
-        <v>939300</v>
+        <v>938100</v>
       </c>
       <c r="J35" s="3">
+        <v>973800</v>
+      </c>
+      <c r="K35" s="3">
         <v>780700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1233500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1265300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>669800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>546000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,359 +1904,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1833800</v>
+        <v>1659600</v>
       </c>
       <c r="E41" s="3">
-        <v>1580500</v>
+        <v>1901000</v>
       </c>
       <c r="F41" s="3">
-        <v>1415600</v>
+        <v>1638500</v>
       </c>
       <c r="G41" s="3">
-        <v>1624500</v>
+        <v>1467500</v>
       </c>
       <c r="H41" s="3">
-        <v>3271600</v>
+        <v>1684100</v>
       </c>
       <c r="I41" s="3">
-        <v>1201200</v>
+        <v>3391600</v>
       </c>
       <c r="J41" s="3">
+        <v>1245200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1037200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>995700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>836300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1004800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>892000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>360700</v>
+        <v>525600</v>
       </c>
       <c r="E42" s="3">
-        <v>354300</v>
+        <v>373900</v>
       </c>
       <c r="F42" s="3">
-        <v>510300</v>
+        <v>367300</v>
       </c>
       <c r="G42" s="3">
-        <v>385500</v>
+        <v>529000</v>
       </c>
       <c r="H42" s="3">
-        <v>377800</v>
+        <v>399600</v>
       </c>
       <c r="I42" s="3">
-        <v>43200</v>
+        <v>391600</v>
       </c>
       <c r="J42" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K42" s="3">
         <v>53800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>80100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>44500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38800</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6832200</v>
+        <v>9487200</v>
       </c>
       <c r="E43" s="3">
-        <v>6518200</v>
+        <v>7082800</v>
       </c>
       <c r="F43" s="3">
-        <v>6968200</v>
+        <v>6757200</v>
       </c>
       <c r="G43" s="3">
-        <v>6608400</v>
+        <v>7223700</v>
       </c>
       <c r="H43" s="3">
-        <v>17459500</v>
+        <v>6850800</v>
       </c>
       <c r="I43" s="3">
-        <v>6217900</v>
+        <v>18099700</v>
       </c>
       <c r="J43" s="3">
+        <v>6445900</v>
+      </c>
+      <c r="K43" s="3">
         <v>6038400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7816300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7348700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5510400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4425400</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3616400</v>
+        <v>4736900</v>
       </c>
       <c r="E44" s="3">
-        <v>2651600</v>
+        <v>3749000</v>
       </c>
       <c r="F44" s="3">
-        <v>2711200</v>
+        <v>2748900</v>
       </c>
       <c r="G44" s="3">
-        <v>2628200</v>
+        <v>2810600</v>
       </c>
       <c r="H44" s="3">
-        <v>5114500</v>
+        <v>2724600</v>
       </c>
       <c r="I44" s="3">
-        <v>2525300</v>
+        <v>5302100</v>
       </c>
       <c r="J44" s="3">
+        <v>2617900</v>
+      </c>
+      <c r="K44" s="3">
         <v>5054300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2978100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2880700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2104200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1792400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>594300</v>
+        <v>534800</v>
       </c>
       <c r="E45" s="3">
-        <v>512600</v>
+        <v>616100</v>
       </c>
       <c r="F45" s="3">
-        <v>581600</v>
+        <v>531400</v>
       </c>
       <c r="G45" s="3">
-        <v>377500</v>
+        <v>602900</v>
       </c>
       <c r="H45" s="3">
-        <v>1165500</v>
+        <v>391400</v>
       </c>
       <c r="I45" s="3">
-        <v>1094600</v>
+        <v>1208300</v>
       </c>
       <c r="J45" s="3">
+        <v>1134700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1880900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>842800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>748200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>565200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>571800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13237300</v>
+        <v>16944100</v>
       </c>
       <c r="E46" s="3">
-        <v>11617300</v>
+        <v>13722800</v>
       </c>
       <c r="F46" s="3">
-        <v>12186900</v>
+        <v>12043300</v>
       </c>
       <c r="G46" s="3">
-        <v>11624200</v>
+        <v>12633800</v>
       </c>
       <c r="H46" s="3">
-        <v>11403700</v>
+        <v>12050500</v>
       </c>
       <c r="I46" s="3">
-        <v>11082200</v>
+        <v>11821900</v>
       </c>
       <c r="J46" s="3">
+        <v>11488600</v>
+      </c>
+      <c r="K46" s="3">
         <v>10570100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12713000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11858400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9223400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7681500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1407700</v>
+        <v>1557700</v>
       </c>
       <c r="E47" s="3">
-        <v>1238700</v>
+        <v>1459300</v>
       </c>
       <c r="F47" s="3">
-        <v>1295100</v>
+        <v>1284100</v>
       </c>
       <c r="G47" s="3">
-        <v>1289000</v>
+        <v>1342600</v>
       </c>
       <c r="H47" s="3">
-        <v>2034500</v>
+        <v>1336300</v>
       </c>
       <c r="I47" s="3">
-        <v>479300</v>
+        <v>2109100</v>
       </c>
       <c r="J47" s="3">
+        <v>496900</v>
+      </c>
+      <c r="K47" s="3">
         <v>629500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>543000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>555400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>460200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2873400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3518900</v>
+        <v>4672400</v>
       </c>
       <c r="E48" s="3">
-        <v>3010900</v>
+        <v>3647900</v>
       </c>
       <c r="F48" s="3">
-        <v>2873900</v>
+        <v>3121300</v>
       </c>
       <c r="G48" s="3">
-        <v>2339900</v>
+        <v>2979300</v>
       </c>
       <c r="H48" s="3">
-        <v>6932000</v>
+        <v>2425700</v>
       </c>
       <c r="I48" s="3">
-        <v>2227900</v>
+        <v>7186200</v>
       </c>
       <c r="J48" s="3">
+        <v>2309600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2026800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2617400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2716800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2322700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1996300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>679800</v>
+        <v>2049000</v>
       </c>
       <c r="E49" s="3">
-        <v>514300</v>
+        <v>704700</v>
       </c>
       <c r="F49" s="3">
-        <v>432400</v>
+        <v>533200</v>
       </c>
       <c r="G49" s="3">
-        <v>354100</v>
+        <v>448200</v>
       </c>
       <c r="H49" s="3">
-        <v>1005100</v>
+        <v>367100</v>
       </c>
       <c r="I49" s="3">
-        <v>326500</v>
+        <v>1042000</v>
       </c>
       <c r="J49" s="3">
+        <v>338500</v>
+      </c>
+      <c r="K49" s="3">
         <v>417300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>305700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>332800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>262700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>238600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7910500</v>
+        <v>9551600</v>
       </c>
       <c r="E52" s="3">
-        <v>6231100</v>
+        <v>8200500</v>
       </c>
       <c r="F52" s="3">
-        <v>5469500</v>
+        <v>6459600</v>
       </c>
       <c r="G52" s="3">
-        <v>4922900</v>
+        <v>5670000</v>
       </c>
       <c r="H52" s="3">
-        <v>10100600</v>
+        <v>5103400</v>
       </c>
       <c r="I52" s="3">
-        <v>4818500</v>
+        <v>10471000</v>
       </c>
       <c r="J52" s="3">
+        <v>4995200</v>
+      </c>
+      <c r="K52" s="3">
         <v>4710600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5641700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4762500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3580900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>405700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26754200</v>
+        <v>34774900</v>
       </c>
       <c r="E54" s="3">
-        <v>22612300</v>
+        <v>27735300</v>
       </c>
       <c r="F54" s="3">
-        <v>22257800</v>
+        <v>23441500</v>
       </c>
       <c r="G54" s="3">
-        <v>20530200</v>
+        <v>23074000</v>
       </c>
       <c r="H54" s="3">
-        <v>20081500</v>
+        <v>21283100</v>
       </c>
       <c r="I54" s="3">
-        <v>18934400</v>
+        <v>20817900</v>
       </c>
       <c r="J54" s="3">
+        <v>19628800</v>
+      </c>
+      <c r="K54" s="3">
         <v>17958400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21820800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20225800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15850000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13195600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,242 +2528,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2781600</v>
+        <v>3342600</v>
       </c>
       <c r="E57" s="3">
-        <v>2294400</v>
+        <v>2883600</v>
       </c>
       <c r="F57" s="3">
-        <v>2082900</v>
+        <v>2378500</v>
       </c>
       <c r="G57" s="3">
-        <v>2174900</v>
+        <v>2159200</v>
       </c>
       <c r="H57" s="3">
-        <v>4057200</v>
+        <v>2254700</v>
       </c>
       <c r="I57" s="3">
-        <v>1814000</v>
+        <v>4206000</v>
       </c>
       <c r="J57" s="3">
+        <v>1880600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1845800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2011600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2313200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2209100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1765800</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3575700</v>
+        <v>4710500</v>
       </c>
       <c r="E58" s="3">
-        <v>2595200</v>
+        <v>3706900</v>
       </c>
       <c r="F58" s="3">
-        <v>2740600</v>
+        <v>2690400</v>
       </c>
       <c r="G58" s="3">
-        <v>2479100</v>
+        <v>2841100</v>
       </c>
       <c r="H58" s="3">
-        <v>7740900</v>
+        <v>2570000</v>
       </c>
       <c r="I58" s="3">
-        <v>2404200</v>
+        <v>8024800</v>
       </c>
       <c r="J58" s="3">
+        <v>2492300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2441300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2534100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2607600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1701300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1718500</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2957000</v>
+        <v>3666600</v>
       </c>
       <c r="E59" s="3">
-        <v>2387800</v>
+        <v>3065500</v>
       </c>
       <c r="F59" s="3">
-        <v>2278900</v>
+        <v>2475300</v>
       </c>
       <c r="G59" s="3">
-        <v>1888800</v>
+        <v>2362500</v>
       </c>
       <c r="H59" s="3">
-        <v>4080500</v>
+        <v>1958100</v>
       </c>
       <c r="I59" s="3">
-        <v>1713400</v>
+        <v>4230100</v>
       </c>
       <c r="J59" s="3">
+        <v>1776200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1480200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1887400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1988100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1496900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1269900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9314400</v>
+        <v>11719800</v>
       </c>
       <c r="E60" s="3">
-        <v>7277400</v>
+        <v>9656000</v>
       </c>
       <c r="F60" s="3">
-        <v>7102400</v>
+        <v>7544200</v>
       </c>
       <c r="G60" s="3">
-        <v>6542800</v>
+        <v>7362800</v>
       </c>
       <c r="H60" s="3">
-        <v>6504700</v>
+        <v>6782700</v>
       </c>
       <c r="I60" s="3">
-        <v>5931600</v>
+        <v>6743300</v>
       </c>
       <c r="J60" s="3">
+        <v>6149100</v>
+      </c>
+      <c r="K60" s="3">
         <v>5728000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6433100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6908900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5407200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4754200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4184300</v>
+        <v>7131100</v>
       </c>
       <c r="E61" s="3">
-        <v>3604500</v>
+        <v>4337800</v>
       </c>
       <c r="F61" s="3">
-        <v>3661600</v>
+        <v>3736700</v>
       </c>
       <c r="G61" s="3">
-        <v>3485200</v>
+        <v>3795900</v>
       </c>
       <c r="H61" s="3">
-        <v>3349500</v>
+        <v>3613000</v>
       </c>
       <c r="I61" s="3">
-        <v>3395400</v>
+        <v>3472300</v>
       </c>
       <c r="J61" s="3">
+        <v>3519900</v>
+      </c>
+      <c r="K61" s="3">
         <v>3008800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4228400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3032900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2484800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1635600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600000</v>
+        <v>655600</v>
       </c>
       <c r="E62" s="3">
-        <v>569400</v>
+        <v>622000</v>
       </c>
       <c r="F62" s="3">
-        <v>595000</v>
+        <v>590300</v>
       </c>
       <c r="G62" s="3">
-        <v>388800</v>
+        <v>616800</v>
       </c>
       <c r="H62" s="3">
-        <v>1046100</v>
+        <v>403000</v>
       </c>
       <c r="I62" s="3">
+        <v>1084400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>611200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>582100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>768900</v>
+      </c>
+      <c r="M62" s="3">
+        <v>668100</v>
+      </c>
+      <c r="N62" s="3">
         <v>589500</v>
       </c>
-      <c r="J62" s="3">
-        <v>582100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>768900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>668100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>589500</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>532800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14857500</v>
+        <v>20932400</v>
       </c>
       <c r="E66" s="3">
-        <v>12147100</v>
+        <v>15402300</v>
       </c>
       <c r="F66" s="3">
-        <v>12028100</v>
+        <v>12592600</v>
       </c>
       <c r="G66" s="3">
-        <v>11030700</v>
+        <v>12469100</v>
       </c>
       <c r="H66" s="3">
-        <v>10927600</v>
+        <v>11435200</v>
       </c>
       <c r="I66" s="3">
-        <v>10435200</v>
+        <v>11328300</v>
       </c>
       <c r="J66" s="3">
+        <v>10817900</v>
+      </c>
+      <c r="K66" s="3">
         <v>9873600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12121000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11242200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8955100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7401000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10206500</v>
+        <v>11283100</v>
       </c>
       <c r="E72" s="3">
-        <v>9399700</v>
+        <v>10580800</v>
       </c>
       <c r="F72" s="3">
-        <v>8783300</v>
+        <v>9744400</v>
       </c>
       <c r="G72" s="3">
-        <v>8050000</v>
+        <v>9105400</v>
       </c>
       <c r="H72" s="3">
-        <v>14931400</v>
+        <v>8345200</v>
       </c>
       <c r="I72" s="3">
-        <v>6954900</v>
+        <v>15479000</v>
       </c>
       <c r="J72" s="3">
+        <v>7209900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6305200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7207300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6950700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5587500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5146800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11896700</v>
+        <v>13842400</v>
       </c>
       <c r="E76" s="3">
-        <v>10465100</v>
+        <v>12333000</v>
       </c>
       <c r="F76" s="3">
-        <v>10229700</v>
+        <v>10848900</v>
       </c>
       <c r="G76" s="3">
-        <v>9499500</v>
+        <v>10604900</v>
       </c>
       <c r="H76" s="3">
-        <v>9153900</v>
+        <v>9847900</v>
       </c>
       <c r="I76" s="3">
-        <v>8499200</v>
+        <v>9489500</v>
       </c>
       <c r="J76" s="3">
+        <v>8810900</v>
+      </c>
+      <c r="K76" s="3">
         <v>8084800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9699800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8983500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6894900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5794600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1245200</v>
+        <v>1147900</v>
       </c>
       <c r="E81" s="3">
-        <v>911200</v>
+        <v>1290900</v>
       </c>
       <c r="F81" s="3">
-        <v>1056800</v>
+        <v>944600</v>
       </c>
       <c r="G81" s="3">
-        <v>982600</v>
+        <v>1095600</v>
       </c>
       <c r="H81" s="3">
-        <v>904900</v>
+        <v>1018700</v>
       </c>
       <c r="I81" s="3">
-        <v>939300</v>
+        <v>938100</v>
       </c>
       <c r="J81" s="3">
+        <v>973800</v>
+      </c>
+      <c r="K81" s="3">
         <v>780700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1233500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1265300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>669800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>546000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>508400</v>
+        <v>626300</v>
       </c>
       <c r="E83" s="3">
-        <v>477400</v>
+        <v>527000</v>
       </c>
       <c r="F83" s="3">
-        <v>441300</v>
+        <v>494900</v>
       </c>
       <c r="G83" s="3">
-        <v>351800</v>
+        <v>457500</v>
       </c>
       <c r="H83" s="3">
-        <v>320000</v>
+        <v>364700</v>
       </c>
       <c r="I83" s="3">
-        <v>307500</v>
+        <v>331700</v>
       </c>
       <c r="J83" s="3">
+        <v>318800</v>
+      </c>
+      <c r="K83" s="3">
         <v>221200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>336900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>339700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>265900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>212100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>655900</v>
+        <v>-56400</v>
       </c>
       <c r="E89" s="3">
-        <v>1013300</v>
+        <v>680000</v>
       </c>
       <c r="F89" s="3">
-        <v>584300</v>
+        <v>1050500</v>
       </c>
       <c r="G89" s="3">
-        <v>632100</v>
+        <v>605700</v>
       </c>
       <c r="H89" s="3">
-        <v>972600</v>
+        <v>655200</v>
       </c>
       <c r="I89" s="3">
-        <v>1311500</v>
+        <v>1008300</v>
       </c>
       <c r="J89" s="3">
+        <v>1359600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1397000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>740000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>463400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>708700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-690800</v>
+        <v>-1246900</v>
       </c>
       <c r="E91" s="3">
-        <v>-431900</v>
+        <v>-716100</v>
       </c>
       <c r="F91" s="3">
-        <v>-540600</v>
+        <v>-447700</v>
       </c>
       <c r="G91" s="3">
-        <v>-449500</v>
+        <v>-560400</v>
       </c>
       <c r="H91" s="3">
-        <v>-871100</v>
+        <v>-466000</v>
       </c>
       <c r="I91" s="3">
-        <v>-398000</v>
+        <v>-903100</v>
       </c>
       <c r="J91" s="3">
+        <v>-412600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-278400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-411300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-510800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-424000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-239200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-903100</v>
+        <v>-2341000</v>
       </c>
       <c r="E94" s="3">
-        <v>-334200</v>
+        <v>-936200</v>
       </c>
       <c r="F94" s="3">
-        <v>-648500</v>
+        <v>-346400</v>
       </c>
       <c r="G94" s="3">
-        <v>-416600</v>
+        <v>-672300</v>
       </c>
       <c r="H94" s="3">
-        <v>-326000</v>
+        <v>-431900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1187800</v>
+        <v>-338000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1231300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-923900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1035200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1001400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-629400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-620300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,47 +3991,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-342700</v>
+        <v>-378300</v>
       </c>
       <c r="E96" s="3">
-        <v>-310900</v>
+        <v>-355200</v>
       </c>
       <c r="F96" s="3">
-        <v>-305300</v>
+        <v>-322300</v>
       </c>
       <c r="G96" s="3">
-        <v>-288500</v>
+        <v>-316500</v>
       </c>
       <c r="H96" s="3">
-        <v>-272400</v>
+        <v>-299100</v>
       </c>
       <c r="I96" s="3">
-        <v>-247000</v>
+        <v>-282400</v>
       </c>
       <c r="J96" s="3">
+        <v>-256100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-264900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-330400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-229400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-182700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-157000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>429600</v>
+        <v>2076800</v>
       </c>
       <c r="E100" s="3">
-        <v>-484600</v>
+        <v>445300</v>
       </c>
       <c r="F100" s="3">
-        <v>-152500</v>
+        <v>-502400</v>
       </c>
       <c r="G100" s="3">
-        <v>-197200</v>
+        <v>-158100</v>
       </c>
       <c r="H100" s="3">
-        <v>-231000</v>
+        <v>-204400</v>
       </c>
       <c r="I100" s="3">
-        <v>80600</v>
+        <v>-239400</v>
       </c>
       <c r="J100" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-196200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>463400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>30900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>196800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-117700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>70900</v>
+        <v>79200</v>
       </c>
       <c r="E101" s="3">
-        <v>-29600</v>
+        <v>73400</v>
       </c>
       <c r="F101" s="3">
-        <v>7900</v>
+        <v>-30700</v>
       </c>
       <c r="G101" s="3">
-        <v>-29600</v>
+        <v>8200</v>
       </c>
       <c r="H101" s="3">
-        <v>19000</v>
+        <v>-30700</v>
       </c>
       <c r="I101" s="3">
-        <v>-40300</v>
+        <v>19700</v>
       </c>
       <c r="J101" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-36900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>60800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>47100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>59800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>253300</v>
+        <v>-241400</v>
       </c>
       <c r="E102" s="3">
-        <v>164900</v>
+        <v>262500</v>
       </c>
       <c r="F102" s="3">
-        <v>-208900</v>
+        <v>170900</v>
       </c>
       <c r="G102" s="3">
-        <v>-11300</v>
+        <v>-216500</v>
       </c>
       <c r="H102" s="3">
-        <v>434600</v>
+        <v>-11700</v>
       </c>
       <c r="I102" s="3">
-        <v>164000</v>
+        <v>450600</v>
       </c>
       <c r="J102" s="3">
+        <v>170000</v>
+      </c>
+      <c r="K102" s="3">
         <v>240100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>229000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-122700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>90700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-42000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>KUBTY</t>
   </si>
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19689000</v>
+        <v>19313900</v>
       </c>
       <c r="E8" s="3">
-        <v>16146200</v>
+        <v>15838700</v>
       </c>
       <c r="F8" s="3">
-        <v>13621300</v>
+        <v>13361800</v>
       </c>
       <c r="G8" s="3">
-        <v>14112300</v>
+        <v>13843500</v>
       </c>
       <c r="H8" s="3">
-        <v>13599800</v>
+        <v>13340800</v>
       </c>
       <c r="I8" s="3">
-        <v>12870100</v>
+        <v>12625000</v>
       </c>
       <c r="J8" s="3">
-        <v>11731300</v>
+        <v>11507800</v>
       </c>
       <c r="K8" s="3">
         <v>8825500</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14569500</v>
+        <v>14292000</v>
       </c>
       <c r="E9" s="3">
-        <v>11502500</v>
+        <v>11283400</v>
       </c>
       <c r="F9" s="3">
-        <v>9690100</v>
+        <v>9505500</v>
       </c>
       <c r="G9" s="3">
-        <v>9996800</v>
+        <v>9806400</v>
       </c>
       <c r="H9" s="3">
-        <v>9723500</v>
+        <v>9538300</v>
       </c>
       <c r="I9" s="3">
-        <v>18222600</v>
+        <v>17875500</v>
       </c>
       <c r="J9" s="3">
-        <v>8250700</v>
+        <v>8093600</v>
       </c>
       <c r="K9" s="3">
         <v>6015100</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5119500</v>
+        <v>5021900</v>
       </c>
       <c r="E10" s="3">
-        <v>4643800</v>
+        <v>4555300</v>
       </c>
       <c r="F10" s="3">
-        <v>3931100</v>
+        <v>3856300</v>
       </c>
       <c r="G10" s="3">
-        <v>4115500</v>
+        <v>4037100</v>
       </c>
       <c r="H10" s="3">
-        <v>3876300</v>
+        <v>3802500</v>
       </c>
       <c r="I10" s="3">
-        <v>-5352400</v>
+        <v>-5250500</v>
       </c>
       <c r="J10" s="3">
-        <v>3480600</v>
+        <v>3414300</v>
       </c>
       <c r="K10" s="3">
         <v>2810300</v>
@@ -954,23 +954,23 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>14000</v>
       </c>
       <c r="E14" s="3">
-        <v>-6700</v>
+        <v>4100</v>
       </c>
       <c r="F14" s="3">
-        <v>-10400</v>
+        <v>-10200</v>
       </c>
       <c r="G14" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="H14" s="3">
-        <v>-14700</v>
+        <v>-14400</v>
       </c>
       <c r="I14" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J14" s="3">
         <v>1500</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18079800</v>
+        <v>17735400</v>
       </c>
       <c r="E17" s="3">
-        <v>14336600</v>
+        <v>14075400</v>
       </c>
       <c r="F17" s="3">
-        <v>12332900</v>
+        <v>12098000</v>
       </c>
       <c r="G17" s="3">
-        <v>12630200</v>
+        <v>12389600</v>
       </c>
       <c r="H17" s="3">
-        <v>12208400</v>
+        <v>11975800</v>
       </c>
       <c r="I17" s="3">
-        <v>11400500</v>
+        <v>11183300</v>
       </c>
       <c r="J17" s="3">
-        <v>10343800</v>
+        <v>10146700</v>
       </c>
       <c r="K17" s="3">
         <v>7642300</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1609200</v>
+        <v>1578600</v>
       </c>
       <c r="E18" s="3">
-        <v>1809600</v>
+        <v>1763300</v>
       </c>
       <c r="F18" s="3">
-        <v>1288300</v>
+        <v>1263800</v>
       </c>
       <c r="G18" s="3">
-        <v>1482200</v>
+        <v>1453900</v>
       </c>
       <c r="H18" s="3">
-        <v>1391500</v>
+        <v>1365000</v>
       </c>
       <c r="I18" s="3">
-        <v>1469600</v>
+        <v>1441700</v>
       </c>
       <c r="J18" s="3">
-        <v>1387500</v>
+        <v>1361100</v>
       </c>
       <c r="K18" s="3">
         <v>1183100</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>110100</v>
+        <v>119600</v>
       </c>
       <c r="E20" s="3">
-        <v>54000</v>
+        <v>53000</v>
       </c>
       <c r="F20" s="3">
-        <v>85700</v>
+        <v>84000</v>
       </c>
       <c r="G20" s="3">
-        <v>61900</v>
+        <v>60700</v>
       </c>
       <c r="H20" s="3">
-        <v>65800</v>
+        <v>64600</v>
       </c>
       <c r="I20" s="3">
-        <v>110000</v>
+        <v>107900</v>
       </c>
       <c r="J20" s="3">
-        <v>63900</v>
+        <v>62700</v>
       </c>
       <c r="K20" s="3">
         <v>23600</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2339700</v>
+        <v>2316800</v>
       </c>
       <c r="E21" s="3">
-        <v>2385600</v>
+        <v>2336800</v>
       </c>
       <c r="F21" s="3">
-        <v>1864200</v>
+        <v>1836700</v>
       </c>
       <c r="G21" s="3">
-        <v>1997200</v>
+        <v>1966500</v>
       </c>
       <c r="H21" s="3">
-        <v>1818500</v>
+        <v>1789800</v>
       </c>
       <c r="I21" s="3">
-        <v>1908300</v>
+        <v>1877300</v>
       </c>
       <c r="J21" s="3">
-        <v>1767200</v>
+        <v>1738700</v>
       </c>
       <c r="K21" s="3">
         <v>1419800</v>
@@ -1239,26 +1239,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>11600</v>
       </c>
       <c r="E22" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="F22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G22" s="3">
         <v>7600</v>
       </c>
-      <c r="G22" s="3">
-        <v>7800</v>
-      </c>
       <c r="H22" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="I22" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="J22" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K22" s="3">
         <v>4900</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1719400</v>
+        <v>1686600</v>
       </c>
       <c r="E23" s="3">
-        <v>1856300</v>
+        <v>1809100</v>
       </c>
       <c r="F23" s="3">
-        <v>1366400</v>
+        <v>1340300</v>
       </c>
       <c r="G23" s="3">
-        <v>1536300</v>
+        <v>1507000</v>
       </c>
       <c r="H23" s="3">
-        <v>1449600</v>
+        <v>1422000</v>
       </c>
       <c r="I23" s="3">
-        <v>1573000</v>
+        <v>1543000</v>
       </c>
       <c r="J23" s="3">
-        <v>1447700</v>
+        <v>1420200</v>
       </c>
       <c r="K23" s="3">
         <v>1201800</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>434700</v>
+        <v>426500</v>
       </c>
       <c r="E24" s="3">
-        <v>476800</v>
+        <v>466900</v>
       </c>
       <c r="F24" s="3">
-        <v>345600</v>
+        <v>339100</v>
       </c>
       <c r="G24" s="3">
-        <v>389600</v>
+        <v>382100</v>
       </c>
       <c r="H24" s="3">
-        <v>361000</v>
+        <v>354100</v>
       </c>
       <c r="I24" s="3">
-        <v>461300</v>
+        <v>452500</v>
       </c>
       <c r="J24" s="3">
-        <v>415600</v>
+        <v>407700</v>
       </c>
       <c r="K24" s="3">
         <v>384700</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1284600</v>
+        <v>1260100</v>
       </c>
       <c r="E26" s="3">
-        <v>1379500</v>
+        <v>1342200</v>
       </c>
       <c r="F26" s="3">
-        <v>1020700</v>
+        <v>1001300</v>
       </c>
       <c r="G26" s="3">
-        <v>1146700</v>
+        <v>1124900</v>
       </c>
       <c r="H26" s="3">
-        <v>1088600</v>
+        <v>1067900</v>
       </c>
       <c r="I26" s="3">
-        <v>1111700</v>
+        <v>1090500</v>
       </c>
       <c r="J26" s="3">
-        <v>1032100</v>
+        <v>1012500</v>
       </c>
       <c r="K26" s="3">
         <v>817100</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1147900</v>
+        <v>1126100</v>
       </c>
       <c r="E27" s="3">
-        <v>1290900</v>
+        <v>1282000</v>
       </c>
       <c r="F27" s="3">
-        <v>944600</v>
+        <v>926600</v>
       </c>
       <c r="G27" s="3">
-        <v>1095600</v>
+        <v>1074700</v>
       </c>
       <c r="H27" s="3">
-        <v>1018700</v>
+        <v>999300</v>
       </c>
       <c r="I27" s="3">
-        <v>1014600</v>
+        <v>995300</v>
       </c>
       <c r="J27" s="3">
-        <v>973800</v>
+        <v>955200</v>
       </c>
       <c r="K27" s="3">
         <v>780700</v>
@@ -1549,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-76600</v>
+        <v>-75100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-110100</v>
+        <v>-119600</v>
       </c>
       <c r="E32" s="3">
-        <v>-54000</v>
+        <v>-53000</v>
       </c>
       <c r="F32" s="3">
-        <v>-85700</v>
+        <v>-84000</v>
       </c>
       <c r="G32" s="3">
-        <v>-61900</v>
+        <v>-60700</v>
       </c>
       <c r="H32" s="3">
-        <v>-65800</v>
+        <v>-64600</v>
       </c>
       <c r="I32" s="3">
-        <v>-110000</v>
+        <v>-107900</v>
       </c>
       <c r="J32" s="3">
-        <v>-63900</v>
+        <v>-62700</v>
       </c>
       <c r="K32" s="3">
         <v>-23600</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1147900</v>
+        <v>1126100</v>
       </c>
       <c r="E33" s="3">
-        <v>1290900</v>
+        <v>1282000</v>
       </c>
       <c r="F33" s="3">
-        <v>944600</v>
+        <v>926600</v>
       </c>
       <c r="G33" s="3">
-        <v>1095600</v>
+        <v>1074700</v>
       </c>
       <c r="H33" s="3">
-        <v>1018700</v>
+        <v>999300</v>
       </c>
       <c r="I33" s="3">
-        <v>938100</v>
+        <v>920200</v>
       </c>
       <c r="J33" s="3">
-        <v>973800</v>
+        <v>955200</v>
       </c>
       <c r="K33" s="3">
         <v>780700</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1147900</v>
+        <v>1126100</v>
       </c>
       <c r="E35" s="3">
-        <v>1290900</v>
+        <v>1282000</v>
       </c>
       <c r="F35" s="3">
-        <v>944600</v>
+        <v>926600</v>
       </c>
       <c r="G35" s="3">
-        <v>1095600</v>
+        <v>1074700</v>
       </c>
       <c r="H35" s="3">
-        <v>1018700</v>
+        <v>999300</v>
       </c>
       <c r="I35" s="3">
-        <v>938100</v>
+        <v>920200</v>
       </c>
       <c r="J35" s="3">
-        <v>973800</v>
+        <v>955200</v>
       </c>
       <c r="K35" s="3">
         <v>780700</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1659600</v>
+        <v>2936100</v>
       </c>
       <c r="E41" s="3">
-        <v>1901000</v>
+        <v>3362200</v>
       </c>
       <c r="F41" s="3">
-        <v>1638500</v>
+        <v>1607200</v>
       </c>
       <c r="G41" s="3">
-        <v>1467500</v>
+        <v>1439600</v>
       </c>
       <c r="H41" s="3">
-        <v>1684100</v>
+        <v>1652000</v>
       </c>
       <c r="I41" s="3">
-        <v>3391600</v>
+        <v>3327000</v>
       </c>
       <c r="J41" s="3">
-        <v>1245200</v>
+        <v>1221500</v>
       </c>
       <c r="K41" s="3">
         <v>1037200</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>525600</v>
+        <v>835600</v>
       </c>
       <c r="E42" s="3">
-        <v>373900</v>
+        <v>734200</v>
       </c>
       <c r="F42" s="3">
-        <v>367300</v>
+        <v>360300</v>
       </c>
       <c r="G42" s="3">
-        <v>529000</v>
+        <v>518900</v>
       </c>
       <c r="H42" s="3">
-        <v>399600</v>
+        <v>392000</v>
       </c>
       <c r="I42" s="3">
-        <v>391600</v>
+        <v>384100</v>
       </c>
       <c r="J42" s="3">
-        <v>44800</v>
+        <v>43900</v>
       </c>
       <c r="K42" s="3">
         <v>53800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9487200</v>
+        <v>14925800</v>
       </c>
       <c r="E43" s="3">
-        <v>7082800</v>
+        <v>7128700</v>
       </c>
       <c r="F43" s="3">
-        <v>6757200</v>
+        <v>6628500</v>
       </c>
       <c r="G43" s="3">
-        <v>7223700</v>
+        <v>7086100</v>
       </c>
       <c r="H43" s="3">
-        <v>6850800</v>
+        <v>6720300</v>
       </c>
       <c r="I43" s="3">
-        <v>18099700</v>
+        <v>17755000</v>
       </c>
       <c r="J43" s="3">
-        <v>6445900</v>
+        <v>6323200</v>
       </c>
       <c r="K43" s="3">
         <v>6038400</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4736900</v>
+        <v>9293300</v>
       </c>
       <c r="E44" s="3">
-        <v>3749000</v>
+        <v>3677600</v>
       </c>
       <c r="F44" s="3">
-        <v>2748900</v>
+        <v>2696500</v>
       </c>
       <c r="G44" s="3">
-        <v>2810600</v>
+        <v>2757100</v>
       </c>
       <c r="H44" s="3">
-        <v>2724600</v>
+        <v>2672700</v>
       </c>
       <c r="I44" s="3">
-        <v>5302100</v>
+        <v>5201100</v>
       </c>
       <c r="J44" s="3">
-        <v>2617900</v>
+        <v>2568100</v>
       </c>
       <c r="K44" s="3">
         <v>5054300</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>534800</v>
+        <v>398200</v>
       </c>
       <c r="E45" s="3">
-        <v>616100</v>
+        <v>426200</v>
       </c>
       <c r="F45" s="3">
-        <v>531400</v>
+        <v>521300</v>
       </c>
       <c r="G45" s="3">
-        <v>602900</v>
+        <v>591500</v>
       </c>
       <c r="H45" s="3">
-        <v>391400</v>
+        <v>383900</v>
       </c>
       <c r="I45" s="3">
-        <v>1208300</v>
+        <v>1185300</v>
       </c>
       <c r="J45" s="3">
-        <v>1134700</v>
+        <v>1113100</v>
       </c>
       <c r="K45" s="3">
         <v>1880900</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16944100</v>
+        <v>16494900</v>
       </c>
       <c r="E46" s="3">
-        <v>13722800</v>
+        <v>13464100</v>
       </c>
       <c r="F46" s="3">
-        <v>12043300</v>
+        <v>11813900</v>
       </c>
       <c r="G46" s="3">
-        <v>12633800</v>
+        <v>12393200</v>
       </c>
       <c r="H46" s="3">
-        <v>12050500</v>
+        <v>11821000</v>
       </c>
       <c r="I46" s="3">
-        <v>11821900</v>
+        <v>11596800</v>
       </c>
       <c r="J46" s="3">
-        <v>11488600</v>
+        <v>11269800</v>
       </c>
       <c r="K46" s="3">
         <v>10570100</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1557700</v>
+        <v>1528000</v>
       </c>
       <c r="E47" s="3">
-        <v>1459300</v>
+        <v>1431500</v>
       </c>
       <c r="F47" s="3">
-        <v>1284100</v>
+        <v>1259600</v>
       </c>
       <c r="G47" s="3">
-        <v>1342600</v>
+        <v>1317000</v>
       </c>
       <c r="H47" s="3">
-        <v>1336300</v>
+        <v>1310800</v>
       </c>
       <c r="I47" s="3">
-        <v>2109100</v>
+        <v>2069000</v>
       </c>
       <c r="J47" s="3">
-        <v>496900</v>
+        <v>487400</v>
       </c>
       <c r="K47" s="3">
         <v>629500</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4672400</v>
+        <v>9228400</v>
       </c>
       <c r="E48" s="3">
-        <v>3647900</v>
+        <v>3578400</v>
       </c>
       <c r="F48" s="3">
-        <v>3121300</v>
+        <v>3061900</v>
       </c>
       <c r="G48" s="3">
-        <v>2979300</v>
+        <v>2922600</v>
       </c>
       <c r="H48" s="3">
-        <v>2425700</v>
+        <v>2379500</v>
       </c>
       <c r="I48" s="3">
-        <v>7186200</v>
+        <v>7049400</v>
       </c>
       <c r="J48" s="3">
-        <v>2309600</v>
+        <v>2265600</v>
       </c>
       <c r="K48" s="3">
         <v>2026800</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2049000</v>
+        <v>4309100</v>
       </c>
       <c r="E49" s="3">
-        <v>704700</v>
+        <v>691300</v>
       </c>
       <c r="F49" s="3">
-        <v>533200</v>
+        <v>523000</v>
       </c>
       <c r="G49" s="3">
-        <v>448200</v>
+        <v>439700</v>
       </c>
       <c r="H49" s="3">
-        <v>367100</v>
+        <v>360100</v>
       </c>
       <c r="I49" s="3">
-        <v>1042000</v>
+        <v>1022200</v>
       </c>
       <c r="J49" s="3">
-        <v>338500</v>
+        <v>332100</v>
       </c>
       <c r="K49" s="3">
         <v>417300</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9551600</v>
+        <v>9388900</v>
       </c>
       <c r="E52" s="3">
-        <v>8200500</v>
+        <v>8042700</v>
       </c>
       <c r="F52" s="3">
-        <v>6459600</v>
+        <v>6336600</v>
       </c>
       <c r="G52" s="3">
-        <v>5670000</v>
+        <v>5562000</v>
       </c>
       <c r="H52" s="3">
-        <v>5103400</v>
+        <v>5006200</v>
       </c>
       <c r="I52" s="3">
-        <v>10471000</v>
+        <v>10271500</v>
       </c>
       <c r="J52" s="3">
-        <v>4995200</v>
+        <v>4900000</v>
       </c>
       <c r="K52" s="3">
         <v>4710600</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34774900</v>
+        <v>34356000</v>
       </c>
       <c r="E54" s="3">
-        <v>27735300</v>
+        <v>27208100</v>
       </c>
       <c r="F54" s="3">
-        <v>23441500</v>
+        <v>22995000</v>
       </c>
       <c r="G54" s="3">
-        <v>23074000</v>
+        <v>22634500</v>
       </c>
       <c r="H54" s="3">
-        <v>21283100</v>
+        <v>20877700</v>
       </c>
       <c r="I54" s="3">
-        <v>20817900</v>
+        <v>20421300</v>
       </c>
       <c r="J54" s="3">
-        <v>19628800</v>
+        <v>19254900</v>
       </c>
       <c r="K54" s="3">
         <v>17958400</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3342600</v>
+        <v>6557900</v>
       </c>
       <c r="E57" s="3">
-        <v>2883600</v>
+        <v>2828700</v>
       </c>
       <c r="F57" s="3">
-        <v>2378500</v>
+        <v>2333200</v>
       </c>
       <c r="G57" s="3">
-        <v>2159200</v>
+        <v>2118100</v>
       </c>
       <c r="H57" s="3">
-        <v>2254700</v>
+        <v>2211700</v>
       </c>
       <c r="I57" s="3">
-        <v>4206000</v>
+        <v>4125900</v>
       </c>
       <c r="J57" s="3">
-        <v>1880600</v>
+        <v>1844700</v>
       </c>
       <c r="K57" s="3">
         <v>1845800</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4710500</v>
+        <v>9241600</v>
       </c>
       <c r="E58" s="3">
-        <v>3706900</v>
+        <v>3636300</v>
       </c>
       <c r="F58" s="3">
-        <v>2690400</v>
+        <v>2639100</v>
       </c>
       <c r="G58" s="3">
-        <v>2841100</v>
+        <v>2786900</v>
       </c>
       <c r="H58" s="3">
-        <v>2570000</v>
+        <v>2521000</v>
       </c>
       <c r="I58" s="3">
-        <v>8024800</v>
+        <v>7871900</v>
       </c>
       <c r="J58" s="3">
-        <v>2492300</v>
+        <v>2444900</v>
       </c>
       <c r="K58" s="3">
         <v>2441300</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3666600</v>
+        <v>3517800</v>
       </c>
       <c r="E59" s="3">
-        <v>3065500</v>
+        <v>3007100</v>
       </c>
       <c r="F59" s="3">
-        <v>2475300</v>
+        <v>2428200</v>
       </c>
       <c r="G59" s="3">
-        <v>2362500</v>
+        <v>2317500</v>
       </c>
       <c r="H59" s="3">
-        <v>1958100</v>
+        <v>1920800</v>
       </c>
       <c r="I59" s="3">
-        <v>4230100</v>
+        <v>4149500</v>
       </c>
       <c r="J59" s="3">
-        <v>1776200</v>
+        <v>1742400</v>
       </c>
       <c r="K59" s="3">
         <v>1480200</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11719800</v>
+        <v>11417600</v>
       </c>
       <c r="E60" s="3">
-        <v>9656000</v>
+        <v>9472100</v>
       </c>
       <c r="F60" s="3">
-        <v>7544200</v>
+        <v>7400500</v>
       </c>
       <c r="G60" s="3">
-        <v>7362800</v>
+        <v>7222600</v>
       </c>
       <c r="H60" s="3">
-        <v>6782700</v>
+        <v>6653600</v>
       </c>
       <c r="I60" s="3">
-        <v>6743300</v>
+        <v>6614800</v>
       </c>
       <c r="J60" s="3">
-        <v>6149100</v>
+        <v>6032000</v>
       </c>
       <c r="K60" s="3">
         <v>5728000</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7131100</v>
+        <v>6995300</v>
       </c>
       <c r="E61" s="3">
-        <v>4337800</v>
+        <v>4255200</v>
       </c>
       <c r="F61" s="3">
-        <v>3736700</v>
+        <v>3665500</v>
       </c>
       <c r="G61" s="3">
-        <v>3795900</v>
+        <v>3723600</v>
       </c>
       <c r="H61" s="3">
-        <v>3613000</v>
+        <v>3544200</v>
       </c>
       <c r="I61" s="3">
-        <v>3472300</v>
+        <v>3406200</v>
       </c>
       <c r="J61" s="3">
-        <v>3519900</v>
+        <v>3452800</v>
       </c>
       <c r="K61" s="3">
         <v>3008800</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>655600</v>
+        <v>784300</v>
       </c>
       <c r="E62" s="3">
-        <v>622000</v>
+        <v>610200</v>
       </c>
       <c r="F62" s="3">
-        <v>590300</v>
+        <v>579000</v>
       </c>
       <c r="G62" s="3">
-        <v>616800</v>
+        <v>605000</v>
       </c>
       <c r="H62" s="3">
-        <v>403000</v>
+        <v>395400</v>
       </c>
       <c r="I62" s="3">
-        <v>1084400</v>
+        <v>1063800</v>
       </c>
       <c r="J62" s="3">
-        <v>611200</v>
+        <v>599500</v>
       </c>
       <c r="K62" s="3">
         <v>582100</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20932400</v>
+        <v>20841000</v>
       </c>
       <c r="E66" s="3">
-        <v>15402300</v>
+        <v>15109400</v>
       </c>
       <c r="F66" s="3">
-        <v>12592600</v>
+        <v>12352700</v>
       </c>
       <c r="G66" s="3">
-        <v>12469100</v>
+        <v>12231600</v>
       </c>
       <c r="H66" s="3">
-        <v>11435200</v>
+        <v>11217400</v>
       </c>
       <c r="I66" s="3">
-        <v>11328300</v>
+        <v>11112600</v>
       </c>
       <c r="J66" s="3">
-        <v>10817900</v>
+        <v>10611800</v>
       </c>
       <c r="K66" s="3">
         <v>9873600</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11283100</v>
+        <v>11025900</v>
       </c>
       <c r="E72" s="3">
-        <v>10580800</v>
+        <v>10379700</v>
       </c>
       <c r="F72" s="3">
-        <v>9744400</v>
+        <v>9558800</v>
       </c>
       <c r="G72" s="3">
-        <v>9105400</v>
+        <v>8931900</v>
       </c>
       <c r="H72" s="3">
-        <v>8345200</v>
+        <v>8186200</v>
       </c>
       <c r="I72" s="3">
-        <v>15479000</v>
+        <v>15184100</v>
       </c>
       <c r="J72" s="3">
-        <v>7209900</v>
+        <v>7072600</v>
       </c>
       <c r="K72" s="3">
         <v>6305200</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13842400</v>
+        <v>13515100</v>
       </c>
       <c r="E76" s="3">
-        <v>12333000</v>
+        <v>12098600</v>
       </c>
       <c r="F76" s="3">
-        <v>10848900</v>
+        <v>10642200</v>
       </c>
       <c r="G76" s="3">
-        <v>10604900</v>
+        <v>10402900</v>
       </c>
       <c r="H76" s="3">
-        <v>9847900</v>
+        <v>9660300</v>
       </c>
       <c r="I76" s="3">
-        <v>9489500</v>
+        <v>9308800</v>
       </c>
       <c r="J76" s="3">
-        <v>8810900</v>
+        <v>8643100</v>
       </c>
       <c r="K76" s="3">
         <v>8084800</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1147900</v>
+        <v>1126100</v>
       </c>
       <c r="E81" s="3">
-        <v>1290900</v>
+        <v>1282000</v>
       </c>
       <c r="F81" s="3">
-        <v>944600</v>
+        <v>926600</v>
       </c>
       <c r="G81" s="3">
-        <v>1095600</v>
+        <v>1074700</v>
       </c>
       <c r="H81" s="3">
-        <v>1018700</v>
+        <v>999300</v>
       </c>
       <c r="I81" s="3">
-        <v>938100</v>
+        <v>920200</v>
       </c>
       <c r="J81" s="3">
-        <v>973800</v>
+        <v>955200</v>
       </c>
       <c r="K81" s="3">
         <v>780700</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>626300</v>
+        <v>614400</v>
       </c>
       <c r="E83" s="3">
-        <v>527000</v>
+        <v>517000</v>
       </c>
       <c r="F83" s="3">
-        <v>494900</v>
+        <v>485500</v>
       </c>
       <c r="G83" s="3">
-        <v>457500</v>
+        <v>448800</v>
       </c>
       <c r="H83" s="3">
-        <v>364700</v>
+        <v>357800</v>
       </c>
       <c r="I83" s="3">
-        <v>331700</v>
+        <v>325400</v>
       </c>
       <c r="J83" s="3">
-        <v>318800</v>
+        <v>312700</v>
       </c>
       <c r="K83" s="3">
         <v>221200</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-56400</v>
+        <v>-55400</v>
       </c>
       <c r="E89" s="3">
-        <v>680000</v>
+        <v>667000</v>
       </c>
       <c r="F89" s="3">
-        <v>1050500</v>
+        <v>1030400</v>
       </c>
       <c r="G89" s="3">
-        <v>605700</v>
+        <v>594200</v>
       </c>
       <c r="H89" s="3">
-        <v>655200</v>
+        <v>642800</v>
       </c>
       <c r="I89" s="3">
-        <v>1008300</v>
+        <v>989100</v>
       </c>
       <c r="J89" s="3">
-        <v>1359600</v>
+        <v>1333700</v>
       </c>
       <c r="K89" s="3">
         <v>1397000</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1246900</v>
+        <v>-970200</v>
       </c>
       <c r="E91" s="3">
-        <v>-716100</v>
+        <v>-702500</v>
       </c>
       <c r="F91" s="3">
-        <v>-447700</v>
+        <v>-439200</v>
       </c>
       <c r="G91" s="3">
-        <v>-560400</v>
+        <v>-549700</v>
       </c>
       <c r="H91" s="3">
-        <v>-466000</v>
+        <v>-457100</v>
       </c>
       <c r="I91" s="3">
-        <v>-903100</v>
+        <v>-885900</v>
       </c>
       <c r="J91" s="3">
-        <v>-412600</v>
+        <v>-404800</v>
       </c>
       <c r="K91" s="3">
         <v>-278400</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2341000</v>
+        <v>-2296400</v>
       </c>
       <c r="E94" s="3">
-        <v>-936200</v>
+        <v>-918300</v>
       </c>
       <c r="F94" s="3">
-        <v>-346400</v>
+        <v>-339800</v>
       </c>
       <c r="G94" s="3">
-        <v>-672300</v>
+        <v>-659500</v>
       </c>
       <c r="H94" s="3">
-        <v>-431900</v>
+        <v>-423600</v>
       </c>
       <c r="I94" s="3">
-        <v>-338000</v>
+        <v>-331500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1231300</v>
+        <v>-1207900</v>
       </c>
       <c r="K94" s="3">
         <v>-923900</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-378300</v>
+        <v>-371100</v>
       </c>
       <c r="E96" s="3">
-        <v>-355200</v>
+        <v>-348500</v>
       </c>
       <c r="F96" s="3">
-        <v>-322300</v>
+        <v>-316200</v>
       </c>
       <c r="G96" s="3">
-        <v>-316500</v>
+        <v>-310500</v>
       </c>
       <c r="H96" s="3">
-        <v>-299100</v>
+        <v>-293400</v>
       </c>
       <c r="I96" s="3">
-        <v>-282400</v>
+        <v>-277000</v>
       </c>
       <c r="J96" s="3">
-        <v>-256100</v>
+        <v>-251200</v>
       </c>
       <c r="K96" s="3">
         <v>-264900</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2076800</v>
+        <v>2037200</v>
       </c>
       <c r="E100" s="3">
-        <v>445300</v>
+        <v>436800</v>
       </c>
       <c r="F100" s="3">
-        <v>-502400</v>
+        <v>-492800</v>
       </c>
       <c r="G100" s="3">
-        <v>-158100</v>
+        <v>-155100</v>
       </c>
       <c r="H100" s="3">
-        <v>-204400</v>
+        <v>-200600</v>
       </c>
       <c r="I100" s="3">
-        <v>-239400</v>
+        <v>-234900</v>
       </c>
       <c r="J100" s="3">
-        <v>83500</v>
+        <v>81900</v>
       </c>
       <c r="K100" s="3">
         <v>-196200</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>79200</v>
+        <v>77700</v>
       </c>
       <c r="E101" s="3">
-        <v>73400</v>
+        <v>72000</v>
       </c>
       <c r="F101" s="3">
-        <v>-30700</v>
+        <v>-30100</v>
       </c>
       <c r="G101" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H101" s="3">
-        <v>-30700</v>
+        <v>-30100</v>
       </c>
       <c r="I101" s="3">
-        <v>19700</v>
+        <v>19300</v>
       </c>
       <c r="J101" s="3">
-        <v>-41800</v>
+        <v>-41000</v>
       </c>
       <c r="K101" s="3">
         <v>-36900</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-241400</v>
+        <v>-236800</v>
       </c>
       <c r="E102" s="3">
-        <v>262500</v>
+        <v>257500</v>
       </c>
       <c r="F102" s="3">
-        <v>170900</v>
+        <v>167700</v>
       </c>
       <c r="G102" s="3">
-        <v>-216500</v>
+        <v>-212400</v>
       </c>
       <c r="H102" s="3">
-        <v>-11700</v>
+        <v>-11500</v>
       </c>
       <c r="I102" s="3">
-        <v>450600</v>
+        <v>442000</v>
       </c>
       <c r="J102" s="3">
-        <v>170000</v>
+        <v>166800</v>
       </c>
       <c r="K102" s="3">
         <v>240100</v>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19313900</v>
+        <v>18403200</v>
       </c>
       <c r="E8" s="3">
-        <v>15838700</v>
+        <v>15091800</v>
       </c>
       <c r="F8" s="3">
-        <v>13361800</v>
+        <v>12731700</v>
       </c>
       <c r="G8" s="3">
-        <v>13843500</v>
+        <v>13190700</v>
       </c>
       <c r="H8" s="3">
-        <v>13340800</v>
+        <v>12711700</v>
       </c>
       <c r="I8" s="3">
-        <v>12625000</v>
+        <v>12029600</v>
       </c>
       <c r="J8" s="3">
-        <v>11507800</v>
+        <v>10965100</v>
       </c>
       <c r="K8" s="3">
         <v>8825500</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14292000</v>
+        <v>13618000</v>
       </c>
       <c r="E9" s="3">
-        <v>11283400</v>
+        <v>10751300</v>
       </c>
       <c r="F9" s="3">
-        <v>9505500</v>
+        <v>9057300</v>
       </c>
       <c r="G9" s="3">
-        <v>9806400</v>
+        <v>9344000</v>
       </c>
       <c r="H9" s="3">
-        <v>9538300</v>
+        <v>9088500</v>
       </c>
       <c r="I9" s="3">
-        <v>17875500</v>
+        <v>17032500</v>
       </c>
       <c r="J9" s="3">
-        <v>8093600</v>
+        <v>7711900</v>
       </c>
       <c r="K9" s="3">
         <v>6015100</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5021900</v>
+        <v>4785100</v>
       </c>
       <c r="E10" s="3">
-        <v>4555300</v>
+        <v>4340500</v>
       </c>
       <c r="F10" s="3">
-        <v>3856300</v>
+        <v>3674400</v>
       </c>
       <c r="G10" s="3">
-        <v>4037100</v>
+        <v>3846700</v>
       </c>
       <c r="H10" s="3">
-        <v>3802500</v>
+        <v>3623100</v>
       </c>
       <c r="I10" s="3">
-        <v>-5250500</v>
+        <v>-5002900</v>
       </c>
       <c r="J10" s="3">
-        <v>3414300</v>
+        <v>3253300</v>
       </c>
       <c r="K10" s="3">
         <v>2810300</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="E14" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F14" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="G14" s="3">
-        <v>-9500</v>
+        <v>-9000</v>
       </c>
       <c r="H14" s="3">
-        <v>-14400</v>
+        <v>-13700</v>
       </c>
       <c r="I14" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="J14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K14" s="3">
         <v>31900</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17735400</v>
+        <v>16899000</v>
       </c>
       <c r="E17" s="3">
-        <v>14075400</v>
+        <v>13411600</v>
       </c>
       <c r="F17" s="3">
-        <v>12098000</v>
+        <v>11527500</v>
       </c>
       <c r="G17" s="3">
-        <v>12389600</v>
+        <v>11805300</v>
       </c>
       <c r="H17" s="3">
-        <v>11975800</v>
+        <v>11411100</v>
       </c>
       <c r="I17" s="3">
-        <v>11183300</v>
+        <v>10656000</v>
       </c>
       <c r="J17" s="3">
-        <v>10146700</v>
+        <v>9668200</v>
       </c>
       <c r="K17" s="3">
         <v>7642300</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1578600</v>
+        <v>1504100</v>
       </c>
       <c r="E18" s="3">
-        <v>1763300</v>
+        <v>1680200</v>
       </c>
       <c r="F18" s="3">
-        <v>1263800</v>
+        <v>1204200</v>
       </c>
       <c r="G18" s="3">
-        <v>1453900</v>
+        <v>1385400</v>
       </c>
       <c r="H18" s="3">
-        <v>1365000</v>
+        <v>1300600</v>
       </c>
       <c r="I18" s="3">
-        <v>1441700</v>
+        <v>1373700</v>
       </c>
       <c r="J18" s="3">
-        <v>1361100</v>
+        <v>1296900</v>
       </c>
       <c r="K18" s="3">
         <v>1183100</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>119600</v>
+        <v>114000</v>
       </c>
       <c r="E20" s="3">
-        <v>53000</v>
+        <v>50500</v>
       </c>
       <c r="F20" s="3">
-        <v>84000</v>
+        <v>80100</v>
       </c>
       <c r="G20" s="3">
-        <v>60700</v>
+        <v>57900</v>
       </c>
       <c r="H20" s="3">
-        <v>64600</v>
+        <v>61500</v>
       </c>
       <c r="I20" s="3">
-        <v>107900</v>
+        <v>102900</v>
       </c>
       <c r="J20" s="3">
-        <v>62700</v>
+        <v>59700</v>
       </c>
       <c r="K20" s="3">
         <v>23600</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2316800</v>
+        <v>2203500</v>
       </c>
       <c r="E21" s="3">
-        <v>2336800</v>
+        <v>2223200</v>
       </c>
       <c r="F21" s="3">
-        <v>1836700</v>
+        <v>1746900</v>
       </c>
       <c r="G21" s="3">
-        <v>1966500</v>
+        <v>1870800</v>
       </c>
       <c r="H21" s="3">
-        <v>1789800</v>
+        <v>1703000</v>
       </c>
       <c r="I21" s="3">
-        <v>1877300</v>
+        <v>1786600</v>
       </c>
       <c r="J21" s="3">
-        <v>1738700</v>
+        <v>1654600</v>
       </c>
       <c r="K21" s="3">
         <v>1419800</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="E22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G22" s="3">
         <v>7200</v>
       </c>
-      <c r="F22" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7600</v>
-      </c>
       <c r="H22" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="I22" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="J22" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K22" s="3">
         <v>4900</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1686600</v>
+        <v>1607100</v>
       </c>
       <c r="E23" s="3">
-        <v>1809100</v>
+        <v>1723800</v>
       </c>
       <c r="F23" s="3">
-        <v>1340300</v>
+        <v>1277100</v>
       </c>
       <c r="G23" s="3">
-        <v>1507000</v>
+        <v>1436000</v>
       </c>
       <c r="H23" s="3">
-        <v>1422000</v>
+        <v>1355000</v>
       </c>
       <c r="I23" s="3">
-        <v>1543000</v>
+        <v>1470200</v>
       </c>
       <c r="J23" s="3">
-        <v>1420200</v>
+        <v>1353200</v>
       </c>
       <c r="K23" s="3">
         <v>1201800</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>426500</v>
+        <v>406400</v>
       </c>
       <c r="E24" s="3">
-        <v>466900</v>
+        <v>444900</v>
       </c>
       <c r="F24" s="3">
-        <v>339100</v>
+        <v>323100</v>
       </c>
       <c r="G24" s="3">
-        <v>382100</v>
+        <v>364100</v>
       </c>
       <c r="H24" s="3">
-        <v>354100</v>
+        <v>337400</v>
       </c>
       <c r="I24" s="3">
-        <v>452500</v>
+        <v>431200</v>
       </c>
       <c r="J24" s="3">
-        <v>407700</v>
+        <v>388500</v>
       </c>
       <c r="K24" s="3">
         <v>384700</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1260100</v>
+        <v>1200700</v>
       </c>
       <c r="E26" s="3">
-        <v>1342200</v>
+        <v>1278900</v>
       </c>
       <c r="F26" s="3">
-        <v>1001300</v>
+        <v>954100</v>
       </c>
       <c r="G26" s="3">
-        <v>1124900</v>
+        <v>1071900</v>
       </c>
       <c r="H26" s="3">
-        <v>1067900</v>
+        <v>1017500</v>
       </c>
       <c r="I26" s="3">
-        <v>1090500</v>
+        <v>1039100</v>
       </c>
       <c r="J26" s="3">
-        <v>1012500</v>
+        <v>964700</v>
       </c>
       <c r="K26" s="3">
         <v>817100</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1126100</v>
+        <v>1073000</v>
       </c>
       <c r="E27" s="3">
-        <v>1282000</v>
+        <v>1221500</v>
       </c>
       <c r="F27" s="3">
-        <v>926600</v>
+        <v>882900</v>
       </c>
       <c r="G27" s="3">
-        <v>1074700</v>
+        <v>1024000</v>
       </c>
       <c r="H27" s="3">
-        <v>999300</v>
+        <v>952100</v>
       </c>
       <c r="I27" s="3">
-        <v>995300</v>
+        <v>948300</v>
       </c>
       <c r="J27" s="3">
-        <v>955200</v>
+        <v>910200</v>
       </c>
       <c r="K27" s="3">
         <v>780700</v>
@@ -1549,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-75100</v>
+        <v>-71600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-119600</v>
+        <v>-114000</v>
       </c>
       <c r="E32" s="3">
-        <v>-53000</v>
+        <v>-50500</v>
       </c>
       <c r="F32" s="3">
-        <v>-84000</v>
+        <v>-80100</v>
       </c>
       <c r="G32" s="3">
-        <v>-60700</v>
+        <v>-57900</v>
       </c>
       <c r="H32" s="3">
-        <v>-64600</v>
+        <v>-61500</v>
       </c>
       <c r="I32" s="3">
-        <v>-107900</v>
+        <v>-102900</v>
       </c>
       <c r="J32" s="3">
-        <v>-62700</v>
+        <v>-59700</v>
       </c>
       <c r="K32" s="3">
         <v>-23600</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1126100</v>
+        <v>1073000</v>
       </c>
       <c r="E33" s="3">
-        <v>1282000</v>
+        <v>1221500</v>
       </c>
       <c r="F33" s="3">
-        <v>926600</v>
+        <v>882900</v>
       </c>
       <c r="G33" s="3">
-        <v>1074700</v>
+        <v>1024000</v>
       </c>
       <c r="H33" s="3">
-        <v>999300</v>
+        <v>952100</v>
       </c>
       <c r="I33" s="3">
-        <v>920200</v>
+        <v>876800</v>
       </c>
       <c r="J33" s="3">
-        <v>955200</v>
+        <v>910200</v>
       </c>
       <c r="K33" s="3">
         <v>780700</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1126100</v>
+        <v>1073000</v>
       </c>
       <c r="E35" s="3">
-        <v>1282000</v>
+        <v>1221500</v>
       </c>
       <c r="F35" s="3">
-        <v>926600</v>
+        <v>882900</v>
       </c>
       <c r="G35" s="3">
-        <v>1074700</v>
+        <v>1024000</v>
       </c>
       <c r="H35" s="3">
-        <v>999300</v>
+        <v>952100</v>
       </c>
       <c r="I35" s="3">
-        <v>920200</v>
+        <v>876800</v>
       </c>
       <c r="J35" s="3">
-        <v>955200</v>
+        <v>910200</v>
       </c>
       <c r="K35" s="3">
         <v>780700</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2936100</v>
+        <v>2797600</v>
       </c>
       <c r="E41" s="3">
-        <v>3362200</v>
+        <v>3203600</v>
       </c>
       <c r="F41" s="3">
-        <v>1607200</v>
+        <v>1531500</v>
       </c>
       <c r="G41" s="3">
-        <v>1439600</v>
+        <v>1371700</v>
       </c>
       <c r="H41" s="3">
-        <v>1652000</v>
+        <v>1574100</v>
       </c>
       <c r="I41" s="3">
-        <v>3327000</v>
+        <v>3170100</v>
       </c>
       <c r="J41" s="3">
-        <v>1221500</v>
+        <v>1163900</v>
       </c>
       <c r="K41" s="3">
         <v>1037200</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>835600</v>
+        <v>796200</v>
       </c>
       <c r="E42" s="3">
-        <v>734200</v>
+        <v>699600</v>
       </c>
       <c r="F42" s="3">
-        <v>360300</v>
+        <v>343300</v>
       </c>
       <c r="G42" s="3">
-        <v>518900</v>
+        <v>494400</v>
       </c>
       <c r="H42" s="3">
-        <v>392000</v>
+        <v>373500</v>
       </c>
       <c r="I42" s="3">
-        <v>384100</v>
+        <v>366000</v>
       </c>
       <c r="J42" s="3">
-        <v>43900</v>
+        <v>41900</v>
       </c>
       <c r="K42" s="3">
         <v>53800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14925800</v>
+        <v>14222000</v>
       </c>
       <c r="E43" s="3">
-        <v>7128700</v>
+        <v>6792500</v>
       </c>
       <c r="F43" s="3">
-        <v>6628500</v>
+        <v>6316000</v>
       </c>
       <c r="G43" s="3">
-        <v>7086100</v>
+        <v>6751900</v>
       </c>
       <c r="H43" s="3">
-        <v>6720300</v>
+        <v>6403400</v>
       </c>
       <c r="I43" s="3">
-        <v>17755000</v>
+        <v>16917700</v>
       </c>
       <c r="J43" s="3">
-        <v>6323200</v>
+        <v>6025000</v>
       </c>
       <c r="K43" s="3">
         <v>6038400</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9293300</v>
+        <v>8855000</v>
       </c>
       <c r="E44" s="3">
-        <v>3677600</v>
+        <v>3504100</v>
       </c>
       <c r="F44" s="3">
-        <v>2696500</v>
+        <v>2569400</v>
       </c>
       <c r="G44" s="3">
-        <v>2757100</v>
+        <v>2627100</v>
       </c>
       <c r="H44" s="3">
-        <v>2672700</v>
+        <v>2546700</v>
       </c>
       <c r="I44" s="3">
-        <v>5201100</v>
+        <v>4955800</v>
       </c>
       <c r="J44" s="3">
-        <v>2568100</v>
+        <v>2447000</v>
       </c>
       <c r="K44" s="3">
         <v>5054300</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>398200</v>
+        <v>379400</v>
       </c>
       <c r="E45" s="3">
-        <v>426200</v>
+        <v>406100</v>
       </c>
       <c r="F45" s="3">
-        <v>521300</v>
+        <v>496700</v>
       </c>
       <c r="G45" s="3">
-        <v>591500</v>
+        <v>563600</v>
       </c>
       <c r="H45" s="3">
-        <v>383900</v>
+        <v>365800</v>
       </c>
       <c r="I45" s="3">
-        <v>1185300</v>
+        <v>1129400</v>
       </c>
       <c r="J45" s="3">
-        <v>1113100</v>
+        <v>1060600</v>
       </c>
       <c r="K45" s="3">
         <v>1880900</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16494900</v>
+        <v>15717000</v>
       </c>
       <c r="E46" s="3">
-        <v>13464100</v>
+        <v>12829100</v>
       </c>
       <c r="F46" s="3">
-        <v>11813900</v>
+        <v>11256800</v>
       </c>
       <c r="G46" s="3">
-        <v>12393200</v>
+        <v>11808700</v>
       </c>
       <c r="H46" s="3">
-        <v>11821000</v>
+        <v>11263500</v>
       </c>
       <c r="I46" s="3">
-        <v>11596800</v>
+        <v>11049900</v>
       </c>
       <c r="J46" s="3">
-        <v>11269800</v>
+        <v>10738300</v>
       </c>
       <c r="K46" s="3">
         <v>10570100</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1528000</v>
+        <v>1456000</v>
       </c>
       <c r="E47" s="3">
-        <v>1431500</v>
+        <v>1364000</v>
       </c>
       <c r="F47" s="3">
-        <v>1259600</v>
+        <v>1200200</v>
       </c>
       <c r="G47" s="3">
-        <v>1317000</v>
+        <v>1254900</v>
       </c>
       <c r="H47" s="3">
-        <v>1310800</v>
+        <v>1249000</v>
       </c>
       <c r="I47" s="3">
-        <v>2069000</v>
+        <v>1971400</v>
       </c>
       <c r="J47" s="3">
-        <v>487400</v>
+        <v>464500</v>
       </c>
       <c r="K47" s="3">
         <v>629500</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9228400</v>
+        <v>8793200</v>
       </c>
       <c r="E48" s="3">
-        <v>3578400</v>
+        <v>3409700</v>
       </c>
       <c r="F48" s="3">
-        <v>3061900</v>
+        <v>2917500</v>
       </c>
       <c r="G48" s="3">
-        <v>2922600</v>
+        <v>2784700</v>
       </c>
       <c r="H48" s="3">
-        <v>2379500</v>
+        <v>2267300</v>
       </c>
       <c r="I48" s="3">
-        <v>7049400</v>
+        <v>6716900</v>
       </c>
       <c r="J48" s="3">
-        <v>2265600</v>
+        <v>2158800</v>
       </c>
       <c r="K48" s="3">
         <v>2026800</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4309100</v>
+        <v>4105900</v>
       </c>
       <c r="E49" s="3">
-        <v>691300</v>
+        <v>658700</v>
       </c>
       <c r="F49" s="3">
-        <v>523000</v>
+        <v>498300</v>
       </c>
       <c r="G49" s="3">
-        <v>439700</v>
+        <v>419000</v>
       </c>
       <c r="H49" s="3">
-        <v>360100</v>
+        <v>343100</v>
       </c>
       <c r="I49" s="3">
-        <v>1022200</v>
+        <v>974000</v>
       </c>
       <c r="J49" s="3">
-        <v>332100</v>
+        <v>316400</v>
       </c>
       <c r="K49" s="3">
         <v>417300</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9388900</v>
+        <v>8946200</v>
       </c>
       <c r="E52" s="3">
-        <v>8042700</v>
+        <v>7663500</v>
       </c>
       <c r="F52" s="3">
-        <v>6336600</v>
+        <v>6037700</v>
       </c>
       <c r="G52" s="3">
-        <v>5562000</v>
+        <v>5299800</v>
       </c>
       <c r="H52" s="3">
-        <v>5006200</v>
+        <v>4770100</v>
       </c>
       <c r="I52" s="3">
-        <v>10271500</v>
+        <v>9787100</v>
       </c>
       <c r="J52" s="3">
-        <v>4900000</v>
+        <v>4668900</v>
       </c>
       <c r="K52" s="3">
         <v>4710600</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34356000</v>
+        <v>32735900</v>
       </c>
       <c r="E54" s="3">
-        <v>27208100</v>
+        <v>25925000</v>
       </c>
       <c r="F54" s="3">
-        <v>22995000</v>
+        <v>21910600</v>
       </c>
       <c r="G54" s="3">
-        <v>22634500</v>
+        <v>21567100</v>
       </c>
       <c r="H54" s="3">
-        <v>20877700</v>
+        <v>19893100</v>
       </c>
       <c r="I54" s="3">
-        <v>20421300</v>
+        <v>19458300</v>
       </c>
       <c r="J54" s="3">
-        <v>19254900</v>
+        <v>18346900</v>
       </c>
       <c r="K54" s="3">
         <v>17958400</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6557900</v>
+        <v>6248700</v>
       </c>
       <c r="E57" s="3">
-        <v>2828700</v>
+        <v>2695300</v>
       </c>
       <c r="F57" s="3">
-        <v>2333200</v>
+        <v>2223200</v>
       </c>
       <c r="G57" s="3">
-        <v>2118100</v>
+        <v>2018200</v>
       </c>
       <c r="H57" s="3">
-        <v>2211700</v>
+        <v>2107400</v>
       </c>
       <c r="I57" s="3">
-        <v>4125900</v>
+        <v>3931300</v>
       </c>
       <c r="J57" s="3">
-        <v>1844700</v>
+        <v>1757800</v>
       </c>
       <c r="K57" s="3">
         <v>1845800</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9241600</v>
+        <v>8805800</v>
       </c>
       <c r="E58" s="3">
-        <v>3636300</v>
+        <v>3464800</v>
       </c>
       <c r="F58" s="3">
-        <v>2639100</v>
+        <v>2514700</v>
       </c>
       <c r="G58" s="3">
-        <v>2786900</v>
+        <v>2655500</v>
       </c>
       <c r="H58" s="3">
-        <v>2521000</v>
+        <v>2402200</v>
       </c>
       <c r="I58" s="3">
-        <v>7871900</v>
+        <v>7500700</v>
       </c>
       <c r="J58" s="3">
-        <v>2444900</v>
+        <v>2329600</v>
       </c>
       <c r="K58" s="3">
         <v>2441300</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3517800</v>
+        <v>3351900</v>
       </c>
       <c r="E59" s="3">
-        <v>3007100</v>
+        <v>2865300</v>
       </c>
       <c r="F59" s="3">
-        <v>2428200</v>
+        <v>2313700</v>
       </c>
       <c r="G59" s="3">
-        <v>2317500</v>
+        <v>2208200</v>
       </c>
       <c r="H59" s="3">
-        <v>1920800</v>
+        <v>1830200</v>
       </c>
       <c r="I59" s="3">
-        <v>4149500</v>
+        <v>3953900</v>
       </c>
       <c r="J59" s="3">
-        <v>1742400</v>
+        <v>1660200</v>
       </c>
       <c r="K59" s="3">
         <v>1480200</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11417600</v>
+        <v>10879200</v>
       </c>
       <c r="E60" s="3">
-        <v>9472100</v>
+        <v>9025400</v>
       </c>
       <c r="F60" s="3">
-        <v>7400500</v>
+        <v>7051500</v>
       </c>
       <c r="G60" s="3">
-        <v>7222600</v>
+        <v>6882000</v>
       </c>
       <c r="H60" s="3">
-        <v>6653600</v>
+        <v>6339800</v>
       </c>
       <c r="I60" s="3">
-        <v>6614800</v>
+        <v>6302900</v>
       </c>
       <c r="J60" s="3">
-        <v>6032000</v>
+        <v>5747500</v>
       </c>
       <c r="K60" s="3">
         <v>5728000</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6995300</v>
+        <v>6665400</v>
       </c>
       <c r="E61" s="3">
-        <v>4255200</v>
+        <v>4054500</v>
       </c>
       <c r="F61" s="3">
-        <v>3665500</v>
+        <v>3492700</v>
       </c>
       <c r="G61" s="3">
-        <v>3723600</v>
+        <v>3548000</v>
       </c>
       <c r="H61" s="3">
-        <v>3544200</v>
+        <v>3377000</v>
       </c>
       <c r="I61" s="3">
-        <v>3406200</v>
+        <v>3245500</v>
       </c>
       <c r="J61" s="3">
-        <v>3452800</v>
+        <v>3290000</v>
       </c>
       <c r="K61" s="3">
         <v>3008800</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>784300</v>
+        <v>747300</v>
       </c>
       <c r="E62" s="3">
-        <v>610200</v>
+        <v>581400</v>
       </c>
       <c r="F62" s="3">
-        <v>579000</v>
+        <v>551700</v>
       </c>
       <c r="G62" s="3">
-        <v>605000</v>
+        <v>576500</v>
       </c>
       <c r="H62" s="3">
-        <v>395400</v>
+        <v>376700</v>
       </c>
       <c r="I62" s="3">
-        <v>1063800</v>
+        <v>1013600</v>
       </c>
       <c r="J62" s="3">
-        <v>599500</v>
+        <v>571200</v>
       </c>
       <c r="K62" s="3">
         <v>582100</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20841000</v>
+        <v>19858200</v>
       </c>
       <c r="E66" s="3">
-        <v>15109400</v>
+        <v>14396900</v>
       </c>
       <c r="F66" s="3">
-        <v>12352700</v>
+        <v>11770200</v>
       </c>
       <c r="G66" s="3">
-        <v>12231600</v>
+        <v>11654800</v>
       </c>
       <c r="H66" s="3">
-        <v>11217400</v>
+        <v>10688400</v>
       </c>
       <c r="I66" s="3">
-        <v>11112600</v>
+        <v>10588500</v>
       </c>
       <c r="J66" s="3">
-        <v>10611800</v>
+        <v>10111400</v>
       </c>
       <c r="K66" s="3">
         <v>9873600</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11025900</v>
+        <v>10505900</v>
       </c>
       <c r="E72" s="3">
-        <v>10379700</v>
+        <v>9890300</v>
       </c>
       <c r="F72" s="3">
-        <v>9558800</v>
+        <v>9108000</v>
       </c>
       <c r="G72" s="3">
-        <v>8931900</v>
+        <v>8510700</v>
       </c>
       <c r="H72" s="3">
-        <v>8186200</v>
+        <v>7800200</v>
       </c>
       <c r="I72" s="3">
-        <v>15184100</v>
+        <v>14468100</v>
       </c>
       <c r="J72" s="3">
-        <v>7072600</v>
+        <v>6739100</v>
       </c>
       <c r="K72" s="3">
         <v>6305200</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13515100</v>
+        <v>12877700</v>
       </c>
       <c r="E76" s="3">
-        <v>12098600</v>
+        <v>11528100</v>
       </c>
       <c r="F76" s="3">
-        <v>10642200</v>
+        <v>10140400</v>
       </c>
       <c r="G76" s="3">
-        <v>10402900</v>
+        <v>9912300</v>
       </c>
       <c r="H76" s="3">
-        <v>9660300</v>
+        <v>9204800</v>
       </c>
       <c r="I76" s="3">
-        <v>9308800</v>
+        <v>8869800</v>
       </c>
       <c r="J76" s="3">
-        <v>8643100</v>
+        <v>8235500</v>
       </c>
       <c r="K76" s="3">
         <v>8084800</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1126100</v>
+        <v>1073000</v>
       </c>
       <c r="E81" s="3">
-        <v>1282000</v>
+        <v>1221500</v>
       </c>
       <c r="F81" s="3">
-        <v>926600</v>
+        <v>882900</v>
       </c>
       <c r="G81" s="3">
-        <v>1074700</v>
+        <v>1024000</v>
       </c>
       <c r="H81" s="3">
-        <v>999300</v>
+        <v>952100</v>
       </c>
       <c r="I81" s="3">
-        <v>920200</v>
+        <v>876800</v>
       </c>
       <c r="J81" s="3">
-        <v>955200</v>
+        <v>910200</v>
       </c>
       <c r="K81" s="3">
         <v>780700</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>614400</v>
+        <v>585400</v>
       </c>
       <c r="E83" s="3">
-        <v>517000</v>
+        <v>492600</v>
       </c>
       <c r="F83" s="3">
-        <v>485500</v>
+        <v>462600</v>
       </c>
       <c r="G83" s="3">
-        <v>448800</v>
+        <v>427600</v>
       </c>
       <c r="H83" s="3">
-        <v>357800</v>
+        <v>340900</v>
       </c>
       <c r="I83" s="3">
-        <v>325400</v>
+        <v>310100</v>
       </c>
       <c r="J83" s="3">
-        <v>312700</v>
+        <v>298000</v>
       </c>
       <c r="K83" s="3">
         <v>221200</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-55400</v>
+        <v>-52800</v>
       </c>
       <c r="E89" s="3">
-        <v>667000</v>
+        <v>635600</v>
       </c>
       <c r="F89" s="3">
-        <v>1030400</v>
+        <v>981900</v>
       </c>
       <c r="G89" s="3">
-        <v>594200</v>
+        <v>566200</v>
       </c>
       <c r="H89" s="3">
-        <v>642800</v>
+        <v>612400</v>
       </c>
       <c r="I89" s="3">
-        <v>989100</v>
+        <v>942500</v>
       </c>
       <c r="J89" s="3">
-        <v>1333700</v>
+        <v>1270800</v>
       </c>
       <c r="K89" s="3">
         <v>1397000</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-970200</v>
+        <v>-924500</v>
       </c>
       <c r="E91" s="3">
-        <v>-702500</v>
+        <v>-669400</v>
       </c>
       <c r="F91" s="3">
-        <v>-439200</v>
+        <v>-418500</v>
       </c>
       <c r="G91" s="3">
-        <v>-549700</v>
+        <v>-523800</v>
       </c>
       <c r="H91" s="3">
-        <v>-457100</v>
+        <v>-435500</v>
       </c>
       <c r="I91" s="3">
-        <v>-885900</v>
+        <v>-844100</v>
       </c>
       <c r="J91" s="3">
-        <v>-404800</v>
+        <v>-385700</v>
       </c>
       <c r="K91" s="3">
         <v>-278400</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2296400</v>
+        <v>-2188100</v>
       </c>
       <c r="E94" s="3">
-        <v>-918300</v>
+        <v>-875000</v>
       </c>
       <c r="F94" s="3">
-        <v>-339800</v>
+        <v>-323800</v>
       </c>
       <c r="G94" s="3">
-        <v>-659500</v>
+        <v>-628400</v>
       </c>
       <c r="H94" s="3">
-        <v>-423600</v>
+        <v>-403700</v>
       </c>
       <c r="I94" s="3">
-        <v>-331500</v>
+        <v>-315900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1207900</v>
+        <v>-1150900</v>
       </c>
       <c r="K94" s="3">
         <v>-923900</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-371100</v>
+        <v>-353600</v>
       </c>
       <c r="E96" s="3">
-        <v>-348500</v>
+        <v>-332000</v>
       </c>
       <c r="F96" s="3">
-        <v>-316200</v>
+        <v>-301300</v>
       </c>
       <c r="G96" s="3">
-        <v>-310500</v>
+        <v>-295900</v>
       </c>
       <c r="H96" s="3">
-        <v>-293400</v>
+        <v>-279600</v>
       </c>
       <c r="I96" s="3">
-        <v>-277000</v>
+        <v>-264000</v>
       </c>
       <c r="J96" s="3">
-        <v>-251200</v>
+        <v>-239300</v>
       </c>
       <c r="K96" s="3">
         <v>-264900</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2037200</v>
+        <v>1941200</v>
       </c>
       <c r="E100" s="3">
-        <v>436800</v>
+        <v>416200</v>
       </c>
       <c r="F100" s="3">
-        <v>-492800</v>
+        <v>-469600</v>
       </c>
       <c r="G100" s="3">
-        <v>-155100</v>
+        <v>-147800</v>
       </c>
       <c r="H100" s="3">
-        <v>-200600</v>
+        <v>-191100</v>
       </c>
       <c r="I100" s="3">
-        <v>-234900</v>
+        <v>-223800</v>
       </c>
       <c r="J100" s="3">
-        <v>81900</v>
+        <v>78100</v>
       </c>
       <c r="K100" s="3">
         <v>-196200</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>77700</v>
+        <v>74100</v>
       </c>
       <c r="E101" s="3">
-        <v>72000</v>
+        <v>68700</v>
       </c>
       <c r="F101" s="3">
-        <v>-30100</v>
+        <v>-28700</v>
       </c>
       <c r="G101" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="H101" s="3">
-        <v>-30100</v>
+        <v>-28700</v>
       </c>
       <c r="I101" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="J101" s="3">
-        <v>-41000</v>
+        <v>-39100</v>
       </c>
       <c r="K101" s="3">
         <v>-36900</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-236800</v>
+        <v>-225600</v>
       </c>
       <c r="E102" s="3">
-        <v>257500</v>
+        <v>245400</v>
       </c>
       <c r="F102" s="3">
-        <v>167700</v>
+        <v>159800</v>
       </c>
       <c r="G102" s="3">
-        <v>-212400</v>
+        <v>-202400</v>
       </c>
       <c r="H102" s="3">
-        <v>-11500</v>
+        <v>-11000</v>
       </c>
       <c r="I102" s="3">
-        <v>442000</v>
+        <v>421200</v>
       </c>
       <c r="J102" s="3">
-        <v>166800</v>
+        <v>158900</v>
       </c>
       <c r="K102" s="3">
         <v>240100</v>

--- a/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KUBTY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18403200</v>
+        <v>17787000</v>
       </c>
       <c r="E8" s="3">
-        <v>15091800</v>
+        <v>14586500</v>
       </c>
       <c r="F8" s="3">
-        <v>12731700</v>
+        <v>12305500</v>
       </c>
       <c r="G8" s="3">
-        <v>13190700</v>
+        <v>12749100</v>
       </c>
       <c r="H8" s="3">
-        <v>12711700</v>
+        <v>12286100</v>
       </c>
       <c r="I8" s="3">
-        <v>12029600</v>
+        <v>11626900</v>
       </c>
       <c r="J8" s="3">
-        <v>10965100</v>
+        <v>10598000</v>
       </c>
       <c r="K8" s="3">
         <v>8825500</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13618000</v>
+        <v>13162100</v>
       </c>
       <c r="E9" s="3">
-        <v>10751300</v>
+        <v>10391300</v>
       </c>
       <c r="F9" s="3">
-        <v>9057300</v>
+        <v>8754100</v>
       </c>
       <c r="G9" s="3">
-        <v>9344000</v>
+        <v>9031200</v>
       </c>
       <c r="H9" s="3">
-        <v>9088500</v>
+        <v>8784300</v>
       </c>
       <c r="I9" s="3">
-        <v>17032500</v>
+        <v>16462300</v>
       </c>
       <c r="J9" s="3">
-        <v>7711900</v>
+        <v>7453700</v>
       </c>
       <c r="K9" s="3">
         <v>6015100</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4785100</v>
+        <v>4624900</v>
       </c>
       <c r="E10" s="3">
-        <v>4340500</v>
+        <v>4195200</v>
       </c>
       <c r="F10" s="3">
-        <v>3674400</v>
+        <v>3551400</v>
       </c>
       <c r="G10" s="3">
-        <v>3846700</v>
+        <v>3717900</v>
       </c>
       <c r="H10" s="3">
-        <v>3623100</v>
+        <v>3501800</v>
       </c>
       <c r="I10" s="3">
-        <v>-5002900</v>
+        <v>-4835400</v>
       </c>
       <c r="J10" s="3">
-        <v>3253300</v>
+        <v>3144300</v>
       </c>
       <c r="K10" s="3">
         <v>2810300</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="E14" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F14" s="3">
-        <v>-9700</v>
+        <v>-9400</v>
       </c>
       <c r="G14" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="H14" s="3">
-        <v>-13700</v>
+        <v>-13300</v>
       </c>
       <c r="I14" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="J14" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K14" s="3">
         <v>31900</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16899000</v>
+        <v>16333300</v>
       </c>
       <c r="E17" s="3">
-        <v>13411600</v>
+        <v>12962600</v>
       </c>
       <c r="F17" s="3">
-        <v>11527500</v>
+        <v>11141600</v>
       </c>
       <c r="G17" s="3">
-        <v>11805300</v>
+        <v>11410100</v>
       </c>
       <c r="H17" s="3">
-        <v>11411100</v>
+        <v>11029100</v>
       </c>
       <c r="I17" s="3">
-        <v>10656000</v>
+        <v>10299200</v>
       </c>
       <c r="J17" s="3">
-        <v>9668200</v>
+        <v>9344600</v>
       </c>
       <c r="K17" s="3">
         <v>7642300</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1504100</v>
+        <v>1453800</v>
       </c>
       <c r="E18" s="3">
-        <v>1680200</v>
+        <v>1623900</v>
       </c>
       <c r="F18" s="3">
-        <v>1204200</v>
+        <v>1163900</v>
       </c>
       <c r="G18" s="3">
-        <v>1385400</v>
+        <v>1339000</v>
       </c>
       <c r="H18" s="3">
-        <v>1300600</v>
+        <v>1257000</v>
       </c>
       <c r="I18" s="3">
-        <v>1373700</v>
+        <v>1327700</v>
       </c>
       <c r="J18" s="3">
-        <v>1296900</v>
+        <v>1253500</v>
       </c>
       <c r="K18" s="3">
         <v>1183100</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>114000</v>
+        <v>110100</v>
       </c>
       <c r="E20" s="3">
-        <v>50500</v>
+        <v>48800</v>
       </c>
       <c r="F20" s="3">
-        <v>80100</v>
+        <v>77400</v>
       </c>
       <c r="G20" s="3">
-        <v>57900</v>
+        <v>55900</v>
       </c>
       <c r="H20" s="3">
-        <v>61500</v>
+        <v>59500</v>
       </c>
       <c r="I20" s="3">
-        <v>102900</v>
+        <v>99400</v>
       </c>
       <c r="J20" s="3">
-        <v>59700</v>
+        <v>57700</v>
       </c>
       <c r="K20" s="3">
         <v>23600</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2203500</v>
+        <v>2127200</v>
       </c>
       <c r="E21" s="3">
-        <v>2223200</v>
+        <v>2146600</v>
       </c>
       <c r="F21" s="3">
-        <v>1746900</v>
+        <v>1686400</v>
       </c>
       <c r="G21" s="3">
-        <v>1870800</v>
+        <v>1806300</v>
       </c>
       <c r="H21" s="3">
-        <v>1703000</v>
+        <v>1644500</v>
       </c>
       <c r="I21" s="3">
-        <v>1786600</v>
+        <v>1725400</v>
       </c>
       <c r="J21" s="3">
-        <v>1654600</v>
+        <v>1597900</v>
       </c>
       <c r="K21" s="3">
         <v>1419800</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="E22" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="F22" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="G22" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="H22" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="I22" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="J22" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K22" s="3">
         <v>4900</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1607100</v>
+        <v>1553300</v>
       </c>
       <c r="E23" s="3">
-        <v>1723800</v>
+        <v>1666100</v>
       </c>
       <c r="F23" s="3">
-        <v>1277100</v>
+        <v>1234400</v>
       </c>
       <c r="G23" s="3">
-        <v>1436000</v>
+        <v>1387900</v>
       </c>
       <c r="H23" s="3">
-        <v>1355000</v>
+        <v>1309600</v>
       </c>
       <c r="I23" s="3">
-        <v>1470200</v>
+        <v>1421000</v>
       </c>
       <c r="J23" s="3">
-        <v>1353200</v>
+        <v>1307900</v>
       </c>
       <c r="K23" s="3">
         <v>1201800</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>406400</v>
+        <v>392700</v>
       </c>
       <c r="E24" s="3">
-        <v>444900</v>
+        <v>430000</v>
       </c>
       <c r="F24" s="3">
-        <v>323100</v>
+        <v>312300</v>
       </c>
       <c r="G24" s="3">
-        <v>364100</v>
+        <v>351900</v>
       </c>
       <c r="H24" s="3">
-        <v>337400</v>
+        <v>326200</v>
       </c>
       <c r="I24" s="3">
-        <v>431200</v>
+        <v>416700</v>
       </c>
       <c r="J24" s="3">
-        <v>388500</v>
+        <v>375500</v>
       </c>
       <c r="K24" s="3">
         <v>384700</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1200700</v>
+        <v>1160500</v>
       </c>
       <c r="E26" s="3">
-        <v>1278900</v>
+        <v>1236100</v>
       </c>
       <c r="F26" s="3">
-        <v>954100</v>
+        <v>922100</v>
       </c>
       <c r="G26" s="3">
-        <v>1071900</v>
+        <v>1036000</v>
       </c>
       <c r="H26" s="3">
-        <v>1017500</v>
+        <v>983500</v>
       </c>
       <c r="I26" s="3">
-        <v>1039100</v>
+        <v>1004300</v>
       </c>
       <c r="J26" s="3">
-        <v>964700</v>
+        <v>932400</v>
       </c>
       <c r="K26" s="3">
         <v>817100</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1073000</v>
+        <v>1037000</v>
       </c>
       <c r="E27" s="3">
-        <v>1221500</v>
+        <v>1180600</v>
       </c>
       <c r="F27" s="3">
-        <v>882900</v>
+        <v>853400</v>
       </c>
       <c r="G27" s="3">
-        <v>1024000</v>
+        <v>989700</v>
       </c>
       <c r="H27" s="3">
-        <v>952100</v>
+        <v>920300</v>
       </c>
       <c r="I27" s="3">
-        <v>948300</v>
+        <v>916600</v>
       </c>
       <c r="J27" s="3">
-        <v>910200</v>
+        <v>879700</v>
       </c>
       <c r="K27" s="3">
         <v>780700</v>
@@ -1549,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-71600</v>
+        <v>-69200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-114000</v>
+        <v>-110100</v>
       </c>
       <c r="E32" s="3">
-        <v>-50500</v>
+        <v>-48800</v>
       </c>
       <c r="F32" s="3">
-        <v>-80100</v>
+        <v>-77400</v>
       </c>
       <c r="G32" s="3">
-        <v>-57900</v>
+        <v>-55900</v>
       </c>
       <c r="H32" s="3">
-        <v>-61500</v>
+        <v>-59500</v>
       </c>
       <c r="I32" s="3">
-        <v>-102900</v>
+        <v>-99400</v>
       </c>
       <c r="J32" s="3">
-        <v>-59700</v>
+        <v>-57700</v>
       </c>
       <c r="K32" s="3">
         <v>-23600</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1073000</v>
+        <v>1037000</v>
       </c>
       <c r="E33" s="3">
-        <v>1221500</v>
+        <v>1180600</v>
       </c>
       <c r="F33" s="3">
-        <v>882900</v>
+        <v>853400</v>
       </c>
       <c r="G33" s="3">
-        <v>1024000</v>
+        <v>989700</v>
       </c>
       <c r="H33" s="3">
-        <v>952100</v>
+        <v>920300</v>
       </c>
       <c r="I33" s="3">
-        <v>876800</v>
+        <v>847400</v>
       </c>
       <c r="J33" s="3">
-        <v>910200</v>
+        <v>879700</v>
       </c>
       <c r="K33" s="3">
         <v>780700</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1073000</v>
+        <v>1037000</v>
       </c>
       <c r="E35" s="3">
-        <v>1221500</v>
+        <v>1180600</v>
       </c>
       <c r="F35" s="3">
-        <v>882900</v>
+        <v>853400</v>
       </c>
       <c r="G35" s="3">
-        <v>1024000</v>
+        <v>989700</v>
       </c>
       <c r="H35" s="3">
-        <v>952100</v>
+        <v>920300</v>
       </c>
       <c r="I35" s="3">
-        <v>876800</v>
+        <v>847400</v>
       </c>
       <c r="J35" s="3">
-        <v>910200</v>
+        <v>879700</v>
       </c>
       <c r="K35" s="3">
         <v>780700</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2797600</v>
+        <v>2703900</v>
       </c>
       <c r="E41" s="3">
-        <v>3203600</v>
+        <v>3096400</v>
       </c>
       <c r="F41" s="3">
-        <v>1531500</v>
+        <v>1480200</v>
       </c>
       <c r="G41" s="3">
-        <v>1371700</v>
+        <v>1325800</v>
       </c>
       <c r="H41" s="3">
-        <v>1574100</v>
+        <v>1521400</v>
       </c>
       <c r="I41" s="3">
-        <v>3170100</v>
+        <v>3064000</v>
       </c>
       <c r="J41" s="3">
-        <v>1163900</v>
+        <v>1124900</v>
       </c>
       <c r="K41" s="3">
         <v>1037200</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>796200</v>
+        <v>769500</v>
       </c>
       <c r="E42" s="3">
-        <v>699600</v>
+        <v>676200</v>
       </c>
       <c r="F42" s="3">
-        <v>343300</v>
+        <v>331800</v>
       </c>
       <c r="G42" s="3">
-        <v>494400</v>
+        <v>477900</v>
       </c>
       <c r="H42" s="3">
-        <v>373500</v>
+        <v>361000</v>
       </c>
       <c r="I42" s="3">
-        <v>366000</v>
+        <v>353800</v>
       </c>
       <c r="J42" s="3">
-        <v>41900</v>
+        <v>40500</v>
       </c>
       <c r="K42" s="3">
         <v>53800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14222000</v>
+        <v>13745800</v>
       </c>
       <c r="E43" s="3">
-        <v>6792500</v>
+        <v>6565100</v>
       </c>
       <c r="F43" s="3">
-        <v>6316000</v>
+        <v>6104500</v>
       </c>
       <c r="G43" s="3">
-        <v>6751900</v>
+        <v>6525900</v>
       </c>
       <c r="H43" s="3">
-        <v>6403400</v>
+        <v>6189000</v>
       </c>
       <c r="I43" s="3">
-        <v>16917700</v>
+        <v>16351300</v>
       </c>
       <c r="J43" s="3">
-        <v>6025000</v>
+        <v>5823300</v>
       </c>
       <c r="K43" s="3">
         <v>6038400</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8855000</v>
+        <v>8558600</v>
       </c>
       <c r="E44" s="3">
-        <v>3504100</v>
+        <v>3386800</v>
       </c>
       <c r="F44" s="3">
-        <v>2569400</v>
+        <v>2483300</v>
       </c>
       <c r="G44" s="3">
-        <v>2627100</v>
+        <v>2539100</v>
       </c>
       <c r="H44" s="3">
-        <v>2546700</v>
+        <v>2461400</v>
       </c>
       <c r="I44" s="3">
-        <v>4955800</v>
+        <v>4789900</v>
       </c>
       <c r="J44" s="3">
-        <v>2447000</v>
+        <v>2365000</v>
       </c>
       <c r="K44" s="3">
         <v>5054300</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>379400</v>
+        <v>366700</v>
       </c>
       <c r="E45" s="3">
-        <v>406100</v>
+        <v>392500</v>
       </c>
       <c r="F45" s="3">
-        <v>496700</v>
+        <v>480100</v>
       </c>
       <c r="G45" s="3">
-        <v>563600</v>
+        <v>544700</v>
       </c>
       <c r="H45" s="3">
-        <v>365800</v>
+        <v>353600</v>
       </c>
       <c r="I45" s="3">
-        <v>1129400</v>
+        <v>1091600</v>
       </c>
       <c r="J45" s="3">
-        <v>1060600</v>
+        <v>1025100</v>
       </c>
       <c r="K45" s="3">
         <v>1880900</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15717000</v>
+        <v>15190900</v>
       </c>
       <c r="E46" s="3">
-        <v>12829100</v>
+        <v>12399600</v>
       </c>
       <c r="F46" s="3">
-        <v>11256800</v>
+        <v>10879900</v>
       </c>
       <c r="G46" s="3">
-        <v>11808700</v>
+        <v>11413400</v>
       </c>
       <c r="H46" s="3">
-        <v>11263500</v>
+        <v>10886400</v>
       </c>
       <c r="I46" s="3">
-        <v>11049900</v>
+        <v>10679900</v>
       </c>
       <c r="J46" s="3">
-        <v>10738300</v>
+        <v>10378800</v>
       </c>
       <c r="K46" s="3">
         <v>10570100</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1456000</v>
+        <v>1407200</v>
       </c>
       <c r="E47" s="3">
-        <v>1364000</v>
+        <v>1318400</v>
       </c>
       <c r="F47" s="3">
-        <v>1200200</v>
+        <v>1160100</v>
       </c>
       <c r="G47" s="3">
-        <v>1254900</v>
+        <v>1212900</v>
       </c>
       <c r="H47" s="3">
-        <v>1249000</v>
+        <v>1207200</v>
       </c>
       <c r="I47" s="3">
-        <v>1971400</v>
+        <v>1905400</v>
       </c>
       <c r="J47" s="3">
-        <v>464500</v>
+        <v>448900</v>
       </c>
       <c r="K47" s="3">
         <v>629500</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8793200</v>
+        <v>8498800</v>
       </c>
       <c r="E48" s="3">
-        <v>3409700</v>
+        <v>3295500</v>
       </c>
       <c r="F48" s="3">
-        <v>2917500</v>
+        <v>2819800</v>
       </c>
       <c r="G48" s="3">
-        <v>2784700</v>
+        <v>2691500</v>
       </c>
       <c r="H48" s="3">
-        <v>2267300</v>
+        <v>2191400</v>
       </c>
       <c r="I48" s="3">
-        <v>6716900</v>
+        <v>6492100</v>
       </c>
       <c r="J48" s="3">
-        <v>2158800</v>
+        <v>2086500</v>
       </c>
       <c r="K48" s="3">
         <v>2026800</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4105900</v>
+        <v>3968500</v>
       </c>
       <c r="E49" s="3">
-        <v>658700</v>
+        <v>636700</v>
       </c>
       <c r="F49" s="3">
-        <v>498300</v>
+        <v>481700</v>
       </c>
       <c r="G49" s="3">
-        <v>419000</v>
+        <v>404900</v>
       </c>
       <c r="H49" s="3">
-        <v>343100</v>
+        <v>331700</v>
       </c>
       <c r="I49" s="3">
-        <v>974000</v>
+        <v>941400</v>
       </c>
       <c r="J49" s="3">
-        <v>316400</v>
+        <v>305800</v>
       </c>
       <c r="K49" s="3">
         <v>417300</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8946200</v>
+        <v>8646700</v>
       </c>
       <c r="E52" s="3">
-        <v>7663500</v>
+        <v>7406900</v>
       </c>
       <c r="F52" s="3">
-        <v>6037700</v>
+        <v>5835600</v>
       </c>
       <c r="G52" s="3">
-        <v>5299800</v>
+        <v>5122300</v>
       </c>
       <c r="H52" s="3">
-        <v>4770100</v>
+        <v>4610400</v>
       </c>
       <c r="I52" s="3">
-        <v>9787100</v>
+        <v>9459500</v>
       </c>
       <c r="J52" s="3">
-        <v>4668900</v>
+        <v>4512600</v>
       </c>
       <c r="K52" s="3">
         <v>4710600</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32735900</v>
+        <v>31640000</v>
       </c>
       <c r="E54" s="3">
-        <v>25925000</v>
+        <v>25057100</v>
       </c>
       <c r="F54" s="3">
-        <v>21910600</v>
+        <v>21177100</v>
       </c>
       <c r="G54" s="3">
-        <v>21567100</v>
+        <v>20845100</v>
       </c>
       <c r="H54" s="3">
-        <v>19893100</v>
+        <v>19227100</v>
       </c>
       <c r="I54" s="3">
-        <v>19458300</v>
+        <v>18806900</v>
       </c>
       <c r="J54" s="3">
-        <v>18346900</v>
+        <v>17732700</v>
       </c>
       <c r="K54" s="3">
         <v>17958400</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6248700</v>
+        <v>6039500</v>
       </c>
       <c r="E57" s="3">
-        <v>2695300</v>
+        <v>2605100</v>
       </c>
       <c r="F57" s="3">
-        <v>2223200</v>
+        <v>2148800</v>
       </c>
       <c r="G57" s="3">
-        <v>2018200</v>
+        <v>1950700</v>
       </c>
       <c r="H57" s="3">
-        <v>2107400</v>
+        <v>2036900</v>
       </c>
       <c r="I57" s="3">
-        <v>3931300</v>
+        <v>3799700</v>
       </c>
       <c r="J57" s="3">
-        <v>1757800</v>
+        <v>1698900</v>
       </c>
       <c r="K57" s="3">
         <v>1845800</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8805800</v>
+        <v>8511000</v>
       </c>
       <c r="E58" s="3">
-        <v>3464800</v>
+        <v>3348800</v>
       </c>
       <c r="F58" s="3">
-        <v>2514700</v>
+        <v>2430500</v>
       </c>
       <c r="G58" s="3">
-        <v>2655500</v>
+        <v>2566600</v>
       </c>
       <c r="H58" s="3">
-        <v>2402200</v>
+        <v>2321700</v>
       </c>
       <c r="I58" s="3">
-        <v>7500700</v>
+        <v>7249600</v>
       </c>
       <c r="J58" s="3">
-        <v>2329600</v>
+        <v>2251600</v>
       </c>
       <c r="K58" s="3">
         <v>2441300</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3351900</v>
+        <v>3239700</v>
       </c>
       <c r="E59" s="3">
-        <v>2865300</v>
+        <v>2769400</v>
       </c>
       <c r="F59" s="3">
-        <v>2313700</v>
+        <v>2236200</v>
       </c>
       <c r="G59" s="3">
-        <v>2208200</v>
+        <v>2134300</v>
       </c>
       <c r="H59" s="3">
-        <v>1830200</v>
+        <v>1768900</v>
       </c>
       <c r="I59" s="3">
-        <v>3953900</v>
+        <v>3821500</v>
       </c>
       <c r="J59" s="3">
-        <v>1660200</v>
+        <v>1604600</v>
       </c>
       <c r="K59" s="3">
         <v>1480200</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10879200</v>
+        <v>10514900</v>
       </c>
       <c r="E60" s="3">
-        <v>9025400</v>
+        <v>8723200</v>
       </c>
       <c r="F60" s="3">
-        <v>7051500</v>
+        <v>6815500</v>
       </c>
       <c r="G60" s="3">
-        <v>6882000</v>
+        <v>6651600</v>
       </c>
       <c r="H60" s="3">
-        <v>6339800</v>
+        <v>6127500</v>
       </c>
       <c r="I60" s="3">
-        <v>6302900</v>
+        <v>6091900</v>
       </c>
       <c r="J60" s="3">
-        <v>5747500</v>
+        <v>5555100</v>
       </c>
       <c r="K60" s="3">
         <v>5728000</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6665400</v>
+        <v>6442200</v>
       </c>
       <c r="E61" s="3">
-        <v>4054500</v>
+        <v>3918800</v>
       </c>
       <c r="F61" s="3">
-        <v>3492700</v>
+        <v>3375800</v>
       </c>
       <c r="G61" s="3">
-        <v>3548000</v>
+        <v>3429200</v>
       </c>
       <c r="H61" s="3">
-        <v>3377000</v>
+        <v>3264000</v>
       </c>
       <c r="I61" s="3">
-        <v>3245500</v>
+        <v>3136900</v>
       </c>
       <c r="J61" s="3">
-        <v>3290000</v>
+        <v>3179900</v>
       </c>
       <c r="K61" s="3">
         <v>3008800</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>747300</v>
+        <v>722300</v>
       </c>
       <c r="E62" s="3">
-        <v>581400</v>
+        <v>562000</v>
       </c>
       <c r="F62" s="3">
-        <v>551700</v>
+        <v>533200</v>
       </c>
       <c r="G62" s="3">
-        <v>576500</v>
+        <v>557200</v>
       </c>
       <c r="H62" s="3">
-        <v>376700</v>
+        <v>364100</v>
       </c>
       <c r="I62" s="3">
-        <v>1013600</v>
+        <v>979700</v>
       </c>
       <c r="J62" s="3">
-        <v>571200</v>
+        <v>552100</v>
       </c>
       <c r="K62" s="3">
         <v>582100</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19858200</v>
+        <v>19193300</v>
       </c>
       <c r="E66" s="3">
-        <v>14396900</v>
+        <v>13914900</v>
       </c>
       <c r="F66" s="3">
-        <v>11770200</v>
+        <v>11376200</v>
       </c>
       <c r="G66" s="3">
-        <v>11654800</v>
+        <v>11264600</v>
       </c>
       <c r="H66" s="3">
-        <v>10688400</v>
+        <v>10330500</v>
       </c>
       <c r="I66" s="3">
-        <v>10588500</v>
+        <v>10234000</v>
       </c>
       <c r="J66" s="3">
-        <v>10111400</v>
+        <v>9772900</v>
       </c>
       <c r="K66" s="3">
         <v>9873600</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10505900</v>
+        <v>10154200</v>
       </c>
       <c r="E72" s="3">
-        <v>9890300</v>
+        <v>9559100</v>
       </c>
       <c r="F72" s="3">
-        <v>9108000</v>
+        <v>8803100</v>
       </c>
       <c r="G72" s="3">
-        <v>8510700</v>
+        <v>8225800</v>
       </c>
       <c r="H72" s="3">
-        <v>7800200</v>
+        <v>7539000</v>
       </c>
       <c r="I72" s="3">
-        <v>14468100</v>
+        <v>13983700</v>
       </c>
       <c r="J72" s="3">
-        <v>6739100</v>
+        <v>6513500</v>
       </c>
       <c r="K72" s="3">
         <v>6305200</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12877700</v>
+        <v>12446600</v>
       </c>
       <c r="E76" s="3">
-        <v>11528100</v>
+        <v>11142200</v>
       </c>
       <c r="F76" s="3">
-        <v>10140400</v>
+        <v>9800900</v>
       </c>
       <c r="G76" s="3">
-        <v>9912300</v>
+        <v>9580400</v>
       </c>
       <c r="H76" s="3">
-        <v>9204800</v>
+        <v>8896600</v>
       </c>
       <c r="I76" s="3">
-        <v>8869800</v>
+        <v>8572900</v>
       </c>
       <c r="J76" s="3">
-        <v>8235500</v>
+        <v>7959800</v>
       </c>
       <c r="K76" s="3">
         <v>8084800</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1073000</v>
+        <v>1037000</v>
       </c>
       <c r="E81" s="3">
-        <v>1221500</v>
+        <v>1180600</v>
       </c>
       <c r="F81" s="3">
-        <v>882900</v>
+        <v>853400</v>
       </c>
       <c r="G81" s="3">
-        <v>1024000</v>
+        <v>989700</v>
       </c>
       <c r="H81" s="3">
-        <v>952100</v>
+        <v>920300</v>
       </c>
       <c r="I81" s="3">
-        <v>876800</v>
+        <v>847400</v>
       </c>
       <c r="J81" s="3">
-        <v>910200</v>
+        <v>879700</v>
       </c>
       <c r="K81" s="3">
         <v>780700</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>585400</v>
+        <v>565800</v>
       </c>
       <c r="E83" s="3">
-        <v>492600</v>
+        <v>476100</v>
       </c>
       <c r="F83" s="3">
-        <v>462600</v>
+        <v>447100</v>
       </c>
       <c r="G83" s="3">
-        <v>427600</v>
+        <v>413300</v>
       </c>
       <c r="H83" s="3">
-        <v>340900</v>
+        <v>329500</v>
       </c>
       <c r="I83" s="3">
-        <v>310100</v>
+        <v>299700</v>
       </c>
       <c r="J83" s="3">
-        <v>298000</v>
+        <v>288000</v>
       </c>
       <c r="K83" s="3">
         <v>221200</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-52800</v>
+        <v>-51000</v>
       </c>
       <c r="E89" s="3">
-        <v>635600</v>
+        <v>614300</v>
       </c>
       <c r="F89" s="3">
-        <v>981900</v>
+        <v>949000</v>
       </c>
       <c r="G89" s="3">
-        <v>566200</v>
+        <v>547200</v>
       </c>
       <c r="H89" s="3">
-        <v>612400</v>
+        <v>591900</v>
       </c>
       <c r="I89" s="3">
-        <v>942500</v>
+        <v>910900</v>
       </c>
       <c r="J89" s="3">
-        <v>1270800</v>
+        <v>1228300</v>
       </c>
       <c r="K89" s="3">
         <v>1397000</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-924500</v>
+        <v>-893500</v>
       </c>
       <c r="E91" s="3">
-        <v>-669400</v>
+        <v>-647000</v>
       </c>
       <c r="F91" s="3">
-        <v>-418500</v>
+        <v>-404500</v>
       </c>
       <c r="G91" s="3">
-        <v>-523800</v>
+        <v>-506300</v>
       </c>
       <c r="H91" s="3">
-        <v>-435500</v>
+        <v>-420900</v>
       </c>
       <c r="I91" s="3">
-        <v>-844100</v>
+        <v>-815900</v>
       </c>
       <c r="J91" s="3">
-        <v>-385700</v>
+        <v>-372800</v>
       </c>
       <c r="K91" s="3">
         <v>-278400</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2188100</v>
+        <v>-2114800</v>
       </c>
       <c r="E94" s="3">
-        <v>-875000</v>
+        <v>-845700</v>
       </c>
       <c r="F94" s="3">
-        <v>-323800</v>
+        <v>-313000</v>
       </c>
       <c r="G94" s="3">
-        <v>-628400</v>
+        <v>-607400</v>
       </c>
       <c r="H94" s="3">
-        <v>-403700</v>
+        <v>-390100</v>
       </c>
       <c r="I94" s="3">
-        <v>-315900</v>
+        <v>-305300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1150900</v>
+        <v>-1112400</v>
       </c>
       <c r="K94" s="3">
         <v>-923900</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-353600</v>
+        <v>-341700</v>
       </c>
       <c r="E96" s="3">
-        <v>-332000</v>
+        <v>-320900</v>
       </c>
       <c r="F96" s="3">
-        <v>-301300</v>
+        <v>-291200</v>
       </c>
       <c r="G96" s="3">
-        <v>-295900</v>
+        <v>-286000</v>
       </c>
       <c r="H96" s="3">
-        <v>-279600</v>
+        <v>-270200</v>
       </c>
       <c r="I96" s="3">
-        <v>-264000</v>
+        <v>-255100</v>
       </c>
       <c r="J96" s="3">
-        <v>-239300</v>
+        <v>-231300</v>
       </c>
       <c r="K96" s="3">
         <v>-264900</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1941200</v>
+        <v>1876200</v>
       </c>
       <c r="E100" s="3">
-        <v>416200</v>
+        <v>402300</v>
       </c>
       <c r="F100" s="3">
-        <v>-469600</v>
+        <v>-453900</v>
       </c>
       <c r="G100" s="3">
-        <v>-147800</v>
+        <v>-142900</v>
       </c>
       <c r="H100" s="3">
-        <v>-191100</v>
+        <v>-184700</v>
       </c>
       <c r="I100" s="3">
-        <v>-223800</v>
+        <v>-216300</v>
       </c>
       <c r="J100" s="3">
-        <v>78100</v>
+        <v>75500</v>
       </c>
       <c r="K100" s="3">
         <v>-196200</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>74100</v>
+        <v>71600</v>
       </c>
       <c r="E101" s="3">
-        <v>68700</v>
+        <v>66400</v>
       </c>
       <c r="F101" s="3">
-        <v>-28700</v>
+        <v>-27700</v>
       </c>
       <c r="G101" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="H101" s="3">
-        <v>-28700</v>
+        <v>-27700</v>
       </c>
       <c r="I101" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="J101" s="3">
-        <v>-39100</v>
+        <v>-37800</v>
       </c>
       <c r="K101" s="3">
         <v>-36900</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-225600</v>
+        <v>-218100</v>
       </c>
       <c r="E102" s="3">
-        <v>245400</v>
+        <v>237200</v>
       </c>
       <c r="F102" s="3">
-        <v>159800</v>
+        <v>154400</v>
       </c>
       <c r="G102" s="3">
-        <v>-202400</v>
+        <v>-195600</v>
       </c>
       <c r="H102" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="I102" s="3">
-        <v>421200</v>
+        <v>407100</v>
       </c>
       <c r="J102" s="3">
-        <v>158900</v>
+        <v>153600</v>
       </c>
       <c r="K102" s="3">
         <v>240100</v>
